--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E1E9531-0C91-4E6F-8F08-38ED49CE0F20}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB1A7F-1643-4969-931C-BCA6F62C32A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1383,7 +1383,7 @@
     <t>operating_profit+other_income+Revenue_from_Service+Other_Operating_Revenue+Subsidy_Income+Financial_Income+Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+Income_Loss_from_Discontinued_Operations+Group_Contribution_Received+Non_Operating_Income-depreciation-selling_expenses-administration_costs-Advertising_expense-Services-Auditors_Fee-Management_Expenses-Legal_Professional_Charges-Other_General_Expense-Repair_of_Machinery-Personal_costs-Group_Contribution_Paid-Suppliers_And_External_Services-Impairment_Of_Investments_Not_Depreciable_Amortizable</t>
   </si>
   <si>
-    <t xml:space="preserve">net_revenue +other_income+Revenue_from_Service+Other_Operating_Revenue+ Subsidy_Income+ Financial_Income+ Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+ Income_Loss_from_Discontinued_Operations+ Group_Contribution_Received+ Non_Operating_Income- total_cost_of_materials_consumed - Power_Fuel-total_purchases_of_stock_in_trade - total_changes_in_inventories_or_finished_goods - total_employee_benefit_expense - total_other_expenses - depreciation- selling_expenses - administration_costs - Advertising_expense- Services- Auditors_Fee- Management_Expenses- Legal_Professional_Charges - Other_General_Expense- Repair_of_Machinery-Personal_costs - Group_Contribution_Paid- Suppliers_And_External_Services- Impairment_Of_Investments_Not_Depreciable_Amortizable- interest - Other_Financial_Expenses + exceptional_items_before_tax  - income_tax - Current_Tax-Deferred_Tax -Advance_Tax-Other_Tax_Expenses+ profit_for_period_from_continuing_operations + profit_from_discontinuing_operation_after_tax + profit_after_tax </t>
+    <t xml:space="preserve">net_revenue +other_income+Revenue_from_Service+Other_Operating_Revenue+ Subsidy_Income+ Financial_Income+ Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+ Income_Loss_from_Discontinued_Operations+ Group_Contribution_Received+ Non_Operating_Income- total_cost_of_materials_consumed - Power_Fuel-total_purchases_of_stock_in_trade - total_changes_in_inventories_or_finished_goods - total_employee_benefit_expense - total_other_expenses - depreciation- selling_expenses - administration_costs - Advertising_expense- Services- Auditors_Fee- Management_Expenses- Legal_Professional_Charges - Other_General_Expense- Repair_of_Machinery-Personal_costs - Group_Contribution_Paid- Suppliers_And_External_Services- Impairment_Of_Investments_Not_Depreciable_Amortizable- interest - Other_Financial_Expenses + exceptional_items_before_tax  - income_tax - Current_Tax-Deferred_Tax -Advance_Tax-Other_Tax_Expenses+ profit_for_period_from_continuing_operations + profit_from_discontinuing_operation_after_tax - profit_after_tax </t>
   </si>
 </sst>
 </file>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71EB1A7F-1643-4969-931C-BCA6F62C32A0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33411C6-156A-4708-B299-D854079892B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="447">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1330,21 +1330,6 @@
   </si>
   <si>
     <t>profit_before_tax+profit_for_period_from_continuing_operations+profit_from_discontinuing_operation_after_tax-income_tax-Current_Tax-Deferred_Tax-Advance_Tax-Other_Tax_Expenses</t>
-  </si>
-  <si>
-    <t>Profit for period from continuing operations</t>
-  </si>
-  <si>
-    <t>Profit from discontinuing operation after tax</t>
-  </si>
-  <si>
-    <t>Current Tax</t>
-  </si>
-  <si>
-    <t>Advance Tax</t>
-  </si>
-  <si>
-    <t>Other Tax Expenses</t>
   </si>
   <si>
     <t>State_and_other_public_entities</t>
@@ -1798,8 +1783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H262"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A262" workbookViewId="0">
-      <selection activeCell="D262" sqref="D262"/>
+    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
+      <selection activeCell="A196" sqref="A196"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2106,7 +2091,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>445</v>
+        <v>440</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>135</v>
@@ -2181,7 +2166,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>446</v>
+        <v>441</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -2359,7 +2344,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>441</v>
+        <v>436</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
@@ -2756,7 +2741,7 @@
         <v>136</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
@@ -3187,7 +3172,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>439</v>
+        <v>434</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>135</v>
@@ -3233,7 +3218,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>135</v>
@@ -5060,13 +5045,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>443</v>
+        <v>438</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5087,7 +5072,7 @@
         <v>136</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5119,7 +5104,7 @@
         <v>136</v>
       </c>
       <c r="C151" s="9" t="s">
-        <v>442</v>
+        <v>437</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -5935,7 +5920,7 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>135</v>
@@ -5981,7 +5966,7 @@
         <v>136</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6881,7 +6866,7 @@
         <v>136</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>450</v>
+        <v>445</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
@@ -7161,7 +7146,7 @@
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>434</v>
+        <v>29</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7181,7 +7166,7 @@
         <v>135</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>435</v>
+        <v>29</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7201,7 +7186,7 @@
         <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>436</v>
+        <v>29</v>
       </c>
       <c r="D257" t="s">
         <v>134</v>
@@ -7221,7 +7206,7 @@
         <v>135</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>164</v>
+        <v>29</v>
       </c>
       <c r="D258" t="s">
         <v>134</v>
@@ -7241,7 +7226,7 @@
         <v>135</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>437</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
         <v>134</v>
@@ -7261,7 +7246,7 @@
         <v>135</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>134</v>
@@ -7301,7 +7286,7 @@
         <v>136</v>
       </c>
       <c r="C262" s="11" t="s">
-        <v>451</v>
+        <v>446</v>
       </c>
       <c r="D262" t="s">
         <v>134</v>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E33411C6-156A-4708-B299-D854079892B3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4841B725-2E51-4818-A85B-95C7D8B788BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$232</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$235</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1647" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="454">
   <si>
     <t>Field_Name</t>
   </si>
@@ -915,9 +915,6 @@
     <t>investments_and_other_financial_assets_current</t>
   </si>
   <si>
-    <t>interest_bearing_liabilities+interest_bearing_liabilities_including_lease_liabilities+financial_liabilities</t>
-  </si>
-  <si>
     <t>investment+investments_and_other_financial_assets_current</t>
   </si>
   <si>
@@ -1221,9 +1218,6 @@
     <t>Repairs and maintenance expense</t>
   </si>
   <si>
-    <t>depreciation_and_amortisation_expenses+depreciation_and_amortisation_expense+depreciation_and_impairment_expenses+depreciation_and_impairment_expense+depreciation_property_plant_and_equipment+depreciation_ROU_assets</t>
-  </si>
-  <si>
     <t>depreciation_and_amortisation_expenses</t>
   </si>
   <si>
@@ -1356,9 +1350,6 @@
     <t>goodwill_and_intangible_assets+Intangible_assets+intangibles+goodwill</t>
   </si>
   <si>
-    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent</t>
-  </si>
-  <si>
     <t>Other_income</t>
   </si>
   <si>
@@ -1369,6 +1360,36 @@
   </si>
   <si>
     <t xml:space="preserve">net_revenue +other_income+Revenue_from_Service+Other_Operating_Revenue+ Subsidy_Income+ Financial_Income+ Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+ Income_Loss_from_Discontinued_Operations+ Group_Contribution_Received+ Non_Operating_Income- total_cost_of_materials_consumed - Power_Fuel-total_purchases_of_stock_in_trade - total_changes_in_inventories_or_finished_goods - total_employee_benefit_expense - total_other_expenses - depreciation- selling_expenses - administration_costs - Advertising_expense- Services- Auditors_Fee- Management_Expenses- Legal_Professional_Charges - Other_General_Expense- Repair_of_Machinery-Personal_costs - Group_Contribution_Paid- Suppliers_And_External_Services- Impairment_Of_Investments_Not_Depreciable_Amortizable- interest - Other_Financial_Expenses + exceptional_items_before_tax  - income_tax - Current_Tax-Deferred_Tax -Advance_Tax-Other_Tax_Expenses+ profit_for_period_from_continuing_operations + profit_from_discontinuing_operation_after_tax - profit_after_tax </t>
+  </si>
+  <si>
+    <t>Assets held for sale</t>
+  </si>
+  <si>
+    <t>Assets_held_for_sale</t>
+  </si>
+  <si>
+    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Assets_held_for_sale</t>
+  </si>
+  <si>
+    <t>Related Party Loans</t>
+  </si>
+  <si>
+    <t>Related_Party_Loans</t>
+  </si>
+  <si>
+    <t>interest_bearing_liabilities+interest_bearing_liabilities_including_lease_liabilities+financial_liabilities+Related_Party_Loans</t>
+  </si>
+  <si>
+    <t>Changes in inventories of finished goods</t>
+  </si>
+  <si>
+    <t>Depreciation expenses</t>
+  </si>
+  <si>
+    <t>Depreciation_expenses</t>
+  </si>
+  <si>
+    <t>depreciation_and_amortisation_expenses+depreciation_and_amortisation_expense+depreciation_and_impairment_expenses+depreciation_and_impairment_expense+depreciation_property_plant_and_equipment+depreciation_ROU_assets+Depreciation_expenses</t>
   </si>
 </sst>
 </file>
@@ -1781,10 +1802,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H262"/>
+  <dimension ref="A1:H265"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A248" workbookViewId="0">
-      <selection activeCell="A196" sqref="A196"/>
+    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
+      <selection activeCell="C236" sqref="C236"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1898,7 +1919,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -1908,7 +1929,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="H7" t="s">
         <v>143</v>
@@ -2091,7 +2112,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>135</v>
@@ -2166,7 +2187,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -2344,7 +2365,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
@@ -2733,15 +2754,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>32</v>
+        <v>445</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>442</v>
+        <v>444</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
@@ -2756,15 +2777,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>201</v>
+        <v>32</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>169</v>
+        <v>446</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -2773,21 +2794,21 @@
         <v>146</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H46" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>294</v>
+        <v>201</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -2804,13 +2825,13 @@
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>33</v>
+        <v>294</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>296</v>
+        <v>162</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
@@ -2825,15 +2846,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>137</v>
+        <v>295</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
@@ -2850,13 +2871,13 @@
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>219</v>
+        <v>34</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>220</v>
+        <v>137</v>
       </c>
       <c r="D50" t="s">
         <v>134</v>
@@ -2873,13 +2894,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>170</v>
+        <v>220</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
@@ -2896,13 +2917,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>221</v>
+        <v>170</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -2917,15 +2938,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="53" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>35</v>
+        <v>191</v>
       </c>
       <c r="B53" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -2940,15 +2961,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -2963,15 +2984,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="55" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>203</v>
+        <v>36</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>171</v>
+        <v>29</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -2988,13 +3009,13 @@
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B56" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>139</v>
+        <v>171</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -3010,14 +3031,14 @@
       </c>
     </row>
     <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A57" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>136</v>
+      <c r="A57" s="6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B57" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>222</v>
+        <v>139</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3032,15 +3053,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B58" s="6" t="s">
-        <v>135</v>
+    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A58" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B58" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>172</v>
+        <v>222</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3057,13 +3078,13 @@
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>194</v>
+        <v>38</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>31</v>
+        <v>172</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3080,13 +3101,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>205</v>
+        <v>194</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="D60" t="s">
         <v>134</v>
@@ -3103,13 +3124,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D61" t="s">
         <v>134</v>
@@ -3126,13 +3147,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>39</v>
+        <v>206</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>216</v>
+        <v>174</v>
       </c>
       <c r="D62" t="s">
         <v>134</v>
@@ -3149,13 +3170,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D63" t="s">
         <v>134</v>
@@ -3172,7 +3193,7 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>434</v>
+        <v>40</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>135</v>
@@ -3195,7 +3216,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>41</v>
+        <v>432</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>135</v>
@@ -3218,7 +3239,7 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>435</v>
+        <v>41</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>135</v>
@@ -3241,13 +3262,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>207</v>
+        <v>433</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D67" t="s">
         <v>134</v>
@@ -3264,13 +3285,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" t="s">
         <v>134</v>
@@ -3287,13 +3308,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3308,15 +3329,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>217</v>
+        <v>177</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -3331,15 +3352,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>29</v>
+        <v>217</v>
       </c>
       <c r="D71" t="s">
         <v>134</v>
@@ -3356,13 +3377,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>134</v>
@@ -3379,7 +3400,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>135</v>
@@ -3402,13 +3423,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D74" t="s">
         <v>134</v>
@@ -3425,13 +3446,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D75" t="s">
         <v>134</v>
@@ -3448,13 +3469,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D76" t="s">
         <v>134</v>
@@ -3471,13 +3492,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>212</v>
+        <v>292</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
@@ -3494,13 +3515,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
@@ -3517,13 +3538,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>213</v>
+        <v>283</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
@@ -3540,13 +3561,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D80" t="s">
         <v>134</v>
@@ -3561,15 +3582,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="81" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -3584,15 +3605,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>47</v>
+        <v>293</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -3600,55 +3621,55 @@
       <c r="E82" t="s">
         <v>146</v>
       </c>
-      <c r="F82" s="5"/>
+      <c r="F82" s="5" t="s">
+        <v>224</v>
+      </c>
       <c r="H82" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A83" s="5"/>
-      <c r="B83" s="5"/>
-      <c r="C83" s="5"/>
+      <c r="A83" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B83" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C83" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D83" t="s">
+        <v>134</v>
+      </c>
+      <c r="E83" t="s">
+        <v>146</v>
+      </c>
+      <c r="F83" s="5"/>
+      <c r="H83" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A84" s="5"/>
       <c r="B84" s="5"/>
       <c r="C84" s="5"/>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B85" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C85" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D85" t="s">
-        <v>134</v>
-      </c>
-      <c r="E85" t="s">
-        <v>147</v>
-      </c>
-      <c r="F85" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H85" t="s">
-        <v>153</v>
-      </c>
+      <c r="A85" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B85" s="5"/>
+      <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>279</v>
+        <v>225</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D86" t="s">
         <v>134</v>
@@ -3665,13 +3686,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>228</v>
+        <v>279</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -3688,13 +3709,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>49</v>
+        <v>228</v>
       </c>
       <c r="B88" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>280</v>
+        <v>229</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -3711,13 +3732,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>231</v>
+        <v>280</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -3734,13 +3755,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -3757,13 +3778,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>29</v>
+        <v>230</v>
       </c>
       <c r="D91" t="s">
         <v>134</v>
@@ -3778,9 +3799,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="92" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>135</v>
@@ -3803,7 +3824,7 @@
     </row>
     <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>135</v>
@@ -3824,9 +3845,9 @@
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>135</v>
@@ -3849,7 +3870,7 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>135</v>
@@ -3872,13 +3893,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D96" t="s">
         <v>134</v>
@@ -3887,21 +3908,21 @@
         <v>147</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -3916,15 +3937,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>206</v>
+        <v>233</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>174</v>
+        <v>234</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -3941,13 +3962,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -3964,13 +3985,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>205</v>
+        <v>235</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>173</v>
+        <v>236</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -3987,13 +4008,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4008,15 +4029,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>56</v>
+        <v>289</v>
       </c>
       <c r="B102" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>290</v>
+        <v>237</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4031,15 +4052,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>240</v>
+        <v>290</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4056,13 +4077,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4079,13 +4100,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>57</v>
+        <v>241</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -4100,15 +4121,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -4123,15 +4144,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4148,13 +4169,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>141</v>
+        <v>244</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4171,13 +4192,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4194,13 +4215,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>214</v>
+        <v>246</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4217,13 +4238,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4238,15 +4259,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>59</v>
+        <v>249</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4261,15 +4282,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>251</v>
+        <v>243</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4286,13 +4307,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>140</v>
+        <v>251</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4301,21 +4322,21 @@
         <v>147</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H114" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4330,15 +4351,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>252</v>
+        <v>233</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>253</v>
+        <v>234</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4353,15 +4374,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>61</v>
+        <v>252</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>295</v>
+        <v>253</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4378,13 +4399,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>254</v>
+        <v>448</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>255</v>
+        <v>447</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4399,15 +4420,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>257</v>
+        <v>449</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4424,13 +4445,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>281</v>
+        <v>254</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4447,13 +4468,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>62</v>
+        <v>256</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>282</v>
+        <v>257</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
@@ -4470,13 +4491,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
@@ -4493,13 +4514,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>29</v>
+        <v>282</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
@@ -4516,7 +4537,7 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>135</v>
@@ -4539,13 +4560,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -4562,13 +4583,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -4585,13 +4606,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>259</v>
+        <v>248</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -4608,13 +4629,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>67</v>
+        <v>249</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>29</v>
+        <v>250</v>
       </c>
       <c r="D128" t="s">
         <v>134</v>
@@ -4631,13 +4652,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
@@ -4654,7 +4675,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>135</v>
@@ -4677,13 +4698,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -4700,13 +4721,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -4723,13 +4744,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -4746,13 +4767,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>70</v>
+        <v>263</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -4769,13 +4790,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>71</v>
+        <v>265</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -4792,13 +4813,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>29</v>
+        <v>260</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -4815,7 +4836,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>135</v>
@@ -4838,13 +4859,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
@@ -4861,13 +4882,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -4884,13 +4905,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>213</v>
+        <v>274</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>182</v>
+        <v>267</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -4907,19 +4928,19 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
       </c>
       <c r="E141" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F141" s="5" t="s">
         <v>278</v>
@@ -4930,19 +4951,19 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
       </c>
       <c r="E142" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F142" s="5" t="s">
         <v>278</v>
@@ -4953,13 +4974,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>75</v>
+        <v>270</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>251</v>
+        <v>271</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -4976,19 +4997,19 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>211</v>
+        <v>272</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>244</v>
+        <v>273</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F144" s="5" t="s">
         <v>278</v>
@@ -4999,19 +5020,19 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>141</v>
+        <v>251</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F145" s="5" t="s">
         <v>278</v>
@@ -5020,15 +5041,15 @@
         <v>153</v>
       </c>
     </row>
-    <row r="146" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="B146" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>275</v>
+        <v>244</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5045,13 +5066,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>438</v>
+        <v>245</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>438</v>
+        <v>141</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5059,20 +5080,22 @@
       <c r="E147" t="s">
         <v>147</v>
       </c>
-      <c r="F147" s="5"/>
+      <c r="F147" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H147" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>439</v>
+        <v>275</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5080,71 +5103,75 @@
       <c r="E148" t="s">
         <v>147</v>
       </c>
+      <c r="F148" s="5" t="s">
+        <v>278</v>
+      </c>
       <c r="H148" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A149" s="6"/>
-      <c r="B149" s="6"/>
-      <c r="C149" s="6"/>
+      <c r="A149" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C149" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D149" t="s">
+        <v>134</v>
+      </c>
+      <c r="E149" t="s">
+        <v>147</v>
+      </c>
+      <c r="F149" s="5"/>
+      <c r="H149" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A150" s="7" t="s">
+      <c r="A150" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B150" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C150" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="D150" t="s">
+        <v>134</v>
+      </c>
+      <c r="E150" t="s">
+        <v>147</v>
+      </c>
+      <c r="H150" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A151" s="6"/>
+      <c r="B151" s="6"/>
+      <c r="C151" s="6"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A152" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B150" s="5"/>
-      <c r="C150" s="5"/>
-    </row>
-    <row r="151" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A151" s="8" t="s">
+      <c r="B152" s="5"/>
+      <c r="C152" s="5"/>
+    </row>
+    <row r="153" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A153" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B151" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C151" s="9" t="s">
-        <v>437</v>
-      </c>
-      <c r="D151" t="s">
-        <v>134</v>
-      </c>
-      <c r="E151" t="s">
-        <v>148</v>
-      </c>
-      <c r="H151" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B152" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C152" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D152" t="s">
-        <v>134</v>
-      </c>
-      <c r="E152" t="s">
-        <v>148</v>
-      </c>
-      <c r="H152" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="153" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C153" s="9" t="s">
-        <v>297</v>
+        <v>435</v>
       </c>
       <c r="D153" t="s">
         <v>134</v>
@@ -5158,13 +5185,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C154" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D154" t="s">
         <v>134</v>
@@ -5176,137 +5203,137 @@
         <v>153</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A155" s="1"/>
-      <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
+    <row r="155" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B155" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C155" s="9" t="s">
+        <v>296</v>
+      </c>
       <c r="D155" t="s">
         <v>134</v>
       </c>
+      <c r="E155" t="s">
+        <v>148</v>
+      </c>
+      <c r="H155" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="3" t="s">
+      <c r="A156" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C156" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D156" t="s">
+        <v>134</v>
+      </c>
+      <c r="E156" t="s">
+        <v>148</v>
+      </c>
+      <c r="H156" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="1"/>
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+      <c r="D157" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B156" s="4"/>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="3" t="s">
+      <c r="B158" s="4"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B157" s="4"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="6" t="s">
+      <c r="B159" s="4"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C160" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D160" t="s">
+        <v>134</v>
+      </c>
+      <c r="E160" t="s">
+        <v>149</v>
+      </c>
+      <c r="H160" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B158" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D158" t="s">
-        <v>134</v>
-      </c>
-      <c r="E158" t="s">
-        <v>149</v>
-      </c>
-      <c r="H158" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="6" t="s">
+      <c r="B161" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C161" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B159" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C159" s="6" t="s">
+      <c r="D161" t="s">
+        <v>134</v>
+      </c>
+      <c r="E161" t="s">
+        <v>149</v>
+      </c>
+      <c r="H161" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D159" t="s">
-        <v>134</v>
-      </c>
-      <c r="E159" t="s">
-        <v>149</v>
-      </c>
-      <c r="H159" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+      <c r="B162" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C160" s="6" t="s">
+      <c r="D162" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" t="s">
+        <v>149</v>
+      </c>
+      <c r="H162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D160" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" t="s">
-        <v>149</v>
-      </c>
-      <c r="H160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="B163" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>306</v>
-      </c>
-      <c r="B161" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="D161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" t="s">
-        <v>149</v>
-      </c>
-      <c r="H161" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C162" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D162" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" t="s">
-        <v>149</v>
-      </c>
-      <c r="H162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>300</v>
       </c>
       <c r="D163" t="s">
         <v>134</v>
@@ -5320,93 +5347,93 @@
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B164" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D164" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164" t="s">
+        <v>149</v>
+      </c>
+      <c r="H164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C165" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="D165" t="s">
+        <v>134</v>
+      </c>
+      <c r="E165" t="s">
+        <v>149</v>
+      </c>
+      <c r="H165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="B164" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C164" s="6" t="s">
+      <c r="D166" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" t="s">
+        <v>149</v>
+      </c>
+      <c r="H166" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="D164" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" t="s">
-        <v>149</v>
-      </c>
-      <c r="H164" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
+      <c r="B167" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="B165" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C165" s="6" t="s">
+      <c r="D167" t="s">
+        <v>134</v>
+      </c>
+      <c r="E167" t="s">
+        <v>149</v>
+      </c>
+      <c r="H167" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
         <v>314</v>
       </c>
-      <c r="D165" t="s">
-        <v>134</v>
-      </c>
-      <c r="E165" t="s">
-        <v>149</v>
-      </c>
-      <c r="H165" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="166" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
+      <c r="B168" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>315</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D166" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" t="s">
-        <v>149</v>
-      </c>
-      <c r="H166" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D167" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" t="s">
-        <v>149</v>
-      </c>
-      <c r="H167" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D168" t="s">
         <v>134</v>
@@ -5420,13 +5447,13 @@
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B169" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>29</v>
+        <v>309</v>
       </c>
       <c r="D169" t="s">
         <v>134</v>
@@ -5438,9 +5465,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B170" s="6" t="s">
         <v>135</v>
@@ -5458,55 +5485,55 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>149</v>
+      </c>
+      <c r="H171" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D172" t="s">
+        <v>134</v>
+      </c>
+      <c r="E172" t="s">
+        <v>149</v>
+      </c>
+      <c r="H172" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>318</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="D171" t="s">
-        <v>134</v>
-      </c>
-      <c r="E171" t="s">
-        <v>149</v>
-      </c>
-      <c r="H171" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D172" t="s">
-        <v>134</v>
-      </c>
-      <c r="E172" t="s">
-        <v>149</v>
-      </c>
-      <c r="H172" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>317</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
@@ -5520,113 +5547,113 @@
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174" t="s">
+        <v>149</v>
+      </c>
+      <c r="H174" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="D175" t="s">
+        <v>134</v>
+      </c>
+      <c r="E175" t="s">
+        <v>149</v>
+      </c>
+      <c r="H175" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B174" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C174" s="6" t="s">
+      <c r="D176" t="s">
+        <v>134</v>
+      </c>
+      <c r="E176" t="s">
+        <v>149</v>
+      </c>
+      <c r="H176" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="D174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" t="s">
-        <v>149</v>
-      </c>
-      <c r="H174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="B177" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B175" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C175" s="6" t="s">
+      <c r="D177" t="s">
+        <v>134</v>
+      </c>
+      <c r="E177" t="s">
+        <v>149</v>
+      </c>
+      <c r="H177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="D175" t="s">
-        <v>134</v>
-      </c>
-      <c r="E175" t="s">
-        <v>149</v>
-      </c>
-      <c r="H175" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="B178" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C176" s="6" t="s">
+      <c r="D178" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" t="s">
+        <v>149</v>
+      </c>
+      <c r="H178" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>328</v>
       </c>
-      <c r="D176" t="s">
-        <v>134</v>
-      </c>
-      <c r="E176" t="s">
-        <v>149</v>
-      </c>
-      <c r="H176" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="B179" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>329</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="D177" t="s">
-        <v>134</v>
-      </c>
-      <c r="E177" t="s">
-        <v>149</v>
-      </c>
-      <c r="H177" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="D178" t="s">
-        <v>134</v>
-      </c>
-      <c r="E178" t="s">
-        <v>149</v>
-      </c>
-      <c r="H178" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>333</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>334</v>
       </c>
       <c r="D179" t="s">
         <v>134</v>
@@ -5640,13 +5667,13 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="B180" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -5660,13 +5687,13 @@
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -5680,13 +5707,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -5700,13 +5727,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -5720,13 +5747,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -5740,13 +5767,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -5758,15 +5785,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -5780,113 +5807,113 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="D187" t="s">
+        <v>134</v>
+      </c>
+      <c r="E187" t="s">
+        <v>149</v>
+      </c>
+      <c r="H187" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A188" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C188" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="D188" t="s">
+        <v>134</v>
+      </c>
+      <c r="E188" t="s">
+        <v>149</v>
+      </c>
+      <c r="H188" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A189" s="6" t="s">
+        <v>348</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C187" s="6" t="s">
+      <c r="D189" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" t="s">
+        <v>149</v>
+      </c>
+      <c r="H189" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="D187" t="s">
-        <v>134</v>
-      </c>
-      <c r="E187" t="s">
-        <v>149</v>
-      </c>
-      <c r="H187" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A188" s="6" t="s">
+      <c r="B190" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>351</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C188" s="6" t="s">
+      <c r="D190" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" t="s">
+        <v>149</v>
+      </c>
+      <c r="H190" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C191" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="D191" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" t="s">
+        <v>149</v>
+      </c>
+      <c r="H191" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>352</v>
-      </c>
-      <c r="D188" t="s">
-        <v>134</v>
-      </c>
-      <c r="E188" t="s">
-        <v>149</v>
-      </c>
-      <c r="H188" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="189" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A189" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B189" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D189" t="s">
-        <v>134</v>
-      </c>
-      <c r="E189" t="s">
-        <v>149</v>
-      </c>
-      <c r="H189" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B190" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="D190" t="s">
-        <v>134</v>
-      </c>
-      <c r="E190" t="s">
-        <v>149</v>
-      </c>
-      <c r="H190" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="D191" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" t="s">
-        <v>149</v>
-      </c>
-      <c r="H191" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>357</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -5900,13 +5927,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>359</v>
+        <v>354</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -5920,13 +5947,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>443</v>
+        <v>355</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>95</v>
+        <v>356</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -5940,13 +5967,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D195" t="s">
         <v>134</v>
@@ -5958,15 +5985,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="196" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>94</v>
+        <v>440</v>
       </c>
       <c r="B196" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>444</v>
+        <v>95</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -5980,13 +6007,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>99</v>
+        <v>359</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6000,47 +6027,47 @@
     </row>
     <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="D198" t="s">
+        <v>134</v>
+      </c>
+      <c r="E198" t="s">
+        <v>149</v>
+      </c>
+      <c r="H198" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C199" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D199" t="s">
+        <v>134</v>
+      </c>
+      <c r="E199" t="s">
+        <v>149</v>
+      </c>
+      <c r="H199" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D198" t="s">
-        <v>134</v>
-      </c>
-      <c r="E198" t="s">
-        <v>149</v>
-      </c>
-      <c r="H198" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D199" t="s">
-        <v>134</v>
-      </c>
-      <c r="E199" t="s">
-        <v>149</v>
-      </c>
-      <c r="H199" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>135</v>
@@ -6058,9 +6085,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>135</v>
@@ -6078,175 +6105,175 @@
         <v>152</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C202" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D202" t="s">
+        <v>134</v>
+      </c>
+      <c r="E202" t="s">
+        <v>149</v>
+      </c>
+      <c r="H202" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D203" t="s">
+        <v>134</v>
+      </c>
+      <c r="E203" t="s">
+        <v>149</v>
+      </c>
+      <c r="H203" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B202" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C202" s="6" t="s">
+      <c r="D204" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" t="s">
+        <v>149</v>
+      </c>
+      <c r="H204" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D202" t="s">
-        <v>134</v>
-      </c>
-      <c r="E202" t="s">
-        <v>149</v>
-      </c>
-      <c r="H202" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
+      <c r="B205" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C203" s="6" t="s">
+      <c r="D205" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" t="s">
+        <v>149</v>
+      </c>
+      <c r="H205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="D203" t="s">
-        <v>134</v>
-      </c>
-      <c r="E203" t="s">
-        <v>149</v>
-      </c>
-      <c r="H203" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="B206" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C204" s="6" t="s">
+      <c r="D206" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" t="s">
+        <v>149</v>
+      </c>
+      <c r="H206" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="D204" t="s">
-        <v>134</v>
-      </c>
-      <c r="E204" t="s">
-        <v>149</v>
-      </c>
-      <c r="H204" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="B207" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>370</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>371</v>
-      </c>
-      <c r="D205" t="s">
-        <v>134</v>
-      </c>
-      <c r="E205" t="s">
-        <v>149</v>
-      </c>
-      <c r="H205" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="D207" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" t="s">
+        <v>149</v>
+      </c>
+      <c r="H207" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B206" s="6" t="s">
+      <c r="B208" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C206" s="6" t="s">
-        <v>363</v>
-      </c>
-      <c r="D206" t="s">
-        <v>134</v>
-      </c>
-      <c r="E206" t="s">
-        <v>149</v>
-      </c>
-      <c r="H206" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="C208" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D208" t="s">
+        <v>134</v>
+      </c>
+      <c r="E208" t="s">
+        <v>149</v>
+      </c>
+      <c r="H208" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C207" s="6" t="s">
+      <c r="D209" t="s">
+        <v>134</v>
+      </c>
+      <c r="E209" t="s">
+        <v>149</v>
+      </c>
+      <c r="H209" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
         <v>374</v>
       </c>
-      <c r="D207" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" t="s">
-        <v>149</v>
-      </c>
-      <c r="H207" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="B210" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>375</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D208" t="s">
-        <v>134</v>
-      </c>
-      <c r="E208" t="s">
-        <v>149</v>
-      </c>
-      <c r="H208" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D209" t="s">
-        <v>134</v>
-      </c>
-      <c r="E209" t="s">
-        <v>149</v>
-      </c>
-      <c r="H209" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>372</v>
       </c>
       <c r="D210" t="s">
         <v>134</v>
@@ -6260,113 +6287,113 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C211" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D211" t="s">
+        <v>134</v>
+      </c>
+      <c r="E211" t="s">
+        <v>149</v>
+      </c>
+      <c r="H211" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B212" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C212" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="D212" t="s">
+        <v>134</v>
+      </c>
+      <c r="E212" t="s">
+        <v>149</v>
+      </c>
+      <c r="H212" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A213" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C213" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="B211" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C211" s="6" t="s">
+      <c r="D213" t="s">
+        <v>134</v>
+      </c>
+      <c r="E213" t="s">
+        <v>149</v>
+      </c>
+      <c r="H213" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D211" t="s">
-        <v>134</v>
-      </c>
-      <c r="E211" t="s">
-        <v>149</v>
-      </c>
-      <c r="H211" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
+      <c r="B214" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C214" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="B212" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C212" s="6" t="s">
+      <c r="D214" t="s">
+        <v>134</v>
+      </c>
+      <c r="E214" t="s">
+        <v>149</v>
+      </c>
+      <c r="H214" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="D212" t="s">
-        <v>134</v>
-      </c>
-      <c r="E212" t="s">
-        <v>149</v>
-      </c>
-      <c r="H212" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A213" s="6" t="s">
+      <c r="B215" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>384</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C213" s="6" t="s">
-        <v>385</v>
-      </c>
-      <c r="D213" t="s">
-        <v>134</v>
-      </c>
-      <c r="E213" t="s">
-        <v>149</v>
-      </c>
-      <c r="H213" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="D215" t="s">
+        <v>134</v>
+      </c>
+      <c r="E215" t="s">
+        <v>149</v>
+      </c>
+      <c r="H215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B214" s="6" t="s">
+      <c r="B216" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C214" s="6" t="s">
-        <v>379</v>
-      </c>
-      <c r="D214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E214" t="s">
-        <v>149</v>
-      </c>
-      <c r="H214" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D215" t="s">
-        <v>134</v>
-      </c>
-      <c r="E215" t="s">
-        <v>149</v>
-      </c>
-      <c r="H215" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C216" s="6" t="s">
-        <v>29</v>
+        <v>378</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
@@ -6380,13 +6407,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="D217" t="s">
         <v>134</v>
@@ -6400,7 +6427,7 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>135</v>
@@ -6420,13 +6447,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>388</v>
+        <v>109</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
@@ -6440,13 +6467,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>390</v>
+        <v>110</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>391</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
@@ -6460,13 +6487,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -6480,13 +6507,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>395</v>
+        <v>390</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
@@ -6498,15 +6525,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>111</v>
+        <v>391</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>387</v>
+        <v>392</v>
       </c>
       <c r="D223" t="s">
         <v>134</v>
@@ -6520,13 +6547,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>112</v>
+        <v>393</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D224" t="s">
         <v>134</v>
@@ -6540,13 +6567,13 @@
     </row>
     <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>398</v>
+        <v>111</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>399</v>
+        <v>386</v>
       </c>
       <c r="D225" t="s">
         <v>134</v>
@@ -6558,15 +6585,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>400</v>
+        <v>112</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="D226" t="s">
         <v>134</v>
@@ -6580,13 +6607,13 @@
     </row>
     <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="D227" t="s">
         <v>134</v>
@@ -6600,13 +6627,13 @@
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="D228" t="s">
         <v>134</v>
@@ -6620,13 +6647,13 @@
     </row>
     <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
@@ -6638,15 +6665,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -6658,15 +6685,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>113</v>
+        <v>404</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="D231" t="s">
         <v>134</v>
@@ -6680,13 +6707,13 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>114</v>
+        <v>406</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="D232" t="s">
         <v>134</v>
@@ -6700,13 +6727,13 @@
     </row>
     <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>115</v>
+        <v>452</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>29</v>
+        <v>451</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
@@ -6718,15 +6745,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>29</v>
+        <v>453</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
@@ -6740,13 +6767,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>411</v>
+        <v>114</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -6760,13 +6787,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>413</v>
+        <v>115</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -6778,15 +6805,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
@@ -6800,13 +6827,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>96</v>
+        <v>409</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -6820,13 +6847,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>97</v>
+        <v>411</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -6838,15 +6865,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>417</v>
+        <v>408</v>
       </c>
       <c r="D240" t="s">
         <v>134</v>
@@ -6858,15 +6885,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="241" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>118</v>
+        <v>96</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>445</v>
+        <v>413</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
@@ -6880,13 +6907,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
@@ -6900,13 +6927,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>420</v>
+        <v>98</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="D243" t="s">
         <v>134</v>
@@ -6918,15 +6945,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>422</v>
+        <v>118</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>151</v>
+        <v>442</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -6940,13 +6967,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>423</v>
+        <v>150</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>424</v>
+        <v>417</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -6958,15 +6985,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>119</v>
+        <v>418</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -6980,93 +7007,93 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B247" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C247" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D247" t="s">
+        <v>134</v>
+      </c>
+      <c r="E247" t="s">
+        <v>149</v>
+      </c>
+      <c r="H247" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A248" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D248" t="s">
+        <v>134</v>
+      </c>
+      <c r="E248" t="s">
+        <v>149</v>
+      </c>
+      <c r="H248" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D249" t="s">
+        <v>134</v>
+      </c>
+      <c r="E249" t="s">
+        <v>149</v>
+      </c>
+      <c r="H249" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B247" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C247" s="6" t="s">
+      <c r="B250" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D247" t="s">
-        <v>134</v>
-      </c>
-      <c r="E247" t="s">
-        <v>149</v>
-      </c>
-      <c r="H247" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A248" s="6" t="s">
+      <c r="D250" t="s">
+        <v>134</v>
+      </c>
+      <c r="E250" t="s">
+        <v>149</v>
+      </c>
+      <c r="H250" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B248" s="6" t="s">
+      <c r="B251" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C248" s="6" t="s">
+      <c r="C251" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D248" t="s">
-        <v>134</v>
-      </c>
-      <c r="E248" t="s">
-        <v>149</v>
-      </c>
-      <c r="H248" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D249" t="s">
-        <v>134</v>
-      </c>
-      <c r="E249" t="s">
-        <v>149</v>
-      </c>
-      <c r="H249" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="D250" t="s">
-        <v>134</v>
-      </c>
-      <c r="E250" t="s">
-        <v>149</v>
-      </c>
-      <c r="H250" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>428</v>
       </c>
       <c r="D251" t="s">
         <v>134</v>
@@ -7080,13 +7107,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>429</v>
+        <v>123</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>430</v>
+        <v>29</v>
       </c>
       <c r="D252" t="s">
         <v>134</v>
@@ -7098,15 +7125,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>431</v>
+        <v>124</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="D253" t="s">
         <v>134</v>
@@ -7118,12 +7145,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>125</v>
+        <v>425</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C254" s="6" t="s">
         <v>426</v>
@@ -7138,69 +7165,69 @@
         <v>152</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B255" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C255" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D255" t="s">
+        <v>134</v>
+      </c>
+      <c r="E255" t="s">
+        <v>149</v>
+      </c>
+      <c r="H255" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A256" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D256" t="s">
+        <v>134</v>
+      </c>
+      <c r="E256" t="s">
+        <v>149</v>
+      </c>
+      <c r="H256" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D257" t="s">
+        <v>134</v>
+      </c>
+      <c r="E257" t="s">
+        <v>149</v>
+      </c>
+      <c r="H257" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D255" t="s">
-        <v>134</v>
-      </c>
-      <c r="E255" t="s">
-        <v>149</v>
-      </c>
-      <c r="H255" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A256" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B256" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C256" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D256" t="s">
-        <v>134</v>
-      </c>
-      <c r="E256" t="s">
-        <v>149</v>
-      </c>
-      <c r="H256" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D257" t="s">
-        <v>134</v>
-      </c>
-      <c r="E257" t="s">
-        <v>149</v>
-      </c>
-      <c r="H257" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="B258" s="6" t="s">
         <v>135</v>
@@ -7218,9 +7245,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>135</v>
@@ -7240,7 +7267,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>135</v>
@@ -7258,43 +7285,103 @@
         <v>152</v>
       </c>
     </row>
-    <row r="261" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C261" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D261" t="s">
+        <v>134</v>
+      </c>
+      <c r="E261" t="s">
+        <v>149</v>
+      </c>
+      <c r="H261" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A262" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B262" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C262" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D262" t="s">
+        <v>134</v>
+      </c>
+      <c r="E262" t="s">
+        <v>149</v>
+      </c>
+      <c r="H262" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A263" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B263" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C263" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D263" t="s">
+        <v>134</v>
+      </c>
+      <c r="E263" t="s">
+        <v>149</v>
+      </c>
+      <c r="H263" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="264" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A264" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B261" s="6" t="s">
+      <c r="B264" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C261" s="6" t="s">
-        <v>433</v>
-      </c>
-      <c r="D261" t="s">
-        <v>134</v>
-      </c>
-      <c r="E261" t="s">
-        <v>149</v>
-      </c>
-      <c r="H261" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="262" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A262" s="1" t="s">
+      <c r="C264" s="6" t="s">
+        <v>431</v>
+      </c>
+      <c r="D264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" t="s">
+        <v>149</v>
+      </c>
+      <c r="H264" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" ht="345" x14ac:dyDescent="0.25">
+      <c r="A265" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B262" s="6" t="s">
+      <c r="B265" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C262" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="D262" t="s">
-        <v>134</v>
-      </c>
-      <c r="E262" t="s">
-        <v>149</v>
-      </c>
-      <c r="H262" t="s">
+      <c r="C265" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="D265" t="s">
+        <v>134</v>
+      </c>
+      <c r="E265" t="s">
+        <v>149</v>
+      </c>
+      <c r="H265" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4841B725-2E51-4818-A85B-95C7D8B788BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DCC07-A7A1-406E-8A78-EE238FDECA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$235</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$237</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1667" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="476">
   <si>
     <t>Field_Name</t>
   </si>
@@ -681,9 +681,6 @@
     <t>loans_and_advances+borrowings+loans_and_borrowings</t>
   </si>
   <si>
-    <t>income_tax_receivable+current_tax_asset+current_tax_receivables</t>
-  </si>
-  <si>
     <t>Trade_receivables+receivables+trade_and_other_receivables</t>
   </si>
   <si>
@@ -1254,9 +1251,6 @@
     <t>Depreciation - ROU assets</t>
   </si>
   <si>
-    <t>impairment_loss_on_inventory+impairment_of_trade_receivables</t>
-  </si>
-  <si>
     <t>impairment_loss_on_inventory</t>
   </si>
   <si>
@@ -1359,9 +1353,6 @@
     <t>operating_profit+other_income+Revenue_from_Service+Other_Operating_Revenue+Subsidy_Income+Financial_Income+Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+Income_Loss_from_Discontinued_Operations+Group_Contribution_Received+Non_Operating_Income-depreciation-selling_expenses-administration_costs-Advertising_expense-Services-Auditors_Fee-Management_Expenses-Legal_Professional_Charges-Other_General_Expense-Repair_of_Machinery-Personal_costs-Group_Contribution_Paid-Suppliers_And_External_Services-Impairment_Of_Investments_Not_Depreciable_Amortizable</t>
   </si>
   <si>
-    <t xml:space="preserve">net_revenue +other_income+Revenue_from_Service+Other_Operating_Revenue+ Subsidy_Income+ Financial_Income+ Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+ Income_Loss_from_Discontinued_Operations+ Group_Contribution_Received+ Non_Operating_Income- total_cost_of_materials_consumed - Power_Fuel-total_purchases_of_stock_in_trade - total_changes_in_inventories_or_finished_goods - total_employee_benefit_expense - total_other_expenses - depreciation- selling_expenses - administration_costs - Advertising_expense- Services- Auditors_Fee- Management_Expenses- Legal_Professional_Charges - Other_General_Expense- Repair_of_Machinery-Personal_costs - Group_Contribution_Paid- Suppliers_And_External_Services- Impairment_Of_Investments_Not_Depreciable_Amortizable- interest - Other_Financial_Expenses + exceptional_items_before_tax  - income_tax - Current_Tax-Deferred_Tax -Advance_Tax-Other_Tax_Expenses+ profit_for_period_from_continuing_operations + profit_from_discontinuing_operation_after_tax - profit_after_tax </t>
-  </si>
-  <si>
     <t>Assets held for sale</t>
   </si>
   <si>
@@ -1377,9 +1368,6 @@
     <t>Related_Party_Loans</t>
   </si>
   <si>
-    <t>interest_bearing_liabilities+interest_bearing_liabilities_including_lease_liabilities+financial_liabilities+Related_Party_Loans</t>
-  </si>
-  <si>
     <t>Changes in inventories of finished goods</t>
   </si>
   <si>
@@ -1390,6 +1378,84 @@
   </si>
   <si>
     <t>depreciation_and_amortisation_expenses+depreciation_and_amortisation_expense+depreciation_and_impairment_expenses+depreciation_and_impairment_expense+depreciation_property_plant_and_equipment+depreciation_ROU_assets+Depreciation_expenses</t>
+  </si>
+  <si>
+    <t>Current tax receivable</t>
+  </si>
+  <si>
+    <t>Current_tax_receivable</t>
+  </si>
+  <si>
+    <t>income_tax_receivable+current_tax_asset+current_tax_receivables+Current_tax_receivable</t>
+  </si>
+  <si>
+    <t>interest_bearing_liabilities+interest_bearing_liabilities_including_lease_liabilities+financial_liabilities+Related_Party_Loans+borrowings</t>
+  </si>
+  <si>
+    <t>Unrealised gain / impairment expense</t>
+  </si>
+  <si>
+    <t>Unrealised_gain_impairment_expense</t>
+  </si>
+  <si>
+    <t>impairment_loss_on_inventory+impairment_of_trade_receivables+Unrealised_gain_impairment_expense</t>
+  </si>
+  <si>
+    <t>profit_after_income_tax_expense_for_the_year</t>
+  </si>
+  <si>
+    <t>Profit after income tax expense for the year</t>
+  </si>
+  <si>
+    <t>profit_after_income_tax_expense_for_the_period</t>
+  </si>
+  <si>
+    <t>Profit after income tax expense for the period</t>
+  </si>
+  <si>
+    <t>profit_for_the_year</t>
+  </si>
+  <si>
+    <t>Profit for the year</t>
+  </si>
+  <si>
+    <t>profit_of_the_year</t>
+  </si>
+  <si>
+    <t>Profit of the year</t>
+  </si>
+  <si>
+    <t>profit_for_the_financial_year</t>
+  </si>
+  <si>
+    <t>Profit for the financial year</t>
+  </si>
+  <si>
+    <t>profit_loss_for_the_year_after_income_tax</t>
+  </si>
+  <si>
+    <t>Profit/(loss) for the year after income tax</t>
+  </si>
+  <si>
+    <t>loss_profit_for_the_year</t>
+  </si>
+  <si>
+    <t>(Loss)/profit for the year</t>
+  </si>
+  <si>
+    <t>profit_loss_for_the_year_from_continuing_operations</t>
+  </si>
+  <si>
+    <t>Profit/(loss) for the year from continuing operations</t>
+  </si>
+  <si>
+    <t>net_profit_for_the_period</t>
+  </si>
+  <si>
+    <t>Net profit for the period</t>
+  </si>
+  <si>
+    <t>profit_after_tax-profit_after_income_tax_expense_for_the_year-profit_after_income_tax_expense_for_the_period-profit_for_the_year-profit_of_the_year-profit_for_the_financial_year-profit_loss_for_the_year_after_income_tax-loss_profit_for_the_year-profit_loss_for_the_year_from_continuing_operations-net_profit_for_the_period</t>
   </si>
 </sst>
 </file>
@@ -1802,10 +1868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H265"/>
+  <dimension ref="A1:H277"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A229" workbookViewId="0">
-      <selection activeCell="C236" sqref="C236"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1837,7 +1903,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1919,7 +1985,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -1929,7 +1995,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="H7" t="s">
         <v>143</v>
@@ -1966,7 +2032,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H10" t="s">
         <v>153</v>
@@ -1989,7 +2055,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H11" t="s">
         <v>153</v>
@@ -2012,7 +2078,7 @@
         <v>146</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H12" t="s">
         <v>153</v>
@@ -2035,7 +2101,7 @@
         <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H13" t="s">
         <v>153</v>
@@ -2058,7 +2124,7 @@
         <v>146</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H14" t="s">
         <v>153</v>
@@ -2081,7 +2147,7 @@
         <v>146</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H15" t="s">
         <v>153</v>
@@ -2104,7 +2170,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H16" t="s">
         <v>153</v>
@@ -2112,7 +2178,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>135</v>
@@ -2127,7 +2193,7 @@
         <v>146</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H17" t="s">
         <v>153</v>
@@ -2150,7 +2216,7 @@
         <v>146</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H18" t="s">
         <v>153</v>
@@ -2173,7 +2239,7 @@
         <v>146</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H19" t="s">
         <v>153</v>
@@ -2187,7 +2253,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -2196,7 +2262,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H20" t="s">
         <v>153</v>
@@ -2219,7 +2285,7 @@
         <v>146</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H21" t="s">
         <v>153</v>
@@ -2242,7 +2308,7 @@
         <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H22" t="s">
         <v>153</v>
@@ -2265,7 +2331,7 @@
         <v>146</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H23" t="s">
         <v>153</v>
@@ -2288,7 +2354,7 @@
         <v>146</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H24" t="s">
         <v>153</v>
@@ -2311,7 +2377,7 @@
         <v>146</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H25" t="s">
         <v>153</v>
@@ -2334,7 +2400,7 @@
         <v>146</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H26" t="s">
         <v>153</v>
@@ -2357,7 +2423,7 @@
         <v>146</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H27" t="s">
         <v>153</v>
@@ -2365,7 +2431,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
@@ -2380,7 +2446,7 @@
         <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H28" t="s">
         <v>153</v>
@@ -2403,7 +2469,7 @@
         <v>146</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H29" t="s">
         <v>153</v>
@@ -2426,7 +2492,7 @@
         <v>146</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H30" t="s">
         <v>153</v>
@@ -2449,7 +2515,7 @@
         <v>146</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H31" t="s">
         <v>153</v>
@@ -2457,7 +2523,7 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B32" s="6" t="s">
         <v>135</v>
@@ -2472,7 +2538,7 @@
         <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H32" t="s">
         <v>153</v>
@@ -2495,7 +2561,7 @@
         <v>146</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H33" t="s">
         <v>153</v>
@@ -2509,7 +2575,7 @@
         <v>136</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D34" t="s">
         <v>134</v>
@@ -2518,7 +2584,7 @@
         <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H34" t="s">
         <v>153</v>
@@ -2541,7 +2607,7 @@
         <v>146</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H35" t="s">
         <v>153</v>
@@ -2564,7 +2630,7 @@
         <v>146</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H36" t="s">
         <v>153</v>
@@ -2587,7 +2653,7 @@
         <v>146</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H37" t="s">
         <v>153</v>
@@ -2610,7 +2676,7 @@
         <v>146</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H38" t="s">
         <v>153</v>
@@ -2633,7 +2699,7 @@
         <v>146</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H39" t="s">
         <v>153</v>
@@ -2656,7 +2722,7 @@
         <v>146</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H40" t="s">
         <v>153</v>
@@ -2679,7 +2745,7 @@
         <v>146</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H41" t="s">
         <v>153</v>
@@ -2702,7 +2768,7 @@
         <v>146</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H42" t="s">
         <v>153</v>
@@ -2710,7 +2776,7 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>135</v>
@@ -2725,7 +2791,7 @@
         <v>146</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H43" t="s">
         <v>153</v>
@@ -2733,7 +2799,7 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>135</v>
@@ -2748,7 +2814,7 @@
         <v>146</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H44" t="s">
         <v>153</v>
@@ -2756,13 +2822,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
@@ -2771,7 +2837,7 @@
         <v>146</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H45" t="s">
         <v>153</v>
@@ -2785,7 +2851,7 @@
         <v>136</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -2794,7 +2860,7 @@
         <v>146</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H46" t="s">
         <v>153</v>
@@ -2817,7 +2883,7 @@
         <v>146</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H47" t="s">
         <v>153</v>
@@ -2825,7 +2891,7 @@
     </row>
     <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>135</v>
@@ -2840,7 +2906,7 @@
         <v>146</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H48" t="s">
         <v>153</v>
@@ -2854,7 +2920,7 @@
         <v>136</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
@@ -2863,7 +2929,7 @@
         <v>146</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H49" t="s">
         <v>153</v>
@@ -2886,7 +2952,7 @@
         <v>146</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H50" t="s">
         <v>153</v>
@@ -2894,13 +2960,13 @@
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
+        <v>218</v>
+      </c>
+      <c r="B51" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C51" s="6" t="s">
         <v>219</v>
-      </c>
-      <c r="B51" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="6" t="s">
-        <v>220</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
@@ -2909,7 +2975,7 @@
         <v>146</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H51" t="s">
         <v>153</v>
@@ -2932,7 +2998,7 @@
         <v>146</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H52" t="s">
         <v>153</v>
@@ -2946,7 +3012,7 @@
         <v>135</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -2955,7 +3021,7 @@
         <v>146</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H53" t="s">
         <v>153</v>
@@ -2969,7 +3035,7 @@
         <v>136</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -2978,7 +3044,7 @@
         <v>146</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H54" t="s">
         <v>153</v>
@@ -3001,7 +3067,7 @@
         <v>146</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H55" t="s">
         <v>153</v>
@@ -3024,7 +3090,7 @@
         <v>146</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H56" t="s">
         <v>153</v>
@@ -3047,7 +3113,7 @@
         <v>146</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H57" t="s">
         <v>153</v>
@@ -3061,7 +3127,7 @@
         <v>136</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3070,7 +3136,7 @@
         <v>146</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H58" t="s">
         <v>153</v>
@@ -3093,7 +3159,7 @@
         <v>146</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H59" t="s">
         <v>153</v>
@@ -3116,7 +3182,7 @@
         <v>146</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H60" t="s">
         <v>153</v>
@@ -3139,7 +3205,7 @@
         <v>146</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H61" t="s">
         <v>153</v>
@@ -3162,7 +3228,7 @@
         <v>146</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H62" t="s">
         <v>153</v>
@@ -3185,7 +3251,7 @@
         <v>146</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H63" t="s">
         <v>153</v>
@@ -3208,7 +3274,7 @@
         <v>146</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H64" t="s">
         <v>153</v>
@@ -3216,7 +3282,7 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>135</v>
@@ -3231,7 +3297,7 @@
         <v>146</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H65" t="s">
         <v>153</v>
@@ -3254,7 +3320,7 @@
         <v>146</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H66" t="s">
         <v>153</v>
@@ -3262,7 +3328,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>135</v>
@@ -3277,7 +3343,7 @@
         <v>146</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H67" t="s">
         <v>153</v>
@@ -3300,7 +3366,7 @@
         <v>146</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H68" t="s">
         <v>153</v>
@@ -3323,7 +3389,7 @@
         <v>146</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H69" t="s">
         <v>153</v>
@@ -3346,21 +3412,21 @@
         <v>146</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H70" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="71" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>42</v>
+        <v>451</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>217</v>
+        <v>450</v>
       </c>
       <c r="D71" t="s">
         <v>134</v>
@@ -3369,21 +3435,21 @@
         <v>146</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>29</v>
+        <v>452</v>
       </c>
       <c r="D72" t="s">
         <v>134</v>
@@ -3392,7 +3458,7 @@
         <v>146</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H72" t="s">
         <v>153</v>
@@ -3400,13 +3466,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>178</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>134</v>
@@ -3415,7 +3481,7 @@
         <v>146</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H73" t="s">
         <v>153</v>
@@ -3423,7 +3489,7 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>210</v>
+        <v>44</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>135</v>
@@ -3438,7 +3504,7 @@
         <v>146</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H74" t="s">
         <v>153</v>
@@ -3446,13 +3512,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D75" t="s">
         <v>134</v>
@@ -3461,7 +3527,7 @@
         <v>146</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H75" t="s">
         <v>153</v>
@@ -3469,13 +3535,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>291</v>
+        <v>211</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D76" t="s">
         <v>134</v>
@@ -3484,7 +3550,7 @@
         <v>146</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H76" t="s">
         <v>153</v>
@@ -3492,13 +3558,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
@@ -3507,7 +3573,7 @@
         <v>146</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H77" t="s">
         <v>153</v>
@@ -3515,13 +3581,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>212</v>
+        <v>291</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
@@ -3530,7 +3596,7 @@
         <v>146</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H78" t="s">
         <v>153</v>
@@ -3538,13 +3604,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>283</v>
+        <v>212</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
@@ -3553,7 +3619,7 @@
         <v>146</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H79" t="s">
         <v>153</v>
@@ -3561,13 +3627,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>213</v>
+        <v>282</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
         <v>134</v>
@@ -3576,7 +3642,7 @@
         <v>146</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H80" t="s">
         <v>153</v>
@@ -3584,13 +3650,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -3599,21 +3665,21 @@
         <v>146</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H81" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="82" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>45</v>
+        <v>214</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>293</v>
+        <v>183</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -3622,21 +3688,21 @@
         <v>146</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="H82" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>47</v>
+        <v>292</v>
       </c>
       <c r="D83" t="s">
         <v>134</v>
@@ -3644,55 +3710,55 @@
       <c r="E83" t="s">
         <v>146</v>
       </c>
-      <c r="F83" s="5"/>
+      <c r="F83" s="5" t="s">
+        <v>223</v>
+      </c>
       <c r="H83" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A84" s="5"/>
-      <c r="B84" s="5"/>
-      <c r="C84" s="5"/>
+      <c r="A84" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B84" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C84" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D84" t="s">
+        <v>134</v>
+      </c>
+      <c r="E84" t="s">
+        <v>146</v>
+      </c>
+      <c r="F84" s="5"/>
+      <c r="H84" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A85" s="5"/>
       <c r="B85" s="5"/>
       <c r="C85" s="5"/>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B86" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C86" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D86" t="s">
-        <v>134</v>
-      </c>
-      <c r="E86" t="s">
-        <v>147</v>
-      </c>
-      <c r="F86" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="H86" t="s">
-        <v>153</v>
-      </c>
+      <c r="A86" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B86" s="5"/>
+      <c r="C86" s="5"/>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
@@ -3701,7 +3767,7 @@
         <v>147</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H87" t="s">
         <v>153</v>
@@ -3709,13 +3775,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>228</v>
+        <v>278</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="D88" t="s">
         <v>134</v>
@@ -3724,7 +3790,7 @@
         <v>147</v>
       </c>
       <c r="F88" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H88" t="s">
         <v>153</v>
@@ -3732,13 +3798,13 @@
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>49</v>
+        <v>227</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>280</v>
+        <v>228</v>
       </c>
       <c r="D89" t="s">
         <v>134</v>
@@ -3747,7 +3813,7 @@
         <v>147</v>
       </c>
       <c r="F89" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H89" t="s">
         <v>153</v>
@@ -3755,13 +3821,13 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>231</v>
+        <v>279</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -3770,7 +3836,7 @@
         <v>147</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H90" t="s">
         <v>153</v>
@@ -3778,10 +3844,10 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C91" s="6" t="s">
         <v>230</v>
@@ -3793,7 +3859,7 @@
         <v>147</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H91" t="s">
         <v>153</v>
@@ -3801,13 +3867,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -3816,15 +3882,15 @@
         <v>147</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H92" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="93" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B93" s="6" t="s">
         <v>135</v>
@@ -3839,7 +3905,7 @@
         <v>147</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H93" t="s">
         <v>153</v>
@@ -3847,7 +3913,7 @@
     </row>
     <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>135</v>
@@ -3862,15 +3928,15 @@
         <v>147</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H94" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>135</v>
@@ -3885,7 +3951,7 @@
         <v>147</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H95" t="s">
         <v>153</v>
@@ -3893,7 +3959,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>135</v>
@@ -3908,7 +3974,7 @@
         <v>147</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H96" t="s">
         <v>153</v>
@@ -3916,13 +3982,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D97" t="s">
         <v>134</v>
@@ -3931,21 +3997,21 @@
         <v>147</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -3954,21 +4020,21 @@
         <v>147</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>206</v>
+        <v>232</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>174</v>
+        <v>233</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -3977,7 +4043,7 @@
         <v>147</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H99" t="s">
         <v>153</v>
@@ -3985,13 +4051,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>235</v>
+        <v>206</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -4000,7 +4066,7 @@
         <v>147</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H100" t="s">
         <v>153</v>
@@ -4008,13 +4074,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>205</v>
+        <v>234</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>173</v>
+        <v>235</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4023,7 +4089,7 @@
         <v>147</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H101" t="s">
         <v>153</v>
@@ -4031,13 +4097,13 @@
     </row>
     <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>289</v>
+        <v>205</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>237</v>
+        <v>173</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4046,21 +4112,21 @@
         <v>147</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H102" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>56</v>
+        <v>288</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>290</v>
+        <v>236</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4069,21 +4135,21 @@
         <v>147</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>239</v>
+        <v>56</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>240</v>
+        <v>289</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4092,7 +4158,7 @@
         <v>147</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H104" t="s">
         <v>153</v>
@@ -4100,13 +4166,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -4115,7 +4181,7 @@
         <v>147</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H105" t="s">
         <v>153</v>
@@ -4123,13 +4189,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>57</v>
+        <v>240</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -4138,21 +4204,21 @@
         <v>147</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>29</v>
+        <v>237</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4161,21 +4227,21 @@
         <v>147</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>211</v>
+        <v>58</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4184,7 +4250,7 @@
         <v>147</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H108" t="s">
         <v>153</v>
@@ -4192,13 +4258,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>141</v>
+        <v>243</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4207,7 +4273,7 @@
         <v>147</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H109" t="s">
         <v>153</v>
@@ -4215,13 +4281,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>247</v>
+        <v>141</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4230,7 +4296,7 @@
         <v>147</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H110" t="s">
         <v>153</v>
@@ -4238,13 +4304,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>214</v>
+        <v>245</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4253,7 +4319,7 @@
         <v>147</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H111" t="s">
         <v>153</v>
@@ -4261,13 +4327,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>249</v>
+        <v>214</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4276,21 +4342,21 @@
         <v>147</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H112" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="113" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>59</v>
+        <v>248</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>243</v>
+        <v>249</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4299,21 +4365,21 @@
         <v>147</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H113" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4322,7 +4388,7 @@
         <v>147</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H114" t="s">
         <v>153</v>
@@ -4330,13 +4396,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>232</v>
+        <v>60</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>140</v>
+        <v>250</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4345,21 +4411,21 @@
         <v>147</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="H115" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4368,21 +4434,21 @@
         <v>147</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>252</v>
+        <v>232</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>253</v>
+        <v>233</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4391,7 +4457,7 @@
         <v>147</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H117" t="s">
         <v>153</v>
@@ -4399,13 +4465,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>448</v>
+        <v>251</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>447</v>
+        <v>252</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4414,21 +4480,21 @@
         <v>147</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H118" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>61</v>
+        <v>445</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4437,7 +4503,7 @@
         <v>147</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H119" t="s">
         <v>153</v>
@@ -4445,13 +4511,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>254</v>
+        <v>205</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4460,21 +4526,21 @@
         <v>147</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>256</v>
+        <v>61</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>257</v>
+        <v>453</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
@@ -4483,7 +4549,7 @@
         <v>147</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H121" t="s">
         <v>153</v>
@@ -4491,13 +4557,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
@@ -4506,7 +4572,7 @@
         <v>147</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H122" t="s">
         <v>153</v>
@@ -4514,13 +4580,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>62</v>
+        <v>255</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>282</v>
+        <v>256</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
@@ -4529,7 +4595,7 @@
         <v>147</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H123" t="s">
         <v>153</v>
@@ -4537,13 +4603,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>63</v>
+        <v>280</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="D124" t="s">
         <v>134</v>
@@ -4552,7 +4618,7 @@
         <v>147</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H124" t="s">
         <v>153</v>
@@ -4560,13 +4626,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>29</v>
+        <v>281</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -4575,7 +4641,7 @@
         <v>147</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H125" t="s">
         <v>153</v>
@@ -4583,7 +4649,7 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>135</v>
@@ -4598,7 +4664,7 @@
         <v>147</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H126" t="s">
         <v>153</v>
@@ -4606,13 +4672,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>214</v>
+        <v>64</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>248</v>
+        <v>29</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -4621,7 +4687,7 @@
         <v>147</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H127" t="s">
         <v>153</v>
@@ -4629,13 +4695,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>249</v>
+        <v>65</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>250</v>
+        <v>29</v>
       </c>
       <c r="D128" t="s">
         <v>134</v>
@@ -4644,7 +4710,7 @@
         <v>147</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H128" t="s">
         <v>153</v>
@@ -4652,13 +4718,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>66</v>
+        <v>214</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
@@ -4667,7 +4733,7 @@
         <v>147</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H129" t="s">
         <v>153</v>
@@ -4675,13 +4741,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>67</v>
+        <v>248</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -4690,7 +4756,7 @@
         <v>147</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H130" t="s">
         <v>153</v>
@@ -4698,13 +4764,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -4713,7 +4779,7 @@
         <v>147</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H131" t="s">
         <v>153</v>
@@ -4721,7 +4787,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
@@ -4736,7 +4802,7 @@
         <v>147</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H132" t="s">
         <v>153</v>
@@ -4744,13 +4810,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>261</v>
+        <v>68</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -4759,7 +4825,7 @@
         <v>147</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H133" t="s">
         <v>153</v>
@@ -4767,13 +4833,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>263</v>
+        <v>69</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -4782,7 +4848,7 @@
         <v>147</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H134" t="s">
         <v>153</v>
@@ -4790,13 +4856,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -4805,7 +4871,7 @@
         <v>147</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H135" t="s">
         <v>153</v>
@@ -4813,13 +4879,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -4828,7 +4894,7 @@
         <v>147</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H136" t="s">
         <v>153</v>
@@ -4836,13 +4902,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>71</v>
+        <v>264</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>29</v>
+        <v>265</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -4851,7 +4917,7 @@
         <v>147</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H137" t="s">
         <v>153</v>
@@ -4859,13 +4925,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>29</v>
+        <v>259</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
@@ -4874,7 +4940,7 @@
         <v>147</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H138" t="s">
         <v>153</v>
@@ -4882,7 +4948,7 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
@@ -4897,7 +4963,7 @@
         <v>147</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H139" t="s">
         <v>153</v>
@@ -4905,13 +4971,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>274</v>
+        <v>72</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -4920,7 +4986,7 @@
         <v>147</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H140" t="s">
         <v>153</v>
@@ -4928,13 +4994,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
@@ -4943,7 +5009,7 @@
         <v>147</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H141" t="s">
         <v>153</v>
@@ -4951,13 +5017,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>213</v>
+        <v>273</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>182</v>
+        <v>266</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -4966,7 +5032,7 @@
         <v>147</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H142" t="s">
         <v>153</v>
@@ -4974,22 +5040,22 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
       </c>
       <c r="E143" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H143" t="s">
         <v>153</v>
@@ -4997,22 +5063,22 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>272</v>
+        <v>213</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>273</v>
+        <v>182</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
       </c>
       <c r="E144" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H144" t="s">
         <v>153</v>
@@ -5020,22 +5086,22 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>251</v>
+        <v>270</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
       </c>
       <c r="E145" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H145" t="s">
         <v>153</v>
@@ -5043,13 +5109,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>211</v>
+        <v>271</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>244</v>
+        <v>272</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5058,7 +5124,7 @@
         <v>147</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H146" t="s">
         <v>153</v>
@@ -5066,13 +5132,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>245</v>
+        <v>75</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>141</v>
+        <v>250</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5081,21 +5147,21 @@
         <v>147</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H147" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="148" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>74</v>
+        <v>211</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>275</v>
+        <v>243</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5104,7 +5170,7 @@
         <v>147</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H148" t="s">
         <v>153</v>
@@ -5112,13 +5178,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>436</v>
+        <v>244</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>436</v>
+        <v>141</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5126,20 +5192,22 @@
       <c r="E149" t="s">
         <v>147</v>
       </c>
-      <c r="F149" s="5"/>
+      <c r="F149" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H149" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>437</v>
+        <v>274</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5147,71 +5215,75 @@
       <c r="E150" t="s">
         <v>147</v>
       </c>
+      <c r="F150" s="5" t="s">
+        <v>277</v>
+      </c>
       <c r="H150" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A151" s="6"/>
-      <c r="B151" s="6"/>
-      <c r="C151" s="6"/>
+      <c r="A151" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="B151" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C151" s="6" t="s">
+        <v>434</v>
+      </c>
+      <c r="D151" t="s">
+        <v>134</v>
+      </c>
+      <c r="E151" t="s">
+        <v>147</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="H151" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A152" s="7" t="s">
+      <c r="A152" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B152" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C152" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="D152" t="s">
+        <v>134</v>
+      </c>
+      <c r="E152" t="s">
+        <v>147</v>
+      </c>
+      <c r="H152" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A153" s="6"/>
+      <c r="B153" s="6"/>
+      <c r="C153" s="6"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A154" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B152" s="5"/>
-      <c r="C152" s="5"/>
-    </row>
-    <row r="153" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A153" s="8" t="s">
+      <c r="B154" s="5"/>
+      <c r="C154" s="5"/>
+    </row>
+    <row r="155" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A155" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B153" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C153" s="9" t="s">
-        <v>435</v>
-      </c>
-      <c r="D153" t="s">
-        <v>134</v>
-      </c>
-      <c r="E153" t="s">
-        <v>148</v>
-      </c>
-      <c r="H153" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B154" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C154" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D154" t="s">
-        <v>134</v>
-      </c>
-      <c r="E154" t="s">
-        <v>148</v>
-      </c>
-      <c r="H154" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="155" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>81</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C155" s="9" t="s">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
@@ -5225,13 +5297,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="8" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C156" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D156" t="s">
         <v>134</v>
@@ -5243,137 +5315,137 @@
         <v>153</v>
       </c>
     </row>
-    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="1"/>
-      <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
+    <row r="157" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A157" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C157" s="9" t="s">
+        <v>295</v>
+      </c>
       <c r="D157" t="s">
         <v>134</v>
       </c>
+      <c r="E157" t="s">
+        <v>148</v>
+      </c>
+      <c r="H157" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C158" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D158" t="s">
+        <v>134</v>
+      </c>
+      <c r="E158" t="s">
+        <v>148</v>
+      </c>
+      <c r="H158" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="1"/>
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+      <c r="D159" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A160" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B158" s="4"/>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="3" t="s">
+      <c r="B160" s="4"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B159" s="4"/>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="6" t="s">
+      <c r="B161" s="4"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D162" t="s">
+        <v>134</v>
+      </c>
+      <c r="E162" t="s">
+        <v>149</v>
+      </c>
+      <c r="H162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="6" t="s">
         <v>300</v>
       </c>
-      <c r="B160" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C160" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D160" t="s">
-        <v>134</v>
-      </c>
-      <c r="E160" t="s">
-        <v>149</v>
-      </c>
-      <c r="H160" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="6" t="s">
+      <c r="B163" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B161" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="6" t="s">
+      <c r="D163" t="s">
+        <v>134</v>
+      </c>
+      <c r="E163" t="s">
+        <v>149</v>
+      </c>
+      <c r="H163" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A164" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="D161" t="s">
-        <v>134</v>
-      </c>
-      <c r="E161" t="s">
-        <v>149</v>
-      </c>
-      <c r="H161" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="162" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
+      <c r="B164" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C164" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B162" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C162" s="6" t="s">
+      <c r="D164" t="s">
+        <v>134</v>
+      </c>
+      <c r="E164" t="s">
+        <v>149</v>
+      </c>
+      <c r="H164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="D162" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" t="s">
-        <v>149</v>
-      </c>
-      <c r="H162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
+      <c r="B165" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>305</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D163" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" t="s">
-        <v>149</v>
-      </c>
-      <c r="H163" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>308</v>
-      </c>
-      <c r="D164" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" t="s">
-        <v>149</v>
-      </c>
-      <c r="H164" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>299</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -5387,93 +5459,93 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D166" t="s">
+        <v>134</v>
+      </c>
+      <c r="E166" t="s">
+        <v>149</v>
+      </c>
+      <c r="H166" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="D167" t="s">
+        <v>134</v>
+      </c>
+      <c r="E167" t="s">
+        <v>149</v>
+      </c>
+      <c r="H167" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="6" t="s">
+      <c r="D168" t="s">
+        <v>134</v>
+      </c>
+      <c r="E168" t="s">
+        <v>149</v>
+      </c>
+      <c r="H168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>311</v>
       </c>
-      <c r="D166" t="s">
-        <v>134</v>
-      </c>
-      <c r="E166" t="s">
-        <v>149</v>
-      </c>
-      <c r="H166" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
+      <c r="B169" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="D169" t="s">
+        <v>134</v>
+      </c>
+      <c r="E169" t="s">
+        <v>149</v>
+      </c>
+      <c r="H169" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>313</v>
       </c>
-      <c r="D167" t="s">
-        <v>134</v>
-      </c>
-      <c r="E167" t="s">
-        <v>149</v>
-      </c>
-      <c r="H167" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
+      <c r="B170" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>314</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="D168" t="s">
-        <v>134</v>
-      </c>
-      <c r="E168" t="s">
-        <v>149</v>
-      </c>
-      <c r="H168" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>309</v>
-      </c>
-      <c r="D169" t="s">
-        <v>134</v>
-      </c>
-      <c r="E169" t="s">
-        <v>149</v>
-      </c>
-      <c r="H169" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -5487,93 +5559,93 @@
     </row>
     <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D171" t="s">
+        <v>134</v>
+      </c>
+      <c r="E171" t="s">
+        <v>149</v>
+      </c>
+      <c r="H171" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D172" t="s">
+        <v>134</v>
+      </c>
+      <c r="E172" t="s">
+        <v>149</v>
+      </c>
+      <c r="H172" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>89</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C171" s="6" t="s">
+      <c r="B173" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D171" t="s">
-        <v>134</v>
-      </c>
-      <c r="E171" t="s">
-        <v>149</v>
-      </c>
-      <c r="H171" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
+      <c r="D173" t="s">
+        <v>134</v>
+      </c>
+      <c r="E173" t="s">
+        <v>149</v>
+      </c>
+      <c r="H173" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D172" t="s">
-        <v>134</v>
-      </c>
-      <c r="E172" t="s">
-        <v>149</v>
-      </c>
-      <c r="H172" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
+      <c r="B174" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D174" t="s">
+        <v>134</v>
+      </c>
+      <c r="E174" t="s">
+        <v>149</v>
+      </c>
+      <c r="H174" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C175" s="6" t="s">
         <v>317</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D173" t="s">
-        <v>134</v>
-      </c>
-      <c r="E173" t="s">
-        <v>149</v>
-      </c>
-      <c r="H173" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D174" t="s">
-        <v>134</v>
-      </c>
-      <c r="E174" t="s">
-        <v>149</v>
-      </c>
-      <c r="H174" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>316</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -5587,113 +5659,113 @@
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D176" t="s">
+        <v>134</v>
+      </c>
+      <c r="E176" t="s">
+        <v>149</v>
+      </c>
+      <c r="H176" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D177" t="s">
+        <v>134</v>
+      </c>
+      <c r="E177" t="s">
+        <v>149</v>
+      </c>
+      <c r="H177" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B176" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C176" s="6" t="s">
+      <c r="D178" t="s">
+        <v>134</v>
+      </c>
+      <c r="E178" t="s">
+        <v>149</v>
+      </c>
+      <c r="H178" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D176" t="s">
-        <v>134</v>
-      </c>
-      <c r="E176" t="s">
-        <v>149</v>
-      </c>
-      <c r="H176" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
+      <c r="B179" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C177" s="6" t="s">
+      <c r="D179" t="s">
+        <v>134</v>
+      </c>
+      <c r="E179" t="s">
+        <v>149</v>
+      </c>
+      <c r="H179" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="D177" t="s">
-        <v>134</v>
-      </c>
-      <c r="E177" t="s">
-        <v>149</v>
-      </c>
-      <c r="H177" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
+      <c r="B180" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>326</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C178" s="6" t="s">
+      <c r="D180" t="s">
+        <v>134</v>
+      </c>
+      <c r="E180" t="s">
+        <v>149</v>
+      </c>
+      <c r="H180" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="D178" t="s">
-        <v>134</v>
-      </c>
-      <c r="E178" t="s">
-        <v>149</v>
-      </c>
-      <c r="H178" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
+      <c r="B181" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>328</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>329</v>
-      </c>
-      <c r="D179" t="s">
-        <v>134</v>
-      </c>
-      <c r="E179" t="s">
-        <v>149</v>
-      </c>
-      <c r="H179" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>330</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>331</v>
-      </c>
-      <c r="D180" t="s">
-        <v>134</v>
-      </c>
-      <c r="E180" t="s">
-        <v>149</v>
-      </c>
-      <c r="H180" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>332</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>333</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -5707,13 +5779,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>334</v>
+        <v>329</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>335</v>
+        <v>330</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -5727,13 +5799,13 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>336</v>
+        <v>331</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>337</v>
+        <v>332</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -5747,13 +5819,13 @@
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>338</v>
+        <v>333</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>339</v>
+        <v>334</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -5767,13 +5839,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>340</v>
+        <v>335</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>341</v>
+        <v>336</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -5787,13 +5859,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>342</v>
+        <v>337</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>343</v>
+        <v>338</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -5807,13 +5879,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>344</v>
+        <v>339</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>345</v>
+        <v>340</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
@@ -5825,15 +5897,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="188" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>346</v>
+        <v>341</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>347</v>
+        <v>342</v>
       </c>
       <c r="D188" t="s">
         <v>134</v>
@@ -5847,113 +5919,113 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
+        <v>343</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C189" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="D189" t="s">
+        <v>134</v>
+      </c>
+      <c r="E189" t="s">
+        <v>149</v>
+      </c>
+      <c r="H189" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A190" s="6" t="s">
+        <v>345</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C190" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="D190" t="s">
+        <v>134</v>
+      </c>
+      <c r="E190" t="s">
+        <v>149</v>
+      </c>
+      <c r="H190" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A191" s="6" t="s">
+        <v>347</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>348</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C189" s="6" t="s">
+      <c r="D191" t="s">
+        <v>134</v>
+      </c>
+      <c r="E191" t="s">
+        <v>149</v>
+      </c>
+      <c r="H191" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="192" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A192" s="6" t="s">
         <v>349</v>
       </c>
-      <c r="D189" t="s">
-        <v>134</v>
-      </c>
-      <c r="E189" t="s">
-        <v>149</v>
-      </c>
-      <c r="H189" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A190" s="6" t="s">
+      <c r="B192" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>350</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C190" s="6" t="s">
+      <c r="D192" t="s">
+        <v>134</v>
+      </c>
+      <c r="E192" t="s">
+        <v>149</v>
+      </c>
+      <c r="H192" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="D193" t="s">
+        <v>134</v>
+      </c>
+      <c r="E193" t="s">
+        <v>149</v>
+      </c>
+      <c r="H193" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>351</v>
-      </c>
-      <c r="D190" t="s">
-        <v>134</v>
-      </c>
-      <c r="E190" t="s">
-        <v>149</v>
-      </c>
-      <c r="H190" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="191" spans="1:8" ht="120" x14ac:dyDescent="0.25">
-      <c r="A191" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B191" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="D191" t="s">
-        <v>134</v>
-      </c>
-      <c r="E191" t="s">
-        <v>149</v>
-      </c>
-      <c r="H191" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="192" spans="1:8" ht="60" x14ac:dyDescent="0.25">
-      <c r="A192" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B192" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>352</v>
-      </c>
-      <c r="D192" t="s">
-        <v>134</v>
-      </c>
-      <c r="E192" t="s">
-        <v>149</v>
-      </c>
-      <c r="H192" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
-        <v>353</v>
-      </c>
-      <c r="B193" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="D193" t="s">
-        <v>134</v>
-      </c>
-      <c r="E193" t="s">
-        <v>149</v>
-      </c>
-      <c r="H193" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>355</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>356</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -5967,13 +6039,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D195" t="s">
         <v>134</v>
@@ -5987,13 +6059,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>440</v>
+        <v>354</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>95</v>
+        <v>355</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6007,13 +6079,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6025,15 +6097,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>94</v>
+        <v>438</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>441</v>
+        <v>95</v>
       </c>
       <c r="D198" t="s">
         <v>134</v>
@@ -6047,13 +6119,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>99</v>
+        <v>358</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D199" t="s">
         <v>134</v>
@@ -6067,47 +6139,47 @@
     </row>
     <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D200" t="s">
+        <v>134</v>
+      </c>
+      <c r="E200" t="s">
+        <v>149</v>
+      </c>
+      <c r="H200" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>360</v>
+      </c>
+      <c r="D201" t="s">
+        <v>134</v>
+      </c>
+      <c r="E201" t="s">
+        <v>149</v>
+      </c>
+      <c r="H201" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
         <v>100</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D200" t="s">
-        <v>134</v>
-      </c>
-      <c r="E200" t="s">
-        <v>149</v>
-      </c>
-      <c r="H200" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
-        <v>101</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D201" t="s">
-        <v>134</v>
-      </c>
-      <c r="E201" t="s">
-        <v>149</v>
-      </c>
-      <c r="H201" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>102</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>135</v>
@@ -6125,9 +6197,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>135</v>
@@ -6145,175 +6217,175 @@
         <v>152</v>
       </c>
     </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
+        <v>102</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D204" t="s">
+        <v>134</v>
+      </c>
+      <c r="E204" t="s">
+        <v>149</v>
+      </c>
+      <c r="H204" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C205" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D205" t="s">
+        <v>134</v>
+      </c>
+      <c r="E205" t="s">
+        <v>149</v>
+      </c>
+      <c r="H205" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B206" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>363</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C204" s="6" t="s">
+      <c r="D206" t="s">
+        <v>134</v>
+      </c>
+      <c r="E206" t="s">
+        <v>149</v>
+      </c>
+      <c r="H206" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="D204" t="s">
-        <v>134</v>
-      </c>
-      <c r="E204" t="s">
-        <v>149</v>
-      </c>
-      <c r="H204" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="B207" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C205" s="6" t="s">
+      <c r="D207" t="s">
+        <v>134</v>
+      </c>
+      <c r="E207" t="s">
+        <v>149</v>
+      </c>
+      <c r="H207" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
         <v>366</v>
       </c>
-      <c r="D205" t="s">
-        <v>134</v>
-      </c>
-      <c r="E205" t="s">
-        <v>149</v>
-      </c>
-      <c r="H205" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="B208" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B206" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C206" s="6" t="s">
+      <c r="D208" t="s">
+        <v>134</v>
+      </c>
+      <c r="E208" t="s">
+        <v>149</v>
+      </c>
+      <c r="H208" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
         <v>368</v>
       </c>
-      <c r="D206" t="s">
-        <v>134</v>
-      </c>
-      <c r="E206" t="s">
-        <v>149</v>
-      </c>
-      <c r="H206" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
+      <c r="B209" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>369</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>370</v>
-      </c>
-      <c r="D207" t="s">
-        <v>134</v>
-      </c>
-      <c r="E207" t="s">
-        <v>149</v>
-      </c>
-      <c r="H207" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
+      <c r="D209" t="s">
+        <v>134</v>
+      </c>
+      <c r="E209" t="s">
+        <v>149</v>
+      </c>
+      <c r="H209" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B208" s="6" t="s">
+      <c r="B210" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C208" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="D208" t="s">
-        <v>134</v>
-      </c>
-      <c r="E208" t="s">
-        <v>149</v>
-      </c>
-      <c r="H208" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
+      <c r="C210" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="D210" t="s">
+        <v>134</v>
+      </c>
+      <c r="E210" t="s">
+        <v>149</v>
+      </c>
+      <c r="H210" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A211" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="B211" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C211" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="B209" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C209" s="6" t="s">
+      <c r="D211" t="s">
+        <v>134</v>
+      </c>
+      <c r="E211" t="s">
+        <v>149</v>
+      </c>
+      <c r="H211" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A212" s="6" t="s">
         <v>373</v>
       </c>
-      <c r="D209" t="s">
-        <v>134</v>
-      </c>
-      <c r="E209" t="s">
-        <v>149</v>
-      </c>
-      <c r="H209" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
+      <c r="B212" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C212" s="6" t="s">
         <v>374</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="D210" t="s">
-        <v>134</v>
-      </c>
-      <c r="E210" t="s">
-        <v>149</v>
-      </c>
-      <c r="H210" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A211" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="B211" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C211" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D211" t="s">
-        <v>134</v>
-      </c>
-      <c r="E211" t="s">
-        <v>149</v>
-      </c>
-      <c r="H211" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A212" s="6" t="s">
-        <v>105</v>
-      </c>
-      <c r="B212" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C212" s="6" t="s">
-        <v>371</v>
       </c>
       <c r="D212" t="s">
         <v>134</v>
@@ -6327,113 +6399,113 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B213" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C213" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="D213" t="s">
+        <v>134</v>
+      </c>
+      <c r="E213" t="s">
+        <v>149</v>
+      </c>
+      <c r="H213" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A214" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D214" t="s">
+        <v>134</v>
+      </c>
+      <c r="E214" t="s">
+        <v>149</v>
+      </c>
+      <c r="H214" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>379</v>
       </c>
-      <c r="B213" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C213" s="6" t="s">
+      <c r="D215" t="s">
+        <v>134</v>
+      </c>
+      <c r="E215" t="s">
+        <v>149</v>
+      </c>
+      <c r="H215" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>380</v>
       </c>
-      <c r="D213" t="s">
-        <v>134</v>
-      </c>
-      <c r="E213" t="s">
-        <v>149</v>
-      </c>
-      <c r="H213" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A214" s="6" t="s">
+      <c r="B216" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C214" s="6" t="s">
+      <c r="D216" t="s">
+        <v>134</v>
+      </c>
+      <c r="E216" t="s">
+        <v>149</v>
+      </c>
+      <c r="H216" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>382</v>
       </c>
-      <c r="D214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E214" t="s">
-        <v>149</v>
-      </c>
-      <c r="H214" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="B217" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>383</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>384</v>
-      </c>
-      <c r="D215" t="s">
-        <v>134</v>
-      </c>
-      <c r="E215" t="s">
-        <v>149</v>
-      </c>
-      <c r="H215" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="D217" t="s">
+        <v>134</v>
+      </c>
+      <c r="E217" t="s">
+        <v>149</v>
+      </c>
+      <c r="H217" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B216" s="6" t="s">
+      <c r="B218" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C216" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D216" t="s">
-        <v>134</v>
-      </c>
-      <c r="E216" t="s">
-        <v>149</v>
-      </c>
-      <c r="H216" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D217" t="s">
-        <v>134</v>
-      </c>
-      <c r="E217" t="s">
-        <v>149</v>
-      </c>
-      <c r="H217" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>108</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>135</v>
-      </c>
       <c r="C218" s="6" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
@@ -6447,13 +6519,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>385</v>
+        <v>29</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
@@ -6467,7 +6539,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>135</v>
@@ -6487,13 +6559,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>387</v>
+        <v>109</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -6507,13 +6579,13 @@
     </row>
     <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>389</v>
+        <v>110</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>390</v>
+        <v>29</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
@@ -6527,13 +6599,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="D223" t="s">
         <v>134</v>
@@ -6547,13 +6619,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>393</v>
+        <v>388</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>394</v>
+        <v>389</v>
       </c>
       <c r="D224" t="s">
         <v>134</v>
@@ -6565,15 +6637,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>111</v>
+        <v>390</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="D225" t="s">
         <v>134</v>
@@ -6587,13 +6659,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>112</v>
+        <v>392</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="D226" t="s">
         <v>134</v>
@@ -6607,13 +6679,13 @@
     </row>
     <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>397</v>
+        <v>385</v>
       </c>
       <c r="D227" t="s">
         <v>134</v>
@@ -6625,15 +6697,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>398</v>
+        <v>112</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D228" t="s">
         <v>134</v>
@@ -6647,13 +6719,13 @@
     </row>
     <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
@@ -6667,13 +6739,13 @@
     </row>
     <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -6687,73 +6759,73 @@
     </row>
     <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
+        <v>399</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="D231" t="s">
+        <v>134</v>
+      </c>
+      <c r="E231" t="s">
+        <v>149</v>
+      </c>
+      <c r="H231" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D232" t="s">
+        <v>134</v>
+      </c>
+      <c r="E232" t="s">
+        <v>149</v>
+      </c>
+      <c r="H232" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>404</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C231" s="6" t="s">
+      <c r="D233" t="s">
+        <v>134</v>
+      </c>
+      <c r="E233" t="s">
+        <v>149</v>
+      </c>
+      <c r="H233" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="D231" t="s">
-        <v>134</v>
-      </c>
-      <c r="E231" t="s">
-        <v>149</v>
-      </c>
-      <c r="H231" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
+      <c r="B234" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C234" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>407</v>
-      </c>
-      <c r="D232" t="s">
-        <v>134</v>
-      </c>
-      <c r="E232" t="s">
-        <v>149</v>
-      </c>
-      <c r="H232" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>452</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="D233" t="s">
-        <v>134</v>
-      </c>
-      <c r="E233" t="s">
-        <v>149</v>
-      </c>
-      <c r="H233" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>453</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
@@ -6767,13 +6839,13 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>114</v>
+        <v>448</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>29</v>
+        <v>447</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -6785,15 +6857,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>29</v>
+        <v>449</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -6807,7 +6879,7 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
@@ -6827,13 +6899,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>409</v>
+        <v>115</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -6847,13 +6919,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>411</v>
+        <v>116</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>412</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -6865,12 +6937,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>117</v>
+        <v>407</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C240" s="6" t="s">
         <v>408</v>
@@ -6887,73 +6959,73 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="D241" t="s">
+        <v>134</v>
+      </c>
+      <c r="E241" t="s">
+        <v>149</v>
+      </c>
+      <c r="H241" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D242" t="s">
+        <v>134</v>
+      </c>
+      <c r="E242" t="s">
+        <v>149</v>
+      </c>
+      <c r="H242" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C243" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D243" t="s">
+        <v>134</v>
+      </c>
+      <c r="E243" t="s">
+        <v>149</v>
+      </c>
+      <c r="H243" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
         <v>96</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C241" s="6" t="s">
-        <v>413</v>
-      </c>
-      <c r="D241" t="s">
-        <v>134</v>
-      </c>
-      <c r="E241" t="s">
-        <v>149</v>
-      </c>
-      <c r="H241" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
-        <v>97</v>
-      </c>
-      <c r="B242" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C242" s="6" t="s">
-        <v>414</v>
-      </c>
-      <c r="D242" t="s">
-        <v>134</v>
-      </c>
-      <c r="E242" t="s">
-        <v>149</v>
-      </c>
-      <c r="H242" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
-        <v>98</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>415</v>
-      </c>
-      <c r="D243" t="s">
-        <v>134</v>
-      </c>
-      <c r="E243" t="s">
-        <v>149</v>
-      </c>
-      <c r="H243" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="195" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>118</v>
-      </c>
       <c r="B244" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>442</v>
+        <v>411</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -6967,13 +7039,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>150</v>
+        <v>97</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -6987,13 +7059,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -7005,15 +7077,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>420</v>
+        <v>118</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>151</v>
+        <v>440</v>
       </c>
       <c r="D247" t="s">
         <v>134</v>
@@ -7027,13 +7099,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>421</v>
+        <v>150</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>422</v>
+        <v>415</v>
       </c>
       <c r="D248" t="s">
         <v>134</v>
@@ -7045,15 +7117,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>119</v>
+        <v>416</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="D249" t="s">
         <v>134</v>
@@ -7067,93 +7139,93 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
+        <v>418</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>151</v>
+      </c>
+      <c r="D250" t="s">
+        <v>134</v>
+      </c>
+      <c r="E250" t="s">
+        <v>149</v>
+      </c>
+      <c r="H250" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D251" t="s">
+        <v>134</v>
+      </c>
+      <c r="E251" t="s">
+        <v>149</v>
+      </c>
+      <c r="H251" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="D252" t="s">
+        <v>134</v>
+      </c>
+      <c r="E252" t="s">
+        <v>149</v>
+      </c>
+      <c r="H252" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
         <v>120</v>
       </c>
-      <c r="B250" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C250" s="6" t="s">
+      <c r="B253" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D250" t="s">
-        <v>134</v>
-      </c>
-      <c r="E250" t="s">
-        <v>149</v>
-      </c>
-      <c r="H250" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
+      <c r="D253" t="s">
+        <v>134</v>
+      </c>
+      <c r="E253" t="s">
+        <v>149</v>
+      </c>
+      <c r="H253" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
         <v>121</v>
       </c>
-      <c r="B251" s="6" t="s">
+      <c r="B254" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C251" s="6" t="s">
+      <c r="C254" s="6" t="s">
         <v>122</v>
-      </c>
-      <c r="D251" t="s">
-        <v>134</v>
-      </c>
-      <c r="E251" t="s">
-        <v>149</v>
-      </c>
-      <c r="H251" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>123</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D252" t="s">
-        <v>134</v>
-      </c>
-      <c r="E252" t="s">
-        <v>149</v>
-      </c>
-      <c r="H252" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D253" t="s">
-        <v>134</v>
-      </c>
-      <c r="E253" t="s">
-        <v>149</v>
-      </c>
-      <c r="H253" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>425</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>426</v>
       </c>
       <c r="D254" t="s">
         <v>134</v>
@@ -7167,13 +7239,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>427</v>
+        <v>123</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7185,15 +7257,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>429</v>
+        <v>124</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7205,12 +7277,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>125</v>
+        <v>423</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>424</v>
@@ -7225,69 +7297,69 @@
         <v>152</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>426</v>
+      </c>
+      <c r="D258" t="s">
+        <v>134</v>
+      </c>
+      <c r="E258" t="s">
+        <v>149</v>
+      </c>
+      <c r="H258" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>428</v>
+      </c>
+      <c r="D259" t="s">
+        <v>134</v>
+      </c>
+      <c r="E259" t="s">
+        <v>149</v>
+      </c>
+      <c r="H259" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="B260" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C260" s="6" t="s">
+        <v>422</v>
+      </c>
+      <c r="D260" t="s">
+        <v>134</v>
+      </c>
+      <c r="E260" t="s">
+        <v>149</v>
+      </c>
+      <c r="H260" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
         <v>130</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D258" t="s">
-        <v>134</v>
-      </c>
-      <c r="E258" t="s">
-        <v>149</v>
-      </c>
-      <c r="H258" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>131</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C259" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D259" t="s">
-        <v>134</v>
-      </c>
-      <c r="E259" t="s">
-        <v>149</v>
-      </c>
-      <c r="H259" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>126</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C260" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D260" t="s">
-        <v>134</v>
-      </c>
-      <c r="E260" t="s">
-        <v>149</v>
-      </c>
-      <c r="H260" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>127</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>135</v>
@@ -7305,9 +7377,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>135</v>
@@ -7327,7 +7399,7 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>135</v>
@@ -7345,43 +7417,283 @@
         <v>152</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B264" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D264" t="s">
+        <v>134</v>
+      </c>
+      <c r="E264" t="s">
+        <v>149</v>
+      </c>
+      <c r="H264" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D265" t="s">
+        <v>134</v>
+      </c>
+      <c r="E265" t="s">
+        <v>149</v>
+      </c>
+      <c r="H265" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D266" t="s">
+        <v>134</v>
+      </c>
+      <c r="E266" t="s">
+        <v>149</v>
+      </c>
+      <c r="H266" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
         <v>132</v>
       </c>
-      <c r="B264" s="6" t="s">
+      <c r="B267" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>431</v>
-      </c>
-      <c r="D264" t="s">
-        <v>134</v>
-      </c>
-      <c r="E264" t="s">
-        <v>149</v>
-      </c>
-      <c r="H264" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="345" x14ac:dyDescent="0.25">
-      <c r="A265" s="1" t="s">
+      <c r="C267" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D267" t="s">
+        <v>134</v>
+      </c>
+      <c r="E267" t="s">
+        <v>149</v>
+      </c>
+      <c r="H267" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C268" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D268" t="s">
+        <v>134</v>
+      </c>
+      <c r="E268" t="s">
+        <v>149</v>
+      </c>
+      <c r="H268" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B269" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C269" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D269" t="s">
+        <v>134</v>
+      </c>
+      <c r="E269" t="s">
+        <v>149</v>
+      </c>
+      <c r="H269" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B270" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C270" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D270" t="s">
+        <v>134</v>
+      </c>
+      <c r="E270" t="s">
+        <v>149</v>
+      </c>
+      <c r="H270" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A271" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B271" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C271" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D271" t="s">
+        <v>134</v>
+      </c>
+      <c r="E271" t="s">
+        <v>149</v>
+      </c>
+      <c r="H271" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A272" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B272" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C272" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D272" t="s">
+        <v>134</v>
+      </c>
+      <c r="E272" t="s">
+        <v>149</v>
+      </c>
+      <c r="H272" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A273" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B273" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C273" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D273" t="s">
+        <v>134</v>
+      </c>
+      <c r="E273" t="s">
+        <v>149</v>
+      </c>
+      <c r="H273" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A274" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D274" t="s">
+        <v>134</v>
+      </c>
+      <c r="E274" t="s">
+        <v>149</v>
+      </c>
+      <c r="H274" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D275" t="s">
+        <v>134</v>
+      </c>
+      <c r="E275" t="s">
+        <v>149</v>
+      </c>
+      <c r="H275" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>473</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="D276" t="s">
+        <v>134</v>
+      </c>
+      <c r="E276" t="s">
+        <v>149</v>
+      </c>
+      <c r="H276" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A277" s="1" t="s">
         <v>133</v>
       </c>
-      <c r="B265" s="6" t="s">
+      <c r="B277" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C265" s="11" t="s">
-        <v>443</v>
-      </c>
-      <c r="D265" t="s">
-        <v>134</v>
-      </c>
-      <c r="E265" t="s">
-        <v>149</v>
-      </c>
-      <c r="H265" t="s">
+      <c r="C277" s="11" t="s">
+        <v>475</v>
+      </c>
+      <c r="D277" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" t="s">
+        <v>149</v>
+      </c>
+      <c r="H277" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB4DCC07-A7A1-406E-8A78-EE238FDECA2D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D6B95-2873-4842-9DB8-B87CEFAC30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$237</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$241</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1741" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="482">
   <si>
     <t>Field_Name</t>
   </si>
@@ -693,9 +693,6 @@
     <t>Trade and other receivables</t>
   </si>
   <si>
-    <t>amount_due_from_related_companies+amounts_due_from_related_parties</t>
-  </si>
-  <si>
     <t>Non-current assets</t>
   </si>
   <si>
@@ -990,9 +987,6 @@
     <t>Employee benefits expense</t>
   </si>
   <si>
-    <t>share_based_payments_expense+transaction_and_integration_costs+gain_on_remeasurement_of_existing_interest_in_ernest_henry_mine+exploration_and_evaluation_costs_expensed+lease_modifications+royalty_expenses+other_expenses+outbound_freight+travel_expenses+other_expense+utilities_and_operating_expense+rental_and_lease_expense+other_expenses_from_ordinary_activities+property_expenses+restructuring_expense</t>
-  </si>
-  <si>
     <t>share_based_payments_expense</t>
   </si>
   <si>
@@ -1456,6 +1450,30 @@
   </si>
   <si>
     <t>profit_after_tax-profit_after_income_tax_expense_for_the_year-profit_after_income_tax_expense_for_the_period-profit_for_the_year-profit_of_the_year-profit_for_the_financial_year-profit_loss_for_the_year_after_income_tax-loss_profit_for_the_year-profit_loss_for_the_year_from_continuing_operations-net_profit_for_the_period</t>
+  </si>
+  <si>
+    <t>Occupancy expenses</t>
+  </si>
+  <si>
+    <t>Occupancy_expenses</t>
+  </si>
+  <si>
+    <t>share_based_payments_expense+transaction_and_integration_costs+gain_on_remeasurement_of_existing_interest_in_ernest_henry_mine+exploration_and_evaluation_costs_expensed+lease_modifications+royalty_expenses+other_expenses+outbound_freight+travel_expenses+other_expense+utilities_and_operating_expense+rental_and_lease_expense+other_expenses_from_ordinary_activities+property_expenses+restructuring_expense+Occupancy_expenses</t>
+  </si>
+  <si>
+    <t>Investments_and_Other_Financial_Assets</t>
+  </si>
+  <si>
+    <t>Lease recievables</t>
+  </si>
+  <si>
+    <t>Lease_recievables</t>
+  </si>
+  <si>
+    <t>Investments_and_Other_Financial_Assets+Lease_recievables</t>
+  </si>
+  <si>
+    <t>amount_due_from_related_companies+amounts_due_from_related_parties+Lease_recievables</t>
   </si>
 </sst>
 </file>
@@ -1868,10 +1886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H277"/>
+  <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="F61" sqref="F61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1903,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -1985,7 +2003,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>135</v>
@@ -1995,7 +2013,7 @@
         <v>134</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H7" t="s">
         <v>143</v>
@@ -2032,7 +2050,7 @@
         <v>146</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H10" t="s">
         <v>153</v>
@@ -2055,7 +2073,7 @@
         <v>146</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H11" t="s">
         <v>153</v>
@@ -2078,7 +2096,7 @@
         <v>146</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H12" t="s">
         <v>153</v>
@@ -2101,7 +2119,7 @@
         <v>146</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H13" t="s">
         <v>153</v>
@@ -2124,7 +2142,7 @@
         <v>146</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H14" t="s">
         <v>153</v>
@@ -2147,7 +2165,7 @@
         <v>146</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H15" t="s">
         <v>153</v>
@@ -2170,7 +2188,7 @@
         <v>146</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H16" t="s">
         <v>153</v>
@@ -2178,7 +2196,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>135</v>
@@ -2193,7 +2211,7 @@
         <v>146</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H17" t="s">
         <v>153</v>
@@ -2216,7 +2234,7 @@
         <v>146</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H18" t="s">
         <v>153</v>
@@ -2239,7 +2257,7 @@
         <v>146</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H19" t="s">
         <v>153</v>
@@ -2253,7 +2271,7 @@
         <v>136</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="D20" t="s">
         <v>134</v>
@@ -2262,7 +2280,7 @@
         <v>146</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H20" t="s">
         <v>153</v>
@@ -2285,7 +2303,7 @@
         <v>146</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H21" t="s">
         <v>153</v>
@@ -2308,7 +2326,7 @@
         <v>146</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H22" t="s">
         <v>153</v>
@@ -2331,7 +2349,7 @@
         <v>146</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H23" t="s">
         <v>153</v>
@@ -2354,7 +2372,7 @@
         <v>146</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H24" t="s">
         <v>153</v>
@@ -2377,7 +2395,7 @@
         <v>146</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H25" t="s">
         <v>153</v>
@@ -2400,7 +2418,7 @@
         <v>146</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H26" t="s">
         <v>153</v>
@@ -2423,7 +2441,7 @@
         <v>146</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H27" t="s">
         <v>153</v>
@@ -2431,7 +2449,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>135</v>
@@ -2446,7 +2464,7 @@
         <v>146</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H28" t="s">
         <v>153</v>
@@ -2469,15 +2487,15 @@
         <v>146</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H29" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>25</v>
+        <v>477</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>135</v>
@@ -2492,7 +2510,7 @@
         <v>146</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H30" t="s">
         <v>153</v>
@@ -2500,13 +2518,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>192</v>
+        <v>479</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>27</v>
+        <v>478</v>
       </c>
       <c r="D31" t="s">
         <v>134</v>
@@ -2515,21 +2533,21 @@
         <v>146</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H31" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A32" s="6" t="s">
-        <v>284</v>
+        <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>163</v>
+        <v>480</v>
       </c>
       <c r="D32" t="s">
         <v>134</v>
@@ -2538,7 +2556,7 @@
         <v>146</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H32" t="s">
         <v>153</v>
@@ -2546,13 +2564,13 @@
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B33" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C33" s="6" t="s">
-        <v>164</v>
+        <v>27</v>
       </c>
       <c r="D33" t="s">
         <v>134</v>
@@ -2561,21 +2579,21 @@
         <v>146</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H33" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="34" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>26</v>
+        <v>283</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>285</v>
+        <v>163</v>
       </c>
       <c r="D34" t="s">
         <v>134</v>
@@ -2584,21 +2602,21 @@
         <v>146</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H34" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="35" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>28</v>
+        <v>193</v>
       </c>
       <c r="B35" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>29</v>
+        <v>164</v>
       </c>
       <c r="D35" t="s">
         <v>134</v>
@@ -2607,21 +2625,21 @@
         <v>146</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H35" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A36" s="6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>31</v>
+        <v>284</v>
       </c>
       <c r="D36" t="s">
         <v>134</v>
@@ -2630,21 +2648,21 @@
         <v>146</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H36" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A37" s="6" t="s">
-        <v>194</v>
+        <v>28</v>
       </c>
       <c r="B37" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C37" s="6" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D37" t="s">
         <v>134</v>
@@ -2653,7 +2671,7 @@
         <v>146</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H37" t="s">
         <v>153</v>
@@ -2661,13 +2679,13 @@
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="6" t="s">
-        <v>195</v>
+        <v>30</v>
       </c>
       <c r="B38" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C38" s="6" t="s">
-        <v>165</v>
+        <v>31</v>
       </c>
       <c r="D38" t="s">
         <v>134</v>
@@ -2676,7 +2694,7 @@
         <v>146</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H38" t="s">
         <v>153</v>
@@ -2684,13 +2702,13 @@
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B39" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C39" s="6" t="s">
-        <v>166</v>
+        <v>31</v>
       </c>
       <c r="D39" t="s">
         <v>134</v>
@@ -2699,7 +2717,7 @@
         <v>146</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H39" t="s">
         <v>153</v>
@@ -2707,13 +2725,13 @@
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>37</v>
+        <v>195</v>
       </c>
       <c r="B40" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>138</v>
+        <v>165</v>
       </c>
       <c r="D40" t="s">
         <v>134</v>
@@ -2722,7 +2740,7 @@
         <v>146</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H40" t="s">
         <v>153</v>
@@ -2730,13 +2748,13 @@
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B41" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D41" t="s">
         <v>134</v>
@@ -2745,7 +2763,7 @@
         <v>146</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H41" t="s">
         <v>153</v>
@@ -2753,13 +2771,13 @@
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="6" t="s">
-        <v>198</v>
+        <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>168</v>
+        <v>138</v>
       </c>
       <c r="D42" t="s">
         <v>134</v>
@@ -2768,7 +2786,7 @@
         <v>146</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H42" t="s">
         <v>153</v>
@@ -2776,13 +2794,13 @@
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>287</v>
+        <v>197</v>
       </c>
       <c r="B43" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>199</v>
+        <v>167</v>
       </c>
       <c r="D43" t="s">
         <v>134</v>
@@ -2791,7 +2809,7 @@
         <v>146</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H43" t="s">
         <v>153</v>
@@ -2799,13 +2817,13 @@
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>286</v>
+        <v>198</v>
       </c>
       <c r="B44" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>200</v>
+        <v>168</v>
       </c>
       <c r="D44" t="s">
         <v>134</v>
@@ -2814,7 +2832,7 @@
         <v>146</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H44" t="s">
         <v>153</v>
@@ -2822,13 +2840,13 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>442</v>
+        <v>286</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>441</v>
+        <v>199</v>
       </c>
       <c r="D45" t="s">
         <v>134</v>
@@ -2837,21 +2855,21 @@
         <v>146</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H45" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>32</v>
+        <v>285</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>443</v>
+        <v>200</v>
       </c>
       <c r="D46" t="s">
         <v>134</v>
@@ -2860,7 +2878,7 @@
         <v>146</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H46" t="s">
         <v>153</v>
@@ -2868,13 +2886,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>201</v>
+        <v>440</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>169</v>
+        <v>439</v>
       </c>
       <c r="D47" t="s">
         <v>134</v>
@@ -2883,21 +2901,21 @@
         <v>146</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H47" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>293</v>
+        <v>32</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>162</v>
+        <v>441</v>
       </c>
       <c r="D48" t="s">
         <v>134</v>
@@ -2906,21 +2924,21 @@
         <v>146</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="H48" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>33</v>
+        <v>201</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>294</v>
+        <v>169</v>
       </c>
       <c r="D49" t="s">
         <v>134</v>
@@ -2929,21 +2947,21 @@
         <v>146</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H49" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>34</v>
+        <v>292</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="D50" t="s">
         <v>134</v>
@@ -2952,21 +2970,21 @@
         <v>146</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H50" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>218</v>
+        <v>33</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>219</v>
+        <v>293</v>
       </c>
       <c r="D51" t="s">
         <v>134</v>
@@ -2975,7 +2993,7 @@
         <v>146</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H51" t="s">
         <v>153</v>
@@ -2983,13 +3001,13 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>202</v>
+        <v>34</v>
       </c>
       <c r="B52" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>170</v>
+        <v>137</v>
       </c>
       <c r="D52" t="s">
         <v>134</v>
@@ -2998,7 +3016,7 @@
         <v>146</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H52" t="s">
         <v>153</v>
@@ -3006,13 +3024,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>191</v>
+        <v>218</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D53" t="s">
         <v>134</v>
@@ -3021,21 +3039,21 @@
         <v>146</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H53" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="54" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>35</v>
+        <v>202</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>217</v>
+        <v>170</v>
       </c>
       <c r="D54" t="s">
         <v>134</v>
@@ -3044,7 +3062,7 @@
         <v>146</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H54" t="s">
         <v>153</v>
@@ -3052,13 +3070,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>36</v>
+        <v>191</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>29</v>
+        <v>220</v>
       </c>
       <c r="D55" t="s">
         <v>134</v>
@@ -3067,7 +3085,7 @@
         <v>146</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H55" t="s">
         <v>153</v>
@@ -3075,13 +3093,13 @@
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>203</v>
+        <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>171</v>
+        <v>217</v>
       </c>
       <c r="D56" t="s">
         <v>134</v>
@@ -3090,21 +3108,21 @@
         <v>146</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H56" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>204</v>
+        <v>36</v>
       </c>
       <c r="B57" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D57" t="s">
         <v>134</v>
@@ -3113,21 +3131,21 @@
         <v>146</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H57" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A58" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>136</v>
+      <c r="A58" s="6" t="s">
+        <v>203</v>
+      </c>
+      <c r="B58" s="6" t="s">
+        <v>135</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>221</v>
+        <v>171</v>
       </c>
       <c r="D58" t="s">
         <v>134</v>
@@ -3136,21 +3154,21 @@
         <v>146</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H58" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>38</v>
+        <v>204</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D59" t="s">
         <v>134</v>
@@ -3159,7 +3177,7 @@
         <v>146</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H59" t="s">
         <v>153</v>
@@ -3167,13 +3185,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>194</v>
+        <v>479</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>31</v>
+        <v>478</v>
       </c>
       <c r="D60" t="s">
         <v>134</v>
@@ -3182,21 +3200,21 @@
         <v>146</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H60" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="6" t="s">
-        <v>205</v>
-      </c>
-      <c r="B61" s="6" t="s">
-        <v>135</v>
+    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A61" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>136</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>173</v>
+        <v>481</v>
       </c>
       <c r="D61" t="s">
         <v>134</v>
@@ -3205,7 +3223,7 @@
         <v>146</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H61" t="s">
         <v>153</v>
@@ -3213,13 +3231,13 @@
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="6" t="s">
-        <v>206</v>
+        <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="D62" t="s">
         <v>134</v>
@@ -3228,7 +3246,7 @@
         <v>146</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H62" t="s">
         <v>153</v>
@@ -3236,13 +3254,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>39</v>
+        <v>194</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>216</v>
+        <v>31</v>
       </c>
       <c r="D63" t="s">
         <v>134</v>
@@ -3251,7 +3269,7 @@
         <v>146</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H63" t="s">
         <v>153</v>
@@ -3259,13 +3277,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D64" t="s">
         <v>134</v>
@@ -3274,7 +3292,7 @@
         <v>146</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H64" t="s">
         <v>153</v>
@@ -3282,13 +3300,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>430</v>
+        <v>206</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
         <v>134</v>
@@ -3297,7 +3315,7 @@
         <v>146</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H65" t="s">
         <v>153</v>
@@ -3305,13 +3323,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D66" t="s">
         <v>134</v>
@@ -3320,7 +3338,7 @@
         <v>146</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H66" t="s">
         <v>153</v>
@@ -3328,7 +3346,7 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>431</v>
+        <v>40</v>
       </c>
       <c r="B67" s="6" t="s">
         <v>135</v>
@@ -3343,7 +3361,7 @@
         <v>146</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H67" t="s">
         <v>153</v>
@@ -3351,13 +3369,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>207</v>
+        <v>428</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D68" t="s">
         <v>134</v>
@@ -3366,7 +3384,7 @@
         <v>146</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H68" t="s">
         <v>153</v>
@@ -3374,13 +3392,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>208</v>
+        <v>41</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D69" t="s">
         <v>134</v>
@@ -3389,7 +3407,7 @@
         <v>146</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H69" t="s">
         <v>153</v>
@@ -3397,13 +3415,13 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>209</v>
+        <v>429</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>134</v>
@@ -3412,7 +3430,7 @@
         <v>146</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H70" t="s">
         <v>153</v>
@@ -3420,13 +3438,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>451</v>
+        <v>207</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>450</v>
+        <v>175</v>
       </c>
       <c r="D71" t="s">
         <v>134</v>
@@ -3435,21 +3453,21 @@
         <v>146</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H71" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="72" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>42</v>
+        <v>208</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>452</v>
+        <v>176</v>
       </c>
       <c r="D72" t="s">
         <v>134</v>
@@ -3458,7 +3476,7 @@
         <v>146</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H72" t="s">
         <v>153</v>
@@ -3466,13 +3484,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>43</v>
+        <v>209</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D73" t="s">
         <v>134</v>
@@ -3481,7 +3499,7 @@
         <v>146</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H73" t="s">
         <v>153</v>
@@ -3489,13 +3507,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>44</v>
+        <v>449</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>178</v>
+        <v>448</v>
       </c>
       <c r="D74" t="s">
         <v>134</v>
@@ -3504,21 +3522,21 @@
         <v>146</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H74" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>210</v>
+        <v>42</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>178</v>
+        <v>450</v>
       </c>
       <c r="D75" t="s">
         <v>134</v>
@@ -3527,7 +3545,7 @@
         <v>146</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H75" t="s">
         <v>153</v>
@@ -3535,13 +3553,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>211</v>
+        <v>43</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>180</v>
+        <v>29</v>
       </c>
       <c r="D76" t="s">
         <v>134</v>
@@ -3550,7 +3568,7 @@
         <v>146</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H76" t="s">
         <v>153</v>
@@ -3558,13 +3576,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>290</v>
+        <v>44</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="D77" t="s">
         <v>134</v>
@@ -3573,7 +3591,7 @@
         <v>146</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H77" t="s">
         <v>153</v>
@@ -3581,13 +3599,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>291</v>
+        <v>210</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>200</v>
+        <v>178</v>
       </c>
       <c r="D78" t="s">
         <v>134</v>
@@ -3596,7 +3614,7 @@
         <v>146</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H78" t="s">
         <v>153</v>
@@ -3604,13 +3622,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D79" t="s">
         <v>134</v>
@@ -3619,7 +3637,7 @@
         <v>146</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H79" t="s">
         <v>153</v>
@@ -3627,13 +3645,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="D80" t="s">
         <v>134</v>
@@ -3642,7 +3660,7 @@
         <v>146</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H80" t="s">
         <v>153</v>
@@ -3650,13 +3668,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>213</v>
+        <v>290</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>182</v>
+        <v>200</v>
       </c>
       <c r="D81" t="s">
         <v>134</v>
@@ -3665,7 +3683,7 @@
         <v>146</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H81" t="s">
         <v>153</v>
@@ -3673,13 +3691,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D82" t="s">
         <v>134</v>
@@ -3688,21 +3706,21 @@
         <v>146</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H82" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="83" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>45</v>
+        <v>281</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>292</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
         <v>134</v>
@@ -3711,7 +3729,7 @@
         <v>146</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="H83" t="s">
         <v>153</v>
@@ -3719,13 +3737,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>46</v>
+        <v>213</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>47</v>
+        <v>182</v>
       </c>
       <c r="D84" t="s">
         <v>134</v>
@@ -3733,101 +3751,101 @@
       <c r="E84" t="s">
         <v>146</v>
       </c>
-      <c r="F84" s="5"/>
+      <c r="F84" s="5" t="s">
+        <v>222</v>
+      </c>
       <c r="H84" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A85" s="5"/>
-      <c r="B85" s="5"/>
-      <c r="C85" s="5"/>
-    </row>
-    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A86" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B86" s="5"/>
-      <c r="C86" s="5"/>
+      <c r="A85" s="6" t="s">
+        <v>214</v>
+      </c>
+      <c r="B85" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C85" s="6" t="s">
+        <v>183</v>
+      </c>
+      <c r="D85" t="s">
+        <v>134</v>
+      </c>
+      <c r="E85" t="s">
+        <v>146</v>
+      </c>
+      <c r="F85" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H85" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A86" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B86" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C86" s="6" t="s">
+        <v>291</v>
+      </c>
+      <c r="D86" t="s">
+        <v>134</v>
+      </c>
+      <c r="E86" t="s">
+        <v>146</v>
+      </c>
+      <c r="F86" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="H86" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>224</v>
+        <v>46</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>225</v>
+        <v>47</v>
       </c>
       <c r="D87" t="s">
         <v>134</v>
       </c>
       <c r="E87" t="s">
-        <v>147</v>
-      </c>
-      <c r="F87" s="5" t="s">
-        <v>275</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F87" s="5"/>
       <c r="H87" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="6" t="s">
-        <v>278</v>
-      </c>
-      <c r="B88" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C88" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D88" t="s">
-        <v>134</v>
-      </c>
-      <c r="E88" t="s">
-        <v>147</v>
-      </c>
-      <c r="F88" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H88" t="s">
-        <v>153</v>
-      </c>
+      <c r="A88" s="5"/>
+      <c r="B88" s="5"/>
+      <c r="C88" s="5"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="6" t="s">
-        <v>227</v>
-      </c>
-      <c r="B89" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C89" s="6" t="s">
-        <v>228</v>
-      </c>
-      <c r="D89" t="s">
-        <v>134</v>
-      </c>
-      <c r="E89" t="s">
-        <v>147</v>
-      </c>
-      <c r="F89" s="5" t="s">
-        <v>275</v>
-      </c>
-      <c r="H89" t="s">
-        <v>153</v>
-      </c>
+      <c r="A89" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B89" s="5"/>
+      <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>49</v>
+        <v>223</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>279</v>
+        <v>224</v>
       </c>
       <c r="D90" t="s">
         <v>134</v>
@@ -3836,7 +3854,7 @@
         <v>147</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H90" t="s">
         <v>153</v>
@@ -3844,13 +3862,13 @@
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>78</v>
+        <v>277</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="D91" t="s">
         <v>134</v>
@@ -3859,7 +3877,7 @@
         <v>147</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H91" t="s">
         <v>153</v>
@@ -3867,13 +3885,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>50</v>
+        <v>226</v>
       </c>
       <c r="B92" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="D92" t="s">
         <v>134</v>
@@ -3882,7 +3900,7 @@
         <v>147</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H92" t="s">
         <v>153</v>
@@ -3890,13 +3908,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="D93" t="s">
         <v>134</v>
@@ -3905,21 +3923,21 @@
         <v>147</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H93" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="94" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>29</v>
+        <v>229</v>
       </c>
       <c r="D94" t="s">
         <v>134</v>
@@ -3928,21 +3946,21 @@
         <v>147</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H94" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="95" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>29</v>
+        <v>228</v>
       </c>
       <c r="D95" t="s">
         <v>134</v>
@@ -3951,7 +3969,7 @@
         <v>147</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H95" t="s">
         <v>153</v>
@@ -3959,7 +3977,7 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
         <v>135</v>
@@ -3974,15 +3992,15 @@
         <v>147</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H96" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>135</v>
@@ -3997,21 +4015,21 @@
         <v>147</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H97" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>231</v>
+        <v>53</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>140</v>
+        <v>29</v>
       </c>
       <c r="D98" t="s">
         <v>134</v>
@@ -4020,21 +4038,21 @@
         <v>147</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H98" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>232</v>
+        <v>54</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D99" t="s">
         <v>134</v>
@@ -4043,7 +4061,7 @@
         <v>147</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H99" t="s">
         <v>153</v>
@@ -4051,13 +4069,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>206</v>
+        <v>55</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
         <v>134</v>
@@ -4066,7 +4084,7 @@
         <v>147</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="H100" t="s">
         <v>153</v>
@@ -4074,13 +4092,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>235</v>
+        <v>140</v>
       </c>
       <c r="D101" t="s">
         <v>134</v>
@@ -4089,21 +4107,21 @@
         <v>147</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H101" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>173</v>
+        <v>232</v>
       </c>
       <c r="D102" t="s">
         <v>134</v>
@@ -4112,7 +4130,7 @@
         <v>147</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H102" t="s">
         <v>153</v>
@@ -4120,13 +4138,13 @@
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>288</v>
+        <v>206</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>236</v>
+        <v>174</v>
       </c>
       <c r="D103" t="s">
         <v>134</v>
@@ -4135,21 +4153,21 @@
         <v>147</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H103" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="104" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>56</v>
+        <v>233</v>
       </c>
       <c r="B104" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>289</v>
+        <v>234</v>
       </c>
       <c r="D104" t="s">
         <v>134</v>
@@ -4158,7 +4176,7 @@
         <v>147</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H104" t="s">
         <v>153</v>
@@ -4166,13 +4184,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>238</v>
+        <v>205</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>239</v>
+        <v>173</v>
       </c>
       <c r="D105" t="s">
         <v>134</v>
@@ -4181,7 +4199,7 @@
         <v>147</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H105" t="s">
         <v>153</v>
@@ -4189,13 +4207,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>240</v>
+        <v>287</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="D106" t="s">
         <v>134</v>
@@ -4204,21 +4222,21 @@
         <v>147</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H106" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>237</v>
+        <v>288</v>
       </c>
       <c r="D107" t="s">
         <v>134</v>
@@ -4227,21 +4245,21 @@
         <v>147</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H107" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>58</v>
+        <v>237</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D108" t="s">
         <v>134</v>
@@ -4250,7 +4268,7 @@
         <v>147</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H108" t="s">
         <v>153</v>
@@ -4258,13 +4276,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>211</v>
+        <v>239</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
       <c r="D109" t="s">
         <v>134</v>
@@ -4273,7 +4291,7 @@
         <v>147</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H109" t="s">
         <v>153</v>
@@ -4281,13 +4299,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>244</v>
+        <v>57</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>141</v>
+        <v>236</v>
       </c>
       <c r="D110" t="s">
         <v>134</v>
@@ -4296,21 +4314,21 @@
         <v>147</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H110" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>245</v>
+        <v>58</v>
       </c>
       <c r="B111" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>246</v>
+        <v>29</v>
       </c>
       <c r="D111" t="s">
         <v>134</v>
@@ -4319,7 +4337,7 @@
         <v>147</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H111" t="s">
         <v>153</v>
@@ -4327,13 +4345,13 @@
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D112" t="s">
         <v>134</v>
@@ -4342,7 +4360,7 @@
         <v>147</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H112" t="s">
         <v>153</v>
@@ -4350,13 +4368,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>248</v>
+        <v>243</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>249</v>
+        <v>141</v>
       </c>
       <c r="D113" t="s">
         <v>134</v>
@@ -4365,21 +4383,21 @@
         <v>147</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H113" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="114" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>59</v>
+        <v>244</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="D114" t="s">
         <v>134</v>
@@ -4388,7 +4406,7 @@
         <v>147</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H114" t="s">
         <v>153</v>
@@ -4396,13 +4414,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>60</v>
+        <v>214</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D115" t="s">
         <v>134</v>
@@ -4411,7 +4429,7 @@
         <v>147</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H115" t="s">
         <v>153</v>
@@ -4419,13 +4437,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>231</v>
+        <v>247</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>140</v>
+        <v>248</v>
       </c>
       <c r="D116" t="s">
         <v>134</v>
@@ -4434,21 +4452,21 @@
         <v>147</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H116" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>232</v>
+        <v>59</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="D117" t="s">
         <v>134</v>
@@ -4457,7 +4475,7 @@
         <v>147</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H117" t="s">
         <v>153</v>
@@ -4465,13 +4483,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>251</v>
+        <v>60</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D118" t="s">
         <v>134</v>
@@ -4480,7 +4498,7 @@
         <v>147</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H118" t="s">
         <v>153</v>
@@ -4488,13 +4506,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>445</v>
+        <v>230</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>444</v>
+        <v>140</v>
       </c>
       <c r="D119" t="s">
         <v>134</v>
@@ -4503,21 +4521,21 @@
         <v>147</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H119" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>205</v>
+        <v>231</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
       <c r="D120" t="s">
         <v>134</v>
@@ -4526,21 +4544,21 @@
         <v>147</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H120" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>61</v>
+        <v>250</v>
       </c>
       <c r="B121" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>453</v>
+        <v>251</v>
       </c>
       <c r="D121" t="s">
         <v>134</v>
@@ -4549,7 +4567,7 @@
         <v>147</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H121" t="s">
         <v>153</v>
@@ -4557,13 +4575,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>253</v>
+        <v>443</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>254</v>
+        <v>442</v>
       </c>
       <c r="D122" t="s">
         <v>134</v>
@@ -4572,7 +4590,7 @@
         <v>147</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H122" t="s">
         <v>153</v>
@@ -4580,13 +4598,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>255</v>
+        <v>205</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>256</v>
+        <v>205</v>
       </c>
       <c r="D123" t="s">
         <v>134</v>
@@ -4595,21 +4613,21 @@
         <v>147</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H123" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>280</v>
+        <v>61</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>257</v>
+        <v>451</v>
       </c>
       <c r="D124" t="s">
         <v>134</v>
@@ -4618,7 +4636,7 @@
         <v>147</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H124" t="s">
         <v>153</v>
@@ -4626,13 +4644,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>62</v>
+        <v>252</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>281</v>
+        <v>253</v>
       </c>
       <c r="D125" t="s">
         <v>134</v>
@@ -4641,7 +4659,7 @@
         <v>147</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H125" t="s">
         <v>153</v>
@@ -4649,13 +4667,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>63</v>
+        <v>254</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="D126" t="s">
         <v>134</v>
@@ -4664,7 +4682,7 @@
         <v>147</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H126" t="s">
         <v>153</v>
@@ -4672,13 +4690,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>64</v>
+        <v>279</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D127" t="s">
         <v>134</v>
@@ -4687,7 +4705,7 @@
         <v>147</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H127" t="s">
         <v>153</v>
@@ -4695,13 +4713,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>29</v>
+        <v>280</v>
       </c>
       <c r="D128" t="s">
         <v>134</v>
@@ -4710,7 +4728,7 @@
         <v>147</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H128" t="s">
         <v>153</v>
@@ -4718,13 +4736,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>214</v>
+        <v>63</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>247</v>
+        <v>29</v>
       </c>
       <c r="D129" t="s">
         <v>134</v>
@@ -4733,7 +4751,7 @@
         <v>147</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H129" t="s">
         <v>153</v>
@@ -4741,13 +4759,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>248</v>
+        <v>64</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>249</v>
+        <v>29</v>
       </c>
       <c r="D130" t="s">
         <v>134</v>
@@ -4756,7 +4774,7 @@
         <v>147</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H130" t="s">
         <v>153</v>
@@ -4764,13 +4782,13 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>258</v>
+        <v>29</v>
       </c>
       <c r="D131" t="s">
         <v>134</v>
@@ -4779,7 +4797,7 @@
         <v>147</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H131" t="s">
         <v>153</v>
@@ -4787,13 +4805,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>67</v>
+        <v>214</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>29</v>
+        <v>246</v>
       </c>
       <c r="D132" t="s">
         <v>134</v>
@@ -4802,7 +4820,7 @@
         <v>147</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H132" t="s">
         <v>153</v>
@@ -4810,13 +4828,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>68</v>
+        <v>247</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>29</v>
+        <v>248</v>
       </c>
       <c r="D133" t="s">
         <v>134</v>
@@ -4825,7 +4843,7 @@
         <v>147</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H133" t="s">
         <v>153</v>
@@ -4833,13 +4851,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="D134" t="s">
         <v>134</v>
@@ -4848,7 +4866,7 @@
         <v>147</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H134" t="s">
         <v>153</v>
@@ -4856,13 +4874,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>260</v>
+        <v>67</v>
       </c>
       <c r="B135" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>261</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>134</v>
@@ -4871,7 +4889,7 @@
         <v>147</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H135" t="s">
         <v>153</v>
@@ -4879,13 +4897,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>262</v>
+        <v>68</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>263</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>134</v>
@@ -4894,7 +4912,7 @@
         <v>147</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H136" t="s">
         <v>153</v>
@@ -4902,13 +4920,13 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>264</v>
+        <v>69</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C137" s="6" t="s">
-        <v>265</v>
+        <v>29</v>
       </c>
       <c r="D137" t="s">
         <v>134</v>
@@ -4917,7 +4935,7 @@
         <v>147</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H137" t="s">
         <v>153</v>
@@ -4925,13 +4943,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>70</v>
+        <v>259</v>
       </c>
       <c r="B138" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="D138" t="s">
         <v>134</v>
@@ -4940,7 +4958,7 @@
         <v>147</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H138" t="s">
         <v>153</v>
@@ -4948,13 +4966,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>71</v>
+        <v>261</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>29</v>
+        <v>262</v>
       </c>
       <c r="D139" t="s">
         <v>134</v>
@@ -4963,7 +4981,7 @@
         <v>147</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H139" t="s">
         <v>153</v>
@@ -4971,13 +4989,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>72</v>
+        <v>263</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>29</v>
+        <v>264</v>
       </c>
       <c r="D140" t="s">
         <v>134</v>
@@ -4986,7 +5004,7 @@
         <v>147</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H140" t="s">
         <v>153</v>
@@ -4994,13 +5012,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D141" t="s">
         <v>134</v>
@@ -5009,7 +5027,7 @@
         <v>147</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H141" t="s">
         <v>153</v>
@@ -5017,13 +5035,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>273</v>
+        <v>71</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>266</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>134</v>
@@ -5032,7 +5050,7 @@
         <v>147</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H142" t="s">
         <v>153</v>
@@ -5040,13 +5058,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>267</v>
+        <v>72</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>268</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
         <v>134</v>
@@ -5055,7 +5073,7 @@
         <v>147</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H143" t="s">
         <v>153</v>
@@ -5063,13 +5081,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>213</v>
+        <v>73</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>182</v>
+        <v>29</v>
       </c>
       <c r="D144" t="s">
         <v>134</v>
@@ -5078,7 +5096,7 @@
         <v>147</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H144" t="s">
         <v>153</v>
@@ -5086,13 +5104,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="D145" t="s">
         <v>134</v>
@@ -5101,7 +5119,7 @@
         <v>147</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H145" t="s">
         <v>153</v>
@@ -5109,13 +5127,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>272</v>
+        <v>267</v>
       </c>
       <c r="D146" t="s">
         <v>134</v>
@@ -5124,7 +5142,7 @@
         <v>147</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H146" t="s">
         <v>153</v>
@@ -5132,13 +5150,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>75</v>
+        <v>213</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>250</v>
+        <v>182</v>
       </c>
       <c r="D147" t="s">
         <v>134</v>
@@ -5147,7 +5165,7 @@
         <v>147</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H147" t="s">
         <v>153</v>
@@ -5155,13 +5173,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>211</v>
+        <v>268</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>243</v>
+        <v>269</v>
       </c>
       <c r="D148" t="s">
         <v>134</v>
@@ -5170,7 +5188,7 @@
         <v>147</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H148" t="s">
         <v>153</v>
@@ -5178,13 +5196,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>244</v>
+        <v>270</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>141</v>
+        <v>271</v>
       </c>
       <c r="D149" t="s">
         <v>134</v>
@@ -5193,21 +5211,21 @@
         <v>147</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H149" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="150" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>274</v>
+        <v>249</v>
       </c>
       <c r="D150" t="s">
         <v>134</v>
@@ -5216,7 +5234,7 @@
         <v>147</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="H150" t="s">
         <v>153</v>
@@ -5224,13 +5242,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>434</v>
+        <v>211</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>434</v>
+        <v>242</v>
       </c>
       <c r="D151" t="s">
         <v>134</v>
@@ -5238,20 +5256,22 @@
       <c r="E151" t="s">
         <v>147</v>
       </c>
-      <c r="F151" s="5"/>
+      <c r="F151" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="H151" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>76</v>
+        <v>243</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>435</v>
+        <v>141</v>
       </c>
       <c r="D152" t="s">
         <v>134</v>
@@ -5259,91 +5279,98 @@
       <c r="E152" t="s">
         <v>147</v>
       </c>
+      <c r="F152" s="5" t="s">
+        <v>276</v>
+      </c>
       <c r="H152" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A153" s="6"/>
-      <c r="B153" s="6"/>
-      <c r="C153" s="6"/>
+    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A153" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B153" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C153" s="6" t="s">
+        <v>273</v>
+      </c>
+      <c r="D153" t="s">
+        <v>134</v>
+      </c>
+      <c r="E153" t="s">
+        <v>147</v>
+      </c>
+      <c r="F153" s="5" t="s">
+        <v>276</v>
+      </c>
+      <c r="H153" t="s">
+        <v>153</v>
+      </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A154" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B154" s="5"/>
-      <c r="C154" s="5"/>
-    </row>
-    <row r="155" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A155" s="8" t="s">
-        <v>79</v>
+      <c r="A154" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B154" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C154" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="D154" t="s">
+        <v>134</v>
+      </c>
+      <c r="E154" t="s">
+        <v>147</v>
+      </c>
+      <c r="F154" s="5"/>
+      <c r="H154" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A155" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>136</v>
       </c>
-      <c r="C155" s="9" t="s">
+      <c r="C155" s="6" t="s">
         <v>433</v>
       </c>
       <c r="D155" t="s">
         <v>134</v>
       </c>
       <c r="E155" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H155" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="B156" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C156" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="D156" t="s">
-        <v>134</v>
-      </c>
-      <c r="E156" t="s">
-        <v>148</v>
-      </c>
-      <c r="H156" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="157" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A157" s="8" t="s">
-        <v>81</v>
-      </c>
-      <c r="B157" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C157" s="9" t="s">
-        <v>295</v>
-      </c>
-      <c r="D157" t="s">
-        <v>134</v>
-      </c>
-      <c r="E157" t="s">
-        <v>148</v>
-      </c>
-      <c r="H157" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A156" s="6"/>
+      <c r="B156" s="6"/>
+      <c r="C156" s="6"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A157" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B157" s="5"/>
+      <c r="C157" s="5"/>
+    </row>
+    <row r="158" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A158" s="8" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>145</v>
+        <v>431</v>
       </c>
       <c r="D158" t="s">
         <v>134</v>
@@ -5356,96 +5383,96 @@
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="1"/>
-      <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
+      <c r="A159" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C159" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="D159" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="3" t="s">
+      <c r="E159" t="s">
+        <v>148</v>
+      </c>
+      <c r="H159" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B160" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C160" s="9" t="s">
+        <v>294</v>
+      </c>
+      <c r="D160" t="s">
+        <v>134</v>
+      </c>
+      <c r="E160" t="s">
+        <v>148</v>
+      </c>
+      <c r="H160" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A161" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B161" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C161" s="9" t="s">
+        <v>145</v>
+      </c>
+      <c r="D161" t="s">
+        <v>134</v>
+      </c>
+      <c r="E161" t="s">
+        <v>148</v>
+      </c>
+      <c r="H161" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="1"/>
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+      <c r="D162" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B160" s="4"/>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="3" t="s">
+      <c r="B163" s="4"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B161" s="4"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B162" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C162" s="6" t="s">
+      <c r="B164" s="4"/>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A165" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D162" t="s">
-        <v>134</v>
-      </c>
-      <c r="E162" t="s">
-        <v>149</v>
-      </c>
-      <c r="H162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B163" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C163" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="D163" t="s">
-        <v>134</v>
-      </c>
-      <c r="E163" t="s">
-        <v>149</v>
-      </c>
-      <c r="H163" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A164" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="B164" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C164" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="D164" t="s">
-        <v>134</v>
-      </c>
-      <c r="E164" t="s">
-        <v>149</v>
-      </c>
-      <c r="H164" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>305</v>
       </c>
       <c r="D165" t="s">
         <v>134</v>
@@ -5459,13 +5486,13 @@
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
-        <v>306</v>
+        <v>299</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C166" s="6" t="s">
-        <v>307</v>
+        <v>300</v>
       </c>
       <c r="D166" t="s">
         <v>134</v>
@@ -5477,15 +5504,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
-        <v>85</v>
+        <v>301</v>
       </c>
       <c r="B167" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C167" s="6" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="D167" t="s">
         <v>134</v>
@@ -5497,15 +5524,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B168" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C168" s="6" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="D168" t="s">
         <v>134</v>
@@ -5519,13 +5546,13 @@
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B169" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C169" s="6" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="D169" t="s">
         <v>134</v>
@@ -5537,15 +5564,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A170" s="6" t="s">
-        <v>313</v>
+        <v>85</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>314</v>
+        <v>297</v>
       </c>
       <c r="D170" t="s">
         <v>134</v>
@@ -5557,15 +5584,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="171" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
-        <v>87</v>
+        <v>308</v>
       </c>
       <c r="B171" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C171" s="6" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="D171" t="s">
         <v>134</v>
@@ -5579,13 +5606,13 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>88</v>
+        <v>310</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>29</v>
+        <v>311</v>
       </c>
       <c r="D172" t="s">
         <v>134</v>
@@ -5599,13 +5626,13 @@
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>89</v>
+        <v>312</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>29</v>
+        <v>313</v>
       </c>
       <c r="D173" t="s">
         <v>134</v>
@@ -5619,13 +5646,13 @@
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>446</v>
+        <v>307</v>
       </c>
       <c r="D174" t="s">
         <v>134</v>
@@ -5639,13 +5666,13 @@
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>316</v>
+        <v>88</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>317</v>
+        <v>29</v>
       </c>
       <c r="D175" t="s">
         <v>134</v>
@@ -5657,15 +5684,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>318</v>
+        <v>89</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>319</v>
+        <v>29</v>
       </c>
       <c r="D176" t="s">
         <v>134</v>
@@ -5679,13 +5706,13 @@
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>315</v>
+        <v>444</v>
       </c>
       <c r="D177" t="s">
         <v>134</v>
@@ -5699,13 +5726,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="D178" t="s">
         <v>134</v>
@@ -5719,13 +5746,13 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="D179" t="s">
         <v>134</v>
@@ -5737,15 +5764,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="180" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>325</v>
+        <v>91</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>326</v>
+        <v>314</v>
       </c>
       <c r="D180" t="s">
         <v>134</v>
@@ -5757,15 +5784,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>327</v>
+        <v>319</v>
       </c>
       <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>328</v>
+        <v>320</v>
       </c>
       <c r="D181" t="s">
         <v>134</v>
@@ -5779,13 +5806,13 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C182" s="6" t="s">
-        <v>330</v>
+        <v>322</v>
       </c>
       <c r="D182" t="s">
         <v>134</v>
@@ -5797,15 +5824,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>331</v>
+        <v>323</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>332</v>
+        <v>324</v>
       </c>
       <c r="D183" t="s">
         <v>134</v>
@@ -5817,15 +5844,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>333</v>
+        <v>325</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
       <c r="D184" t="s">
         <v>134</v>
@@ -5839,13 +5866,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>335</v>
+        <v>327</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>336</v>
+        <v>328</v>
       </c>
       <c r="D185" t="s">
         <v>134</v>
@@ -5859,13 +5886,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>337</v>
+        <v>329</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>338</v>
+        <v>330</v>
       </c>
       <c r="D186" t="s">
         <v>134</v>
@@ -5879,13 +5906,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>339</v>
+        <v>331</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>340</v>
+        <v>332</v>
       </c>
       <c r="D187" t="s">
         <v>134</v>
@@ -5899,13 +5926,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>341</v>
+        <v>333</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>342</v>
+        <v>334</v>
       </c>
       <c r="D188" t="s">
         <v>134</v>
@@ -5919,13 +5946,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>343</v>
+        <v>335</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>344</v>
+        <v>336</v>
       </c>
       <c r="D189" t="s">
         <v>134</v>
@@ -5937,15 +5964,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>345</v>
+        <v>337</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>346</v>
+        <v>338</v>
       </c>
       <c r="D190" t="s">
         <v>134</v>
@@ -5959,13 +5986,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>348</v>
+        <v>340</v>
       </c>
       <c r="D191" t="s">
         <v>134</v>
@@ -5979,13 +6006,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>349</v>
+        <v>341</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>350</v>
+        <v>342</v>
       </c>
       <c r="D192" t="s">
         <v>134</v>
@@ -5997,15 +6024,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="193" spans="1:8" ht="120" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>92</v>
+        <v>343</v>
       </c>
       <c r="B193" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="D193" t="s">
         <v>134</v>
@@ -6017,15 +6044,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="194" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="B194" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="D194" t="s">
         <v>134</v>
@@ -6039,13 +6066,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="D195" t="s">
         <v>134</v>
@@ -6059,13 +6086,11 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>354</v>
-      </c>
-      <c r="B196" s="6" t="s">
-        <v>135</v>
-      </c>
+        <v>475</v>
+      </c>
+      <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
-        <v>355</v>
+        <v>474</v>
       </c>
       <c r="D196" t="s">
         <v>134</v>
@@ -6077,15 +6102,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" ht="135" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>356</v>
+        <v>92</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>357</v>
+        <v>476</v>
       </c>
       <c r="D197" t="s">
         <v>134</v>
@@ -6097,15 +6122,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>438</v>
+        <v>93</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>95</v>
+        <v>349</v>
       </c>
       <c r="D198" t="s">
         <v>134</v>
@@ -6119,13 +6144,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>358</v>
+        <v>350</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>359</v>
+        <v>351</v>
       </c>
       <c r="D199" t="s">
         <v>134</v>
@@ -6137,15 +6162,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>94</v>
+        <v>352</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>439</v>
+        <v>353</v>
       </c>
       <c r="D200" t="s">
         <v>134</v>
@@ -6159,13 +6184,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>99</v>
+        <v>354</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>360</v>
+        <v>355</v>
       </c>
       <c r="D201" t="s">
         <v>134</v>
@@ -6177,15 +6202,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>100</v>
+        <v>436</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D202" t="s">
         <v>134</v>
@@ -6197,15 +6222,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>101</v>
+        <v>356</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>29</v>
+        <v>357</v>
       </c>
       <c r="D203" t="s">
         <v>134</v>
@@ -6217,15 +6242,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>29</v>
+        <v>437</v>
       </c>
       <c r="D204" t="s">
         <v>134</v>
@@ -6239,13 +6264,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>29</v>
+        <v>358</v>
       </c>
       <c r="D205" t="s">
         <v>134</v>
@@ -6259,13 +6284,13 @@
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>362</v>
+        <v>100</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>363</v>
+        <v>29</v>
       </c>
       <c r="D206" t="s">
         <v>134</v>
@@ -6279,13 +6304,13 @@
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>364</v>
+        <v>101</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>365</v>
+        <v>29</v>
       </c>
       <c r="D207" t="s">
         <v>134</v>
@@ -6299,13 +6324,13 @@
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>366</v>
+        <v>102</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>367</v>
+        <v>29</v>
       </c>
       <c r="D208" t="s">
         <v>134</v>
@@ -6319,13 +6344,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>368</v>
+        <v>103</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>369</v>
+        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>134</v>
@@ -6337,12 +6362,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C210" s="6" t="s">
         <v>361</v>
@@ -6359,13 +6384,13 @@
     </row>
     <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>371</v>
+        <v>362</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D211" t="s">
         <v>134</v>
@@ -6379,13 +6404,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>373</v>
+        <v>364</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="D212" t="s">
         <v>134</v>
@@ -6399,13 +6424,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>375</v>
+        <v>366</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>376</v>
+        <v>367</v>
       </c>
       <c r="D213" t="s">
         <v>134</v>
@@ -6417,35 +6442,35 @@
         <v>152</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C214" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D214" t="s">
+        <v>134</v>
+      </c>
+      <c r="E214" t="s">
+        <v>149</v>
+      </c>
+      <c r="H214" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>370</v>
-      </c>
-      <c r="D214" t="s">
-        <v>134</v>
-      </c>
-      <c r="E214" t="s">
-        <v>149</v>
-      </c>
-      <c r="H214" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B215" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C215" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D215" t="s">
         <v>134</v>
@@ -6459,13 +6484,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>380</v>
+        <v>371</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>381</v>
+        <v>372</v>
       </c>
       <c r="D216" t="s">
         <v>134</v>
@@ -6477,15 +6502,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>382</v>
+        <v>373</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>383</v>
+        <v>374</v>
       </c>
       <c r="D217" t="s">
         <v>134</v>
@@ -6499,13 +6524,13 @@
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>377</v>
+        <v>368</v>
       </c>
       <c r="D218" t="s">
         <v>134</v>
@@ -6519,13 +6544,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>107</v>
+        <v>376</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="D219" t="s">
         <v>134</v>
@@ -6539,13 +6564,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>108</v>
+        <v>378</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="D220" t="s">
         <v>134</v>
@@ -6557,15 +6582,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>109</v>
+        <v>380</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="D221" t="s">
         <v>134</v>
@@ -6577,15 +6602,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>29</v>
+        <v>375</v>
       </c>
       <c r="D222" t="s">
         <v>134</v>
@@ -6599,13 +6624,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>386</v>
+        <v>107</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>387</v>
+        <v>29</v>
       </c>
       <c r="D223" t="s">
         <v>134</v>
@@ -6619,13 +6644,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>388</v>
+        <v>108</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>389</v>
+        <v>29</v>
       </c>
       <c r="D224" t="s">
         <v>134</v>
@@ -6639,13 +6664,13 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>390</v>
+        <v>109</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D225" t="s">
         <v>134</v>
@@ -6659,13 +6684,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>392</v>
+        <v>110</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>393</v>
+        <v>29</v>
       </c>
       <c r="D226" t="s">
         <v>134</v>
@@ -6677,12 +6702,12 @@
         <v>152</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>111</v>
+        <v>384</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C227" s="6" t="s">
         <v>385</v>
@@ -6699,13 +6724,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>112</v>
+        <v>386</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="D228" t="s">
         <v>134</v>
@@ -6717,15 +6742,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>395</v>
+        <v>388</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>396</v>
+        <v>389</v>
       </c>
       <c r="D229" t="s">
         <v>134</v>
@@ -6737,15 +6762,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>397</v>
+        <v>390</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>398</v>
+        <v>391</v>
       </c>
       <c r="D230" t="s">
         <v>134</v>
@@ -6759,13 +6784,13 @@
     </row>
     <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>399</v>
+        <v>111</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>400</v>
+        <v>383</v>
       </c>
       <c r="D231" t="s">
         <v>134</v>
@@ -6777,15 +6802,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>401</v>
+        <v>112</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D232" t="s">
         <v>134</v>
@@ -6799,13 +6824,13 @@
     </row>
     <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="D233" t="s">
         <v>134</v>
@@ -6817,15 +6842,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="D234" t="s">
         <v>134</v>
@@ -6837,15 +6862,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>448</v>
+        <v>397</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>447</v>
+        <v>398</v>
       </c>
       <c r="D235" t="s">
         <v>134</v>
@@ -6857,15 +6882,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>113</v>
+        <v>399</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>449</v>
+        <v>400</v>
       </c>
       <c r="D236" t="s">
         <v>134</v>
@@ -6877,15 +6902,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>114</v>
+        <v>401</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>29</v>
+        <v>402</v>
       </c>
       <c r="D237" t="s">
         <v>134</v>
@@ -6899,13 +6924,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>115</v>
+        <v>403</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>29</v>
+        <v>404</v>
       </c>
       <c r="D238" t="s">
         <v>134</v>
@@ -6919,13 +6944,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>116</v>
+        <v>446</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="D239" t="s">
         <v>134</v>
@@ -6937,15 +6962,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>407</v>
+        <v>113</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>408</v>
+        <v>447</v>
       </c>
       <c r="D240" t="s">
         <v>134</v>
@@ -6959,13 +6984,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>409</v>
+        <v>114</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>410</v>
+        <v>29</v>
       </c>
       <c r="D241" t="s">
         <v>134</v>
@@ -6977,15 +7002,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>455</v>
+        <v>115</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="D242" t="s">
         <v>134</v>
@@ -6997,15 +7022,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>456</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>134</v>
@@ -7019,13 +7044,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>96</v>
+        <v>405</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>411</v>
+        <v>406</v>
       </c>
       <c r="D244" t="s">
         <v>134</v>
@@ -7039,13 +7064,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>97</v>
+        <v>407</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="D245" t="s">
         <v>134</v>
@@ -7057,15 +7082,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>98</v>
+        <v>453</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>413</v>
+        <v>452</v>
       </c>
       <c r="D246" t="s">
         <v>134</v>
@@ -7077,15 +7102,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>440</v>
+        <v>454</v>
       </c>
       <c r="D247" t="s">
         <v>134</v>
@@ -7099,13 +7124,13 @@
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>150</v>
+        <v>96</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="D248" t="s">
         <v>134</v>
@@ -7119,13 +7144,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>416</v>
+        <v>97</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>417</v>
+        <v>410</v>
       </c>
       <c r="D249" t="s">
         <v>134</v>
@@ -7139,13 +7164,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>151</v>
+        <v>411</v>
       </c>
       <c r="D250" t="s">
         <v>134</v>
@@ -7157,15 +7182,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="195" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>419</v>
+        <v>118</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>420</v>
+        <v>438</v>
       </c>
       <c r="D251" t="s">
         <v>134</v>
@@ -7177,15 +7202,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D252" t="s">
         <v>134</v>
@@ -7199,13 +7224,13 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>120</v>
+        <v>414</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>29</v>
+        <v>415</v>
       </c>
       <c r="D253" t="s">
         <v>134</v>
@@ -7217,15 +7242,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>121</v>
+        <v>416</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>122</v>
+        <v>151</v>
       </c>
       <c r="D254" t="s">
         <v>134</v>
@@ -7239,13 +7264,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>123</v>
+        <v>417</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
       <c r="D255" t="s">
         <v>134</v>
@@ -7259,13 +7284,13 @@
     </row>
     <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>421</v>
+        <v>412</v>
       </c>
       <c r="D256" t="s">
         <v>134</v>
@@ -7279,13 +7304,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>423</v>
+        <v>120</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
       <c r="D257" t="s">
         <v>134</v>
@@ -7297,15 +7322,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>425</v>
+        <v>121</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>426</v>
+        <v>122</v>
       </c>
       <c r="D258" t="s">
         <v>134</v>
@@ -7319,13 +7344,13 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>427</v>
+        <v>123</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>428</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
         <v>134</v>
@@ -7339,34 +7364,34 @@
     </row>
     <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>136</v>
       </c>
       <c r="C260" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="D260" t="s">
+        <v>134</v>
+      </c>
+      <c r="E260" t="s">
+        <v>149</v>
+      </c>
+      <c r="H260" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A261" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B261" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C261" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="D260" t="s">
-        <v>134</v>
-      </c>
-      <c r="E260" t="s">
-        <v>149</v>
-      </c>
-      <c r="H260" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="261" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A261" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B261" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C261" s="6" t="s">
-        <v>29</v>
-      </c>
       <c r="D261" t="s">
         <v>134</v>
       </c>
@@ -7377,15 +7402,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="262" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>131</v>
+        <v>423</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>29</v>
+        <v>424</v>
       </c>
       <c r="D262" t="s">
         <v>134</v>
@@ -7399,13 +7424,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>126</v>
+        <v>425</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>29</v>
+        <v>426</v>
       </c>
       <c r="D263" t="s">
         <v>134</v>
@@ -7417,15 +7442,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>29</v>
+        <v>420</v>
       </c>
       <c r="D264" t="s">
         <v>134</v>
@@ -7437,9 +7462,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>135</v>
@@ -7457,9 +7482,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>135</v>
@@ -7477,15 +7502,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="267" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>429</v>
+        <v>29</v>
       </c>
       <c r="D267" t="s">
         <v>134</v>
@@ -7497,15 +7522,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>457</v>
+        <v>127</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>458</v>
+        <v>29</v>
       </c>
       <c r="D268" t="s">
         <v>134</v>
@@ -7517,15 +7542,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>459</v>
+        <v>128</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>460</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
         <v>134</v>
@@ -7539,13 +7564,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>461</v>
+        <v>129</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>462</v>
+        <v>29</v>
       </c>
       <c r="D270" t="s">
         <v>134</v>
@@ -7557,15 +7582,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>463</v>
+        <v>132</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>464</v>
+        <v>427</v>
       </c>
       <c r="D271" t="s">
         <v>134</v>
@@ -7577,15 +7602,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>465</v>
+        <v>455</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>466</v>
+        <v>456</v>
       </c>
       <c r="D272" t="s">
         <v>134</v>
@@ -7599,13 +7624,13 @@
     </row>
     <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>467</v>
+        <v>457</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>468</v>
+        <v>458</v>
       </c>
       <c r="D273" t="s">
         <v>134</v>
@@ -7619,13 +7644,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>469</v>
+        <v>459</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>470</v>
+        <v>460</v>
       </c>
       <c r="D274" t="s">
         <v>134</v>
@@ -7637,15 +7662,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>471</v>
+        <v>461</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>472</v>
+        <v>462</v>
       </c>
       <c r="D275" t="s">
         <v>134</v>
@@ -7659,41 +7684,121 @@
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C276" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D276" t="s">
+        <v>134</v>
+      </c>
+      <c r="E276" t="s">
+        <v>149</v>
+      </c>
+      <c r="H276" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A277" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B277" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C277" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D277" t="s">
+        <v>134</v>
+      </c>
+      <c r="E277" t="s">
+        <v>149</v>
+      </c>
+      <c r="H277" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A278" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="B278" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C278" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D278" t="s">
+        <v>134</v>
+      </c>
+      <c r="E278" t="s">
+        <v>149</v>
+      </c>
+      <c r="H278" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A279" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B279" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C279" s="6" t="s">
+        <v>470</v>
+      </c>
+      <c r="D279" t="s">
+        <v>134</v>
+      </c>
+      <c r="E279" t="s">
+        <v>149</v>
+      </c>
+      <c r="H279" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="280" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A280" s="6" t="s">
+        <v>471</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="D280" t="s">
+        <v>134</v>
+      </c>
+      <c r="E280" t="s">
+        <v>149</v>
+      </c>
+      <c r="H280" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+      <c r="A281" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C281" s="11" t="s">
         <v>473</v>
       </c>
-      <c r="B276" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>474</v>
-      </c>
-      <c r="D276" t="s">
-        <v>134</v>
-      </c>
-      <c r="E276" t="s">
-        <v>149</v>
-      </c>
-      <c r="H276" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="277" spans="1:8" ht="135" x14ac:dyDescent="0.25">
-      <c r="A277" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="B277" s="6" t="s">
-        <v>136</v>
-      </c>
-      <c r="C277" s="11" t="s">
-        <v>475</v>
-      </c>
-      <c r="D277" t="s">
-        <v>134</v>
-      </c>
-      <c r="E277" t="s">
-        <v>149</v>
-      </c>
-      <c r="H277" t="s">
+      <c r="D281" t="s">
+        <v>134</v>
+      </c>
+      <c r="E281" t="s">
+        <v>149</v>
+      </c>
+      <c r="H281" t="s">
         <v>152</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9D6B95-2873-4842-9DB8-B87CEFAC30DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703654E-286A-4337-B1B5-C25341CDE825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="477">
   <si>
     <t>Field_Name</t>
   </si>
@@ -396,9 +396,6 @@
     <t>profit_before_tax_and_exceptional_items_before_tax</t>
   </si>
   <si>
-    <t>profit_before_interest_and_tax-interest-Other_Financial_Expenses</t>
-  </si>
-  <si>
     <t>exceptional_items_before_tax</t>
   </si>
   <si>
@@ -1077,9 +1074,6 @@
     <t>Restructuring expense</t>
   </si>
   <si>
-    <t>net_revenue-total_cost_of_materials_consumed-Power_Fuel-total_purchases_of_stock_in_trade-total_changes_in_inventories_or_finished_goods-total_employee_benefit_expense-total_other_expenses</t>
-  </si>
-  <si>
     <t>other_expenses_income</t>
   </si>
   <si>
@@ -1287,9 +1281,6 @@
     <t>Finance Income/(costs)</t>
   </si>
   <si>
-    <t>profit_before_tax_and_exceptional_items_before_tax-exceptional_items_before_tax</t>
-  </si>
-  <si>
     <t>income_tax_expense+income_tax_expenses+income_tax_expense_benefit</t>
   </si>
   <si>
@@ -1344,9 +1335,6 @@
     <t>other_expenses_income+other_revenues+other_gains_and_losses+Other_income+debt_forgiveness</t>
   </si>
   <si>
-    <t>operating_profit+other_income+Revenue_from_Service+Other_Operating_Revenue+Subsidy_Income+Financial_Income+Gains_Losses_Allocated_Subsidiaries_Associates_Joint_Ventures+Income_Loss_from_Discontinued_Operations+Group_Contribution_Received+Non_Operating_Income-depreciation-selling_expenses-administration_costs-Advertising_expense-Services-Auditors_Fee-Management_Expenses-Legal_Professional_Charges-Other_General_Expense-Repair_of_Machinery-Personal_costs-Group_Contribution_Paid-Suppliers_And_External_Services-Impairment_Of_Investments_Not_Depreciable_Amortizable</t>
-  </si>
-  <si>
     <t>Assets held for sale</t>
   </si>
   <si>
@@ -1447,9 +1435,6 @@
   </si>
   <si>
     <t>Net profit for the period</t>
-  </si>
-  <si>
-    <t>profit_after_tax-profit_after_income_tax_expense_for_the_year-profit_after_income_tax_expense_for_the_period-profit_for_the_year-profit_of_the_year-profit_for_the_financial_year-profit_loss_for_the_year_after_income_tax-loss_profit_for_the_year-profit_loss_for_the_year_from_continuing_operations-net_profit_for_the_period</t>
   </si>
   <si>
     <t>Occupancy expenses</t>
@@ -1888,8 +1873,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H281"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="F61" sqref="F61"/>
+    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="B282" sqref="B282"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1921,13 +1906,13 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
@@ -1935,18 +1920,18 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C2" s="5"/>
       <c r="D2" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E2" s="5" t="s">
         <v>6</v>
       </c>
       <c r="F2" s="5"/>
       <c r="H2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
@@ -1961,18 +1946,18 @@
         <v>8</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C4" s="5"/>
       <c r="D4" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="F4" s="5"/>
       <c r="H4" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
@@ -1980,18 +1965,18 @@
         <v>9</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>9</v>
       </c>
       <c r="F5" s="5"/>
       <c r="H5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
@@ -2003,20 +1988,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H7" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
@@ -2035,94 +2020,94 @@
     </row>
     <row r="10" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A10" s="6" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C10" s="6" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="D10" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E10" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H10" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="6" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C11" s="6" t="s">
         <v>14</v>
       </c>
       <c r="D11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E11" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="6" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C12" s="6" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E12" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H12" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="6" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C13" s="6" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D13" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H13" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2130,22 +2115,22 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C14" s="6" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D14" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E14" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H14" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
@@ -2153,114 +2138,114 @@
         <v>15</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C15" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E15" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="6" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D16" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E16" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H16" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C17" s="6" t="s">
         <v>17</v>
       </c>
       <c r="D17" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E17" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H17" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="6" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D18" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E18" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="6" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D19" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E19" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H19" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2268,22 +2253,22 @@
         <v>16</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>435</v>
+        <v>432</v>
       </c>
       <c r="D20" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E20" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H20" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.25">
@@ -2291,22 +2276,22 @@
         <v>18</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C21" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D21" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H21" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2314,22 +2299,22 @@
         <v>19</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C22" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D22" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E22" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H22" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2337,22 +2322,22 @@
         <v>20</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C23" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E23" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H23" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.25">
@@ -2360,22 +2345,22 @@
         <v>21</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C24" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D24" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E24" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H24" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.25">
@@ -2383,22 +2368,22 @@
         <v>22</v>
       </c>
       <c r="B25" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D25" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E25" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H25" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.25">
@@ -2406,22 +2391,22 @@
         <v>23</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C26" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D26" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E26" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H26" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.25">
@@ -2429,114 +2414,114 @@
         <v>24</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C27" s="6" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>430</v>
+        <v>427</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C28" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H28" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C29" s="6" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D29" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E29" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H29" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C30" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D30" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E30" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H30" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B31" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D31" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E31" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H31" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2544,91 +2529,91 @@
         <v>25</v>
       </c>
       <c r="B32" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>480</v>
+        <v>475</v>
       </c>
       <c r="D32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E32" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H32" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B33" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C33" s="6" t="s">
         <v>27</v>
       </c>
       <c r="D33" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E33" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H33" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B34" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C34" s="6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D34" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E34" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H34" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="6" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B35" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C35" s="6" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D35" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E35" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H35" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="36" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2636,22 +2621,22 @@
         <v>26</v>
       </c>
       <c r="B36" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D36" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E36" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H36" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="37" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2659,22 +2644,22 @@
         <v>28</v>
       </c>
       <c r="B37" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C37" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D37" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E37" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H37" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.25">
@@ -2682,91 +2667,91 @@
         <v>30</v>
       </c>
       <c r="B38" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C38" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D38" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E38" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H38" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B39" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C39" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D39" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E39" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H39" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="6" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B40" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C40" s="6" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D40" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E40" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H40" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="6" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B41" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C41" s="6" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D41" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E41" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H41" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.25">
@@ -2774,137 +2759,137 @@
         <v>37</v>
       </c>
       <c r="B42" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C42" s="6" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D42" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E42" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H42" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="6" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B43" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C43" s="6" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D43" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E43" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H43" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="6" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B44" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C44" s="6" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D44" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E44" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H44" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B45" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C45" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D45" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E45" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H45" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B46" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C46" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D46" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E46" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H46" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="B47" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="D47" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E47" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H47" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -2912,68 +2897,68 @@
         <v>32</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D48" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E48" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H48" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D49" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E49" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H49" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B50" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D50" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E50" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H50" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -2981,22 +2966,22 @@
         <v>33</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D51" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H51" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
@@ -3004,91 +2989,91 @@
         <v>34</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D52" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E52" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H52" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
+        <v>217</v>
+      </c>
+      <c r="B53" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C53" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="B53" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C53" s="6" t="s">
-        <v>219</v>
-      </c>
       <c r="D53" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E53" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H53" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B54" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D54" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E54" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H54" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B55" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D55" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E55" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H55" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3096,22 +3081,22 @@
         <v>35</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D56" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E56" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H56" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.25">
@@ -3119,91 +3104,91 @@
         <v>36</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E57" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H57" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B58" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D58" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E58" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B59" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D59" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E59" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H59" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>479</v>
+        <v>474</v>
       </c>
       <c r="B60" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>478</v>
+        <v>473</v>
       </c>
       <c r="D60" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E60" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H60" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3211,22 +3196,22 @@
         <v>37</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>481</v>
+        <v>476</v>
       </c>
       <c r="D61" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E61" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H61" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
@@ -3234,91 +3219,91 @@
         <v>38</v>
       </c>
       <c r="B62" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="D62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B63" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C63" s="6" t="s">
         <v>31</v>
       </c>
       <c r="D63" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E63" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H63" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B64" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E64" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H64" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D65" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E65" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H65" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
@@ -3326,22 +3311,22 @@
         <v>39</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D66" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E66" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H66" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
@@ -3349,45 +3334,45 @@
         <v>40</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D67" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E67" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H67" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>428</v>
+        <v>425</v>
       </c>
       <c r="B68" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C68" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D68" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E68" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H68" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -3395,137 +3380,137 @@
         <v>41</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C69" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D69" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E69" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H69" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>429</v>
+        <v>426</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D70" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E70" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H70" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B71" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D71" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E71" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H71" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B72" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D72" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E72" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H72" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B73" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D73" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E73" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H73" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="B74" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="D74" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E74" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H74" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -3533,22 +3518,22 @@
         <v>42</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
       <c r="D75" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E75" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H75" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
@@ -3556,22 +3541,22 @@
         <v>43</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D76" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E76" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H76" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
@@ -3579,206 +3564,206 @@
         <v>44</v>
       </c>
       <c r="B77" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D77" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E77" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H77" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D78" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E78" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H78" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D79" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E79" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H79" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B80" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D80" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E80" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H80" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B81" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D81" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E81" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H81" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B82" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D82" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E82" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H82" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B83" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D83" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E83" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H83" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B84" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D84" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E84" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H84" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B85" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D85" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E85" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H85" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -3786,22 +3771,22 @@
         <v>45</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D86" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E86" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="H86" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
@@ -3809,20 +3794,20 @@
         <v>46</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="6" t="s">
         <v>47</v>
       </c>
       <c r="D87" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E87" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="F87" s="5"/>
       <c r="H87" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
@@ -3839,71 +3824,71 @@
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C90" s="6" t="s">
         <v>223</v>
       </c>
-      <c r="B90" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>224</v>
-      </c>
       <c r="D90" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E90" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F90" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H90" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B91" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D91" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H91" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B92" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C92" s="6" t="s">
         <v>226</v>
       </c>
-      <c r="B92" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>227</v>
-      </c>
       <c r="D92" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E92" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H92" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
@@ -3911,22 +3896,22 @@
         <v>49</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D93" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E93" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H93" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
@@ -3934,22 +3919,22 @@
         <v>78</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D94" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E94" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H94" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
@@ -3957,22 +3942,22 @@
         <v>50</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D95" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E95" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H95" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
@@ -3980,22 +3965,22 @@
         <v>51</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D96" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E96" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H96" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4003,22 +3988,22 @@
         <v>52</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D97" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E97" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H97" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4026,22 +4011,22 @@
         <v>53</v>
       </c>
       <c r="B98" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D98" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E98" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H98" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
@@ -4049,22 +4034,22 @@
         <v>54</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D99" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E99" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H99" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
@@ -4072,160 +4057,160 @@
         <v>55</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D100" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E100" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H100" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B101" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D101" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E101" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H101" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B102" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C102" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B102" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C102" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D102" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E102" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H102" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B103" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D103" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E103" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H103" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="B104" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C104" s="6" t="s">
         <v>233</v>
       </c>
-      <c r="B104" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C104" s="6" t="s">
-        <v>234</v>
-      </c>
       <c r="D104" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E104" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H104" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B105" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D105" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E105" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H105" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B106" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D106" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E106" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H106" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4233,68 +4218,68 @@
         <v>56</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D107" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E107" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H107" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
+        <v>236</v>
+      </c>
+      <c r="B108" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C108" s="6" t="s">
         <v>237</v>
       </c>
-      <c r="B108" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C108" s="6" t="s">
-        <v>238</v>
-      </c>
       <c r="D108" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E108" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H108" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="B109" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C109" s="6" t="s">
         <v>239</v>
       </c>
-      <c r="B109" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C109" s="6" t="s">
-        <v>240</v>
-      </c>
       <c r="D109" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E109" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H109" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
@@ -4302,22 +4287,22 @@
         <v>57</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D110" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E110" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H110" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -4325,137 +4310,137 @@
         <v>58</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D111" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E111" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H111" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D112" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E112" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H112" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B113" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D113" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E113" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H113" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
+        <v>243</v>
+      </c>
+      <c r="B114" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="6" t="s">
         <v>244</v>
       </c>
-      <c r="B114" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C114" s="6" t="s">
-        <v>245</v>
-      </c>
       <c r="D114" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E114" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H114" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D115" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E115" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H115" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B116" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B116" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C116" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="D116" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E116" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H116" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4463,22 +4448,22 @@
         <v>59</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D117" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E117" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H117" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
@@ -4486,137 +4471,137 @@
         <v>60</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D118" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E118" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H118" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D119" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E119" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H119" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="B120" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C120" s="6" t="s">
         <v>231</v>
       </c>
-      <c r="B120" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C120" s="6" t="s">
-        <v>232</v>
-      </c>
       <c r="D120" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E120" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H120" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
+        <v>249</v>
+      </c>
+      <c r="B121" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C121" s="6" t="s">
         <v>250</v>
       </c>
-      <c r="B121" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C121" s="6" t="s">
-        <v>251</v>
-      </c>
       <c r="D121" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E121" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H121" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B122" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
       <c r="D122" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E122" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H122" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D123" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E123" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H123" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -4624,91 +4609,91 @@
         <v>61</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
       <c r="D124" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E124" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H124" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
+        <v>251</v>
+      </c>
+      <c r="B125" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C125" s="6" t="s">
         <v>252</v>
       </c>
-      <c r="B125" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C125" s="6" t="s">
-        <v>253</v>
-      </c>
       <c r="D125" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E125" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H125" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="B126" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C126" s="6" t="s">
         <v>254</v>
       </c>
-      <c r="B126" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C126" s="6" t="s">
-        <v>255</v>
-      </c>
       <c r="D126" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E126" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H126" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B127" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D127" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E127" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H127" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
@@ -4716,22 +4701,22 @@
         <v>62</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D128" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E128" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H128" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
@@ -4739,22 +4724,22 @@
         <v>63</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D129" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E129" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H129" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
@@ -4762,22 +4747,22 @@
         <v>64</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D130" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E130" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H130" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
@@ -4785,68 +4770,68 @@
         <v>65</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D131" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E131" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H131" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B132" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D132" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E132" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H132" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
+        <v>246</v>
+      </c>
+      <c r="B133" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C133" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="B133" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C133" s="6" t="s">
-        <v>248</v>
-      </c>
       <c r="D133" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E133" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H133" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
@@ -4854,22 +4839,22 @@
         <v>66</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D134" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H134" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
@@ -4877,22 +4862,22 @@
         <v>67</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D135" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E135" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H135" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
@@ -4900,22 +4885,22 @@
         <v>68</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D136" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E136" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H136" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
@@ -4923,91 +4908,91 @@
         <v>69</v>
       </c>
       <c r="B137" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C137" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D137" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E137" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H137" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B138" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C138" s="6" t="s">
         <v>259</v>
       </c>
-      <c r="B138" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C138" s="6" t="s">
-        <v>260</v>
-      </c>
       <c r="D138" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E138" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H138" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="B139" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C139" s="6" t="s">
         <v>261</v>
       </c>
-      <c r="B139" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C139" s="6" t="s">
-        <v>262</v>
-      </c>
       <c r="D139" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E139" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H139" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
+        <v>262</v>
+      </c>
+      <c r="B140" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C140" s="6" t="s">
         <v>263</v>
       </c>
-      <c r="B140" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C140" s="6" t="s">
-        <v>264</v>
-      </c>
       <c r="D140" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E140" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H140" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
@@ -5015,22 +5000,22 @@
         <v>70</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D141" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E141" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H141" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
@@ -5038,22 +5023,22 @@
         <v>71</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D142" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E142" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H142" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
@@ -5061,22 +5046,22 @@
         <v>72</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D143" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E143" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H143" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
@@ -5084,137 +5069,137 @@
         <v>73</v>
       </c>
       <c r="B144" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D144" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E144" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H144" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B145" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D145" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E145" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H145" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="B146" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C146" s="6" t="s">
         <v>266</v>
       </c>
-      <c r="B146" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C146" s="6" t="s">
-        <v>267</v>
-      </c>
       <c r="D146" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E146" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H146" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D147" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E147" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H147" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
+        <v>267</v>
+      </c>
+      <c r="B148" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C148" s="6" t="s">
         <v>268</v>
       </c>
-      <c r="B148" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C148" s="6" t="s">
-        <v>269</v>
-      </c>
       <c r="D148" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E148" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H148" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="B149" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C149" s="6" t="s">
         <v>270</v>
       </c>
-      <c r="B149" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C149" s="6" t="s">
-        <v>271</v>
-      </c>
       <c r="D149" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E149" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H149" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
@@ -5222,68 +5207,68 @@
         <v>75</v>
       </c>
       <c r="B150" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D150" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E150" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H150" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B151" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D151" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E151" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H151" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B152" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="D152" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E152" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H152" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5291,43 +5276,43 @@
         <v>74</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D153" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E153" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="H153" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="D154" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E154" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="F154" s="5"/>
       <c r="H154" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
@@ -5335,19 +5320,19 @@
         <v>76</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>433</v>
+        <v>430</v>
       </c>
       <c r="D155" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E155" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H155" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
@@ -5367,19 +5352,19 @@
         <v>79</v>
       </c>
       <c r="B158" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C158" s="9" t="s">
-        <v>431</v>
+        <v>428</v>
       </c>
       <c r="D158" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E158" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H158" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
@@ -5387,19 +5372,19 @@
         <v>80</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="D159" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E159" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H159" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="160" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -5407,19 +5392,19 @@
         <v>81</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D160" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H160" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
@@ -5427,19 +5412,19 @@
         <v>82</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="D161" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E161" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="H161" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
@@ -5447,7 +5432,7 @@
       <c r="B162" s="2"/>
       <c r="C162" s="2"/>
       <c r="D162" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
@@ -5466,102 +5451,102 @@
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="6" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B165" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C165" s="6" t="s">
         <v>86</v>
       </c>
       <c r="D165" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E165" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H165" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
+        <v>298</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="6" t="s">
         <v>299</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>300</v>
-      </c>
       <c r="D166" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E166" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H166" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>301</v>
       </c>
-      <c r="B167" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>302</v>
-      </c>
       <c r="D167" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E167" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H167" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>304</v>
-      </c>
       <c r="D168" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E168" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H168" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>306</v>
-      </c>
       <c r="D169" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E169" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H169" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -5569,79 +5554,79 @@
         <v>85</v>
       </c>
       <c r="B170" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C170" s="6" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D170" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E170" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H170" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A171" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>308</v>
       </c>
-      <c r="B171" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>309</v>
-      </c>
       <c r="D171" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E171" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H171" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>310</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>311</v>
-      </c>
       <c r="D172" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E172" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H172" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>312</v>
       </c>
-      <c r="B173" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>313</v>
-      </c>
       <c r="D173" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E173" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H173" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5649,19 +5634,19 @@
         <v>87</v>
       </c>
       <c r="B174" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D174" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E174" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H174" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.25">
@@ -5669,19 +5654,19 @@
         <v>88</v>
       </c>
       <c r="B175" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C175" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D175" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E175" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H175" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5689,19 +5674,19 @@
         <v>89</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C176" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D176" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E176" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H176" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5709,59 +5694,59 @@
         <v>90</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D177" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E177" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H177" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="6" t="s">
         <v>315</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>316</v>
-      </c>
       <c r="D178" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E178" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H178" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>318</v>
-      </c>
       <c r="D179" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E179" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H179" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -5769,337 +5754,337 @@
         <v>91</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D180" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E180" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H180" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>319</v>
       </c>
-      <c r="B181" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>320</v>
-      </c>
       <c r="D181" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E181" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H181" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
+        <v>320</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>322</v>
-      </c>
       <c r="D182" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E182" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H182" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
+        <v>322</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>324</v>
-      </c>
       <c r="D183" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E183" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H183" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
+        <v>324</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>325</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>326</v>
-      </c>
       <c r="D184" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E184" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H184" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
+        <v>326</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>327</v>
       </c>
-      <c r="B185" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>328</v>
-      </c>
       <c r="D185" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E185" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H185" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
+        <v>328</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>329</v>
       </c>
-      <c r="B186" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>330</v>
-      </c>
       <c r="D186" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E186" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H186" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>331</v>
       </c>
-      <c r="B187" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>332</v>
-      </c>
       <c r="D187" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E187" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H187" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B188" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C188" s="6" t="s">
         <v>333</v>
       </c>
-      <c r="B188" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C188" s="6" t="s">
-        <v>334</v>
-      </c>
       <c r="D188" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E188" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H188" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
+        <v>334</v>
+      </c>
+      <c r="B189" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C189" s="6" t="s">
         <v>335</v>
       </c>
-      <c r="B189" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C189" s="6" t="s">
-        <v>336</v>
-      </c>
       <c r="D189" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E189" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H189" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
+        <v>336</v>
+      </c>
+      <c r="B190" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C190" s="6" t="s">
         <v>337</v>
       </c>
-      <c r="B190" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C190" s="6" t="s">
-        <v>338</v>
-      </c>
       <c r="D190" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E190" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H190" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B191" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C191" s="6" t="s">
         <v>339</v>
       </c>
-      <c r="B191" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C191" s="6" t="s">
-        <v>340</v>
-      </c>
       <c r="D191" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E191" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H191" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
+        <v>340</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C192" s="6" t="s">
-        <v>342</v>
-      </c>
       <c r="D192" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E192" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H192" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
+        <v>342</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>343</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C193" s="6" t="s">
-        <v>344</v>
-      </c>
       <c r="D193" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E193" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H193" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
+        <v>344</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>345</v>
       </c>
-      <c r="B194" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>346</v>
-      </c>
       <c r="D194" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E194" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H194" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="B195" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>347</v>
       </c>
-      <c r="B195" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>348</v>
-      </c>
       <c r="D195" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E195" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H195" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>475</v>
+        <v>470</v>
       </c>
       <c r="B196" s="6"/>
       <c r="C196" s="6" t="s">
-        <v>474</v>
+        <v>469</v>
       </c>
       <c r="D196" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E196" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H196" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="197" spans="1:8" ht="135" x14ac:dyDescent="0.25">
@@ -6107,139 +6092,139 @@
         <v>92</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>476</v>
+        <v>471</v>
       </c>
       <c r="D197" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E197" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H197" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
         <v>93</v>
       </c>
       <c r="B198" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D198" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E198" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H198" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B199" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D199" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E199" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H199" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B200" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D200" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E200" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H200" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B201" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="D201" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E201" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H201" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>436</v>
+        <v>433</v>
       </c>
       <c r="B202" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
         <v>95</v>
       </c>
       <c r="D202" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E202" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H202" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B203" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D203" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E203" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H203" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6247,19 +6232,19 @@
         <v>94</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="D204" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E204" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H204" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
@@ -6267,19 +6252,19 @@
         <v>99</v>
       </c>
       <c r="B205" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="D205" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E205" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H205" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6287,19 +6272,19 @@
         <v>100</v>
       </c>
       <c r="B206" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D206" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E206" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H206" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6307,19 +6292,19 @@
         <v>101</v>
       </c>
       <c r="B207" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D207" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E207" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H207" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="208" spans="1:8" x14ac:dyDescent="0.25">
@@ -6327,19 +6312,19 @@
         <v>102</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C208" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D208" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E208" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H208" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
@@ -6347,99 +6332,99 @@
         <v>103</v>
       </c>
       <c r="B209" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C209" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D209" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E209" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H209" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="D210" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E210" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H210" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B211" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D211" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E211" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H211" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B212" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="D212" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E212" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H212" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B213" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="D213" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E213" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H213" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
@@ -6447,79 +6432,79 @@
         <v>104</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="D214" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E214" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H214" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="D215" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E215" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H215" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B216" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="D216" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E216" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H216" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="D217" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E217" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H217" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6527,79 +6512,79 @@
         <v>105</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="D218" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E218" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H218" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B219" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="D219" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E219" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H219" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B220" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="D220" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E220" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H220" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="D221" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E221" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H221" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6607,19 +6592,19 @@
         <v>106</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="D222" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E222" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H222" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
@@ -6627,19 +6612,19 @@
         <v>107</v>
       </c>
       <c r="B223" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D223" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E223" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H223" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
@@ -6647,19 +6632,19 @@
         <v>108</v>
       </c>
       <c r="B224" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D224" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E224" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H224" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
@@ -6667,19 +6652,19 @@
         <v>109</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="D225" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E225" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H225" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
@@ -6687,99 +6672,99 @@
         <v>110</v>
       </c>
       <c r="B226" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D226" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E226" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H226" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D227" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E227" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H227" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B228" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D228" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E228" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H228" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="D229" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E229" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H229" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B230" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="D230" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E230" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H230" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -6787,19 +6772,19 @@
         <v>111</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="D231" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E231" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H231" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
@@ -6807,159 +6792,159 @@
         <v>112</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="D232" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E232" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H232" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D233" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E233" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H233" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B234" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D234" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E234" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H234" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D235" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E235" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H235" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="D236" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E236" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H236" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B237" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="D237" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E237" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H237" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B238" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="D238" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E238" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H238" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="D239" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E239" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H239" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="240" spans="1:8" ht="75" x14ac:dyDescent="0.25">
@@ -6967,19 +6952,19 @@
         <v>113</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="D240" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E240" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H240" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
@@ -6987,19 +6972,19 @@
         <v>114</v>
       </c>
       <c r="B241" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C241" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D241" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E241" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H241" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
@@ -7007,19 +6992,19 @@
         <v>115</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C242" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D242" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E242" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H242" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
@@ -7027,79 +7012,79 @@
         <v>116</v>
       </c>
       <c r="B243" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C243" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D243" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E243" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H243" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="D244" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E244" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H244" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B245" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D245" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E245" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H245" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="B246" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="D246" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E246" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H246" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7107,19 +7092,19 @@
         <v>117</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="D247" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E247" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H247" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="248" spans="1:8" x14ac:dyDescent="0.25">
@@ -7127,19 +7112,19 @@
         <v>96</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D248" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E248" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H248" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
@@ -7147,19 +7132,19 @@
         <v>97</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="D249" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E249" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H249" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
@@ -7167,119 +7152,119 @@
         <v>98</v>
       </c>
       <c r="B250" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="D250" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E250" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H250" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="195" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
         <v>118</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>438</v>
+        <v>29</v>
       </c>
       <c r="D251" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E251" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H251" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B252" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D252" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E252" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H252" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B253" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="D253" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E253" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H253" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B254" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D254" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E254" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H254" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B255" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="D255" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E255" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H255" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7287,19 +7272,19 @@
         <v>119</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="D256" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E256" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H256" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
@@ -7307,19 +7292,19 @@
         <v>120</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C257" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D257" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E257" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H257" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
@@ -7327,479 +7312,479 @@
         <v>121</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>122</v>
+        <v>29</v>
       </c>
       <c r="D258" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E258" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H258" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B259" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C259" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D259" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E259" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H259" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E260" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H260" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="B261" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="D261" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E261" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H261" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>423</v>
+        <v>420</v>
       </c>
       <c r="B262" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>424</v>
+        <v>421</v>
       </c>
       <c r="D262" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E262" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H262" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B263" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>426</v>
+        <v>423</v>
       </c>
       <c r="D263" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E263" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H263" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="D264" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E264" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H264" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D265" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E265" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H265" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B266" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C266" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D266" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E266" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H266" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B267" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C267" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D267" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E267" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H267" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B268" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C268" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D268" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E268" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H268" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D269" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E269" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H269" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B270" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
         <v>29</v>
       </c>
       <c r="D270" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E270" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H270" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="271" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>427</v>
+        <v>424</v>
       </c>
       <c r="D271" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E271" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H271" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="B272" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D272" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E272" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H272" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
       <c r="D273" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E273" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H273" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D274" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E274" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H274" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="D275" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E275" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H275" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="D276" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E276" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H276" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D277" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E277" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H277" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
       <c r="B278" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="D278" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E278" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H278" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="B279" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="D279" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E279" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H279" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="B280" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D280" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E280" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H280" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C281" s="11" t="s">
-        <v>473</v>
+        <v>29</v>
       </c>
       <c r="D281" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="E281" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H281" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27830"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F703654E-286A-4337-B1B5-C25341CDE825}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AD81E-1B6C-4D17-98DF-4B9265019763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$241</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$252</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1767" uniqueCount="477">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="499">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1443,9 +1443,6 @@
     <t>Occupancy_expenses</t>
   </si>
   <si>
-    <t>share_based_payments_expense+transaction_and_integration_costs+gain_on_remeasurement_of_existing_interest_in_ernest_henry_mine+exploration_and_evaluation_costs_expensed+lease_modifications+royalty_expenses+other_expenses+outbound_freight+travel_expenses+other_expense+utilities_and_operating_expense+rental_and_lease_expense+other_expenses_from_ordinary_activities+property_expenses+restructuring_expense+Occupancy_expenses</t>
-  </si>
-  <si>
     <t>Investments_and_Other_Financial_Assets</t>
   </si>
   <si>
@@ -1459,6 +1456,75 @@
   </si>
   <si>
     <t>amount_due_from_related_companies+amounts_due_from_related_parties+Lease_recievables</t>
+  </si>
+  <si>
+    <t>freight_and_delivery</t>
+  </si>
+  <si>
+    <t>Freight and delivery</t>
+  </si>
+  <si>
+    <t>grant_write_off_enabling_infrastructure</t>
+  </si>
+  <si>
+    <t>Grant write off - Enabling Infrastructure</t>
+  </si>
+  <si>
+    <t>information_technology</t>
+  </si>
+  <si>
+    <t>Information technology</t>
+  </si>
+  <si>
+    <t>loss_on_sale_of_assets</t>
+  </si>
+  <si>
+    <t>Loss on sale of assets</t>
+  </si>
+  <si>
+    <t>maintenance_and_building_improvements</t>
+  </si>
+  <si>
+    <t>Maintenance and building improvements</t>
+  </si>
+  <si>
+    <t>occupancy</t>
+  </si>
+  <si>
+    <t>Occupancy</t>
+  </si>
+  <si>
+    <t>professional_fees</t>
+  </si>
+  <si>
+    <t>Professional fees</t>
+  </si>
+  <si>
+    <t>research_and_development_expenses</t>
+  </si>
+  <si>
+    <t>Research and development expenses</t>
+  </si>
+  <si>
+    <t>salaries_and_employee_benefits</t>
+  </si>
+  <si>
+    <t>Salaries and employee benefits</t>
+  </si>
+  <si>
+    <t>travel_and_entertainment_expenses</t>
+  </si>
+  <si>
+    <t>Travel and entertainment expenses</t>
+  </si>
+  <si>
+    <t>unrealised_loss_on_currency_transactions</t>
+  </si>
+  <si>
+    <t>Unrealised loss on currency transactions</t>
+  </si>
+  <si>
+    <t>share_based_payments_expense+transaction_and_integration_costs+gain_on_remeasurement_of_existing_interest_in_ernest_henry_mine+exploration_and_evaluation_costs_expensed+lease_modifications+royalty_expenses+other_expenses+outbound_freight+travel_expenses+other_expense+utilities_and_operating_expense+rental_and_lease_expense+other_expenses_from_ordinary_activities+property_expenses+restructuring_expense+Occupancy_expenses+freight_and_delivery+grant_write_off_enabling_infrastructure+information_technology+loss_on_sale_of_assets+maintenance_and_building_improvements+occupancy+professional_fees+research_and_development_expenses+salaries_and_employee_benefits+travel_and_entertainment_expenses+unrealised_loss_on_currency_transactions</t>
   </si>
 </sst>
 </file>
@@ -1871,10 +1937,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H281"/>
+  <dimension ref="A1:H292"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A265" workbookViewId="0">
-      <selection activeCell="B282" sqref="B282"/>
+    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
+      <selection activeCell="B208" sqref="B208"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2480,7 +2546,7 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>134</v>
@@ -2503,13 +2569,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2532,7 +2598,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="D32" t="s">
         <v>133</v>
@@ -3170,13 +3236,13 @@
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
@@ -3199,7 +3265,7 @@
         <v>135</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -6073,7 +6139,9 @@
       <c r="A196" s="6" t="s">
         <v>470</v>
       </c>
-      <c r="B196" s="6"/>
+      <c r="B196" s="6" t="s">
+        <v>134</v>
+      </c>
       <c r="C196" s="6" t="s">
         <v>469</v>
       </c>
@@ -6087,15 +6155,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="197" spans="1:8" ht="135" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>92</v>
+        <v>476</v>
       </c>
       <c r="B197" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>471</v>
+        <v>477</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
@@ -6107,15 +6175,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>93</v>
+        <v>478</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>29</v>
+        <v>479</v>
       </c>
       <c r="D198" t="s">
         <v>133</v>
@@ -6129,13 +6197,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>348</v>
+        <v>480</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>349</v>
+        <v>481</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
@@ -6149,13 +6217,13 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>350</v>
+        <v>482</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>351</v>
+        <v>483</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
@@ -6167,15 +6235,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>352</v>
+        <v>484</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>353</v>
+        <v>485</v>
       </c>
       <c r="D201" t="s">
         <v>133</v>
@@ -6189,13 +6257,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>433</v>
+        <v>486</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>95</v>
+        <v>487</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
@@ -6209,13 +6277,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>354</v>
+        <v>488</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>355</v>
+        <v>489</v>
       </c>
       <c r="D203" t="s">
         <v>133</v>
@@ -6229,13 +6297,13 @@
     </row>
     <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>94</v>
+        <v>490</v>
       </c>
       <c r="B204" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>434</v>
+        <v>491</v>
       </c>
       <c r="D204" t="s">
         <v>133</v>
@@ -6249,13 +6317,13 @@
     </row>
     <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>99</v>
+        <v>492</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>356</v>
+        <v>493</v>
       </c>
       <c r="D205" t="s">
         <v>133</v>
@@ -6269,13 +6337,13 @@
     </row>
     <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>100</v>
+        <v>494</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>29</v>
+        <v>495</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
@@ -6289,13 +6357,13 @@
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>101</v>
+        <v>496</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>29</v>
+        <v>497</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
@@ -6307,15 +6375,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B208" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>29</v>
+        <v>498</v>
       </c>
       <c r="D208" t="s">
         <v>133</v>
@@ -6329,7 +6397,7 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>134</v>
@@ -6347,15 +6415,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>358</v>
+        <v>348</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>359</v>
+        <v>349</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -6367,15 +6435,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>360</v>
+        <v>350</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>361</v>
+        <v>351</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -6389,13 +6457,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>362</v>
+        <v>352</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>363</v>
+        <v>353</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -6409,13 +6477,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>364</v>
+        <v>433</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>365</v>
+        <v>95</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -6427,15 +6495,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>104</v>
+        <v>354</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -6449,13 +6517,13 @@
     </row>
     <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>367</v>
+        <v>94</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>368</v>
+        <v>434</v>
       </c>
       <c r="D215" t="s">
         <v>133</v>
@@ -6469,13 +6537,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>369</v>
+        <v>99</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>370</v>
+        <v>356</v>
       </c>
       <c r="D216" t="s">
         <v>133</v>
@@ -6487,15 +6555,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>371</v>
+        <v>100</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>372</v>
+        <v>29</v>
       </c>
       <c r="D217" t="s">
         <v>133</v>
@@ -6509,13 +6577,13 @@
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B218" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>366</v>
+        <v>29</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -6529,13 +6597,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>374</v>
+        <v>102</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>375</v>
+        <v>29</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
@@ -6549,13 +6617,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>376</v>
+        <v>103</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
@@ -6569,13 +6637,13 @@
     </row>
     <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>378</v>
+        <v>358</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>379</v>
+        <v>359</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -6589,13 +6657,13 @@
     </row>
     <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>106</v>
+        <v>360</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>373</v>
+        <v>361</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
@@ -6609,13 +6677,13 @@
     </row>
     <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>107</v>
+        <v>362</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
@@ -6629,13 +6697,13 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>108</v>
+        <v>364</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>29</v>
+        <v>365</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
@@ -6647,15 +6715,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B225" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
       <c r="D225" t="s">
         <v>133</v>
@@ -6667,15 +6735,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>110</v>
+        <v>367</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>29</v>
+        <v>368</v>
       </c>
       <c r="D226" t="s">
         <v>133</v>
@@ -6689,13 +6757,13 @@
     </row>
     <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>382</v>
+        <v>369</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>383</v>
+        <v>370</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -6709,13 +6777,13 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>384</v>
+        <v>371</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>385</v>
+        <v>372</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -6727,15 +6795,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>386</v>
+        <v>105</v>
       </c>
       <c r="B229" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>387</v>
+        <v>366</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -6749,13 +6817,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>388</v>
+        <v>374</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>389</v>
+        <v>375</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -6767,15 +6835,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>111</v>
+        <v>376</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
@@ -6787,15 +6855,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>112</v>
+        <v>378</v>
       </c>
       <c r="B232" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>390</v>
+        <v>379</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -6809,13 +6877,13 @@
     </row>
     <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>391</v>
+        <v>106</v>
       </c>
       <c r="B233" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>392</v>
+        <v>373</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
@@ -6827,15 +6895,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>393</v>
+        <v>107</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>394</v>
+        <v>29</v>
       </c>
       <c r="D234" t="s">
         <v>133</v>
@@ -6847,15 +6915,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>395</v>
+        <v>108</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>396</v>
+        <v>29</v>
       </c>
       <c r="D235" t="s">
         <v>133</v>
@@ -6867,15 +6935,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>397</v>
+        <v>109</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>398</v>
+        <v>380</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
@@ -6887,15 +6955,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="237" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>399</v>
+        <v>110</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>400</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -6909,13 +6977,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>401</v>
+        <v>382</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>402</v>
+        <v>383</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -6929,13 +6997,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>442</v>
+        <v>384</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>441</v>
+        <v>385</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -6947,15 +7015,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>113</v>
+        <v>386</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>443</v>
+        <v>387</v>
       </c>
       <c r="D240" t="s">
         <v>133</v>
@@ -6969,13 +7037,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>114</v>
+        <v>388</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>29</v>
+        <v>389</v>
       </c>
       <c r="D241" t="s">
         <v>133</v>
@@ -6987,15 +7055,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="B242" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>29</v>
+        <v>381</v>
       </c>
       <c r="D242" t="s">
         <v>133</v>
@@ -7009,13 +7077,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>29</v>
+        <v>390</v>
       </c>
       <c r="D243" t="s">
         <v>133</v>
@@ -7027,15 +7095,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>403</v>
+        <v>391</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>404</v>
+        <v>392</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7047,15 +7115,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>405</v>
+        <v>393</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>406</v>
+        <v>394</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7069,13 +7137,13 @@
     </row>
     <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>449</v>
+        <v>395</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7089,13 +7157,13 @@
     </row>
     <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>117</v>
+        <v>397</v>
       </c>
       <c r="B247" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7107,15 +7175,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>96</v>
+        <v>399</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>407</v>
+        <v>400</v>
       </c>
       <c r="D248" t="s">
         <v>133</v>
@@ -7129,13 +7197,13 @@
     </row>
     <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>97</v>
+        <v>401</v>
       </c>
       <c r="B249" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="D249" t="s">
         <v>133</v>
@@ -7149,13 +7217,13 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>98</v>
+        <v>442</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>409</v>
+        <v>441</v>
       </c>
       <c r="D250" t="s">
         <v>133</v>
@@ -7167,15 +7235,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="B251" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>29</v>
+        <v>443</v>
       </c>
       <c r="D251" t="s">
         <v>133</v>
@@ -7189,13 +7257,13 @@
     </row>
     <row r="252" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>149</v>
+        <v>114</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="D252" t="s">
         <v>133</v>
@@ -7209,13 +7277,13 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>412</v>
+        <v>115</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>413</v>
+        <v>29</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
@@ -7229,13 +7297,13 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>414</v>
+        <v>116</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>150</v>
+        <v>29</v>
       </c>
       <c r="D254" t="s">
         <v>133</v>
@@ -7249,13 +7317,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>415</v>
+        <v>403</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>416</v>
+        <v>404</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
@@ -7267,15 +7335,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="256" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>119</v>
+        <v>405</v>
       </c>
       <c r="B256" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="D256" t="s">
         <v>133</v>
@@ -7287,15 +7355,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>120</v>
+        <v>449</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>29</v>
+        <v>448</v>
       </c>
       <c r="D257" t="s">
         <v>133</v>
@@ -7309,13 +7377,13 @@
     </row>
     <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>29</v>
+        <v>450</v>
       </c>
       <c r="D258" t="s">
         <v>133</v>
@@ -7329,13 +7397,13 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>122</v>
+        <v>96</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>29</v>
+        <v>407</v>
       </c>
       <c r="D259" t="s">
         <v>133</v>
@@ -7349,13 +7417,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>123</v>
+        <v>97</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
@@ -7369,13 +7437,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>418</v>
+        <v>98</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
@@ -7389,13 +7457,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>420</v>
+        <v>118</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>421</v>
+        <v>29</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -7409,13 +7477,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>422</v>
+        <v>149</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>423</v>
+        <v>411</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -7427,75 +7495,75 @@
         <v>151</v>
       </c>
     </row>
-    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>124</v>
+        <v>412</v>
       </c>
       <c r="B264" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C264" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="D264" t="s">
+        <v>133</v>
+      </c>
+      <c r="E264" t="s">
+        <v>148</v>
+      </c>
+      <c r="H264" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A265" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B265" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C265" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D265" t="s">
+        <v>133</v>
+      </c>
+      <c r="E265" t="s">
+        <v>148</v>
+      </c>
+      <c r="H265" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A266" s="6" t="s">
+        <v>415</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="D266" t="s">
+        <v>133</v>
+      </c>
+      <c r="E266" t="s">
+        <v>148</v>
+      </c>
+      <c r="H266" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="B267" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C264" s="6" t="s">
-        <v>417</v>
-      </c>
-      <c r="D264" t="s">
-        <v>133</v>
-      </c>
-      <c r="E264" t="s">
-        <v>148</v>
-      </c>
-      <c r="H264" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A265" s="6" t="s">
-        <v>129</v>
-      </c>
-      <c r="B265" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C265" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D265" t="s">
-        <v>133</v>
-      </c>
-      <c r="E265" t="s">
-        <v>148</v>
-      </c>
-      <c r="H265" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="266" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A266" s="6" t="s">
-        <v>130</v>
-      </c>
-      <c r="B266" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C266" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D266" t="s">
-        <v>133</v>
-      </c>
-      <c r="E266" t="s">
-        <v>148</v>
-      </c>
-      <c r="H266" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
-        <v>125</v>
-      </c>
-      <c r="B267" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C267" s="6" t="s">
-        <v>29</v>
+        <v>410</v>
       </c>
       <c r="D267" t="s">
         <v>133</v>
@@ -7509,7 +7577,7 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>134</v>
@@ -7527,9 +7595,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
@@ -7549,7 +7617,7 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
@@ -7567,15 +7635,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>131</v>
+        <v>123</v>
       </c>
       <c r="B271" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>424</v>
+        <v>29</v>
       </c>
       <c r="D271" t="s">
         <v>133</v>
@@ -7587,15 +7655,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="272" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>451</v>
+        <v>418</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>452</v>
+        <v>419</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -7607,15 +7675,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>453</v>
+        <v>420</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>454</v>
+        <v>421</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -7629,13 +7697,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>455</v>
+        <v>422</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>456</v>
+        <v>423</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
@@ -7647,15 +7715,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>457</v>
+        <v>124</v>
       </c>
       <c r="B275" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>458</v>
+        <v>417</v>
       </c>
       <c r="D275" t="s">
         <v>133</v>
@@ -7667,15 +7735,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>459</v>
+        <v>129</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>460</v>
+        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
@@ -7689,13 +7757,13 @@
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>461</v>
+        <v>130</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>462</v>
+        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
@@ -7709,13 +7777,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>463</v>
+        <v>125</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>464</v>
+        <v>29</v>
       </c>
       <c r="D278" t="s">
         <v>133</v>
@@ -7727,15 +7795,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>465</v>
+        <v>126</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>466</v>
+        <v>29</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
@@ -7749,41 +7817,261 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="B280" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C280" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D280" t="s">
+        <v>133</v>
+      </c>
+      <c r="E280" t="s">
+        <v>148</v>
+      </c>
+      <c r="H280" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A281" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B281" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C281" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D281" t="s">
+        <v>133</v>
+      </c>
+      <c r="E281" t="s">
+        <v>148</v>
+      </c>
+      <c r="H281" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="282" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A282" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>424</v>
+      </c>
+      <c r="D282" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" t="s">
+        <v>148</v>
+      </c>
+      <c r="H282" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="D283" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" t="s">
+        <v>148</v>
+      </c>
+      <c r="H283" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>454</v>
+      </c>
+      <c r="D284" t="s">
+        <v>133</v>
+      </c>
+      <c r="E284" t="s">
+        <v>148</v>
+      </c>
+      <c r="H284" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D285" t="s">
+        <v>133</v>
+      </c>
+      <c r="E285" t="s">
+        <v>148</v>
+      </c>
+      <c r="H285" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D286" t="s">
+        <v>133</v>
+      </c>
+      <c r="E286" t="s">
+        <v>148</v>
+      </c>
+      <c r="H286" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="287" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A287" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D287" t="s">
+        <v>133</v>
+      </c>
+      <c r="E287" t="s">
+        <v>148</v>
+      </c>
+      <c r="H287" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D288" t="s">
+        <v>133</v>
+      </c>
+      <c r="E288" t="s">
+        <v>148</v>
+      </c>
+      <c r="H288" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C289" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>148</v>
+      </c>
+      <c r="H289" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
+        <v>465</v>
+      </c>
+      <c r="B290" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C290" s="6" t="s">
+        <v>466</v>
+      </c>
+      <c r="D290" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" t="s">
+        <v>148</v>
+      </c>
+      <c r="H290" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B280" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C280" s="6" t="s">
+      <c r="B291" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>468</v>
       </c>
-      <c r="D280" t="s">
-        <v>133</v>
-      </c>
-      <c r="E280" t="s">
-        <v>148</v>
-      </c>
-      <c r="H280" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A281" s="1" t="s">
+      <c r="D291" t="s">
+        <v>133</v>
+      </c>
+      <c r="E291" t="s">
+        <v>148</v>
+      </c>
+      <c r="H291" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B281" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C281" s="11" t="s">
+      <c r="B292" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C292" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D281" t="s">
-        <v>133</v>
-      </c>
-      <c r="E281" t="s">
-        <v>148</v>
-      </c>
-      <c r="H281" t="s">
+      <c r="D292" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" t="s">
+        <v>148</v>
+      </c>
+      <c r="H292" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A7AD81E-1B6C-4D17-98DF-4B9265019763}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3BE86-B5F1-4EDF-A4C3-3AB91E5778C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$252</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$253</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1834" uniqueCount="499">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="501">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1341,9 +1341,6 @@
     <t>Assets_held_for_sale</t>
   </si>
   <si>
-    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Assets_held_for_sale</t>
-  </si>
-  <si>
     <t>Related Party Loans</t>
   </si>
   <si>
@@ -1525,6 +1522,15 @@
   </si>
   <si>
     <t>share_based_payments_expense+transaction_and_integration_costs+gain_on_remeasurement_of_existing_interest_in_ernest_henry_mine+exploration_and_evaluation_costs_expensed+lease_modifications+royalty_expenses+other_expenses+outbound_freight+travel_expenses+other_expense+utilities_and_operating_expense+rental_and_lease_expense+other_expenses_from_ordinary_activities+property_expenses+restructuring_expense+Occupancy_expenses+freight_and_delivery+grant_write_off_enabling_infrastructure+information_technology+loss_on_sale_of_assets+maintenance_and_building_improvements+occupancy+professional_fees+research_and_development_expenses+salaries_and_employee_benefits+travel_and_entertainment_expenses+unrealised_loss_on_currency_transactions</t>
+  </si>
+  <si>
+    <t>Intellectual property assets</t>
+  </si>
+  <si>
+    <t>Intellectual_property_assets</t>
+  </si>
+  <si>
+    <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Assets_held_for_sale+Intellectual_property_assets</t>
   </si>
 </sst>
 </file>
@@ -1937,10 +1943,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H292"/>
+  <dimension ref="A1:H293"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A199" workbookViewId="0">
-      <selection activeCell="B208" sqref="B208"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2546,7 +2552,7 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>134</v>
@@ -2569,13 +2575,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2598,7 +2604,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D32" t="s">
         <v>133</v>
@@ -2958,15 +2964,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>32</v>
+        <v>499</v>
       </c>
       <c r="B48" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>437</v>
+        <v>498</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -2981,15 +2987,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="6" t="s">
-        <v>200</v>
+        <v>32</v>
       </c>
       <c r="B49" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>168</v>
+        <v>500</v>
       </c>
       <c r="D49" t="s">
         <v>133</v>
@@ -2998,21 +3004,21 @@
         <v>145</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H49" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="50" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="6" t="s">
-        <v>291</v>
+        <v>200</v>
       </c>
       <c r="B50" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C50" s="6" t="s">
-        <v>161</v>
+        <v>168</v>
       </c>
       <c r="D50" t="s">
         <v>133</v>
@@ -3029,13 +3035,13 @@
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>33</v>
+        <v>291</v>
       </c>
       <c r="B51" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C51" s="6" t="s">
-        <v>292</v>
+        <v>161</v>
       </c>
       <c r="D51" t="s">
         <v>133</v>
@@ -3050,15 +3056,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A52" s="6" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B52" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>136</v>
+        <v>292</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -3075,13 +3081,13 @@
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="6" t="s">
-        <v>217</v>
+        <v>34</v>
       </c>
       <c r="B53" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C53" s="6" t="s">
-        <v>218</v>
+        <v>136</v>
       </c>
       <c r="D53" t="s">
         <v>133</v>
@@ -3098,13 +3104,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
-        <v>201</v>
+        <v>217</v>
       </c>
       <c r="B54" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C54" s="6" t="s">
-        <v>169</v>
+        <v>218</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -3121,13 +3127,13 @@
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="6" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="B55" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C55" s="6" t="s">
-        <v>219</v>
+        <v>169</v>
       </c>
       <c r="D55" t="s">
         <v>133</v>
@@ -3142,15 +3148,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="56" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="6" t="s">
-        <v>35</v>
+        <v>190</v>
       </c>
       <c r="B56" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="D56" t="s">
         <v>133</v>
@@ -3165,15 +3171,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A57" s="6" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B57" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>29</v>
+        <v>216</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -3188,15 +3194,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="6" t="s">
-        <v>202</v>
+        <v>36</v>
       </c>
       <c r="B58" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C58" s="6" t="s">
-        <v>170</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
         <v>133</v>
@@ -3213,13 +3219,13 @@
     </row>
     <row r="59" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A59" s="6" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B59" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C59" s="6" t="s">
-        <v>138</v>
+        <v>170</v>
       </c>
       <c r="D59" t="s">
         <v>133</v>
@@ -3234,15 +3240,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A60" s="6" t="s">
-        <v>473</v>
+        <v>203</v>
       </c>
       <c r="B60" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C60" s="6" t="s">
-        <v>472</v>
+        <v>138</v>
       </c>
       <c r="D60" t="s">
         <v>133</v>
@@ -3257,15 +3263,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="61" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A61" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>135</v>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="B61" s="6" t="s">
+        <v>134</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -3280,15 +3286,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="B62" s="6" t="s">
-        <v>134</v>
+    <row r="62" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A62" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>171</v>
+        <v>474</v>
       </c>
       <c r="D62" t="s">
         <v>133</v>
@@ -3305,13 +3311,13 @@
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="6" t="s">
-        <v>193</v>
+        <v>38</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C63" s="6" t="s">
-        <v>31</v>
+        <v>171</v>
       </c>
       <c r="D63" t="s">
         <v>133</v>
@@ -3328,13 +3334,13 @@
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="6" t="s">
-        <v>204</v>
+        <v>193</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>172</v>
+        <v>31</v>
       </c>
       <c r="D64" t="s">
         <v>133</v>
@@ -3351,13 +3357,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B65" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="D65" t="s">
         <v>133</v>
@@ -3374,13 +3380,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>39</v>
+        <v>205</v>
       </c>
       <c r="B66" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>215</v>
+        <v>173</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -3397,13 +3403,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>29</v>
+        <v>215</v>
       </c>
       <c r="D67" t="s">
         <v>133</v>
@@ -3420,7 +3426,7 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>134</v>
@@ -3443,7 +3449,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>41</v>
+        <v>425</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>134</v>
@@ -3466,7 +3472,7 @@
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>426</v>
+        <v>41</v>
       </c>
       <c r="B70" s="6" t="s">
         <v>134</v>
@@ -3489,13 +3495,13 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>206</v>
+        <v>426</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C71" s="6" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D71" t="s">
         <v>133</v>
@@ -3512,13 +3518,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D72" t="s">
         <v>133</v>
@@ -3535,13 +3541,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D73" t="s">
         <v>133</v>
@@ -3558,13 +3564,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>445</v>
+        <v>208</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>444</v>
+        <v>176</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
@@ -3579,15 +3585,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="75" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>42</v>
+        <v>444</v>
       </c>
       <c r="B75" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -3602,15 +3608,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>29</v>
+        <v>445</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -3627,13 +3633,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>177</v>
+        <v>29</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
@@ -3650,7 +3656,7 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>209</v>
+        <v>44</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>134</v>
@@ -3673,13 +3679,13 @@
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B79" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D79" t="s">
         <v>133</v>
@@ -3696,13 +3702,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>288</v>
+        <v>210</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>198</v>
+        <v>179</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
@@ -3719,13 +3725,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D81" t="s">
         <v>133</v>
@@ -3742,13 +3748,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>211</v>
+        <v>289</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>180</v>
+        <v>199</v>
       </c>
       <c r="D82" t="s">
         <v>133</v>
@@ -3765,13 +3771,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>280</v>
+        <v>211</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D83" t="s">
         <v>133</v>
@@ -3788,13 +3794,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>212</v>
+        <v>280</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
@@ -3811,13 +3817,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
@@ -3832,15 +3838,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="86" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>45</v>
+        <v>213</v>
       </c>
       <c r="B86" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>290</v>
+        <v>182</v>
       </c>
       <c r="D86" t="s">
         <v>133</v>
@@ -3855,15 +3861,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>47</v>
+        <v>290</v>
       </c>
       <c r="D87" t="s">
         <v>133</v>
@@ -3871,55 +3877,55 @@
       <c r="E87" t="s">
         <v>145</v>
       </c>
-      <c r="F87" s="5"/>
+      <c r="F87" s="5" t="s">
+        <v>221</v>
+      </c>
       <c r="H87" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A88" s="5"/>
-      <c r="B88" s="5"/>
-      <c r="C88" s="5"/>
+      <c r="A88" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="B88" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C88" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="D88" t="s">
+        <v>133</v>
+      </c>
+      <c r="E88" t="s">
+        <v>145</v>
+      </c>
+      <c r="F88" s="5"/>
+      <c r="H88" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="7" t="s">
-        <v>48</v>
-      </c>
+      <c r="A89" s="5"/>
       <c r="B89" s="5"/>
       <c r="C89" s="5"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="6" t="s">
-        <v>222</v>
-      </c>
-      <c r="B90" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C90" s="6" t="s">
-        <v>223</v>
-      </c>
-      <c r="D90" t="s">
-        <v>133</v>
-      </c>
-      <c r="E90" t="s">
-        <v>146</v>
-      </c>
-      <c r="F90" s="5" t="s">
-        <v>273</v>
-      </c>
-      <c r="H90" t="s">
-        <v>152</v>
-      </c>
+      <c r="A90" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B90" s="5"/>
+      <c r="C90" s="5"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
@@ -3936,13 +3942,13 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>225</v>
+        <v>276</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C92" s="6" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="D92" t="s">
         <v>133</v>
@@ -3959,13 +3965,13 @@
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A93" s="6" t="s">
-        <v>49</v>
+        <v>225</v>
       </c>
       <c r="B93" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C93" s="6" t="s">
-        <v>277</v>
+        <v>226</v>
       </c>
       <c r="D93" t="s">
         <v>133</v>
@@ -3982,13 +3988,13 @@
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>228</v>
+        <v>277</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -4005,13 +4011,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>50</v>
+        <v>78</v>
       </c>
       <c r="B95" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
@@ -4028,13 +4034,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>29</v>
+        <v>227</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
@@ -4049,9 +4055,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="97" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B97" s="6" t="s">
         <v>134</v>
@@ -4074,7 +4080,7 @@
     </row>
     <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>134</v>
@@ -4095,9 +4101,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>134</v>
@@ -4120,7 +4126,7 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B100" s="6" t="s">
         <v>134</v>
@@ -4143,13 +4149,13 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>229</v>
+        <v>55</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C101" s="6" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D101" t="s">
         <v>133</v>
@@ -4158,21 +4164,21 @@
         <v>146</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D102" t="s">
         <v>133</v>
@@ -4187,15 +4193,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
@@ -4212,13 +4218,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>232</v>
+        <v>205</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>233</v>
+        <v>173</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -4235,13 +4241,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>204</v>
+        <v>232</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>172</v>
+        <v>233</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -4258,13 +4264,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>286</v>
+        <v>204</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>234</v>
+        <v>172</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
@@ -4279,15 +4285,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>56</v>
+        <v>286</v>
       </c>
       <c r="B107" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>287</v>
+        <v>234</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
@@ -4302,15 +4308,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>236</v>
+        <v>56</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>237</v>
+        <v>287</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -4327,13 +4333,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
@@ -4350,13 +4356,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>57</v>
+        <v>238</v>
       </c>
       <c r="B110" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D110" t="s">
         <v>133</v>
@@ -4371,15 +4377,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>29</v>
+        <v>235</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
@@ -4394,15 +4400,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>210</v>
+        <v>58</v>
       </c>
       <c r="B112" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>241</v>
+        <v>29</v>
       </c>
       <c r="D112" t="s">
         <v>133</v>
@@ -4419,13 +4425,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D113" t="s">
         <v>133</v>
@@ -4442,13 +4448,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>244</v>
+        <v>140</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
@@ -4465,13 +4471,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B115" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -4488,13 +4494,13 @@
     </row>
     <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -4509,15 +4515,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="117" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>59</v>
+        <v>246</v>
       </c>
       <c r="B117" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -4532,15 +4538,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>248</v>
+        <v>240</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -4557,13 +4563,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>139</v>
+        <v>248</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -4572,21 +4578,21 @@
         <v>146</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H119" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="120" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -4601,15 +4607,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -4626,13 +4632,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>439</v>
+        <v>249</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>438</v>
+        <v>250</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -4649,13 +4655,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>204</v>
+        <v>438</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
@@ -4670,15 +4676,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>447</v>
+        <v>204</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -4693,15 +4699,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>252</v>
+        <v>446</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -4718,13 +4724,13 @@
     </row>
     <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -4741,13 +4747,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>278</v>
+        <v>253</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -4764,13 +4770,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>62</v>
+        <v>278</v>
       </c>
       <c r="B128" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>279</v>
+        <v>255</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -4787,13 +4793,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>29</v>
+        <v>279</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -4810,7 +4816,7 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B130" s="6" t="s">
         <v>134</v>
@@ -4833,7 +4839,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>134</v>
@@ -4856,13 +4862,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -4879,13 +4885,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -4902,13 +4908,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>66</v>
+        <v>246</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -4925,13 +4931,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -4948,7 +4954,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>134</v>
@@ -4971,7 +4977,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>134</v>
@@ -4994,13 +5000,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="D138" t="s">
         <v>133</v>
@@ -5017,13 +5023,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -5040,13 +5046,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -5063,13 +5069,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>70</v>
+        <v>262</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>257</v>
+        <v>263</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -5086,13 +5092,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>29</v>
+        <v>257</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -5109,7 +5115,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>134</v>
@@ -5132,7 +5138,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>134</v>
@@ -5155,13 +5161,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
@@ -5178,13 +5184,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="D146" t="s">
         <v>133</v>
@@ -5201,13 +5207,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>181</v>
+        <v>266</v>
       </c>
       <c r="D147" t="s">
         <v>133</v>
@@ -5224,13 +5230,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="D148" t="s">
         <v>133</v>
@@ -5247,13 +5253,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="D149" t="s">
         <v>133</v>
@@ -5270,13 +5276,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>75</v>
+        <v>269</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>248</v>
+        <v>270</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
@@ -5293,13 +5299,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -5316,13 +5322,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -5337,15 +5343,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>74</v>
+        <v>242</v>
       </c>
       <c r="B153" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -5360,15 +5366,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>429</v>
+        <v>272</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -5376,20 +5382,22 @@
       <c r="E154" t="s">
         <v>146</v>
       </c>
-      <c r="F154" s="5"/>
+      <c r="F154" s="5" t="s">
+        <v>275</v>
+      </c>
       <c r="H154" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>76</v>
+        <v>429</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -5397,51 +5405,52 @@
       <c r="E155" t="s">
         <v>146</v>
       </c>
+      <c r="F155" s="5"/>
       <c r="H155" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A156" s="6"/>
-      <c r="B156" s="6"/>
-      <c r="C156" s="6"/>
+      <c r="A156" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B156" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C156" s="6" t="s">
+        <v>430</v>
+      </c>
+      <c r="D156" t="s">
+        <v>133</v>
+      </c>
+      <c r="E156" t="s">
+        <v>146</v>
+      </c>
+      <c r="H156" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="7" t="s">
+      <c r="A157" s="6"/>
+      <c r="B157" s="6"/>
+      <c r="C157" s="6"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A158" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B157" s="5"/>
-      <c r="C157" s="5"/>
-    </row>
-    <row r="158" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A158" s="8" t="s">
+      <c r="B158" s="5"/>
+      <c r="C158" s="5"/>
+    </row>
+    <row r="159" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A159" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B158" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C158" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D158" t="s">
-        <v>133</v>
-      </c>
-      <c r="E158" t="s">
-        <v>147</v>
-      </c>
-      <c r="H158" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B159" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C159" s="9" t="s">
-        <v>143</v>
+        <v>428</v>
       </c>
       <c r="D159" t="s">
         <v>133</v>
@@ -5453,15 +5462,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
@@ -5473,15 +5482,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>144</v>
+        <v>293</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
@@ -5494,76 +5503,76 @@
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="1"/>
-      <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
+      <c r="A162" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B162" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C162" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="D162" t="s">
         <v>133</v>
       </c>
+      <c r="E162" t="s">
+        <v>147</v>
+      </c>
+      <c r="H162" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B163" s="4"/>
+      <c r="A163" s="1"/>
+      <c r="B163" s="2"/>
       <c r="C163" s="2"/>
+      <c r="D163" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A164" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B164" s="4"/>
       <c r="C164" s="2"/>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B165" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C165" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D165" t="s">
-        <v>133</v>
-      </c>
-      <c r="E165" t="s">
-        <v>148</v>
-      </c>
-      <c r="H165" t="s">
-        <v>151</v>
-      </c>
+      <c r="A165" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B165" s="4"/>
+      <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A166" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C166" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D166" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" t="s">
+        <v>148</v>
+      </c>
+      <c r="H166" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A167" s="6" t="s">
         <v>298</v>
       </c>
-      <c r="B166" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" s="6" t="s">
+      <c r="B167" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="6" t="s">
         <v>299</v>
-      </c>
-      <c r="D166" t="s">
-        <v>133</v>
-      </c>
-      <c r="E166" t="s">
-        <v>148</v>
-      </c>
-      <c r="H166" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="167" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D167" t="s">
         <v>133</v>
@@ -5577,73 +5586,73 @@
     </row>
     <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="D168" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" t="s">
+        <v>148</v>
+      </c>
+      <c r="H168" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A169" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B168" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C168" s="6" t="s">
+      <c r="B169" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C169" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D168" t="s">
-        <v>133</v>
-      </c>
-      <c r="E168" t="s">
-        <v>148</v>
-      </c>
-      <c r="H168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
+      <c r="D169" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" t="s">
+        <v>148</v>
+      </c>
+      <c r="H169" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C169" s="6" t="s">
+      <c r="B170" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>305</v>
       </c>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E169" t="s">
-        <v>148</v>
-      </c>
-      <c r="H169" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="D170" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" t="s">
+        <v>148</v>
+      </c>
+      <c r="H170" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B170" s="6" t="s">
+      <c r="B171" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C170" s="6" t="s">
+      <c r="C171" s="6" t="s">
         <v>296</v>
-      </c>
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-      <c r="E170" t="s">
-        <v>148</v>
-      </c>
-      <c r="H170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>308</v>
       </c>
       <c r="D171" t="s">
         <v>133</v>
@@ -5657,33 +5666,33 @@
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="D172" t="s">
+        <v>133</v>
+      </c>
+      <c r="E172" t="s">
+        <v>148</v>
+      </c>
+      <c r="H172" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A173" s="6" t="s">
         <v>309</v>
       </c>
-      <c r="B172" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C172" s="6" t="s">
+      <c r="B173" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="D172" t="s">
-        <v>133</v>
-      </c>
-      <c r="E172" t="s">
-        <v>148</v>
-      </c>
-      <c r="H172" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A173" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="D173" t="s">
         <v>133</v>
@@ -5697,47 +5706,47 @@
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D174" t="s">
+        <v>133</v>
+      </c>
+      <c r="E174" t="s">
+        <v>148</v>
+      </c>
+      <c r="H174" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B174" s="6" t="s">
+      <c r="B175" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C174" s="6" t="s">
+      <c r="C175" s="6" t="s">
         <v>306</v>
       </c>
-      <c r="D174" t="s">
-        <v>133</v>
-      </c>
-      <c r="E174" t="s">
-        <v>148</v>
-      </c>
-      <c r="H174" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A175" s="6" t="s">
+      <c r="D175" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+      <c r="H175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D175" t="s">
-        <v>133</v>
-      </c>
-      <c r="E175" t="s">
-        <v>148</v>
-      </c>
-      <c r="H175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="B176" s="6" t="s">
         <v>134</v>
@@ -5757,33 +5766,33 @@
     </row>
     <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D177" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" t="s">
+        <v>148</v>
+      </c>
+      <c r="H177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B177" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D177" t="s">
-        <v>133</v>
-      </c>
-      <c r="E177" t="s">
-        <v>148</v>
-      </c>
-      <c r="H177" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="B178" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>315</v>
+        <v>439</v>
       </c>
       <c r="D178" t="s">
         <v>133</v>
@@ -5797,53 +5806,53 @@
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="D179" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" t="s">
+        <v>148</v>
+      </c>
+      <c r="H179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B179" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C179" s="6" t="s">
+      <c r="B180" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="6" t="s">
         <v>317</v>
       </c>
-      <c r="D179" t="s">
-        <v>133</v>
-      </c>
-      <c r="E179" t="s">
-        <v>148</v>
-      </c>
-      <c r="H179" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
+      <c r="D180" t="s">
+        <v>133</v>
+      </c>
+      <c r="E180" t="s">
+        <v>148</v>
+      </c>
+      <c r="H180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B180" s="6" t="s">
+      <c r="B181" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C180" s="6" t="s">
+      <c r="C181" s="6" t="s">
         <v>313</v>
-      </c>
-      <c r="D180" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" t="s">
-        <v>148</v>
-      </c>
-      <c r="H180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>319</v>
       </c>
       <c r="D181" t="s">
         <v>133</v>
@@ -5857,73 +5866,73 @@
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="D182" t="s">
+        <v>133</v>
+      </c>
+      <c r="E182" t="s">
+        <v>148</v>
+      </c>
+      <c r="H182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B182" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C182" s="6" t="s">
+      <c r="B183" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D182" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" t="s">
-        <v>148</v>
-      </c>
-      <c r="H182" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
+      <c r="D183" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" t="s">
+        <v>148</v>
+      </c>
+      <c r="H183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C183" s="6" t="s">
+      <c r="B184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D183" t="s">
-        <v>133</v>
-      </c>
-      <c r="E183" t="s">
-        <v>148</v>
-      </c>
-      <c r="H183" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="D184" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" t="s">
+        <v>148</v>
+      </c>
+      <c r="H184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>324</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C184" s="6" t="s">
+      <c r="B185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>325</v>
-      </c>
-      <c r="D184" t="s">
-        <v>133</v>
-      </c>
-      <c r="E184" t="s">
-        <v>148</v>
-      </c>
-      <c r="H184" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D185" t="s">
         <v>133</v>
@@ -5937,13 +5946,13 @@
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B186" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="D186" t="s">
         <v>133</v>
@@ -5957,13 +5966,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
@@ -5977,13 +5986,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
@@ -5997,13 +6006,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
@@ -6017,13 +6026,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
@@ -6037,13 +6046,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="D191" t="s">
         <v>133</v>
@@ -6057,53 +6066,53 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="B192" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C192" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="D192" t="s">
+        <v>133</v>
+      </c>
+      <c r="E192" t="s">
+        <v>148</v>
+      </c>
+      <c r="H192" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A193" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B192" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C192" s="6" t="s">
+      <c r="B193" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D192" t="s">
-        <v>133</v>
-      </c>
-      <c r="E192" t="s">
-        <v>148</v>
-      </c>
-      <c r="H192" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A193" s="6" t="s">
+      <c r="D193" t="s">
+        <v>133</v>
+      </c>
+      <c r="E193" t="s">
+        <v>148</v>
+      </c>
+      <c r="H193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
         <v>342</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C193" s="6" t="s">
+      <c r="B194" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>343</v>
-      </c>
-      <c r="D193" t="s">
-        <v>133</v>
-      </c>
-      <c r="E193" t="s">
-        <v>148</v>
-      </c>
-      <c r="H193" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D194" t="s">
         <v>133</v>
@@ -6117,13 +6126,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
@@ -6137,13 +6146,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>470</v>
+        <v>346</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>469</v>
+        <v>347</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
@@ -6157,53 +6166,53 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
+        <v>469</v>
+      </c>
+      <c r="B197" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C197" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="D197" t="s">
+        <v>133</v>
+      </c>
+      <c r="E197" t="s">
+        <v>148</v>
+      </c>
+      <c r="H197" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A198" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C198" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="B197" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C197" s="6" t="s">
+      <c r="D198" t="s">
+        <v>133</v>
+      </c>
+      <c r="E198" t="s">
+        <v>148</v>
+      </c>
+      <c r="H198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
         <v>477</v>
       </c>
-      <c r="D197" t="s">
-        <v>133</v>
-      </c>
-      <c r="E197" t="s">
-        <v>148</v>
-      </c>
-      <c r="H197" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="198" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A198" s="6" t="s">
+      <c r="B199" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>478</v>
-      </c>
-      <c r="B198" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C198" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="D198" t="s">
-        <v>133</v>
-      </c>
-      <c r="E198" t="s">
-        <v>148</v>
-      </c>
-      <c r="H198" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
-        <v>480</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>481</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
@@ -6217,53 +6226,53 @@
     </row>
     <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="B200" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="D200" t="s">
+        <v>133</v>
+      </c>
+      <c r="E200" t="s">
+        <v>148</v>
+      </c>
+      <c r="H200" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A201" s="6" t="s">
+        <v>481</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="B200" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C200" s="6" t="s">
+      <c r="D201" t="s">
+        <v>133</v>
+      </c>
+      <c r="E201" t="s">
+        <v>148</v>
+      </c>
+      <c r="H201" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
         <v>483</v>
       </c>
-      <c r="D200" t="s">
-        <v>133</v>
-      </c>
-      <c r="E200" t="s">
-        <v>148</v>
-      </c>
-      <c r="H200" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="201" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A201" s="6" t="s">
+      <c r="B202" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>484</v>
-      </c>
-      <c r="B201" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C201" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="D201" t="s">
-        <v>133</v>
-      </c>
-      <c r="E201" t="s">
-        <v>148</v>
-      </c>
-      <c r="H201" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
-        <v>486</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>487</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
@@ -6277,73 +6286,73 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="B203" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C203" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="D203" t="s">
+        <v>133</v>
+      </c>
+      <c r="E203" t="s">
+        <v>148</v>
+      </c>
+      <c r="H203" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A204" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C204" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="B203" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C203" s="6" t="s">
+      <c r="D204" t="s">
+        <v>133</v>
+      </c>
+      <c r="E204" t="s">
+        <v>148</v>
+      </c>
+      <c r="H204" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="D203" t="s">
-        <v>133</v>
-      </c>
-      <c r="E203" t="s">
-        <v>148</v>
-      </c>
-      <c r="H203" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A204" s="6" t="s">
+      <c r="B205" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C204" s="6" t="s">
+      <c r="D205" t="s">
+        <v>133</v>
+      </c>
+      <c r="E205" t="s">
+        <v>148</v>
+      </c>
+      <c r="H205" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
         <v>491</v>
       </c>
-      <c r="D204" t="s">
-        <v>133</v>
-      </c>
-      <c r="E204" t="s">
-        <v>148</v>
-      </c>
-      <c r="H204" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="B206" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>492</v>
-      </c>
-      <c r="B205" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C205" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="D205" t="s">
-        <v>133</v>
-      </c>
-      <c r="E205" t="s">
-        <v>148</v>
-      </c>
-      <c r="H205" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
-        <v>494</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>495</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
@@ -6357,53 +6366,53 @@
     </row>
     <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="B207" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C207" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="D207" t="s">
+        <v>133</v>
+      </c>
+      <c r="E207" t="s">
+        <v>148</v>
+      </c>
+      <c r="H207" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A208" s="6" t="s">
+        <v>495</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C208" s="6" t="s">
         <v>496</v>
       </c>
-      <c r="B207" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C207" s="6" t="s">
+      <c r="D208" t="s">
+        <v>133</v>
+      </c>
+      <c r="E208" t="s">
+        <v>148</v>
+      </c>
+      <c r="H208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>497</v>
-      </c>
-      <c r="D207" t="s">
-        <v>133</v>
-      </c>
-      <c r="E207" t="s">
-        <v>148</v>
-      </c>
-      <c r="H207" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="208" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A208" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B208" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C208" s="6" t="s">
-        <v>498</v>
-      </c>
-      <c r="D208" t="s">
-        <v>133</v>
-      </c>
-      <c r="E208" t="s">
-        <v>148</v>
-      </c>
-      <c r="H208" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D209" t="s">
         <v>133</v>
@@ -6417,13 +6426,13 @@
     </row>
     <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -6437,13 +6446,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -6457,13 +6466,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -6477,13 +6486,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>433</v>
+        <v>352</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>95</v>
+        <v>353</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -6497,73 +6506,73 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="B214" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C214" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D214" t="s">
+        <v>133</v>
+      </c>
+      <c r="E214" t="s">
+        <v>148</v>
+      </c>
+      <c r="H214" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A215" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B214" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C214" s="6" t="s">
+      <c r="B215" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215" s="6" t="s">
         <v>355</v>
       </c>
-      <c r="D214" t="s">
-        <v>133</v>
-      </c>
-      <c r="E214" t="s">
-        <v>148</v>
-      </c>
-      <c r="H214" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="215" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A215" s="6" t="s">
+      <c r="D215" t="s">
+        <v>133</v>
+      </c>
+      <c r="E215" t="s">
+        <v>148</v>
+      </c>
+      <c r="H215" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
         <v>94</v>
       </c>
-      <c r="B215" s="6" t="s">
+      <c r="B216" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C215" s="6" t="s">
+      <c r="C216" s="6" t="s">
         <v>434</v>
       </c>
-      <c r="D215" t="s">
-        <v>133</v>
-      </c>
-      <c r="E215" t="s">
-        <v>148</v>
-      </c>
-      <c r="H215" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
+      <c r="D216" t="s">
+        <v>133</v>
+      </c>
+      <c r="E216" t="s">
+        <v>148</v>
+      </c>
+      <c r="H216" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
         <v>99</v>
       </c>
-      <c r="B216" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C216" s="6" t="s">
+      <c r="B217" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C217" s="6" t="s">
         <v>356</v>
-      </c>
-      <c r="D216" t="s">
-        <v>133</v>
-      </c>
-      <c r="E216" t="s">
-        <v>148</v>
-      </c>
-      <c r="H216" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D217" t="s">
         <v>133</v>
@@ -6577,7 +6586,7 @@
     </row>
     <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
@@ -6595,9 +6604,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
@@ -6617,7 +6626,7 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
@@ -6635,15 +6644,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -6657,33 +6666,33 @@
     </row>
     <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="B222" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C222" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="D222" t="s">
+        <v>133</v>
+      </c>
+      <c r="E222" t="s">
+        <v>148</v>
+      </c>
+      <c r="H222" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A223" s="6" t="s">
         <v>360</v>
       </c>
-      <c r="B222" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C222" s="6" t="s">
+      <c r="B223" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" s="6" t="s">
         <v>361</v>
-      </c>
-      <c r="D222" t="s">
-        <v>133</v>
-      </c>
-      <c r="E222" t="s">
-        <v>148</v>
-      </c>
-      <c r="H222" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A223" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
@@ -6697,73 +6706,73 @@
     </row>
     <row r="224" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="D224" t="s">
+        <v>133</v>
+      </c>
+      <c r="E224" t="s">
+        <v>148</v>
+      </c>
+      <c r="H224" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A225" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B224" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C224" s="6" t="s">
+      <c r="B225" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C225" s="6" t="s">
         <v>365</v>
       </c>
-      <c r="D224" t="s">
-        <v>133</v>
-      </c>
-      <c r="E224" t="s">
-        <v>148</v>
-      </c>
-      <c r="H224" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="225" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A225" s="6" t="s">
+      <c r="D225" t="s">
+        <v>133</v>
+      </c>
+      <c r="E225" t="s">
+        <v>148</v>
+      </c>
+      <c r="H225" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B225" s="6" t="s">
+      <c r="B226" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C225" s="6" t="s">
+      <c r="C226" s="6" t="s">
         <v>357</v>
       </c>
-      <c r="D225" t="s">
-        <v>133</v>
-      </c>
-      <c r="E225" t="s">
-        <v>148</v>
-      </c>
-      <c r="H225" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="D226" t="s">
+        <v>133</v>
+      </c>
+      <c r="E226" t="s">
+        <v>148</v>
+      </c>
+      <c r="H226" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
         <v>367</v>
       </c>
-      <c r="B226" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C226" s="6" t="s">
+      <c r="B227" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C227" s="6" t="s">
         <v>368</v>
-      </c>
-      <c r="D226" t="s">
-        <v>133</v>
-      </c>
-      <c r="E226" t="s">
-        <v>148</v>
-      </c>
-      <c r="H226" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -6777,53 +6786,53 @@
     </row>
     <row r="228" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C228" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="D228" t="s">
+        <v>133</v>
+      </c>
+      <c r="E228" t="s">
+        <v>148</v>
+      </c>
+      <c r="H228" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A229" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B228" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C228" s="6" t="s">
+      <c r="B229" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C229" s="6" t="s">
         <v>372</v>
       </c>
-      <c r="D228" t="s">
-        <v>133</v>
-      </c>
-      <c r="E228" t="s">
-        <v>148</v>
-      </c>
-      <c r="H228" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A229" s="6" t="s">
+      <c r="D229" t="s">
+        <v>133</v>
+      </c>
+      <c r="E229" t="s">
+        <v>148</v>
+      </c>
+      <c r="H229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B229" s="6" t="s">
+      <c r="B230" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C229" s="6" t="s">
+      <c r="C230" s="6" t="s">
         <v>366</v>
-      </c>
-      <c r="D229" t="s">
-        <v>133</v>
-      </c>
-      <c r="E229" t="s">
-        <v>148</v>
-      </c>
-      <c r="H229" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B230" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C230" s="6" t="s">
-        <v>375</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -6837,33 +6846,33 @@
     </row>
     <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D231" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" t="s">
+        <v>148</v>
+      </c>
+      <c r="H231" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
         <v>376</v>
       </c>
-      <c r="B231" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C231" s="6" t="s">
+      <c r="B232" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C232" s="6" t="s">
         <v>377</v>
-      </c>
-      <c r="D231" t="s">
-        <v>133</v>
-      </c>
-      <c r="E231" t="s">
-        <v>148</v>
-      </c>
-      <c r="H231" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -6877,33 +6886,33 @@
     </row>
     <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>379</v>
+      </c>
+      <c r="D233" t="s">
+        <v>133</v>
+      </c>
+      <c r="E233" t="s">
+        <v>148</v>
+      </c>
+      <c r="H233" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B233" s="6" t="s">
+      <c r="B234" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C233" s="6" t="s">
+      <c r="C234" s="6" t="s">
         <v>373</v>
-      </c>
-      <c r="D233" t="s">
-        <v>133</v>
-      </c>
-      <c r="E233" t="s">
-        <v>148</v>
-      </c>
-      <c r="H233" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D234" t="s">
         <v>133</v>
@@ -6917,7 +6926,7 @@
     </row>
     <row r="235" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B235" s="6" t="s">
         <v>134</v>
@@ -6937,13 +6946,13 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
@@ -6957,13 +6966,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>29</v>
+        <v>380</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -6977,13 +6986,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -6997,13 +7006,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -7017,13 +7026,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="D240" t="s">
         <v>133</v>
@@ -7037,73 +7046,73 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="B241" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C241" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D241" t="s">
+        <v>133</v>
+      </c>
+      <c r="E241" t="s">
+        <v>148</v>
+      </c>
+      <c r="H241" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="242" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A242" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B241" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C241" s="6" t="s">
+      <c r="B242" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242" s="6" t="s">
         <v>389</v>
       </c>
-      <c r="D241" t="s">
-        <v>133</v>
-      </c>
-      <c r="E241" t="s">
-        <v>148</v>
-      </c>
-      <c r="H241" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="242" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A242" s="6" t="s">
+      <c r="D242" t="s">
+        <v>133</v>
+      </c>
+      <c r="E242" t="s">
+        <v>148</v>
+      </c>
+      <c r="H242" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
         <v>111</v>
       </c>
-      <c r="B242" s="6" t="s">
+      <c r="B243" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C242" s="6" t="s">
+      <c r="C243" s="6" t="s">
         <v>381</v>
       </c>
-      <c r="D242" t="s">
-        <v>133</v>
-      </c>
-      <c r="E242" t="s">
-        <v>148</v>
-      </c>
-      <c r="H242" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
+      <c r="D243" t="s">
+        <v>133</v>
+      </c>
+      <c r="E243" t="s">
+        <v>148</v>
+      </c>
+      <c r="H243" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
         <v>112</v>
       </c>
-      <c r="B243" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C243" s="6" t="s">
+      <c r="B244" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C244" s="6" t="s">
         <v>390</v>
-      </c>
-      <c r="D243" t="s">
-        <v>133</v>
-      </c>
-      <c r="E243" t="s">
-        <v>148</v>
-      </c>
-      <c r="H243" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7117,13 +7126,13 @@
     </row>
     <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7137,13 +7146,13 @@
     </row>
     <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7157,13 +7166,13 @@
     </row>
     <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7177,33 +7186,33 @@
     </row>
     <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="B248" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C248" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="D248" t="s">
+        <v>133</v>
+      </c>
+      <c r="E248" t="s">
+        <v>148</v>
+      </c>
+      <c r="H248" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A249" s="6" t="s">
         <v>399</v>
       </c>
-      <c r="B248" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C248" s="6" t="s">
+      <c r="B249" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C249" s="6" t="s">
         <v>400</v>
-      </c>
-      <c r="D248" t="s">
-        <v>133</v>
-      </c>
-      <c r="E248" t="s">
-        <v>148</v>
-      </c>
-      <c r="H248" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A249" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D249" t="s">
         <v>133</v>
@@ -7217,53 +7226,53 @@
     </row>
     <row r="250" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="D250" t="s">
+        <v>133</v>
+      </c>
+      <c r="E250" t="s">
+        <v>148</v>
+      </c>
+      <c r="H250" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>441</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="D251" t="s">
+        <v>133</v>
+      </c>
+      <c r="E251" t="s">
+        <v>148</v>
+      </c>
+      <c r="H251" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C252" s="6" t="s">
         <v>442</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D250" t="s">
-        <v>133</v>
-      </c>
-      <c r="E250" t="s">
-        <v>148</v>
-      </c>
-      <c r="H250" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>443</v>
-      </c>
-      <c r="D251" t="s">
-        <v>133</v>
-      </c>
-      <c r="E251" t="s">
-        <v>148</v>
-      </c>
-      <c r="H251" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D252" t="s">
         <v>133</v>
@@ -7277,7 +7286,7 @@
     </row>
     <row r="253" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>134</v>
@@ -7297,7 +7306,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
@@ -7317,13 +7326,13 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>404</v>
+        <v>29</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
@@ -7337,33 +7346,33 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="B256" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C256" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="D256" t="s">
+        <v>133</v>
+      </c>
+      <c r="E256" t="s">
+        <v>148</v>
+      </c>
+      <c r="H256" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A257" s="6" t="s">
         <v>405</v>
       </c>
-      <c r="B256" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C256" s="6" t="s">
+      <c r="B257" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257" s="6" t="s">
         <v>406</v>
-      </c>
-      <c r="D256" t="s">
-        <v>133</v>
-      </c>
-      <c r="E256" t="s">
-        <v>148</v>
-      </c>
-      <c r="H256" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="257" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A257" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>448</v>
       </c>
       <c r="D257" t="s">
         <v>133</v>
@@ -7377,33 +7386,33 @@
     </row>
     <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="D258" t="s">
+        <v>133</v>
+      </c>
+      <c r="E258" t="s">
+        <v>148</v>
+      </c>
+      <c r="H258" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A259" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B258" s="6" t="s">
+      <c r="B259" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C258" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="D258" t="s">
-        <v>133</v>
-      </c>
-      <c r="E258" t="s">
-        <v>148</v>
-      </c>
-      <c r="H258" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A259" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B259" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C259" s="6" t="s">
-        <v>407</v>
+        <v>449</v>
       </c>
       <c r="D259" t="s">
         <v>133</v>
@@ -7417,13 +7426,13 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
@@ -7437,13 +7446,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
@@ -7457,13 +7466,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>29</v>
+        <v>409</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -7477,13 +7486,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -7497,13 +7506,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>412</v>
+        <v>149</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -7517,13 +7526,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
@@ -7537,67 +7546,67 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B266" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C266" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D266" t="s">
+        <v>133</v>
+      </c>
+      <c r="E266" t="s">
+        <v>148</v>
+      </c>
+      <c r="H266" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A267" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B266" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C266" s="6" t="s">
+      <c r="B267" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C267" s="6" t="s">
         <v>416</v>
       </c>
-      <c r="D266" t="s">
-        <v>133</v>
-      </c>
-      <c r="E266" t="s">
-        <v>148</v>
-      </c>
-      <c r="H266" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="267" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A267" s="6" t="s">
+      <c r="D267" t="s">
+        <v>133</v>
+      </c>
+      <c r="E267" t="s">
+        <v>148</v>
+      </c>
+      <c r="H267" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B267" s="6" t="s">
+      <c r="B268" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C267" s="6" t="s">
+      <c r="C268" s="6" t="s">
         <v>410</v>
       </c>
-      <c r="D267" t="s">
-        <v>133</v>
-      </c>
-      <c r="E267" t="s">
-        <v>148</v>
-      </c>
-      <c r="H267" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
+      <c r="D268" t="s">
+        <v>133</v>
+      </c>
+      <c r="E268" t="s">
+        <v>148</v>
+      </c>
+      <c r="H268" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B268" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C268" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D268" t="s">
-        <v>133</v>
-      </c>
-      <c r="E268" t="s">
-        <v>148</v>
-      </c>
-      <c r="H268" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
@@ -7615,9 +7624,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
@@ -7637,7 +7646,7 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
@@ -7657,13 +7666,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -7677,13 +7686,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -7697,33 +7706,33 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="B274" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C274" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="D274" t="s">
+        <v>133</v>
+      </c>
+      <c r="E274" t="s">
+        <v>148</v>
+      </c>
+      <c r="H274" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A275" s="6" t="s">
         <v>422</v>
       </c>
-      <c r="B274" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C274" s="6" t="s">
+      <c r="B275" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C275" s="6" t="s">
         <v>423</v>
-      </c>
-      <c r="D274" t="s">
-        <v>133</v>
-      </c>
-      <c r="E274" t="s">
-        <v>148</v>
-      </c>
-      <c r="H274" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A275" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D275" t="s">
         <v>133</v>
@@ -7737,13 +7746,13 @@
     </row>
     <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B276" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>29</v>
+        <v>417</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
@@ -7757,7 +7766,7 @@
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>134</v>
@@ -7775,9 +7784,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
@@ -7797,7 +7806,7 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
@@ -7817,7 +7826,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
@@ -7837,7 +7846,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>134</v>
@@ -7855,35 +7864,35 @@
         <v>151</v>
       </c>
     </row>
-    <row r="282" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B282" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C282" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D282" t="s">
+        <v>133</v>
+      </c>
+      <c r="E282" t="s">
+        <v>148</v>
+      </c>
+      <c r="H282" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="283" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A283" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B282" s="6" t="s">
+      <c r="B283" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C282" s="6" t="s">
+      <c r="C283" s="6" t="s">
         <v>424</v>
-      </c>
-      <c r="D282" t="s">
-        <v>133</v>
-      </c>
-      <c r="E282" t="s">
-        <v>148</v>
-      </c>
-      <c r="H282" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A283" s="6" t="s">
-        <v>451</v>
-      </c>
-      <c r="B283" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C283" s="6" t="s">
-        <v>452</v>
       </c>
       <c r="D283" t="s">
         <v>133</v>
@@ -7897,33 +7906,33 @@
     </row>
     <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="B284" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C284" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="D284" t="s">
+        <v>133</v>
+      </c>
+      <c r="E284" t="s">
+        <v>148</v>
+      </c>
+      <c r="H284" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A285" s="6" t="s">
+        <v>452</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C285" s="6" t="s">
         <v>453</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C284" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="D284" t="s">
-        <v>133</v>
-      </c>
-      <c r="E284" t="s">
-        <v>148</v>
-      </c>
-      <c r="H284" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A285" s="6" t="s">
-        <v>455</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>456</v>
       </c>
       <c r="D285" t="s">
         <v>133</v>
@@ -7937,13 +7946,13 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
@@ -7957,121 +7966,141 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="B287" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C287" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="D287" t="s">
+        <v>133</v>
+      </c>
+      <c r="E287" t="s">
+        <v>148</v>
+      </c>
+      <c r="H287" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A288" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C288" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="B287" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C287" s="6" t="s">
+      <c r="D288" t="s">
+        <v>133</v>
+      </c>
+      <c r="E288" t="s">
+        <v>148</v>
+      </c>
+      <c r="H288" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A289" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="D287" t="s">
-        <v>133</v>
-      </c>
-      <c r="E287" t="s">
-        <v>148</v>
-      </c>
-      <c r="H287" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="288" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A288" s="6" t="s">
+      <c r="B289" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C288" s="6" t="s">
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>148</v>
+      </c>
+      <c r="H289" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="D288" t="s">
-        <v>133</v>
-      </c>
-      <c r="E288" t="s">
-        <v>148</v>
-      </c>
-      <c r="H288" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C289" s="6" t="s">
+      <c r="D290" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" t="s">
+        <v>148</v>
+      </c>
+      <c r="H290" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-      <c r="E289" t="s">
-        <v>148</v>
-      </c>
-      <c r="H289" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="B291" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C290" s="6" t="s">
+      <c r="D291" t="s">
+        <v>133</v>
+      </c>
+      <c r="E291" t="s">
+        <v>148</v>
+      </c>
+      <c r="H291" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="D290" t="s">
-        <v>133</v>
-      </c>
-      <c r="E290" t="s">
-        <v>148</v>
-      </c>
-      <c r="H290" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+      <c r="B292" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>467</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C291" s="6" t="s">
-        <v>468</v>
-      </c>
-      <c r="D291" t="s">
-        <v>133</v>
-      </c>
-      <c r="E291" t="s">
-        <v>148</v>
-      </c>
-      <c r="H291" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="1" t="s">
+      <c r="D292" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" t="s">
+        <v>148</v>
+      </c>
+      <c r="H292" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B292" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C292" s="11" t="s">
+      <c r="B293" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C293" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D292" t="s">
-        <v>133</v>
-      </c>
-      <c r="E292" t="s">
-        <v>148</v>
-      </c>
-      <c r="H292" t="s">
+      <c r="D293" t="s">
+        <v>133</v>
+      </c>
+      <c r="E293" t="s">
+        <v>148</v>
+      </c>
+      <c r="H293" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46B3BE86-B5F1-4EDF-A4C3-3AB91E5778C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34A14A-5E30-4E40-BCF2-83B5EC37AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$253</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$254</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1841" uniqueCount="501">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="503">
   <si>
     <t>Field_Name</t>
   </si>
@@ -750,9 +750,6 @@
     <t>Deferred Tax liability</t>
   </si>
   <si>
-    <t>derivative_financial_instruments+lease_liabilities+other_non_current_liabilities+employee_benefits+employee_entitlements</t>
-  </si>
-  <si>
     <t>Derivative financial instruments</t>
   </si>
   <si>
@@ -1531,6 +1528,15 @@
   </si>
   <si>
     <t>right_of_use+right_of_use_assets+other_receivables+other_non_financial_assets+other_non_current_assets+others_noncurrent+other_noncurrent+Assets_held_for_sale+Intellectual_property_assets</t>
+  </si>
+  <si>
+    <t>Contract and refund liabilities</t>
+  </si>
+  <si>
+    <t>Contract_and_refund_liabilities</t>
+  </si>
+  <si>
+    <t>derivative_financial_instruments+lease_liabilities+other_non_current_liabilities+employee_benefits+employee_entitlements+Contract_and_refund_liabilities</t>
   </si>
 </sst>
 </file>
@@ -1943,10 +1949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H293"/>
+  <dimension ref="A1:H294"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B119" sqref="B119"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1978,7 +1984,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2060,7 +2066,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>134</v>
@@ -2070,7 +2076,7 @@
         <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="H7" t="s">
         <v>142</v>
@@ -2253,7 +2259,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>134</v>
@@ -2328,7 +2334,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="D20" t="s">
         <v>133</v>
@@ -2506,7 +2512,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>134</v>
@@ -2552,7 +2558,7 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>134</v>
@@ -2575,13 +2581,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2604,7 +2610,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="D32" t="s">
         <v>133</v>
@@ -2644,7 +2650,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>134</v>
@@ -2696,7 +2702,7 @@
         <v>135</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
@@ -2897,7 +2903,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>134</v>
@@ -2920,7 +2926,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>134</v>
@@ -2943,13 +2949,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="D47" t="s">
         <v>133</v>
@@ -2966,13 +2972,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -2995,7 +3001,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D49" t="s">
         <v>133</v>
@@ -3035,7 +3041,7 @@
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>134</v>
@@ -3064,7 +3070,7 @@
         <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -3265,13 +3271,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -3294,7 +3300,7 @@
         <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="D62" t="s">
         <v>133</v>
@@ -3449,7 +3455,7 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>134</v>
@@ -3495,7 +3501,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
@@ -3587,13 +3593,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -3616,7 +3622,7 @@
         <v>135</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -3725,7 +3731,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
@@ -3748,7 +3754,7 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>134</v>
@@ -3794,7 +3800,7 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>134</v>
@@ -3869,7 +3875,7 @@
         <v>135</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D87" t="s">
         <v>133</v>
@@ -3934,7 +3940,7 @@
         <v>146</v>
       </c>
       <c r="F91" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H91" t="s">
         <v>152</v>
@@ -3942,7 +3948,7 @@
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A92" s="6" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B92" s="6" t="s">
         <v>134</v>
@@ -3957,7 +3963,7 @@
         <v>146</v>
       </c>
       <c r="F92" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H92" t="s">
         <v>152</v>
@@ -3980,7 +3986,7 @@
         <v>146</v>
       </c>
       <c r="F93" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H93" t="s">
         <v>152</v>
@@ -3994,7 +4000,7 @@
         <v>135</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -4003,7 +4009,7 @@
         <v>146</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H94" t="s">
         <v>152</v>
@@ -4026,7 +4032,7 @@
         <v>146</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H95" t="s">
         <v>152</v>
@@ -4049,7 +4055,7 @@
         <v>146</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H96" t="s">
         <v>152</v>
@@ -4072,7 +4078,7 @@
         <v>146</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H97" t="s">
         <v>152</v>
@@ -4095,7 +4101,7 @@
         <v>146</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H98" t="s">
         <v>152</v>
@@ -4118,7 +4124,7 @@
         <v>146</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H99" t="s">
         <v>152</v>
@@ -4141,7 +4147,7 @@
         <v>146</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H100" t="s">
         <v>152</v>
@@ -4164,7 +4170,7 @@
         <v>146</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="H101" t="s">
         <v>152</v>
@@ -4187,7 +4193,7 @@
         <v>146</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H102" t="s">
         <v>152</v>
@@ -4210,7 +4216,7 @@
         <v>146</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H103" t="s">
         <v>152</v>
@@ -4233,7 +4239,7 @@
         <v>146</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H104" t="s">
         <v>152</v>
@@ -4256,7 +4262,7 @@
         <v>146</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H105" t="s">
         <v>152</v>
@@ -4279,7 +4285,7 @@
         <v>146</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H106" t="s">
         <v>152</v>
@@ -4287,7 +4293,7 @@
     </row>
     <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>134</v>
@@ -4302,7 +4308,7 @@
         <v>146</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H107" t="s">
         <v>152</v>
@@ -4316,7 +4322,7 @@
         <v>135</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -4325,7 +4331,7 @@
         <v>146</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H108" t="s">
         <v>152</v>
@@ -4348,7 +4354,7 @@
         <v>146</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H109" t="s">
         <v>152</v>
@@ -4371,7 +4377,7 @@
         <v>146</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H110" t="s">
         <v>152</v>
@@ -4394,7 +4400,7 @@
         <v>146</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H111" t="s">
         <v>152</v>
@@ -4417,7 +4423,7 @@
         <v>146</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H112" t="s">
         <v>152</v>
@@ -4431,7 +4437,7 @@
         <v>134</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D113" t="s">
         <v>133</v>
@@ -4440,7 +4446,7 @@
         <v>146</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H113" t="s">
         <v>152</v>
@@ -4448,7 +4454,7 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>134</v>
@@ -4463,7 +4469,7 @@
         <v>146</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H114" t="s">
         <v>152</v>
@@ -4471,13 +4477,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
+        <v>242</v>
+      </c>
+      <c r="B115" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="6" t="s">
         <v>243</v>
-      </c>
-      <c r="B115" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="6" t="s">
-        <v>244</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -4486,7 +4492,7 @@
         <v>146</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H115" t="s">
         <v>152</v>
@@ -4500,7 +4506,7 @@
         <v>134</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -4509,7 +4515,7 @@
         <v>146</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H116" t="s">
         <v>152</v>
@@ -4517,13 +4523,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="B117" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="6" t="s">
         <v>246</v>
-      </c>
-      <c r="B117" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C117" s="6" t="s">
-        <v>247</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -4532,21 +4538,21 @@
         <v>146</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H117" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="118" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>59</v>
+        <v>501</v>
       </c>
       <c r="B118" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>240</v>
+        <v>500</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -4555,21 +4561,21 @@
         <v>146</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>248</v>
+        <v>502</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -4578,7 +4584,7 @@
         <v>146</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="H119" t="s">
         <v>152</v>
@@ -4586,13 +4592,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>229</v>
+        <v>60</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>139</v>
+        <v>247</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -4601,21 +4607,21 @@
         <v>146</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="H120" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="121" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>231</v>
+        <v>139</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -4624,21 +4630,21 @@
         <v>146</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>249</v>
+        <v>230</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>250</v>
+        <v>231</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -4647,7 +4653,7 @@
         <v>146</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H122" t="s">
         <v>152</v>
@@ -4655,13 +4661,13 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>438</v>
+        <v>248</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>437</v>
+        <v>249</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
@@ -4670,7 +4676,7 @@
         <v>146</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H123" t="s">
         <v>152</v>
@@ -4678,13 +4684,13 @@
     </row>
     <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>204</v>
+        <v>437</v>
       </c>
       <c r="B124" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>204</v>
+        <v>436</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -4693,21 +4699,21 @@
         <v>146</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H124" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="125" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>61</v>
+        <v>204</v>
       </c>
       <c r="B125" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>446</v>
+        <v>204</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -4716,21 +4722,21 @@
         <v>146</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H125" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>251</v>
+        <v>61</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>252</v>
+        <v>445</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -4739,7 +4745,7 @@
         <v>146</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H126" t="s">
         <v>152</v>
@@ -4747,13 +4753,13 @@
     </row>
     <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -4762,7 +4768,7 @@
         <v>146</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H127" t="s">
         <v>152</v>
@@ -4770,13 +4776,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>278</v>
+        <v>252</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -4785,7 +4791,7 @@
         <v>146</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H128" t="s">
         <v>152</v>
@@ -4793,13 +4799,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>62</v>
+        <v>277</v>
       </c>
       <c r="B129" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>279</v>
+        <v>254</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -4808,7 +4814,7 @@
         <v>146</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H129" t="s">
         <v>152</v>
@@ -4816,13 +4822,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>29</v>
+        <v>278</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -4831,7 +4837,7 @@
         <v>146</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H130" t="s">
         <v>152</v>
@@ -4839,7 +4845,7 @@
     </row>
     <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B131" s="6" t="s">
         <v>134</v>
@@ -4854,7 +4860,7 @@
         <v>146</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H131" t="s">
         <v>152</v>
@@ -4862,7 +4868,7 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
@@ -4877,7 +4883,7 @@
         <v>146</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H132" t="s">
         <v>152</v>
@@ -4885,13 +4891,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>213</v>
+        <v>65</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>245</v>
+        <v>29</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -4900,7 +4906,7 @@
         <v>146</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H133" t="s">
         <v>152</v>
@@ -4908,13 +4914,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>246</v>
+        <v>213</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -4923,7 +4929,7 @@
         <v>146</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H134" t="s">
         <v>152</v>
@@ -4931,13 +4937,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>66</v>
+        <v>245</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -4946,7 +4952,7 @@
         <v>146</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H135" t="s">
         <v>152</v>
@@ -4954,13 +4960,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>29</v>
+        <v>255</v>
       </c>
       <c r="D136" t="s">
         <v>133</v>
@@ -4969,7 +4975,7 @@
         <v>146</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H136" t="s">
         <v>152</v>
@@ -4977,7 +4983,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>134</v>
@@ -4992,7 +4998,7 @@
         <v>146</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H137" t="s">
         <v>152</v>
@@ -5000,7 +5006,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>134</v>
@@ -5015,7 +5021,7 @@
         <v>146</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H138" t="s">
         <v>152</v>
@@ -5023,13 +5029,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>258</v>
+        <v>69</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>259</v>
+        <v>29</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -5038,7 +5044,7 @@
         <v>146</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H139" t="s">
         <v>152</v>
@@ -5046,13 +5052,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -5061,7 +5067,7 @@
         <v>146</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H140" t="s">
         <v>152</v>
@@ -5069,13 +5075,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="B141" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -5084,7 +5090,7 @@
         <v>146</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H141" t="s">
         <v>152</v>
@@ -5092,13 +5098,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>70</v>
+        <v>261</v>
       </c>
       <c r="B142" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>257</v>
+        <v>262</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -5107,7 +5113,7 @@
         <v>146</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H142" t="s">
         <v>152</v>
@@ -5115,13 +5121,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D143" t="s">
         <v>133</v>
@@ -5130,7 +5136,7 @@
         <v>146</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H143" t="s">
         <v>152</v>
@@ -5138,7 +5144,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>134</v>
@@ -5153,7 +5159,7 @@
         <v>146</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H144" t="s">
         <v>152</v>
@@ -5161,7 +5167,7 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>134</v>
@@ -5176,7 +5182,7 @@
         <v>146</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H145" t="s">
         <v>152</v>
@@ -5184,13 +5190,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>271</v>
+        <v>73</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>264</v>
+        <v>29</v>
       </c>
       <c r="D146" t="s">
         <v>133</v>
@@ -5199,7 +5205,7 @@
         <v>146</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H146" t="s">
         <v>152</v>
@@ -5207,13 +5213,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>265</v>
+        <v>270</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="D147" t="s">
         <v>133</v>
@@ -5222,7 +5228,7 @@
         <v>146</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H147" t="s">
         <v>152</v>
@@ -5230,13 +5236,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B148" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D148" t="s">
         <v>133</v>
@@ -5245,7 +5251,7 @@
         <v>146</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H148" t="s">
         <v>152</v>
@@ -5253,13 +5259,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>267</v>
+        <v>212</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>268</v>
+        <v>181</v>
       </c>
       <c r="D149" t="s">
         <v>133</v>
@@ -5268,7 +5274,7 @@
         <v>146</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H149" t="s">
         <v>152</v>
@@ -5276,13 +5282,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
@@ -5291,7 +5297,7 @@
         <v>146</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H150" t="s">
         <v>152</v>
@@ -5299,13 +5305,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>248</v>
+        <v>269</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -5314,7 +5320,7 @@
         <v>146</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H151" t="s">
         <v>152</v>
@@ -5322,13 +5328,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>210</v>
+        <v>75</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>241</v>
+        <v>247</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -5337,7 +5343,7 @@
         <v>146</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H152" t="s">
         <v>152</v>
@@ -5345,13 +5351,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>242</v>
+        <v>210</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>140</v>
+        <v>240</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -5360,21 +5366,21 @@
         <v>146</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H153" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="154" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>74</v>
+        <v>241</v>
       </c>
       <c r="B154" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>272</v>
+        <v>140</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -5383,21 +5389,21 @@
         <v>146</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>429</v>
+        <v>74</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>429</v>
+        <v>271</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -5405,20 +5411,22 @@
       <c r="E155" t="s">
         <v>146</v>
       </c>
-      <c r="F155" s="5"/>
+      <c r="F155" s="5" t="s">
+        <v>274</v>
+      </c>
       <c r="H155" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>76</v>
+        <v>428</v>
       </c>
       <c r="B156" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -5426,51 +5434,52 @@
       <c r="E156" t="s">
         <v>146</v>
       </c>
+      <c r="F156" s="5"/>
       <c r="H156" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A157" s="6"/>
-      <c r="B157" s="6"/>
-      <c r="C157" s="6"/>
+      <c r="A157" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B157" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C157" s="6" t="s">
+        <v>429</v>
+      </c>
+      <c r="D157" t="s">
+        <v>133</v>
+      </c>
+      <c r="E157" t="s">
+        <v>146</v>
+      </c>
+      <c r="H157" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="7" t="s">
+      <c r="A158" s="6"/>
+      <c r="B158" s="6"/>
+      <c r="C158" s="6"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A159" s="7" t="s">
         <v>77</v>
       </c>
-      <c r="B158" s="5"/>
-      <c r="C158" s="5"/>
-    </row>
-    <row r="159" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A159" s="8" t="s">
+      <c r="B159" s="5"/>
+      <c r="C159" s="5"/>
+    </row>
+    <row r="160" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A160" s="8" t="s">
         <v>79</v>
-      </c>
-      <c r="B159" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C159" s="9" t="s">
-        <v>428</v>
-      </c>
-      <c r="D159" t="s">
-        <v>133</v>
-      </c>
-      <c r="E159" t="s">
-        <v>147</v>
-      </c>
-      <c r="H159" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>80</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C160" s="9" t="s">
-        <v>143</v>
+        <v>427</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
@@ -5482,15 +5491,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="161" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="8" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B161" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C161" s="9" t="s">
-        <v>293</v>
+        <v>143</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
@@ -5502,15 +5511,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A162" s="8" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C162" s="9" t="s">
-        <v>144</v>
+        <v>292</v>
       </c>
       <c r="D162" t="s">
         <v>133</v>
@@ -5523,76 +5532,76 @@
       </c>
     </row>
     <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="1"/>
-      <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
+      <c r="A163" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B163" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C163" s="9" t="s">
+        <v>144</v>
+      </c>
       <c r="D163" t="s">
         <v>133</v>
       </c>
+      <c r="E163" t="s">
+        <v>147</v>
+      </c>
+      <c r="H163" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="B164" s="4"/>
+      <c r="A164" s="1"/>
+      <c r="B164" s="2"/>
       <c r="C164" s="2"/>
+      <c r="D164" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B165" s="4"/>
       <c r="C165" s="2"/>
     </row>
     <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B166" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C166" s="6" t="s">
-        <v>86</v>
-      </c>
-      <c r="D166" t="s">
-        <v>133</v>
-      </c>
-      <c r="E166" t="s">
-        <v>148</v>
-      </c>
-      <c r="H166" t="s">
-        <v>151</v>
-      </c>
+      <c r="A166" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="B166" s="4"/>
+      <c r="C166" s="2"/>
     </row>
     <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="6" t="s">
+        <v>296</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C167" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" t="s">
+        <v>148</v>
+      </c>
+      <c r="H167" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="6" t="s">
+        <v>297</v>
+      </c>
+      <c r="B168" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C168" s="6" t="s">
         <v>298</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="D167" t="s">
-        <v>133</v>
-      </c>
-      <c r="E167" t="s">
-        <v>148</v>
-      </c>
-      <c r="H167" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>301</v>
       </c>
       <c r="D168" t="s">
         <v>133</v>
@@ -5606,73 +5615,73 @@
     </row>
     <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B169" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C169" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D169" t="s">
+        <v>133</v>
+      </c>
+      <c r="E169" t="s">
+        <v>148</v>
+      </c>
+      <c r="H169" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A170" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B170" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C170" s="6" t="s">
         <v>302</v>
       </c>
-      <c r="B169" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C169" s="6" t="s">
+      <c r="D170" t="s">
+        <v>133</v>
+      </c>
+      <c r="E170" t="s">
+        <v>148</v>
+      </c>
+      <c r="H170" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="6" t="s">
         <v>303</v>
       </c>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E169" t="s">
-        <v>148</v>
-      </c>
-      <c r="H169" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
+      <c r="B171" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="6" t="s">
         <v>304</v>
       </c>
-      <c r="B170" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-      <c r="E170" t="s">
-        <v>148</v>
-      </c>
-      <c r="H170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
+      <c r="D171" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" t="s">
+        <v>148</v>
+      </c>
+      <c r="H171" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="B171" s="6" t="s">
+      <c r="B172" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C171" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="D171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E171" t="s">
-        <v>148</v>
-      </c>
-      <c r="H171" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>307</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C172" s="6" t="s">
-        <v>308</v>
+        <v>295</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
@@ -5686,33 +5695,33 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B173" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C173" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D173" t="s">
+        <v>133</v>
+      </c>
+      <c r="E173" t="s">
+        <v>148</v>
+      </c>
+      <c r="H173" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A174" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B174" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C174" s="6" t="s">
         <v>309</v>
-      </c>
-      <c r="B173" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C173" s="6" t="s">
-        <v>310</v>
-      </c>
-      <c r="D173" t="s">
-        <v>133</v>
-      </c>
-      <c r="E173" t="s">
-        <v>148</v>
-      </c>
-      <c r="H173" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="B174" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C174" s="6" t="s">
-        <v>312</v>
       </c>
       <c r="D174" t="s">
         <v>133</v>
@@ -5726,47 +5735,47 @@
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="D175" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+      <c r="H175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
         <v>87</v>
       </c>
-      <c r="B175" s="6" t="s">
+      <c r="B176" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C175" s="6" t="s">
-        <v>306</v>
-      </c>
-      <c r="D175" t="s">
-        <v>133</v>
-      </c>
-      <c r="E175" t="s">
-        <v>148</v>
-      </c>
-      <c r="H175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
+      <c r="C176" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D176" t="s">
+        <v>133</v>
+      </c>
+      <c r="E176" t="s">
+        <v>148</v>
+      </c>
+      <c r="H176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
         <v>88</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D176" t="s">
-        <v>133</v>
-      </c>
-      <c r="E176" t="s">
-        <v>148</v>
-      </c>
-      <c r="H176" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>89</v>
       </c>
       <c r="B177" s="6" t="s">
         <v>134</v>
@@ -5786,33 +5795,33 @@
     </row>
     <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D178" t="s">
+        <v>133</v>
+      </c>
+      <c r="E178" t="s">
+        <v>148</v>
+      </c>
+      <c r="H178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
         <v>90</v>
       </c>
-      <c r="B178" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D178" t="s">
-        <v>133</v>
-      </c>
-      <c r="E178" t="s">
-        <v>148</v>
-      </c>
-      <c r="H178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>314</v>
-      </c>
       <c r="B179" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>315</v>
+        <v>438</v>
       </c>
       <c r="D179" t="s">
         <v>133</v>
@@ -5826,53 +5835,53 @@
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D180" t="s">
+        <v>133</v>
+      </c>
+      <c r="E180" t="s">
+        <v>148</v>
+      </c>
+      <c r="H180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>315</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C181" s="6" t="s">
         <v>316</v>
       </c>
-      <c r="B180" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="D180" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" t="s">
-        <v>148</v>
-      </c>
-      <c r="H180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
+      <c r="D181" t="s">
+        <v>133</v>
+      </c>
+      <c r="E181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H181" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
         <v>91</v>
       </c>
-      <c r="B181" s="6" t="s">
+      <c r="B182" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C181" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="D181" t="s">
-        <v>133</v>
-      </c>
-      <c r="E181" t="s">
-        <v>148</v>
-      </c>
-      <c r="H181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C182" s="6" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="D182" t="s">
         <v>133</v>
@@ -5886,73 +5895,73 @@
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
+        <v>317</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>318</v>
+      </c>
+      <c r="D183" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" t="s">
+        <v>148</v>
+      </c>
+      <c r="H183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>319</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="6" t="s">
         <v>320</v>
       </c>
-      <c r="B183" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C183" s="6" t="s">
+      <c r="D184" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" t="s">
+        <v>148</v>
+      </c>
+      <c r="H184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
         <v>321</v>
       </c>
-      <c r="D183" t="s">
-        <v>133</v>
-      </c>
-      <c r="E183" t="s">
-        <v>148</v>
-      </c>
-      <c r="H183" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
+      <c r="B185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="6" t="s">
         <v>322</v>
       </c>
-      <c r="B184" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C184" s="6" t="s">
+      <c r="D185" t="s">
+        <v>133</v>
+      </c>
+      <c r="E185" t="s">
+        <v>148</v>
+      </c>
+      <c r="H185" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
         <v>323</v>
       </c>
-      <c r="D184" t="s">
-        <v>133</v>
-      </c>
-      <c r="E184" t="s">
-        <v>148</v>
-      </c>
-      <c r="H184" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
+      <c r="B186" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="6" t="s">
         <v>324</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="D185" t="s">
-        <v>133</v>
-      </c>
-      <c r="E185" t="s">
-        <v>148</v>
-      </c>
-      <c r="H185" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>326</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>327</v>
       </c>
       <c r="D186" t="s">
         <v>133</v>
@@ -5966,13 +5975,13 @@
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B187" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
@@ -5986,13 +5995,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
@@ -6006,13 +6015,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
@@ -6026,13 +6035,13 @@
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
@@ -6046,13 +6055,13 @@
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D191" t="s">
         <v>133</v>
@@ -6066,13 +6075,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D192" t="s">
         <v>133</v>
@@ -6086,53 +6095,53 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="B193" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C193" s="6" t="s">
+        <v>338</v>
+      </c>
+      <c r="D193" t="s">
+        <v>133</v>
+      </c>
+      <c r="E193" t="s">
+        <v>148</v>
+      </c>
+      <c r="H193" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A194" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="B194" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C194" s="6" t="s">
         <v>340</v>
       </c>
-      <c r="B193" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C193" s="6" t="s">
+      <c r="D194" t="s">
+        <v>133</v>
+      </c>
+      <c r="E194" t="s">
+        <v>148</v>
+      </c>
+      <c r="H194" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A195" s="6" t="s">
         <v>341</v>
       </c>
-      <c r="D193" t="s">
-        <v>133</v>
-      </c>
-      <c r="E193" t="s">
-        <v>148</v>
-      </c>
-      <c r="H193" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A194" s="6" t="s">
+      <c r="B195" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C195" s="6" t="s">
         <v>342</v>
-      </c>
-      <c r="B194" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C194" s="6" t="s">
-        <v>343</v>
-      </c>
-      <c r="D194" t="s">
-        <v>133</v>
-      </c>
-      <c r="E194" t="s">
-        <v>148</v>
-      </c>
-      <c r="H194" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A195" s="6" t="s">
-        <v>344</v>
-      </c>
-      <c r="B195" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C195" s="6" t="s">
-        <v>345</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
@@ -6146,13 +6155,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
@@ -6166,13 +6175,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>469</v>
+        <v>345</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>468</v>
+        <v>346</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
@@ -6186,53 +6195,53 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
+        <v>468</v>
+      </c>
+      <c r="B198" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C198" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="D198" t="s">
+        <v>133</v>
+      </c>
+      <c r="E198" t="s">
+        <v>148</v>
+      </c>
+      <c r="H198" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A199" s="6" t="s">
+        <v>474</v>
+      </c>
+      <c r="B199" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C199" s="6" t="s">
         <v>475</v>
       </c>
-      <c r="B198" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C198" s="6" t="s">
+      <c r="D199" t="s">
+        <v>133</v>
+      </c>
+      <c r="E199" t="s">
+        <v>148</v>
+      </c>
+      <c r="H199" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A200" s="6" t="s">
         <v>476</v>
       </c>
-      <c r="D198" t="s">
-        <v>133</v>
-      </c>
-      <c r="E198" t="s">
-        <v>148</v>
-      </c>
-      <c r="H198" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A199" s="6" t="s">
+      <c r="B200" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C200" s="6" t="s">
         <v>477</v>
-      </c>
-      <c r="B199" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C199" s="6" t="s">
-        <v>478</v>
-      </c>
-      <c r="D199" t="s">
-        <v>133</v>
-      </c>
-      <c r="E199" t="s">
-        <v>148</v>
-      </c>
-      <c r="H199" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A200" s="6" t="s">
-        <v>479</v>
-      </c>
-      <c r="B200" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C200" s="6" t="s">
-        <v>480</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
@@ -6246,53 +6255,53 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
+        <v>478</v>
+      </c>
+      <c r="B201" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C201" s="6" t="s">
+        <v>479</v>
+      </c>
+      <c r="D201" t="s">
+        <v>133</v>
+      </c>
+      <c r="E201" t="s">
+        <v>148</v>
+      </c>
+      <c r="H201" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A202" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="B202" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C202" s="6" t="s">
         <v>481</v>
       </c>
-      <c r="B201" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C201" s="6" t="s">
+      <c r="D202" t="s">
+        <v>133</v>
+      </c>
+      <c r="E202" t="s">
+        <v>148</v>
+      </c>
+      <c r="H202" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A203" s="6" t="s">
         <v>482</v>
       </c>
-      <c r="D201" t="s">
-        <v>133</v>
-      </c>
-      <c r="E201" t="s">
-        <v>148</v>
-      </c>
-      <c r="H201" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="202" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A202" s="6" t="s">
+      <c r="B203" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C203" s="6" t="s">
         <v>483</v>
-      </c>
-      <c r="B202" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C202" s="6" t="s">
-        <v>484</v>
-      </c>
-      <c r="D202" t="s">
-        <v>133</v>
-      </c>
-      <c r="E202" t="s">
-        <v>148</v>
-      </c>
-      <c r="H202" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A203" s="6" t="s">
-        <v>485</v>
-      </c>
-      <c r="B203" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C203" s="6" t="s">
-        <v>486</v>
       </c>
       <c r="D203" t="s">
         <v>133</v>
@@ -6306,73 +6315,73 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
+        <v>484</v>
+      </c>
+      <c r="B204" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C204" s="6" t="s">
+        <v>485</v>
+      </c>
+      <c r="D204" t="s">
+        <v>133</v>
+      </c>
+      <c r="E204" t="s">
+        <v>148</v>
+      </c>
+      <c r="H204" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A205" s="6" t="s">
+        <v>486</v>
+      </c>
+      <c r="B205" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C205" s="6" t="s">
         <v>487</v>
       </c>
-      <c r="B204" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C204" s="6" t="s">
+      <c r="D205" t="s">
+        <v>133</v>
+      </c>
+      <c r="E205" t="s">
+        <v>148</v>
+      </c>
+      <c r="H205" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A206" s="6" t="s">
         <v>488</v>
       </c>
-      <c r="D204" t="s">
-        <v>133</v>
-      </c>
-      <c r="E204" t="s">
-        <v>148</v>
-      </c>
-      <c r="H204" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A205" s="6" t="s">
+      <c r="B206" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C206" s="6" t="s">
         <v>489</v>
       </c>
-      <c r="B205" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C205" s="6" t="s">
+      <c r="D206" t="s">
+        <v>133</v>
+      </c>
+      <c r="E206" t="s">
+        <v>148</v>
+      </c>
+      <c r="H206" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A207" s="6" t="s">
         <v>490</v>
       </c>
-      <c r="D205" t="s">
-        <v>133</v>
-      </c>
-      <c r="E205" t="s">
-        <v>148</v>
-      </c>
-      <c r="H205" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A206" s="6" t="s">
+      <c r="B207" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C207" s="6" t="s">
         <v>491</v>
-      </c>
-      <c r="B206" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C206" s="6" t="s">
-        <v>492</v>
-      </c>
-      <c r="D206" t="s">
-        <v>133</v>
-      </c>
-      <c r="E206" t="s">
-        <v>148</v>
-      </c>
-      <c r="H206" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A207" s="6" t="s">
-        <v>493</v>
-      </c>
-      <c r="B207" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C207" s="6" t="s">
-        <v>494</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
@@ -6386,53 +6395,53 @@
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
+        <v>492</v>
+      </c>
+      <c r="B208" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C208" s="6" t="s">
+        <v>493</v>
+      </c>
+      <c r="D208" t="s">
+        <v>133</v>
+      </c>
+      <c r="E208" t="s">
+        <v>148</v>
+      </c>
+      <c r="H208" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A209" s="6" t="s">
+        <v>494</v>
+      </c>
+      <c r="B209" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C209" s="6" t="s">
         <v>495</v>
       </c>
-      <c r="B208" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C208" s="6" t="s">
+      <c r="D209" t="s">
+        <v>133</v>
+      </c>
+      <c r="E209" t="s">
+        <v>148</v>
+      </c>
+      <c r="H209" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="210" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A210" s="6" t="s">
+        <v>92</v>
+      </c>
+      <c r="B210" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C210" s="6" t="s">
         <v>496</v>
-      </c>
-      <c r="D208" t="s">
-        <v>133</v>
-      </c>
-      <c r="E208" t="s">
-        <v>148</v>
-      </c>
-      <c r="H208" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="209" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A209" s="6" t="s">
-        <v>92</v>
-      </c>
-      <c r="B209" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C209" s="6" t="s">
-        <v>497</v>
-      </c>
-      <c r="D209" t="s">
-        <v>133</v>
-      </c>
-      <c r="E209" t="s">
-        <v>148</v>
-      </c>
-      <c r="H209" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A210" s="6" t="s">
-        <v>93</v>
-      </c>
-      <c r="B210" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C210" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -6446,13 +6455,13 @@
     </row>
     <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>348</v>
+        <v>93</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>349</v>
+        <v>29</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -6466,13 +6475,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -6486,13 +6495,13 @@
     </row>
     <row r="213" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -6506,13 +6515,13 @@
     </row>
     <row r="214" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>433</v>
+        <v>351</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -6526,73 +6535,73 @@
     </row>
     <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
+        <v>432</v>
+      </c>
+      <c r="B215" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C215" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" t="s">
+        <v>133</v>
+      </c>
+      <c r="E215" t="s">
+        <v>148</v>
+      </c>
+      <c r="H215" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A216" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="B216" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C216" s="6" t="s">
         <v>354</v>
       </c>
-      <c r="B215" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C215" s="6" t="s">
+      <c r="D216" t="s">
+        <v>133</v>
+      </c>
+      <c r="E216" t="s">
+        <v>148</v>
+      </c>
+      <c r="H216" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A217" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="B217" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C217" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="D217" t="s">
+        <v>133</v>
+      </c>
+      <c r="E217" t="s">
+        <v>148</v>
+      </c>
+      <c r="H217" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A218" s="6" t="s">
+        <v>99</v>
+      </c>
+      <c r="B218" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C218" s="6" t="s">
         <v>355</v>
-      </c>
-      <c r="D215" t="s">
-        <v>133</v>
-      </c>
-      <c r="E215" t="s">
-        <v>148</v>
-      </c>
-      <c r="H215" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="216" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A216" s="6" t="s">
-        <v>94</v>
-      </c>
-      <c r="B216" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C216" s="6" t="s">
-        <v>434</v>
-      </c>
-      <c r="D216" t="s">
-        <v>133</v>
-      </c>
-      <c r="E216" t="s">
-        <v>148</v>
-      </c>
-      <c r="H216" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A217" s="6" t="s">
-        <v>99</v>
-      </c>
-      <c r="B217" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C217" s="6" t="s">
-        <v>356</v>
-      </c>
-      <c r="D217" t="s">
-        <v>133</v>
-      </c>
-      <c r="E217" t="s">
-        <v>148</v>
-      </c>
-      <c r="H217" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="218" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A218" s="6" t="s">
-        <v>100</v>
-      </c>
-      <c r="B218" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C218" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -6606,7 +6615,7 @@
     </row>
     <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
@@ -6624,9 +6633,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
@@ -6646,7 +6655,7 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
@@ -6664,15 +6673,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>358</v>
+        <v>103</v>
       </c>
       <c r="B222" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>359</v>
+        <v>29</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
@@ -6686,33 +6695,33 @@
     </row>
     <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
+        <v>357</v>
+      </c>
+      <c r="B223" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C223" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="D223" t="s">
+        <v>133</v>
+      </c>
+      <c r="E223" t="s">
+        <v>148</v>
+      </c>
+      <c r="H223" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A224" s="6" t="s">
+        <v>359</v>
+      </c>
+      <c r="B224" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C224" s="6" t="s">
         <v>360</v>
-      </c>
-      <c r="B223" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C223" s="6" t="s">
-        <v>361</v>
-      </c>
-      <c r="D223" t="s">
-        <v>133</v>
-      </c>
-      <c r="E223" t="s">
-        <v>148</v>
-      </c>
-      <c r="H223" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A224" s="6" t="s">
-        <v>362</v>
-      </c>
-      <c r="B224" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C224" s="6" t="s">
-        <v>363</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
@@ -6726,73 +6735,73 @@
     </row>
     <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B225" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C225" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D225" t="s">
+        <v>133</v>
+      </c>
+      <c r="E225" t="s">
+        <v>148</v>
+      </c>
+      <c r="H225" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="226" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A226" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B226" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C226" s="6" t="s">
         <v>364</v>
       </c>
-      <c r="B225" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C225" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D225" t="s">
-        <v>133</v>
-      </c>
-      <c r="E225" t="s">
-        <v>148</v>
-      </c>
-      <c r="H225" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="226" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A226" s="6" t="s">
+      <c r="D226" t="s">
+        <v>133</v>
+      </c>
+      <c r="E226" t="s">
+        <v>148</v>
+      </c>
+      <c r="H226" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="227" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A227" s="6" t="s">
         <v>104</v>
       </c>
-      <c r="B226" s="6" t="s">
+      <c r="B227" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C226" s="6" t="s">
-        <v>357</v>
-      </c>
-      <c r="D226" t="s">
-        <v>133</v>
-      </c>
-      <c r="E226" t="s">
-        <v>148</v>
-      </c>
-      <c r="H226" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A227" s="6" t="s">
+      <c r="C227" s="6" t="s">
+        <v>356</v>
+      </c>
+      <c r="D227" t="s">
+        <v>133</v>
+      </c>
+      <c r="E227" t="s">
+        <v>148</v>
+      </c>
+      <c r="H227" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A228" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B228" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C228" s="6" t="s">
         <v>367</v>
-      </c>
-      <c r="B227" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C227" s="6" t="s">
-        <v>368</v>
-      </c>
-      <c r="D227" t="s">
-        <v>133</v>
-      </c>
-      <c r="E227" t="s">
-        <v>148</v>
-      </c>
-      <c r="H227" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="228" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A228" s="6" t="s">
-        <v>369</v>
-      </c>
-      <c r="B228" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C228" s="6" t="s">
-        <v>370</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -6806,53 +6815,53 @@
     </row>
     <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B229" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C229" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D229" t="s">
+        <v>133</v>
+      </c>
+      <c r="E229" t="s">
+        <v>148</v>
+      </c>
+      <c r="H229" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="230" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A230" s="6" t="s">
+        <v>370</v>
+      </c>
+      <c r="B230" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C230" s="6" t="s">
         <v>371</v>
       </c>
-      <c r="B229" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C229" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D229" t="s">
-        <v>133</v>
-      </c>
-      <c r="E229" t="s">
-        <v>148</v>
-      </c>
-      <c r="H229" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="230" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A230" s="6" t="s">
+      <c r="D230" t="s">
+        <v>133</v>
+      </c>
+      <c r="E230" t="s">
+        <v>148</v>
+      </c>
+      <c r="H230" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A231" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B230" s="6" t="s">
+      <c r="B231" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C230" s="6" t="s">
-        <v>366</v>
-      </c>
-      <c r="D230" t="s">
-        <v>133</v>
-      </c>
-      <c r="E230" t="s">
-        <v>148</v>
-      </c>
-      <c r="H230" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A231" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="B231" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C231" s="6" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
@@ -6866,33 +6875,33 @@
     </row>
     <row r="232" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
+        <v>373</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="D232" t="s">
+        <v>133</v>
+      </c>
+      <c r="E232" t="s">
+        <v>148</v>
+      </c>
+      <c r="H232" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" s="6" t="s">
         <v>376</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="D232" t="s">
-        <v>133</v>
-      </c>
-      <c r="E232" t="s">
-        <v>148</v>
-      </c>
-      <c r="H232" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>379</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
@@ -6906,33 +6915,33 @@
     </row>
     <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D234" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" t="s">
+        <v>148</v>
+      </c>
+      <c r="H234" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
         <v>106</v>
       </c>
-      <c r="B234" s="6" t="s">
+      <c r="B235" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C234" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="D234" t="s">
-        <v>133</v>
-      </c>
-      <c r="E234" t="s">
-        <v>148</v>
-      </c>
-      <c r="H234" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C235" s="6" t="s">
-        <v>29</v>
+        <v>372</v>
       </c>
       <c r="D235" t="s">
         <v>133</v>
@@ -6946,7 +6955,7 @@
     </row>
     <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B236" s="6" t="s">
         <v>134</v>
@@ -6966,13 +6975,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -6986,13 +6995,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>29</v>
+        <v>379</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -7006,13 +7015,13 @@
     </row>
     <row r="239" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>382</v>
+        <v>110</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>383</v>
+        <v>29</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -7026,13 +7035,13 @@
     </row>
     <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>384</v>
+        <v>381</v>
       </c>
       <c r="B240" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>385</v>
+        <v>382</v>
       </c>
       <c r="D240" t="s">
         <v>133</v>
@@ -7046,13 +7055,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>386</v>
+        <v>383</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>387</v>
+        <v>384</v>
       </c>
       <c r="D241" t="s">
         <v>133</v>
@@ -7066,73 +7075,73 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="B242" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C242" s="6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D242" t="s">
+        <v>133</v>
+      </c>
+      <c r="E242" t="s">
+        <v>148</v>
+      </c>
+      <c r="H242" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="243" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A243" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="B243" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C243" s="6" t="s">
         <v>388</v>
       </c>
-      <c r="B242" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C242" s="6" t="s">
+      <c r="D243" t="s">
+        <v>133</v>
+      </c>
+      <c r="E243" t="s">
+        <v>148</v>
+      </c>
+      <c r="H243" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A244" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B244" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C244" s="6" t="s">
+        <v>380</v>
+      </c>
+      <c r="D244" t="s">
+        <v>133</v>
+      </c>
+      <c r="E244" t="s">
+        <v>148</v>
+      </c>
+      <c r="H244" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="245" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A245" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B245" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C245" s="6" t="s">
         <v>389</v>
-      </c>
-      <c r="D242" t="s">
-        <v>133</v>
-      </c>
-      <c r="E242" t="s">
-        <v>148</v>
-      </c>
-      <c r="H242" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="243" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A243" s="6" t="s">
-        <v>111</v>
-      </c>
-      <c r="B243" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C243" s="6" t="s">
-        <v>381</v>
-      </c>
-      <c r="D243" t="s">
-        <v>133</v>
-      </c>
-      <c r="E243" t="s">
-        <v>148</v>
-      </c>
-      <c r="H243" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A244" s="6" t="s">
-        <v>112</v>
-      </c>
-      <c r="B244" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C244" s="6" t="s">
-        <v>390</v>
-      </c>
-      <c r="D244" t="s">
-        <v>133</v>
-      </c>
-      <c r="E244" t="s">
-        <v>148</v>
-      </c>
-      <c r="H244" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="245" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A245" s="6" t="s">
-        <v>391</v>
-      </c>
-      <c r="B245" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C245" s="6" t="s">
-        <v>392</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7146,13 +7155,13 @@
     </row>
     <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>393</v>
+        <v>390</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>394</v>
+        <v>391</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7166,13 +7175,13 @@
     </row>
     <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>395</v>
+        <v>392</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>396</v>
+        <v>393</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7186,13 +7195,13 @@
     </row>
     <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>397</v>
+        <v>394</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>398</v>
+        <v>395</v>
       </c>
       <c r="D248" t="s">
         <v>133</v>
@@ -7206,33 +7215,33 @@
     </row>
     <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>397</v>
+      </c>
+      <c r="D249" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>148</v>
+      </c>
+      <c r="H249" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>398</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250" s="6" t="s">
         <v>399</v>
-      </c>
-      <c r="B249" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="D249" t="s">
-        <v>133</v>
-      </c>
-      <c r="E249" t="s">
-        <v>148</v>
-      </c>
-      <c r="H249" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>402</v>
       </c>
       <c r="D250" t="s">
         <v>133</v>
@@ -7246,53 +7255,53 @@
     </row>
     <row r="251" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>401</v>
+      </c>
+      <c r="D251" t="s">
+        <v>133</v>
+      </c>
+      <c r="E251" t="s">
+        <v>148</v>
+      </c>
+      <c r="H251" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>440</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="D252" t="s">
+        <v>133</v>
+      </c>
+      <c r="E252" t="s">
+        <v>148</v>
+      </c>
+      <c r="H252" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C253" s="6" t="s">
         <v>441</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="D251" t="s">
-        <v>133</v>
-      </c>
-      <c r="E251" t="s">
-        <v>148</v>
-      </c>
-      <c r="H251" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>442</v>
-      </c>
-      <c r="D252" t="s">
-        <v>133</v>
-      </c>
-      <c r="E252" t="s">
-        <v>148</v>
-      </c>
-      <c r="H252" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
@@ -7306,7 +7315,7 @@
     </row>
     <row r="254" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
@@ -7326,7 +7335,7 @@
     </row>
     <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
@@ -7346,13 +7355,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>403</v>
+        <v>116</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>404</v>
+        <v>29</v>
       </c>
       <c r="D256" t="s">
         <v>133</v>
@@ -7366,33 +7375,33 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="B257" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C257" s="6" t="s">
+        <v>403</v>
+      </c>
+      <c r="D257" t="s">
+        <v>133</v>
+      </c>
+      <c r="E257" t="s">
+        <v>148</v>
+      </c>
+      <c r="H257" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A258" s="6" t="s">
+        <v>404</v>
+      </c>
+      <c r="B258" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C258" s="6" t="s">
         <v>405</v>
-      </c>
-      <c r="B257" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C257" s="6" t="s">
-        <v>406</v>
-      </c>
-      <c r="D257" t="s">
-        <v>133</v>
-      </c>
-      <c r="E257" t="s">
-        <v>148</v>
-      </c>
-      <c r="H257" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="258" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A258" s="6" t="s">
-        <v>448</v>
-      </c>
-      <c r="B258" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C258" s="6" t="s">
-        <v>447</v>
       </c>
       <c r="D258" t="s">
         <v>133</v>
@@ -7406,33 +7415,33 @@
     </row>
     <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
+        <v>447</v>
+      </c>
+      <c r="B259" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C259" s="6" t="s">
+        <v>446</v>
+      </c>
+      <c r="D259" t="s">
+        <v>133</v>
+      </c>
+      <c r="E259" t="s">
+        <v>148</v>
+      </c>
+      <c r="H259" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A260" s="6" t="s">
         <v>117</v>
       </c>
-      <c r="B259" s="6" t="s">
+      <c r="B260" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C259" s="6" t="s">
-        <v>449</v>
-      </c>
-      <c r="D259" t="s">
-        <v>133</v>
-      </c>
-      <c r="E259" t="s">
-        <v>148</v>
-      </c>
-      <c r="H259" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A260" s="6" t="s">
-        <v>96</v>
-      </c>
-      <c r="B260" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C260" s="6" t="s">
-        <v>407</v>
+        <v>448</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
@@ -7446,13 +7455,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
@@ -7466,13 +7475,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -7486,13 +7495,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>118</v>
+        <v>98</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -7506,13 +7515,13 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>149</v>
+        <v>118</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>411</v>
+        <v>29</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -7526,13 +7535,13 @@
     </row>
     <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>412</v>
+        <v>149</v>
       </c>
       <c r="B265" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>413</v>
+        <v>410</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
@@ -7546,13 +7555,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>414</v>
+        <v>411</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>150</v>
+        <v>412</v>
       </c>
       <c r="D266" t="s">
         <v>133</v>
@@ -7566,67 +7575,67 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
+        <v>413</v>
+      </c>
+      <c r="B267" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C267" s="6" t="s">
+        <v>150</v>
+      </c>
+      <c r="D267" t="s">
+        <v>133</v>
+      </c>
+      <c r="E267" t="s">
+        <v>148</v>
+      </c>
+      <c r="H267" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A268" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="B268" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C268" s="6" t="s">
         <v>415</v>
       </c>
-      <c r="B267" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C267" s="6" t="s">
-        <v>416</v>
-      </c>
-      <c r="D267" t="s">
-        <v>133</v>
-      </c>
-      <c r="E267" t="s">
-        <v>148</v>
-      </c>
-      <c r="H267" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="268" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A268" s="6" t="s">
+      <c r="D268" t="s">
+        <v>133</v>
+      </c>
+      <c r="E268" t="s">
+        <v>148</v>
+      </c>
+      <c r="H268" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A269" s="6" t="s">
         <v>119</v>
       </c>
-      <c r="B268" s="6" t="s">
+      <c r="B269" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C268" s="6" t="s">
-        <v>410</v>
-      </c>
-      <c r="D268" t="s">
-        <v>133</v>
-      </c>
-      <c r="E268" t="s">
-        <v>148</v>
-      </c>
-      <c r="H268" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A269" s="6" t="s">
+      <c r="C269" s="6" t="s">
+        <v>409</v>
+      </c>
+      <c r="D269" t="s">
+        <v>133</v>
+      </c>
+      <c r="E269" t="s">
+        <v>148</v>
+      </c>
+      <c r="H269" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A270" s="6" t="s">
         <v>120</v>
-      </c>
-      <c r="B269" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C269" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D269" t="s">
-        <v>133</v>
-      </c>
-      <c r="E269" t="s">
-        <v>148</v>
-      </c>
-      <c r="H269" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="270" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A270" s="6" t="s">
-        <v>121</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
@@ -7644,9 +7653,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
@@ -7666,7 +7675,7 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
@@ -7686,13 +7695,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>418</v>
+        <v>123</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>419</v>
+        <v>29</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -7706,13 +7715,13 @@
     </row>
     <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>420</v>
+        <v>417</v>
       </c>
       <c r="B274" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
@@ -7726,33 +7735,33 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="B275" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C275" s="6" t="s">
+        <v>420</v>
+      </c>
+      <c r="D275" t="s">
+        <v>133</v>
+      </c>
+      <c r="E275" t="s">
+        <v>148</v>
+      </c>
+      <c r="H275" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A276" s="6" t="s">
+        <v>421</v>
+      </c>
+      <c r="B276" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C276" s="6" t="s">
         <v>422</v>
-      </c>
-      <c r="B275" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C275" s="6" t="s">
-        <v>423</v>
-      </c>
-      <c r="D275" t="s">
-        <v>133</v>
-      </c>
-      <c r="E275" t="s">
-        <v>148</v>
-      </c>
-      <c r="H275" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A276" s="6" t="s">
-        <v>124</v>
-      </c>
-      <c r="B276" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C276" s="6" t="s">
-        <v>417</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
@@ -7766,13 +7775,13 @@
     </row>
     <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
@@ -7786,7 +7795,7 @@
     </row>
     <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
@@ -7804,9 +7813,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>125</v>
+        <v>130</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
@@ -7826,7 +7835,7 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
@@ -7846,7 +7855,7 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>134</v>
@@ -7866,7 +7875,7 @@
     </row>
     <row r="282" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B282" s="6" t="s">
         <v>134</v>
@@ -7884,35 +7893,35 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="B283" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C283" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D283" t="s">
+        <v>133</v>
+      </c>
+      <c r="E283" t="s">
+        <v>148</v>
+      </c>
+      <c r="H283" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+      <c r="A284" s="6" t="s">
         <v>131</v>
       </c>
-      <c r="B283" s="6" t="s">
+      <c r="B284" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C283" s="6" t="s">
-        <v>424</v>
-      </c>
-      <c r="D283" t="s">
-        <v>133</v>
-      </c>
-      <c r="E283" t="s">
-        <v>148</v>
-      </c>
-      <c r="H283" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A284" s="6" t="s">
-        <v>450</v>
-      </c>
-      <c r="B284" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C284" s="6" t="s">
-        <v>451</v>
+        <v>423</v>
       </c>
       <c r="D284" t="s">
         <v>133</v>
@@ -7926,33 +7935,33 @@
     </row>
     <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
+        <v>449</v>
+      </c>
+      <c r="B285" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C285" s="6" t="s">
+        <v>450</v>
+      </c>
+      <c r="D285" t="s">
+        <v>133</v>
+      </c>
+      <c r="E285" t="s">
+        <v>148</v>
+      </c>
+      <c r="H285" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A286" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="B286" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C286" s="6" t="s">
         <v>452</v>
-      </c>
-      <c r="B285" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C285" s="6" t="s">
-        <v>453</v>
-      </c>
-      <c r="D285" t="s">
-        <v>133</v>
-      </c>
-      <c r="E285" t="s">
-        <v>148</v>
-      </c>
-      <c r="H285" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A286" s="6" t="s">
-        <v>454</v>
-      </c>
-      <c r="B286" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C286" s="6" t="s">
-        <v>455</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
@@ -7966,13 +7975,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="D287" t="s">
         <v>133</v>
@@ -7986,121 +7995,141 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B288" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C288" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D288" t="s">
+        <v>133</v>
+      </c>
+      <c r="E288" t="s">
+        <v>148</v>
+      </c>
+      <c r="H288" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A289" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B289" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C289" s="6" t="s">
         <v>458</v>
       </c>
-      <c r="B288" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C288" s="6" t="s">
+      <c r="D289" t="s">
+        <v>133</v>
+      </c>
+      <c r="E289" t="s">
+        <v>148</v>
+      </c>
+      <c r="H289" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A290" s="6" t="s">
         <v>459</v>
       </c>
-      <c r="D288" t="s">
-        <v>133</v>
-      </c>
-      <c r="E288" t="s">
-        <v>148</v>
-      </c>
-      <c r="H288" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A289" s="6" t="s">
+      <c r="B290" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C290" s="6" t="s">
         <v>460</v>
       </c>
-      <c r="B289" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C289" s="6" t="s">
+      <c r="D290" t="s">
+        <v>133</v>
+      </c>
+      <c r="E290" t="s">
+        <v>148</v>
+      </c>
+      <c r="H290" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A291" s="6" t="s">
         <v>461</v>
       </c>
-      <c r="D289" t="s">
-        <v>133</v>
-      </c>
-      <c r="E289" t="s">
-        <v>148</v>
-      </c>
-      <c r="H289" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="290" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A290" s="6" t="s">
+      <c r="B291" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C291" s="6" t="s">
         <v>462</v>
       </c>
-      <c r="B290" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C290" s="6" t="s">
+      <c r="D291" t="s">
+        <v>133</v>
+      </c>
+      <c r="E291" t="s">
+        <v>148</v>
+      </c>
+      <c r="H291" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A292" s="6" t="s">
         <v>463</v>
       </c>
-      <c r="D290" t="s">
-        <v>133</v>
-      </c>
-      <c r="E290" t="s">
-        <v>148</v>
-      </c>
-      <c r="H290" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A291" s="6" t="s">
+      <c r="B292" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C292" s="6" t="s">
         <v>464</v>
       </c>
-      <c r="B291" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C291" s="6" t="s">
+      <c r="D292" t="s">
+        <v>133</v>
+      </c>
+      <c r="E292" t="s">
+        <v>148</v>
+      </c>
+      <c r="H292" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A293" s="6" t="s">
         <v>465</v>
       </c>
-      <c r="D291" t="s">
-        <v>133</v>
-      </c>
-      <c r="E291" t="s">
-        <v>148</v>
-      </c>
-      <c r="H291" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A292" s="6" t="s">
+      <c r="B293" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C293" s="6" t="s">
         <v>466</v>
       </c>
-      <c r="B292" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C292" s="6" t="s">
-        <v>467</v>
-      </c>
-      <c r="D292" t="s">
-        <v>133</v>
-      </c>
-      <c r="E292" t="s">
-        <v>148</v>
-      </c>
-      <c r="H292" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="293" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A293" s="1" t="s">
+      <c r="D293" t="s">
+        <v>133</v>
+      </c>
+      <c r="E293" t="s">
+        <v>148</v>
+      </c>
+      <c r="H293" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B293" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C293" s="11" t="s">
+      <c r="B294" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D293" t="s">
-        <v>133</v>
-      </c>
-      <c r="E293" t="s">
-        <v>148</v>
-      </c>
-      <c r="H293" t="s">
+      <c r="D294" t="s">
+        <v>133</v>
+      </c>
+      <c r="E294" t="s">
+        <v>148</v>
+      </c>
+      <c r="H294" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF34A14A-5E30-4E40-BCF2-83B5EC37AAE1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC8773-FF71-47D9-9966-8E56269B1BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$254</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$259</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1848" uniqueCount="503">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="512">
   <si>
     <t>Field_Name</t>
   </si>
@@ -675,9 +675,6 @@
     <t>property_plant_and_equipment_and_right_of_use_assets+property_plant_and_equipment+plant_and_equipment+plant_and_equipments</t>
   </si>
   <si>
-    <t>loans_and_advances+borrowings+loans_and_borrowings</t>
-  </si>
-  <si>
     <t>Trade_receivables+receivables+trade_and_other_receivables</t>
   </si>
   <si>
@@ -711,9 +708,6 @@
     <t>Contributed equity</t>
   </si>
   <si>
-    <t>total_equity-share_capital</t>
-  </si>
-  <si>
     <t>Total equity</t>
   </si>
   <si>
@@ -1536,7 +1530,40 @@
     <t>Contract_and_refund_liabilities</t>
   </si>
   <si>
-    <t>derivative_financial_instruments+lease_liabilities+other_non_current_liabilities+employee_benefits+employee_entitlements+Contract_and_refund_liabilities</t>
+    <t>Total capital deficiency</t>
+  </si>
+  <si>
+    <t>Total_capital_deficiency</t>
+  </si>
+  <si>
+    <t>total_equity+Total_capital_deficiency-share_capital</t>
+  </si>
+  <si>
+    <t>Restricted bank deposits</t>
+  </si>
+  <si>
+    <t>Cash_and_Cash_Equivalents</t>
+  </si>
+  <si>
+    <t>Restricted_bank_deposits</t>
+  </si>
+  <si>
+    <t>Cash_and_Cash_Equivalents+Restricted_bank_deposits</t>
+  </si>
+  <si>
+    <t>Loan to Subsidiaries</t>
+  </si>
+  <si>
+    <t>Loan_to_Subsidiaries</t>
+  </si>
+  <si>
+    <t>loans_and_advances+borrowings+loans_and_borrowings+Loan_to_Subsidiaries</t>
+  </si>
+  <si>
+    <t>Trade_and_other_payables</t>
+  </si>
+  <si>
+    <t>derivative_financial_instruments+lease_liabilities+other_non_current_liabilities+employee_benefits+employee_entitlements+Contract_and_refund_liabilities+Trade_and_other_payables</t>
   </si>
 </sst>
 </file>
@@ -1949,10 +1976,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H294"/>
+  <dimension ref="A1:H299"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
-      <selection activeCell="B119" sqref="B119"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="C124" sqref="C124"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1984,7 +2011,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="G1" t="s">
         <v>5</v>
@@ -2066,7 +2093,7 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>134</v>
@@ -2076,7 +2103,7 @@
         <v>133</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="H7" t="s">
         <v>142</v>
@@ -2113,7 +2140,7 @@
         <v>145</v>
       </c>
       <c r="F10" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H10" t="s">
         <v>152</v>
@@ -2136,7 +2163,7 @@
         <v>145</v>
       </c>
       <c r="F11" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H11" t="s">
         <v>152</v>
@@ -2159,7 +2186,7 @@
         <v>145</v>
       </c>
       <c r="F12" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H12" t="s">
         <v>152</v>
@@ -2182,7 +2209,7 @@
         <v>145</v>
       </c>
       <c r="F13" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H13" t="s">
         <v>152</v>
@@ -2205,7 +2232,7 @@
         <v>145</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H14" t="s">
         <v>152</v>
@@ -2228,7 +2255,7 @@
         <v>145</v>
       </c>
       <c r="F15" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H15" t="s">
         <v>152</v>
@@ -2251,7 +2278,7 @@
         <v>145</v>
       </c>
       <c r="F16" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H16" t="s">
         <v>152</v>
@@ -2259,7 +2286,7 @@
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="6" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B17" s="6" t="s">
         <v>134</v>
@@ -2274,7 +2301,7 @@
         <v>145</v>
       </c>
       <c r="F17" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H17" t="s">
         <v>152</v>
@@ -2297,7 +2324,7 @@
         <v>145</v>
       </c>
       <c r="F18" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H18" t="s">
         <v>152</v>
@@ -2320,7 +2347,7 @@
         <v>145</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H19" t="s">
         <v>152</v>
@@ -2334,7 +2361,7 @@
         <v>135</v>
       </c>
       <c r="C20" s="6" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="D20" t="s">
         <v>133</v>
@@ -2343,7 +2370,7 @@
         <v>145</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H20" t="s">
         <v>152</v>
@@ -2366,7 +2393,7 @@
         <v>145</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H21" t="s">
         <v>152</v>
@@ -2389,7 +2416,7 @@
         <v>145</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H22" t="s">
         <v>152</v>
@@ -2412,7 +2439,7 @@
         <v>145</v>
       </c>
       <c r="F23" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H23" t="s">
         <v>152</v>
@@ -2435,7 +2462,7 @@
         <v>145</v>
       </c>
       <c r="F24" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H24" t="s">
         <v>152</v>
@@ -2458,7 +2485,7 @@
         <v>145</v>
       </c>
       <c r="F25" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H25" t="s">
         <v>152</v>
@@ -2481,7 +2508,7 @@
         <v>145</v>
       </c>
       <c r="F26" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H26" t="s">
         <v>152</v>
@@ -2504,7 +2531,7 @@
         <v>145</v>
       </c>
       <c r="F27" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H27" t="s">
         <v>152</v>
@@ -2512,7 +2539,7 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="6" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B28" s="6" t="s">
         <v>134</v>
@@ -2527,7 +2554,7 @@
         <v>145</v>
       </c>
       <c r="F28" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H28" t="s">
         <v>152</v>
@@ -2550,7 +2577,7 @@
         <v>145</v>
       </c>
       <c r="F29" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H29" t="s">
         <v>152</v>
@@ -2558,7 +2585,7 @@
     </row>
     <row r="30" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="6" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B30" s="6" t="s">
         <v>134</v>
@@ -2573,7 +2600,7 @@
         <v>145</v>
       </c>
       <c r="F30" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H30" t="s">
         <v>152</v>
@@ -2581,13 +2608,13 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B31" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C31" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D31" t="s">
         <v>133</v>
@@ -2596,7 +2623,7 @@
         <v>145</v>
       </c>
       <c r="F31" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H31" t="s">
         <v>152</v>
@@ -2610,7 +2637,7 @@
         <v>135</v>
       </c>
       <c r="C32" s="6" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="D32" t="s">
         <v>133</v>
@@ -2619,7 +2646,7 @@
         <v>145</v>
       </c>
       <c r="F32" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H32" t="s">
         <v>152</v>
@@ -2642,7 +2669,7 @@
         <v>145</v>
       </c>
       <c r="F33" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H33" t="s">
         <v>152</v>
@@ -2650,7 +2677,7 @@
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="6" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B34" s="6" t="s">
         <v>134</v>
@@ -2665,7 +2692,7 @@
         <v>145</v>
       </c>
       <c r="F34" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H34" t="s">
         <v>152</v>
@@ -2688,7 +2715,7 @@
         <v>145</v>
       </c>
       <c r="F35" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H35" t="s">
         <v>152</v>
@@ -2702,7 +2729,7 @@
         <v>135</v>
       </c>
       <c r="C36" s="6" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D36" t="s">
         <v>133</v>
@@ -2711,7 +2738,7 @@
         <v>145</v>
       </c>
       <c r="F36" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H36" t="s">
         <v>152</v>
@@ -2734,7 +2761,7 @@
         <v>145</v>
       </c>
       <c r="F37" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H37" t="s">
         <v>152</v>
@@ -2757,7 +2784,7 @@
         <v>145</v>
       </c>
       <c r="F38" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H38" t="s">
         <v>152</v>
@@ -2780,7 +2807,7 @@
         <v>145</v>
       </c>
       <c r="F39" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H39" t="s">
         <v>152</v>
@@ -2803,7 +2830,7 @@
         <v>145</v>
       </c>
       <c r="F40" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H40" t="s">
         <v>152</v>
@@ -2826,7 +2853,7 @@
         <v>145</v>
       </c>
       <c r="F41" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H41" t="s">
         <v>152</v>
@@ -2849,7 +2876,7 @@
         <v>145</v>
       </c>
       <c r="F42" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H42" t="s">
         <v>152</v>
@@ -2872,7 +2899,7 @@
         <v>145</v>
       </c>
       <c r="F43" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H43" t="s">
         <v>152</v>
@@ -2895,7 +2922,7 @@
         <v>145</v>
       </c>
       <c r="F44" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H44" t="s">
         <v>152</v>
@@ -2903,7 +2930,7 @@
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="6" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B45" s="6" t="s">
         <v>134</v>
@@ -2918,7 +2945,7 @@
         <v>145</v>
       </c>
       <c r="F45" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H45" t="s">
         <v>152</v>
@@ -2926,7 +2953,7 @@
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="6" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B46" s="6" t="s">
         <v>134</v>
@@ -2941,7 +2968,7 @@
         <v>145</v>
       </c>
       <c r="F46" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H46" t="s">
         <v>152</v>
@@ -2949,13 +2976,13 @@
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="6" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B47" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C47" s="6" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="D47" t="s">
         <v>133</v>
@@ -2964,7 +2991,7 @@
         <v>145</v>
       </c>
       <c r="F47" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H47" t="s">
         <v>152</v>
@@ -2972,13 +2999,13 @@
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="6" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B48" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C48" s="6" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="D48" t="s">
         <v>133</v>
@@ -2987,7 +3014,7 @@
         <v>145</v>
       </c>
       <c r="F48" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H48" t="s">
         <v>152</v>
@@ -3001,7 +3028,7 @@
         <v>135</v>
       </c>
       <c r="C49" s="6" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="D49" t="s">
         <v>133</v>
@@ -3010,7 +3037,7 @@
         <v>145</v>
       </c>
       <c r="F49" s="5" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H49" t="s">
         <v>152</v>
@@ -3033,7 +3060,7 @@
         <v>145</v>
       </c>
       <c r="F50" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H50" t="s">
         <v>152</v>
@@ -3041,7 +3068,7 @@
     </row>
     <row r="51" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A51" s="6" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B51" s="6" t="s">
         <v>134</v>
@@ -3056,7 +3083,7 @@
         <v>145</v>
       </c>
       <c r="F51" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H51" t="s">
         <v>152</v>
@@ -3070,7 +3097,7 @@
         <v>135</v>
       </c>
       <c r="C52" s="6" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D52" t="s">
         <v>133</v>
@@ -3079,7 +3106,7 @@
         <v>145</v>
       </c>
       <c r="F52" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H52" t="s">
         <v>152</v>
@@ -3102,7 +3129,7 @@
         <v>145</v>
       </c>
       <c r="F53" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H53" t="s">
         <v>152</v>
@@ -3110,13 +3137,13 @@
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="6" t="s">
+        <v>216</v>
+      </c>
+      <c r="B54" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>217</v>
-      </c>
-      <c r="B54" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C54" s="6" t="s">
-        <v>218</v>
       </c>
       <c r="D54" t="s">
         <v>133</v>
@@ -3125,7 +3152,7 @@
         <v>145</v>
       </c>
       <c r="F54" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H54" t="s">
         <v>152</v>
@@ -3148,7 +3175,7 @@
         <v>145</v>
       </c>
       <c r="F55" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H55" t="s">
         <v>152</v>
@@ -3162,7 +3189,7 @@
         <v>134</v>
       </c>
       <c r="C56" s="6" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D56" t="s">
         <v>133</v>
@@ -3171,7 +3198,7 @@
         <v>145</v>
       </c>
       <c r="F56" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H56" t="s">
         <v>152</v>
@@ -3185,7 +3212,7 @@
         <v>135</v>
       </c>
       <c r="C57" s="6" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D57" t="s">
         <v>133</v>
@@ -3194,7 +3221,7 @@
         <v>145</v>
       </c>
       <c r="F57" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H57" t="s">
         <v>152</v>
@@ -3217,7 +3244,7 @@
         <v>145</v>
       </c>
       <c r="F58" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H58" t="s">
         <v>152</v>
@@ -3240,7 +3267,7 @@
         <v>145</v>
       </c>
       <c r="F59" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H59" t="s">
         <v>152</v>
@@ -3263,7 +3290,7 @@
         <v>145</v>
       </c>
       <c r="F60" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H60" t="s">
         <v>152</v>
@@ -3271,13 +3298,13 @@
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="6" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B61" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C61" s="6" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="D61" t="s">
         <v>133</v>
@@ -3286,7 +3313,7 @@
         <v>145</v>
       </c>
       <c r="F61" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H61" t="s">
         <v>152</v>
@@ -3300,7 +3327,7 @@
         <v>135</v>
       </c>
       <c r="C62" s="6" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="D62" t="s">
         <v>133</v>
@@ -3309,15 +3336,15 @@
         <v>145</v>
       </c>
       <c r="F62" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H62" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="6" t="s">
-        <v>38</v>
+      <c r="A63" s="8" t="s">
+        <v>504</v>
       </c>
       <c r="B63" s="6" t="s">
         <v>134</v>
@@ -3332,21 +3359,21 @@
         <v>145</v>
       </c>
       <c r="F63" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H63" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="6" t="s">
-        <v>193</v>
+      <c r="A64" s="8" t="s">
+        <v>505</v>
       </c>
       <c r="B64" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C64" s="6" t="s">
-        <v>31</v>
+        <v>503</v>
       </c>
       <c r="D64" t="s">
         <v>133</v>
@@ -3355,7 +3382,7 @@
         <v>145</v>
       </c>
       <c r="F64" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H64" t="s">
         <v>152</v>
@@ -3363,13 +3390,13 @@
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="6" t="s">
-        <v>204</v>
+        <v>38</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C65" s="6" t="s">
-        <v>172</v>
+        <v>506</v>
       </c>
       <c r="D65" t="s">
         <v>133</v>
@@ -3378,7 +3405,7 @@
         <v>145</v>
       </c>
       <c r="F65" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H65" t="s">
         <v>152</v>
@@ -3386,13 +3413,13 @@
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="6" t="s">
-        <v>205</v>
+        <v>193</v>
       </c>
       <c r="B66" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C66" s="6" t="s">
-        <v>173</v>
+        <v>31</v>
       </c>
       <c r="D66" t="s">
         <v>133</v>
@@ -3401,7 +3428,7 @@
         <v>145</v>
       </c>
       <c r="F66" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H66" t="s">
         <v>152</v>
@@ -3409,13 +3436,13 @@
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="6" t="s">
-        <v>39</v>
+        <v>204</v>
       </c>
       <c r="B67" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C67" s="6" t="s">
-        <v>215</v>
+        <v>172</v>
       </c>
       <c r="D67" t="s">
         <v>133</v>
@@ -3424,7 +3451,7 @@
         <v>145</v>
       </c>
       <c r="F67" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H67" t="s">
         <v>152</v>
@@ -3432,13 +3459,13 @@
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="6" t="s">
-        <v>40</v>
+        <v>205</v>
       </c>
       <c r="B68" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C68" s="6" t="s">
-        <v>29</v>
+        <v>173</v>
       </c>
       <c r="D68" t="s">
         <v>133</v>
@@ -3447,7 +3474,7 @@
         <v>145</v>
       </c>
       <c r="F68" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H68" t="s">
         <v>152</v>
@@ -3455,13 +3482,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>424</v>
+        <v>508</v>
       </c>
       <c r="B69" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>29</v>
+        <v>507</v>
       </c>
       <c r="D69" t="s">
         <v>133</v>
@@ -3470,21 +3497,21 @@
         <v>145</v>
       </c>
       <c r="F69" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H69" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>29</v>
+        <v>509</v>
       </c>
       <c r="D70" t="s">
         <v>133</v>
@@ -3493,7 +3520,7 @@
         <v>145</v>
       </c>
       <c r="F70" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H70" t="s">
         <v>152</v>
@@ -3501,7 +3528,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>425</v>
+        <v>40</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
@@ -3516,7 +3543,7 @@
         <v>145</v>
       </c>
       <c r="F71" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H71" t="s">
         <v>152</v>
@@ -3524,13 +3551,13 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>206</v>
+        <v>422</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C72" s="6" t="s">
-        <v>174</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
         <v>133</v>
@@ -3539,7 +3566,7 @@
         <v>145</v>
       </c>
       <c r="F72" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H72" t="s">
         <v>152</v>
@@ -3547,13 +3574,13 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>207</v>
+        <v>41</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C73" s="6" t="s">
-        <v>175</v>
+        <v>29</v>
       </c>
       <c r="D73" t="s">
         <v>133</v>
@@ -3562,7 +3589,7 @@
         <v>145</v>
       </c>
       <c r="F73" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H73" t="s">
         <v>152</v>
@@ -3570,13 +3597,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>208</v>
+        <v>423</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>176</v>
+        <v>29</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
@@ -3585,7 +3612,7 @@
         <v>145</v>
       </c>
       <c r="F74" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H74" t="s">
         <v>152</v>
@@ -3593,13 +3620,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>443</v>
+        <v>206</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>442</v>
+        <v>174</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -3608,21 +3635,21 @@
         <v>145</v>
       </c>
       <c r="F75" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H75" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="76" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>42</v>
+        <v>207</v>
       </c>
       <c r="B76" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>444</v>
+        <v>175</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -3631,7 +3658,7 @@
         <v>145</v>
       </c>
       <c r="F76" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H76" t="s">
         <v>152</v>
@@ -3639,13 +3666,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>43</v>
+        <v>208</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>29</v>
+        <v>176</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
@@ -3654,7 +3681,7 @@
         <v>145</v>
       </c>
       <c r="F77" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H77" t="s">
         <v>152</v>
@@ -3662,13 +3689,13 @@
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>44</v>
+        <v>441</v>
       </c>
       <c r="B78" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>177</v>
+        <v>440</v>
       </c>
       <c r="D78" t="s">
         <v>133</v>
@@ -3677,21 +3704,21 @@
         <v>145</v>
       </c>
       <c r="F78" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H78" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>177</v>
+        <v>442</v>
       </c>
       <c r="D79" t="s">
         <v>133</v>
@@ -3700,7 +3727,7 @@
         <v>145</v>
       </c>
       <c r="F79" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H79" t="s">
         <v>152</v>
@@ -3708,13 +3735,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>210</v>
+        <v>43</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>179</v>
+        <v>29</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
@@ -3723,7 +3750,7 @@
         <v>145</v>
       </c>
       <c r="F80" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H80" t="s">
         <v>152</v>
@@ -3731,13 +3758,13 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>287</v>
+        <v>44</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C81" s="6" t="s">
-        <v>198</v>
+        <v>177</v>
       </c>
       <c r="D81" t="s">
         <v>133</v>
@@ -3746,7 +3773,7 @@
         <v>145</v>
       </c>
       <c r="F81" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H81" t="s">
         <v>152</v>
@@ -3754,13 +3781,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>288</v>
+        <v>209</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>199</v>
+        <v>177</v>
       </c>
       <c r="D82" t="s">
         <v>133</v>
@@ -3769,7 +3796,7 @@
         <v>145</v>
       </c>
       <c r="F82" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H82" t="s">
         <v>152</v>
@@ -3777,13 +3804,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D83" t="s">
         <v>133</v>
@@ -3792,7 +3819,7 @@
         <v>145</v>
       </c>
       <c r="F83" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H83" t="s">
         <v>152</v>
@@ -3800,13 +3827,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
@@ -3815,7 +3842,7 @@
         <v>145</v>
       </c>
       <c r="F84" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H84" t="s">
         <v>152</v>
@@ -3823,13 +3850,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>212</v>
+        <v>286</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>181</v>
+        <v>199</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
@@ -3838,7 +3865,7 @@
         <v>145</v>
       </c>
       <c r="F85" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H85" t="s">
         <v>152</v>
@@ -3846,13 +3873,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D86" t="s">
         <v>133</v>
@@ -3861,21 +3888,21 @@
         <v>145</v>
       </c>
       <c r="F86" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H86" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="87" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>45</v>
+        <v>277</v>
       </c>
       <c r="B87" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>289</v>
+        <v>178</v>
       </c>
       <c r="D87" t="s">
         <v>133</v>
@@ -3884,7 +3911,7 @@
         <v>145</v>
       </c>
       <c r="F87" s="5" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H87" t="s">
         <v>152</v>
@@ -3892,13 +3919,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>46</v>
+        <v>212</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>47</v>
+        <v>181</v>
       </c>
       <c r="D88" t="s">
         <v>133</v>
@@ -3906,101 +3933,101 @@
       <c r="E88" t="s">
         <v>145</v>
       </c>
-      <c r="F88" s="5"/>
+      <c r="F88" s="5" t="s">
+        <v>220</v>
+      </c>
       <c r="H88" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A89" s="5"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="5"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A90" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B90" s="5"/>
-      <c r="C90" s="5"/>
+      <c r="A89" s="6" t="s">
+        <v>213</v>
+      </c>
+      <c r="B89" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C89" s="6" t="s">
+        <v>182</v>
+      </c>
+      <c r="D89" t="s">
+        <v>133</v>
+      </c>
+      <c r="E89" t="s">
+        <v>145</v>
+      </c>
+      <c r="F89" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H89" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A90" s="6" t="s">
+        <v>45</v>
+      </c>
+      <c r="B90" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C90" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="D90" t="s">
+        <v>133</v>
+      </c>
+      <c r="E90" t="s">
+        <v>145</v>
+      </c>
+      <c r="F90" s="5" t="s">
+        <v>220</v>
+      </c>
+      <c r="H90" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A91" s="6" t="s">
-        <v>222</v>
+        <v>46</v>
       </c>
       <c r="B91" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C91" s="6" t="s">
-        <v>223</v>
+        <v>47</v>
       </c>
       <c r="D91" t="s">
         <v>133</v>
       </c>
       <c r="E91" t="s">
-        <v>146</v>
-      </c>
-      <c r="F91" s="5" t="s">
-        <v>272</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="F91" s="5"/>
       <c r="H91" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="6" t="s">
-        <v>275</v>
-      </c>
-      <c r="B92" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C92" s="6" t="s">
-        <v>224</v>
-      </c>
-      <c r="D92" t="s">
-        <v>133</v>
-      </c>
-      <c r="E92" t="s">
-        <v>146</v>
-      </c>
-      <c r="F92" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H92" t="s">
-        <v>152</v>
-      </c>
+      <c r="A92" s="5"/>
+      <c r="B92" s="5"/>
+      <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="6" t="s">
-        <v>225</v>
-      </c>
-      <c r="B93" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C93" s="6" t="s">
-        <v>226</v>
-      </c>
-      <c r="D93" t="s">
-        <v>133</v>
-      </c>
-      <c r="E93" t="s">
-        <v>146</v>
-      </c>
-      <c r="F93" s="5" t="s">
-        <v>272</v>
-      </c>
-      <c r="H93" t="s">
-        <v>152</v>
-      </c>
+      <c r="A93" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="B93" s="5"/>
+      <c r="C93" s="5"/>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>49</v>
+        <v>221</v>
       </c>
       <c r="B94" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>276</v>
+        <v>222</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -4009,7 +4036,7 @@
         <v>146</v>
       </c>
       <c r="F94" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H94" t="s">
         <v>152</v>
@@ -4017,13 +4044,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>78</v>
+        <v>273</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
@@ -4032,7 +4059,7 @@
         <v>146</v>
       </c>
       <c r="F95" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H95" t="s">
         <v>152</v>
@@ -4040,13 +4067,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>50</v>
+        <v>224</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
@@ -4055,7 +4082,7 @@
         <v>146</v>
       </c>
       <c r="F96" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H96" t="s">
         <v>152</v>
@@ -4063,13 +4090,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>29</v>
+        <v>274</v>
       </c>
       <c r="D97" t="s">
         <v>133</v>
@@ -4078,21 +4105,21 @@
         <v>146</v>
       </c>
       <c r="F97" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H97" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="98" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>52</v>
+        <v>78</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>29</v>
+        <v>226</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
@@ -4101,21 +4128,21 @@
         <v>146</v>
       </c>
       <c r="F98" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H98" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="99" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>53</v>
+        <v>501</v>
       </c>
       <c r="B99" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>29</v>
+        <v>500</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
@@ -4124,7 +4151,7 @@
         <v>146</v>
       </c>
       <c r="F99" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H99" t="s">
         <v>152</v>
@@ -4132,13 +4159,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>29</v>
+        <v>502</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -4147,7 +4174,7 @@
         <v>146</v>
       </c>
       <c r="F100" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H100" t="s">
         <v>152</v>
@@ -4155,7 +4182,7 @@
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>134</v>
@@ -4170,21 +4197,21 @@
         <v>146</v>
       </c>
       <c r="F101" s="5" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="H101" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="102" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>229</v>
+        <v>52</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C102" s="6" t="s">
-        <v>139</v>
+        <v>29</v>
       </c>
       <c r="D102" t="s">
         <v>133</v>
@@ -4193,7 +4220,7 @@
         <v>146</v>
       </c>
       <c r="F102" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H102" t="s">
         <v>152</v>
@@ -4201,13 +4228,13 @@
     </row>
     <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>230</v>
+        <v>53</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C103" s="6" t="s">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="D103" t="s">
         <v>133</v>
@@ -4216,7 +4243,7 @@
         <v>146</v>
       </c>
       <c r="F103" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H103" t="s">
         <v>152</v>
@@ -4224,13 +4251,13 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>205</v>
+        <v>54</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C104" s="6" t="s">
-        <v>173</v>
+        <v>29</v>
       </c>
       <c r="D104" t="s">
         <v>133</v>
@@ -4239,7 +4266,7 @@
         <v>146</v>
       </c>
       <c r="F104" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H104" t="s">
         <v>152</v>
@@ -4247,13 +4274,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>232</v>
+        <v>55</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -4262,7 +4289,7 @@
         <v>146</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="H105" t="s">
         <v>152</v>
@@ -4270,13 +4297,13 @@
     </row>
     <row r="106" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>204</v>
+        <v>227</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>172</v>
+        <v>139</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
@@ -4285,21 +4312,21 @@
         <v>146</v>
       </c>
       <c r="F106" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H106" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>285</v>
+        <v>228</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
@@ -4308,21 +4335,21 @@
         <v>146</v>
       </c>
       <c r="F107" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H107" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="108" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>56</v>
+        <v>205</v>
       </c>
       <c r="B108" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>286</v>
+        <v>173</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -4331,7 +4358,7 @@
         <v>146</v>
       </c>
       <c r="F108" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H108" t="s">
         <v>152</v>
@@ -4339,13 +4366,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
@@ -4354,7 +4381,7 @@
         <v>146</v>
       </c>
       <c r="F109" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H109" t="s">
         <v>152</v>
@@ -4362,13 +4389,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>239</v>
+        <v>172</v>
       </c>
       <c r="D110" t="s">
         <v>133</v>
@@ -4377,7 +4404,7 @@
         <v>146</v>
       </c>
       <c r="F110" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H110" t="s">
         <v>152</v>
@@ -4385,13 +4412,13 @@
     </row>
     <row r="111" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>57</v>
+        <v>283</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
@@ -4400,21 +4427,21 @@
         <v>146</v>
       </c>
       <c r="F111" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H111" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>29</v>
+        <v>284</v>
       </c>
       <c r="D112" t="s">
         <v>133</v>
@@ -4423,7 +4450,7 @@
         <v>146</v>
       </c>
       <c r="F112" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H112" t="s">
         <v>152</v>
@@ -4431,13 +4458,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>210</v>
+        <v>234</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="D113" t="s">
         <v>133</v>
@@ -4446,7 +4473,7 @@
         <v>146</v>
       </c>
       <c r="F113" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H113" t="s">
         <v>152</v>
@@ -4454,13 +4481,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="B114" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>140</v>
+        <v>237</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
@@ -4469,7 +4496,7 @@
         <v>146</v>
       </c>
       <c r="F114" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H114" t="s">
         <v>152</v>
@@ -4477,13 +4504,13 @@
     </row>
     <row r="115" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>242</v>
+        <v>57</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>243</v>
+        <v>233</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -4492,21 +4519,21 @@
         <v>146</v>
       </c>
       <c r="F115" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H115" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>213</v>
+        <v>58</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>244</v>
+        <v>29</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -4515,7 +4542,7 @@
         <v>146</v>
       </c>
       <c r="F116" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H116" t="s">
         <v>152</v>
@@ -4523,13 +4550,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>245</v>
+        <v>210</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>246</v>
+        <v>238</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -4538,7 +4565,7 @@
         <v>146</v>
       </c>
       <c r="F117" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H117" t="s">
         <v>152</v>
@@ -4546,13 +4573,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>501</v>
+        <v>239</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>500</v>
+        <v>140</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -4561,21 +4588,21 @@
         <v>146</v>
       </c>
       <c r="F118" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H118" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="119" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>59</v>
+        <v>240</v>
       </c>
       <c r="B119" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>502</v>
+        <v>241</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -4584,7 +4611,7 @@
         <v>146</v>
       </c>
       <c r="F119" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H119" t="s">
         <v>152</v>
@@ -4592,13 +4619,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>60</v>
+        <v>213</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -4607,7 +4634,7 @@
         <v>146</v>
       </c>
       <c r="F120" s="5" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H120" t="s">
         <v>152</v>
@@ -4615,13 +4642,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>229</v>
+        <v>243</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>139</v>
+        <v>244</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -4630,21 +4657,21 @@
         <v>146</v>
       </c>
       <c r="F121" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H121" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="122" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>230</v>
+        <v>499</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>231</v>
+        <v>498</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -4653,7 +4680,7 @@
         <v>146</v>
       </c>
       <c r="F122" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H122" t="s">
         <v>152</v>
@@ -4661,7 +4688,7 @@
     </row>
     <row r="123" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>248</v>
+        <v>510</v>
       </c>
       <c r="B123" s="6" t="s">
         <v>134</v>
@@ -4676,21 +4703,21 @@
         <v>146</v>
       </c>
       <c r="F123" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H123" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>437</v>
+        <v>59</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>436</v>
+        <v>511</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -4699,7 +4726,7 @@
         <v>146</v>
       </c>
       <c r="F124" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H124" t="s">
         <v>152</v>
@@ -4707,13 +4734,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>204</v>
+        <v>60</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>204</v>
+        <v>245</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -4722,21 +4749,21 @@
         <v>146</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="H125" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>61</v>
+        <v>227</v>
       </c>
       <c r="B126" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>445</v>
+        <v>139</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -4745,21 +4772,21 @@
         <v>146</v>
       </c>
       <c r="F126" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H126" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>250</v>
+        <v>228</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>251</v>
+        <v>229</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -4768,7 +4795,7 @@
         <v>146</v>
       </c>
       <c r="F127" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H127" t="s">
         <v>152</v>
@@ -4776,13 +4803,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -4791,7 +4818,7 @@
         <v>146</v>
       </c>
       <c r="F128" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H128" t="s">
         <v>152</v>
@@ -4799,13 +4826,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>277</v>
+        <v>435</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>254</v>
+        <v>434</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -4814,7 +4841,7 @@
         <v>146</v>
       </c>
       <c r="F129" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H129" t="s">
         <v>152</v>
@@ -4822,13 +4849,13 @@
     </row>
     <row r="130" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>62</v>
+        <v>204</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>278</v>
+        <v>204</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -4837,21 +4864,21 @@
         <v>146</v>
       </c>
       <c r="F130" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H130" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>29</v>
+        <v>443</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
@@ -4860,7 +4887,7 @@
         <v>146</v>
       </c>
       <c r="F131" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H131" t="s">
         <v>152</v>
@@ -4868,13 +4895,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>64</v>
+        <v>248</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>29</v>
+        <v>249</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -4883,7 +4910,7 @@
         <v>146</v>
       </c>
       <c r="F132" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H132" t="s">
         <v>152</v>
@@ -4891,13 +4918,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>65</v>
+        <v>250</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>29</v>
+        <v>251</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -4906,7 +4933,7 @@
         <v>146</v>
       </c>
       <c r="F133" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H133" t="s">
         <v>152</v>
@@ -4914,13 +4941,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>213</v>
+        <v>275</v>
       </c>
       <c r="B134" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -4929,7 +4956,7 @@
         <v>146</v>
       </c>
       <c r="F134" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H134" t="s">
         <v>152</v>
@@ -4937,13 +4964,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>245</v>
+        <v>62</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>246</v>
+        <v>276</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -4952,7 +4979,7 @@
         <v>146</v>
       </c>
       <c r="F135" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H135" t="s">
         <v>152</v>
@@ -4960,13 +4987,13 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B136" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C136" s="6" t="s">
-        <v>255</v>
+        <v>29</v>
       </c>
       <c r="D136" t="s">
         <v>133</v>
@@ -4975,7 +5002,7 @@
         <v>146</v>
       </c>
       <c r="F136" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H136" t="s">
         <v>152</v>
@@ -4983,7 +5010,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>134</v>
@@ -4998,7 +5025,7 @@
         <v>146</v>
       </c>
       <c r="F137" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H137" t="s">
         <v>152</v>
@@ -5006,7 +5033,7 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>134</v>
@@ -5021,7 +5048,7 @@
         <v>146</v>
       </c>
       <c r="F138" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H138" t="s">
         <v>152</v>
@@ -5029,13 +5056,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>69</v>
+        <v>213</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -5044,7 +5071,7 @@
         <v>146</v>
       </c>
       <c r="F139" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H139" t="s">
         <v>152</v>
@@ -5052,13 +5079,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="B140" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -5067,7 +5094,7 @@
         <v>146</v>
       </c>
       <c r="F140" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H140" t="s">
         <v>152</v>
@@ -5075,13 +5102,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>259</v>
+        <v>66</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>260</v>
+        <v>253</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -5090,7 +5117,7 @@
         <v>146</v>
       </c>
       <c r="F141" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H141" t="s">
         <v>152</v>
@@ -5098,13 +5125,13 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>261</v>
+        <v>67</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C142" s="6" t="s">
-        <v>262</v>
+        <v>29</v>
       </c>
       <c r="D142" t="s">
         <v>133</v>
@@ -5113,7 +5140,7 @@
         <v>146</v>
       </c>
       <c r="F142" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H142" t="s">
         <v>152</v>
@@ -5121,13 +5148,13 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="B143" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C143" s="6" t="s">
-        <v>256</v>
+        <v>29</v>
       </c>
       <c r="D143" t="s">
         <v>133</v>
@@ -5136,7 +5163,7 @@
         <v>146</v>
       </c>
       <c r="F143" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H143" t="s">
         <v>152</v>
@@ -5144,7 +5171,7 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>134</v>
@@ -5159,7 +5186,7 @@
         <v>146</v>
       </c>
       <c r="F144" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H144" t="s">
         <v>152</v>
@@ -5167,13 +5194,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>72</v>
+        <v>255</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
@@ -5182,7 +5209,7 @@
         <v>146</v>
       </c>
       <c r="F145" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H145" t="s">
         <v>152</v>
@@ -5190,13 +5217,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>73</v>
+        <v>257</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>29</v>
+        <v>258</v>
       </c>
       <c r="D146" t="s">
         <v>133</v>
@@ -5205,7 +5232,7 @@
         <v>146</v>
       </c>
       <c r="F146" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H146" t="s">
         <v>152</v>
@@ -5213,13 +5240,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B147" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="D147" t="s">
         <v>133</v>
@@ -5228,7 +5255,7 @@
         <v>146</v>
       </c>
       <c r="F147" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H147" t="s">
         <v>152</v>
@@ -5236,13 +5263,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>264</v>
+        <v>70</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>265</v>
+        <v>254</v>
       </c>
       <c r="D148" t="s">
         <v>133</v>
@@ -5251,7 +5278,7 @@
         <v>146</v>
       </c>
       <c r="F148" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H148" t="s">
         <v>152</v>
@@ -5259,13 +5286,13 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>212</v>
+        <v>71</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C149" s="6" t="s">
-        <v>181</v>
+        <v>29</v>
       </c>
       <c r="D149" t="s">
         <v>133</v>
@@ -5274,7 +5301,7 @@
         <v>146</v>
       </c>
       <c r="F149" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H149" t="s">
         <v>152</v>
@@ -5282,13 +5309,13 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>266</v>
+        <v>72</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C150" s="6" t="s">
-        <v>267</v>
+        <v>29</v>
       </c>
       <c r="D150" t="s">
         <v>133</v>
@@ -5297,7 +5324,7 @@
         <v>146</v>
       </c>
       <c r="F150" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H150" t="s">
         <v>152</v>
@@ -5305,13 +5332,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>268</v>
+        <v>73</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>269</v>
+        <v>29</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -5320,7 +5347,7 @@
         <v>146</v>
       </c>
       <c r="F151" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H151" t="s">
         <v>152</v>
@@ -5328,13 +5355,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>75</v>
+        <v>268</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -5343,7 +5370,7 @@
         <v>146</v>
       </c>
       <c r="F152" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H152" t="s">
         <v>152</v>
@@ -5351,13 +5378,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>210</v>
+        <v>262</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>240</v>
+        <v>263</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -5366,7 +5393,7 @@
         <v>146</v>
       </c>
       <c r="F153" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H153" t="s">
         <v>152</v>
@@ -5374,13 +5401,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>241</v>
+        <v>212</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -5389,21 +5416,21 @@
         <v>146</v>
       </c>
       <c r="F154" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H154" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="155" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>74</v>
+        <v>264</v>
       </c>
       <c r="B155" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -5412,7 +5439,7 @@
         <v>146</v>
       </c>
       <c r="F155" s="5" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H155" t="s">
         <v>152</v>
@@ -5420,13 +5447,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>428</v>
+        <v>266</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>428</v>
+        <v>267</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -5434,20 +5461,22 @@
       <c r="E156" t="s">
         <v>146</v>
       </c>
-      <c r="F156" s="5"/>
+      <c r="F156" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="H156" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B157" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>429</v>
+        <v>245</v>
       </c>
       <c r="D157" t="s">
         <v>133</v>
@@ -5455,233 +5484,246 @@
       <c r="E157" t="s">
         <v>146</v>
       </c>
+      <c r="F157" s="5" t="s">
+        <v>272</v>
+      </c>
       <c r="H157" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A158" s="6"/>
-      <c r="B158" s="6"/>
-      <c r="C158" s="6"/>
+      <c r="A158" s="6" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C158" s="6" t="s">
+        <v>238</v>
+      </c>
+      <c r="D158" t="s">
+        <v>133</v>
+      </c>
+      <c r="E158" t="s">
+        <v>146</v>
+      </c>
+      <c r="F158" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H158" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="159" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A159" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B159" s="5"/>
-      <c r="C159" s="5"/>
-    </row>
-    <row r="160" spans="1:8" ht="210" x14ac:dyDescent="0.25">
-      <c r="A160" s="8" t="s">
-        <v>79</v>
+      <c r="A159" s="6" t="s">
+        <v>239</v>
+      </c>
+      <c r="B159" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C159" s="6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D159" t="s">
+        <v>133</v>
+      </c>
+      <c r="E159" t="s">
+        <v>146</v>
+      </c>
+      <c r="F159" s="5" t="s">
+        <v>272</v>
+      </c>
+      <c r="H159" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A160" s="6" t="s">
+        <v>74</v>
       </c>
       <c r="B160" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C160" s="9" t="s">
-        <v>427</v>
+      <c r="C160" s="6" t="s">
+        <v>269</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
       </c>
       <c r="E160" t="s">
-        <v>147</v>
+        <v>146</v>
+      </c>
+      <c r="F160" s="5" t="s">
+        <v>272</v>
       </c>
       <c r="H160" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A161" s="8" t="s">
-        <v>80</v>
+      <c r="A161" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C161" s="9" t="s">
-        <v>143</v>
+        <v>134</v>
+      </c>
+      <c r="C161" s="6" t="s">
+        <v>426</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
       </c>
       <c r="E161" t="s">
-        <v>147</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="F161" s="5"/>
       <c r="H161" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="162" spans="1:8" ht="180" x14ac:dyDescent="0.25">
-      <c r="A162" s="8" t="s">
-        <v>81</v>
+    <row r="162" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A162" s="6" t="s">
+        <v>76</v>
       </c>
       <c r="B162" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="9" t="s">
-        <v>292</v>
+      <c r="C162" s="6" t="s">
+        <v>427</v>
       </c>
       <c r="D162" t="s">
         <v>133</v>
       </c>
       <c r="E162" t="s">
+        <v>146</v>
+      </c>
+      <c r="H162" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="6"/>
+      <c r="B163" s="6"/>
+      <c r="C163" s="6"/>
+    </row>
+    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A164" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B164" s="5"/>
+      <c r="C164" s="5"/>
+    </row>
+    <row r="165" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A165" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C165" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D165" t="s">
+        <v>133</v>
+      </c>
+      <c r="E165" t="s">
         <v>147</v>
       </c>
-      <c r="H162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="8" t="s">
+      <c r="H165" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A166" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C166" s="9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D166" t="s">
+        <v>133</v>
+      </c>
+      <c r="E166" t="s">
+        <v>147</v>
+      </c>
+      <c r="H166" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="167" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+      <c r="A167" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B167" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C167" s="9" t="s">
+        <v>290</v>
+      </c>
+      <c r="D167" t="s">
+        <v>133</v>
+      </c>
+      <c r="E167" t="s">
+        <v>147</v>
+      </c>
+      <c r="H167" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A168" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="B163" s="6" t="s">
+      <c r="B168" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C163" s="9" t="s">
+      <c r="C168" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="D163" t="s">
-        <v>133</v>
-      </c>
-      <c r="E163" t="s">
+      <c r="D168" t="s">
+        <v>133</v>
+      </c>
+      <c r="E168" t="s">
         <v>147</v>
       </c>
-      <c r="H163" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="1"/>
-      <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-      <c r="D164" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A165" s="3" t="s">
+      <c r="H168" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="169" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A169" s="1"/>
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+      <c r="D169" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="170" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A170" s="3" t="s">
         <v>83</v>
       </c>
-      <c r="B165" s="4"/>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A166" s="3" t="s">
+      <c r="B170" s="4"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A171" s="3" t="s">
         <v>84</v>
       </c>
-      <c r="B166" s="4"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A167" s="6" t="s">
-        <v>296</v>
-      </c>
-      <c r="B167" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C167" s="6" t="s">
+      <c r="B171" s="4"/>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A172" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B172" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C172" s="6" t="s">
         <v>86</v>
-      </c>
-      <c r="D167" t="s">
-        <v>133</v>
-      </c>
-      <c r="E167" t="s">
-        <v>148</v>
-      </c>
-      <c r="H167" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="6" t="s">
-        <v>297</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C168" s="6" t="s">
-        <v>298</v>
-      </c>
-      <c r="D168" t="s">
-        <v>133</v>
-      </c>
-      <c r="E168" t="s">
-        <v>148</v>
-      </c>
-      <c r="H168" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="169" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A169" s="6" t="s">
-        <v>299</v>
-      </c>
-      <c r="B169" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C169" s="6" t="s">
-        <v>300</v>
-      </c>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
-      <c r="E169" t="s">
-        <v>148</v>
-      </c>
-      <c r="H169" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="170" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A170" s="6" t="s">
-        <v>301</v>
-      </c>
-      <c r="B170" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C170" s="6" t="s">
-        <v>302</v>
-      </c>
-      <c r="D170" t="s">
-        <v>133</v>
-      </c>
-      <c r="E170" t="s">
-        <v>148</v>
-      </c>
-      <c r="H170" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="6" t="s">
-        <v>303</v>
-      </c>
-      <c r="B171" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C171" s="6" t="s">
-        <v>304</v>
-      </c>
-      <c r="D171" t="s">
-        <v>133</v>
-      </c>
-      <c r="E171" t="s">
-        <v>148</v>
-      </c>
-      <c r="H171" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="172" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A172" s="6" t="s">
-        <v>85</v>
-      </c>
-      <c r="B172" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C172" s="6" t="s">
-        <v>295</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
@@ -5695,13 +5737,13 @@
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>306</v>
+        <v>295</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>307</v>
+        <v>296</v>
       </c>
       <c r="D173" t="s">
         <v>133</v>
@@ -5713,15 +5755,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>308</v>
+        <v>297</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>309</v>
+        <v>298</v>
       </c>
       <c r="D174" t="s">
         <v>133</v>
@@ -5735,253 +5777,253 @@
     </row>
     <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B175" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C175" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="D175" t="s">
+        <v>133</v>
+      </c>
+      <c r="E175" t="s">
+        <v>148</v>
+      </c>
+      <c r="H175" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A176" s="6" t="s">
+        <v>301</v>
+      </c>
+      <c r="B176" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C176" s="6" t="s">
+        <v>302</v>
+      </c>
+      <c r="D176" t="s">
+        <v>133</v>
+      </c>
+      <c r="E176" t="s">
+        <v>148</v>
+      </c>
+      <c r="H176" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A177" s="6" t="s">
+        <v>85</v>
+      </c>
+      <c r="B177" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C177" s="6" t="s">
+        <v>293</v>
+      </c>
+      <c r="D177" t="s">
+        <v>133</v>
+      </c>
+      <c r="E177" t="s">
+        <v>148</v>
+      </c>
+      <c r="H177" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="178" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A178" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="B178" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C178" s="6" t="s">
+        <v>305</v>
+      </c>
+      <c r="D178" t="s">
+        <v>133</v>
+      </c>
+      <c r="E178" t="s">
+        <v>148</v>
+      </c>
+      <c r="H178" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A179" s="6" t="s">
+        <v>306</v>
+      </c>
+      <c r="B179" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C179" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="D179" t="s">
+        <v>133</v>
+      </c>
+      <c r="E179" t="s">
+        <v>148</v>
+      </c>
+      <c r="H179" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A180" s="6" t="s">
+        <v>308</v>
+      </c>
+      <c r="B180" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C180" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="D180" t="s">
+        <v>133</v>
+      </c>
+      <c r="E180" t="s">
+        <v>148</v>
+      </c>
+      <c r="H180" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A181" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="B181" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C181" s="6" t="s">
+        <v>303</v>
+      </c>
+      <c r="D181" t="s">
+        <v>133</v>
+      </c>
+      <c r="E181" t="s">
+        <v>148</v>
+      </c>
+      <c r="H181" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A182" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="B182" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C182" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D182" t="s">
+        <v>133</v>
+      </c>
+      <c r="E182" t="s">
+        <v>148</v>
+      </c>
+      <c r="H182" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A183" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="B183" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C183" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D183" t="s">
+        <v>133</v>
+      </c>
+      <c r="E183" t="s">
+        <v>148</v>
+      </c>
+      <c r="H183" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A184" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="B184" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C184" s="6" t="s">
+        <v>436</v>
+      </c>
+      <c r="D184" t="s">
+        <v>133</v>
+      </c>
+      <c r="E184" t="s">
+        <v>148</v>
+      </c>
+      <c r="H184" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="185" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A185" s="6" t="s">
+        <v>311</v>
+      </c>
+      <c r="B185" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C185" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="D185" t="s">
+        <v>133</v>
+      </c>
+      <c r="E185" t="s">
+        <v>148</v>
+      </c>
+      <c r="H185" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A186" s="6" t="s">
+        <v>313</v>
+      </c>
+      <c r="B186" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C186" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="D186" t="s">
+        <v>133</v>
+      </c>
+      <c r="E186" t="s">
+        <v>148</v>
+      </c>
+      <c r="H186" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A187" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="B187" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C187" s="6" t="s">
         <v>310</v>
-      </c>
-      <c r="B175" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C175" s="6" t="s">
-        <v>311</v>
-      </c>
-      <c r="D175" t="s">
-        <v>133</v>
-      </c>
-      <c r="E175" t="s">
-        <v>148</v>
-      </c>
-      <c r="H175" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="176" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A176" s="6" t="s">
-        <v>87</v>
-      </c>
-      <c r="B176" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C176" s="6" t="s">
-        <v>305</v>
-      </c>
-      <c r="D176" t="s">
-        <v>133</v>
-      </c>
-      <c r="E176" t="s">
-        <v>148</v>
-      </c>
-      <c r="H176" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A177" s="6" t="s">
-        <v>88</v>
-      </c>
-      <c r="B177" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C177" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D177" t="s">
-        <v>133</v>
-      </c>
-      <c r="E177" t="s">
-        <v>148</v>
-      </c>
-      <c r="H177" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="178" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A178" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="B178" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C178" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D178" t="s">
-        <v>133</v>
-      </c>
-      <c r="E178" t="s">
-        <v>148</v>
-      </c>
-      <c r="H178" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A179" s="6" t="s">
-        <v>90</v>
-      </c>
-      <c r="B179" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C179" s="6" t="s">
-        <v>438</v>
-      </c>
-      <c r="D179" t="s">
-        <v>133</v>
-      </c>
-      <c r="E179" t="s">
-        <v>148</v>
-      </c>
-      <c r="H179" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="180" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A180" s="6" t="s">
-        <v>313</v>
-      </c>
-      <c r="B180" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C180" s="6" t="s">
-        <v>314</v>
-      </c>
-      <c r="D180" t="s">
-        <v>133</v>
-      </c>
-      <c r="E180" t="s">
-        <v>148</v>
-      </c>
-      <c r="H180" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A181" s="6" t="s">
-        <v>315</v>
-      </c>
-      <c r="B181" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C181" s="6" t="s">
-        <v>316</v>
-      </c>
-      <c r="D181" t="s">
-        <v>133</v>
-      </c>
-      <c r="E181" t="s">
-        <v>148</v>
-      </c>
-      <c r="H181" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A182" s="6" t="s">
-        <v>91</v>
-      </c>
-      <c r="B182" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C182" s="6" t="s">
-        <v>312</v>
-      </c>
-      <c r="D182" t="s">
-        <v>133</v>
-      </c>
-      <c r="E182" t="s">
-        <v>148</v>
-      </c>
-      <c r="H182" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="183" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A183" s="6" t="s">
-        <v>317</v>
-      </c>
-      <c r="B183" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C183" s="6" t="s">
-        <v>318</v>
-      </c>
-      <c r="D183" t="s">
-        <v>133</v>
-      </c>
-      <c r="E183" t="s">
-        <v>148</v>
-      </c>
-      <c r="H183" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A184" s="6" t="s">
-        <v>319</v>
-      </c>
-      <c r="B184" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C184" s="6" t="s">
-        <v>320</v>
-      </c>
-      <c r="D184" t="s">
-        <v>133</v>
-      </c>
-      <c r="E184" t="s">
-        <v>148</v>
-      </c>
-      <c r="H184" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="185" spans="1:8" ht="45" x14ac:dyDescent="0.25">
-      <c r="A185" s="6" t="s">
-        <v>321</v>
-      </c>
-      <c r="B185" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C185" s="6" t="s">
-        <v>322</v>
-      </c>
-      <c r="D185" t="s">
-        <v>133</v>
-      </c>
-      <c r="E185" t="s">
-        <v>148</v>
-      </c>
-      <c r="H185" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A186" s="6" t="s">
-        <v>323</v>
-      </c>
-      <c r="B186" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C186" s="6" t="s">
-        <v>324</v>
-      </c>
-      <c r="D186" t="s">
-        <v>133</v>
-      </c>
-      <c r="E186" t="s">
-        <v>148</v>
-      </c>
-      <c r="H186" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A187" s="6" t="s">
-        <v>325</v>
-      </c>
-      <c r="B187" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C187" s="6" t="s">
-        <v>326</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
@@ -5995,13 +6037,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>327</v>
+        <v>315</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>328</v>
+        <v>316</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
@@ -6015,13 +6057,13 @@
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>329</v>
+        <v>317</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>330</v>
+        <v>318</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
@@ -6033,15 +6075,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>331</v>
+        <v>319</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>332</v>
+        <v>320</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
@@ -6053,15 +6095,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>333</v>
+        <v>321</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>334</v>
+        <v>322</v>
       </c>
       <c r="D191" t="s">
         <v>133</v>
@@ -6075,13 +6117,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>335</v>
+        <v>323</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>336</v>
+        <v>324</v>
       </c>
       <c r="D192" t="s">
         <v>133</v>
@@ -6095,13 +6137,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>337</v>
+        <v>325</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>338</v>
+        <v>326</v>
       </c>
       <c r="D193" t="s">
         <v>133</v>
@@ -6115,13 +6157,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>339</v>
+        <v>327</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>340</v>
+        <v>328</v>
       </c>
       <c r="D194" t="s">
         <v>133</v>
@@ -6133,15 +6175,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="195" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>341</v>
+        <v>329</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>342</v>
+        <v>330</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
@@ -6155,13 +6197,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>343</v>
+        <v>331</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>344</v>
+        <v>332</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
@@ -6175,13 +6217,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>345</v>
+        <v>333</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>346</v>
+        <v>334</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
@@ -6195,13 +6237,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>468</v>
+        <v>335</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>467</v>
+        <v>336</v>
       </c>
       <c r="D198" t="s">
         <v>133</v>
@@ -6215,13 +6257,13 @@
     </row>
     <row r="199" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>474</v>
+        <v>337</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>475</v>
+        <v>338</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
@@ -6235,13 +6277,13 @@
     </row>
     <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>476</v>
+        <v>339</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>477</v>
+        <v>340</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
@@ -6255,13 +6297,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>478</v>
+        <v>341</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>479</v>
+        <v>342</v>
       </c>
       <c r="D201" t="s">
         <v>133</v>
@@ -6275,13 +6317,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>480</v>
+        <v>343</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>481</v>
+        <v>344</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
@@ -6293,15 +6335,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="203" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>482</v>
+        <v>466</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>483</v>
+        <v>465</v>
       </c>
       <c r="D203" t="s">
         <v>133</v>
@@ -6315,13 +6357,13 @@
     </row>
     <row r="204" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>484</v>
+        <v>472</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>485</v>
+        <v>473</v>
       </c>
       <c r="D204" t="s">
         <v>133</v>
@@ -6333,15 +6375,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>486</v>
+        <v>474</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>487</v>
+        <v>475</v>
       </c>
       <c r="D205" t="s">
         <v>133</v>
@@ -6353,15 +6395,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="206" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>488</v>
+        <v>476</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>489</v>
+        <v>477</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
@@ -6375,13 +6417,13 @@
     </row>
     <row r="207" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>490</v>
+        <v>478</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>491</v>
+        <v>479</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
@@ -6395,13 +6437,13 @@
     </row>
     <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>492</v>
+        <v>480</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>493</v>
+        <v>481</v>
       </c>
       <c r="D208" t="s">
         <v>133</v>
@@ -6413,15 +6455,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="209" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>494</v>
+        <v>482</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>495</v>
+        <v>483</v>
       </c>
       <c r="D209" t="s">
         <v>133</v>
@@ -6433,15 +6475,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>92</v>
+        <v>484</v>
       </c>
       <c r="B210" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>496</v>
+        <v>485</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -6453,15 +6495,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>93</v>
+        <v>486</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>29</v>
+        <v>487</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -6475,13 +6517,13 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>347</v>
+        <v>488</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>348</v>
+        <v>489</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -6493,15 +6535,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>349</v>
+        <v>490</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>350</v>
+        <v>491</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -6513,15 +6555,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>351</v>
+        <v>492</v>
       </c>
       <c r="B214" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>352</v>
+        <v>493</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -6533,15 +6575,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>432</v>
+        <v>92</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>95</v>
+        <v>494</v>
       </c>
       <c r="D215" t="s">
         <v>133</v>
@@ -6555,13 +6597,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>353</v>
+        <v>93</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>354</v>
+        <v>29</v>
       </c>
       <c r="D216" t="s">
         <v>133</v>
@@ -6573,15 +6615,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="217" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>94</v>
+        <v>345</v>
       </c>
       <c r="B217" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>433</v>
+        <v>346</v>
       </c>
       <c r="D217" t="s">
         <v>133</v>
@@ -6595,13 +6637,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>99</v>
+        <v>347</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>355</v>
+        <v>348</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -6613,15 +6655,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="219" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>100</v>
+        <v>349</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>29</v>
+        <v>350</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
@@ -6633,15 +6675,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="220" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>101</v>
+        <v>430</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>29</v>
+        <v>95</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
@@ -6655,13 +6697,13 @@
     </row>
     <row r="221" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>102</v>
+        <v>351</v>
       </c>
       <c r="B221" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>29</v>
+        <v>352</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -6673,15 +6715,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>29</v>
+        <v>431</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
@@ -6693,15 +6735,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>357</v>
+        <v>99</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
@@ -6715,13 +6757,13 @@
     </row>
     <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>359</v>
+        <v>100</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C224" s="6" t="s">
-        <v>360</v>
+        <v>29</v>
       </c>
       <c r="D224" t="s">
         <v>133</v>
@@ -6733,15 +6775,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>361</v>
+        <v>101</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C225" s="6" t="s">
-        <v>362</v>
+        <v>29</v>
       </c>
       <c r="D225" t="s">
         <v>133</v>
@@ -6755,13 +6797,13 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>363</v>
+        <v>102</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C226" s="6" t="s">
-        <v>364</v>
+        <v>29</v>
       </c>
       <c r="D226" t="s">
         <v>133</v>
@@ -6773,15 +6815,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="227" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B227" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>356</v>
+        <v>29</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -6795,13 +6837,13 @@
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>366</v>
+        <v>355</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -6813,15 +6855,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>369</v>
+        <v>358</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -6835,13 +6877,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>371</v>
+        <v>360</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -6853,115 +6895,115 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
+        <v>361</v>
+      </c>
+      <c r="B231" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C231" s="6" t="s">
+        <v>362</v>
+      </c>
+      <c r="D231" t="s">
+        <v>133</v>
+      </c>
+      <c r="E231" t="s">
+        <v>148</v>
+      </c>
+      <c r="H231" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+      <c r="A232" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="B232" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C232" s="6" t="s">
+        <v>354</v>
+      </c>
+      <c r="D232" t="s">
+        <v>133</v>
+      </c>
+      <c r="E232" t="s">
+        <v>148</v>
+      </c>
+      <c r="H232" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A233" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="B233" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C233" s="6" t="s">
+        <v>365</v>
+      </c>
+      <c r="D233" t="s">
+        <v>133</v>
+      </c>
+      <c r="E233" t="s">
+        <v>148</v>
+      </c>
+      <c r="H233" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="234" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A234" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="B234" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C234" s="6" t="s">
+        <v>367</v>
+      </c>
+      <c r="D234" t="s">
+        <v>133</v>
+      </c>
+      <c r="E234" t="s">
+        <v>148</v>
+      </c>
+      <c r="H234" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A235" s="6" t="s">
+        <v>368</v>
+      </c>
+      <c r="B235" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C235" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="D235" t="s">
+        <v>133</v>
+      </c>
+      <c r="E235" t="s">
+        <v>148</v>
+      </c>
+      <c r="H235" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A236" s="6" t="s">
         <v>105</v>
       </c>
-      <c r="B231" s="6" t="s">
+      <c r="B236" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C231" s="6" t="s">
-        <v>365</v>
-      </c>
-      <c r="D231" t="s">
-        <v>133</v>
-      </c>
-      <c r="E231" t="s">
-        <v>148</v>
-      </c>
-      <c r="H231" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="232" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A232" s="6" t="s">
-        <v>373</v>
-      </c>
-      <c r="B232" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C232" s="6" t="s">
-        <v>374</v>
-      </c>
-      <c r="D232" t="s">
-        <v>133</v>
-      </c>
-      <c r="E232" t="s">
-        <v>148</v>
-      </c>
-      <c r="H232" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A233" s="6" t="s">
-        <v>375</v>
-      </c>
-      <c r="B233" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C233" s="6" t="s">
-        <v>376</v>
-      </c>
-      <c r="D233" t="s">
-        <v>133</v>
-      </c>
-      <c r="E233" t="s">
-        <v>148</v>
-      </c>
-      <c r="H233" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="234" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A234" s="6" t="s">
-        <v>377</v>
-      </c>
-      <c r="B234" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C234" s="6" t="s">
-        <v>378</v>
-      </c>
-      <c r="D234" t="s">
-        <v>133</v>
-      </c>
-      <c r="E234" t="s">
-        <v>148</v>
-      </c>
-      <c r="H234" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A235" s="6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B235" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C235" s="6" t="s">
-        <v>372</v>
-      </c>
-      <c r="D235" t="s">
-        <v>133</v>
-      </c>
-      <c r="E235" t="s">
-        <v>148</v>
-      </c>
-      <c r="H235" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A236" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="B236" s="6" t="s">
-        <v>134</v>
-      </c>
       <c r="C236" s="6" t="s">
-        <v>29</v>
+        <v>363</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
@@ -6975,13 +7017,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>108</v>
+        <v>371</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>29</v>
+        <v>372</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -6995,13 +7037,13 @@
     </row>
     <row r="238" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>109</v>
+        <v>373</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>379</v>
+        <v>374</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -7013,15 +7055,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="239" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>110</v>
+        <v>375</v>
       </c>
       <c r="B239" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>29</v>
+        <v>376</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -7033,15 +7075,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>381</v>
+        <v>106</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>382</v>
+        <v>370</v>
       </c>
       <c r="D240" t="s">
         <v>133</v>
@@ -7055,13 +7097,13 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>383</v>
+        <v>107</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C241" s="6" t="s">
-        <v>384</v>
+        <v>29</v>
       </c>
       <c r="D241" t="s">
         <v>133</v>
@@ -7075,13 +7117,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>385</v>
+        <v>108</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>386</v>
+        <v>29</v>
       </c>
       <c r="D242" t="s">
         <v>133</v>
@@ -7095,13 +7137,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>387</v>
+        <v>109</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>388</v>
+        <v>377</v>
       </c>
       <c r="D243" t="s">
         <v>133</v>
@@ -7113,15 +7155,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="244" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B244" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>380</v>
+        <v>29</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7135,13 +7177,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>112</v>
+        <v>379</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>389</v>
+        <v>380</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7153,15 +7195,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="246" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>390</v>
+        <v>381</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>391</v>
+        <v>382</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7173,15 +7215,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="247" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>392</v>
+        <v>383</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>393</v>
+        <v>384</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7193,15 +7235,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>394</v>
+        <v>385</v>
       </c>
       <c r="B248" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>395</v>
+        <v>386</v>
       </c>
       <c r="D248" t="s">
         <v>133</v>
@@ -7215,133 +7257,133 @@
     </row>
     <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="B249" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C249" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D249" t="s">
+        <v>133</v>
+      </c>
+      <c r="E249" t="s">
+        <v>148</v>
+      </c>
+      <c r="H249" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A250" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="B250" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C250" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="D250" t="s">
+        <v>133</v>
+      </c>
+      <c r="E250" t="s">
+        <v>148</v>
+      </c>
+      <c r="H250" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A251" s="6" t="s">
+        <v>388</v>
+      </c>
+      <c r="B251" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C251" s="6" t="s">
+        <v>389</v>
+      </c>
+      <c r="D251" t="s">
+        <v>133</v>
+      </c>
+      <c r="E251" t="s">
+        <v>148</v>
+      </c>
+      <c r="H251" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A252" s="6" t="s">
+        <v>390</v>
+      </c>
+      <c r="B252" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C252" s="6" t="s">
+        <v>391</v>
+      </c>
+      <c r="D252" t="s">
+        <v>133</v>
+      </c>
+      <c r="E252" t="s">
+        <v>148</v>
+      </c>
+      <c r="H252" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A253" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="B253" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C253" s="6" t="s">
+        <v>393</v>
+      </c>
+      <c r="D253" t="s">
+        <v>133</v>
+      </c>
+      <c r="E253" t="s">
+        <v>148</v>
+      </c>
+      <c r="H253" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A254" s="6" t="s">
+        <v>394</v>
+      </c>
+      <c r="B254" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C254" s="6" t="s">
+        <v>395</v>
+      </c>
+      <c r="D254" t="s">
+        <v>133</v>
+      </c>
+      <c r="E254" t="s">
+        <v>148</v>
+      </c>
+      <c r="H254" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A255" s="6" t="s">
         <v>396</v>
       </c>
-      <c r="B249" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C249" s="6" t="s">
+      <c r="B255" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C255" s="6" t="s">
         <v>397</v>
-      </c>
-      <c r="D249" t="s">
-        <v>133</v>
-      </c>
-      <c r="E249" t="s">
-        <v>148</v>
-      </c>
-      <c r="H249" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="A250" s="6" t="s">
-        <v>398</v>
-      </c>
-      <c r="B250" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C250" s="6" t="s">
-        <v>399</v>
-      </c>
-      <c r="D250" t="s">
-        <v>133</v>
-      </c>
-      <c r="E250" t="s">
-        <v>148</v>
-      </c>
-      <c r="H250" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="251" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A251" s="6" t="s">
-        <v>400</v>
-      </c>
-      <c r="B251" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C251" s="6" t="s">
-        <v>401</v>
-      </c>
-      <c r="D251" t="s">
-        <v>133</v>
-      </c>
-      <c r="E251" t="s">
-        <v>148</v>
-      </c>
-      <c r="H251" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="252" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A252" s="6" t="s">
-        <v>440</v>
-      </c>
-      <c r="B252" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C252" s="6" t="s">
-        <v>439</v>
-      </c>
-      <c r="D252" t="s">
-        <v>133</v>
-      </c>
-      <c r="E252" t="s">
-        <v>148</v>
-      </c>
-      <c r="H252" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="253" spans="1:8" ht="75" x14ac:dyDescent="0.25">
-      <c r="A253" s="6" t="s">
-        <v>113</v>
-      </c>
-      <c r="B253" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C253" s="6" t="s">
-        <v>441</v>
-      </c>
-      <c r="D253" t="s">
-        <v>133</v>
-      </c>
-      <c r="E253" t="s">
-        <v>148</v>
-      </c>
-      <c r="H253" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="254" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A254" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B254" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C254" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D254" t="s">
-        <v>133</v>
-      </c>
-      <c r="E254" t="s">
-        <v>148</v>
-      </c>
-      <c r="H254" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A255" s="6" t="s">
-        <v>115</v>
-      </c>
-      <c r="B255" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C255" s="6" t="s">
-        <v>29</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
@@ -7355,13 +7397,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>116</v>
+        <v>398</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>29</v>
+        <v>399</v>
       </c>
       <c r="D256" t="s">
         <v>133</v>
@@ -7375,13 +7417,13 @@
     </row>
     <row r="257" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>402</v>
+        <v>438</v>
       </c>
       <c r="B257" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>403</v>
+        <v>437</v>
       </c>
       <c r="D257" t="s">
         <v>133</v>
@@ -7393,15 +7435,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>404</v>
+        <v>113</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>405</v>
+        <v>439</v>
       </c>
       <c r="D258" t="s">
         <v>133</v>
@@ -7413,15 +7455,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="259" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>447</v>
+        <v>114</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C259" s="6" t="s">
-        <v>446</v>
+        <v>29</v>
       </c>
       <c r="D259" t="s">
         <v>133</v>
@@ -7433,15 +7475,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="260" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B260" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C260" s="6" t="s">
-        <v>448</v>
+        <v>29</v>
       </c>
       <c r="D260" t="s">
         <v>133</v>
@@ -7455,13 +7497,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>96</v>
+        <v>116</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
@@ -7475,13 +7517,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>97</v>
+        <v>400</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -7495,13 +7537,13 @@
     </row>
     <row r="263" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>98</v>
+        <v>402</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -7513,15 +7555,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="264" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>118</v>
+        <v>445</v>
       </c>
       <c r="B264" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>29</v>
+        <v>444</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -7533,15 +7575,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>149</v>
+        <v>117</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>410</v>
+        <v>446</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
@@ -7555,13 +7597,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>411</v>
+        <v>96</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="D266" t="s">
         <v>133</v>
@@ -7575,13 +7617,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>413</v>
+        <v>97</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>150</v>
+        <v>405</v>
       </c>
       <c r="D267" t="s">
         <v>133</v>
@@ -7595,13 +7637,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>414</v>
+        <v>98</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>415</v>
+        <v>406</v>
       </c>
       <c r="D268" t="s">
         <v>133</v>
@@ -7613,15 +7655,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="269" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B269" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>409</v>
+        <v>29</v>
       </c>
       <c r="D269" t="s">
         <v>133</v>
@@ -7635,13 +7677,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>120</v>
+        <v>149</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="D270" t="s">
         <v>133</v>
@@ -7653,15 +7695,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="271" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>121</v>
+        <v>409</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>29</v>
+        <v>410</v>
       </c>
       <c r="D271" t="s">
         <v>133</v>
@@ -7675,13 +7717,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>122</v>
+        <v>411</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>29</v>
+        <v>150</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -7695,13 +7737,13 @@
     </row>
     <row r="273" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>123</v>
+        <v>412</v>
       </c>
       <c r="B273" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>29</v>
+        <v>413</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -7713,15 +7755,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>417</v>
+        <v>119</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>418</v>
+        <v>407</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
@@ -7735,13 +7777,13 @@
     </row>
     <row r="275" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>419</v>
+        <v>120</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C275" s="6" t="s">
-        <v>420</v>
+        <v>29</v>
       </c>
       <c r="D275" t="s">
         <v>133</v>
@@ -7753,15 +7795,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>421</v>
+        <v>121</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C276" s="6" t="s">
-        <v>422</v>
+        <v>29</v>
       </c>
       <c r="D276" t="s">
         <v>133</v>
@@ -7773,15 +7815,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="277" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B277" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C277" s="6" t="s">
-        <v>416</v>
+        <v>29</v>
       </c>
       <c r="D277" t="s">
         <v>133</v>
@@ -7793,9 +7835,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="278" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
@@ -7813,15 +7855,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="279" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>130</v>
+        <v>415</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
@@ -7835,13 +7877,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>125</v>
+        <v>417</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>29</v>
+        <v>418</v>
       </c>
       <c r="D280" t="s">
         <v>133</v>
@@ -7855,13 +7897,13 @@
     </row>
     <row r="281" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>126</v>
+        <v>419</v>
       </c>
       <c r="B281" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>29</v>
+        <v>420</v>
       </c>
       <c r="D281" t="s">
         <v>133</v>
@@ -7873,15 +7915,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>29</v>
+        <v>414</v>
       </c>
       <c r="D282" t="s">
         <v>133</v>
@@ -7893,9 +7935,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>134</v>
@@ -7913,15 +7955,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B284" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C284" s="6" t="s">
-        <v>423</v>
+        <v>29</v>
       </c>
       <c r="D284" t="s">
         <v>133</v>
@@ -7933,15 +7975,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="285" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>449</v>
+        <v>125</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C285" s="6" t="s">
-        <v>450</v>
+        <v>29</v>
       </c>
       <c r="D285" t="s">
         <v>133</v>
@@ -7953,15 +7995,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="286" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>451</v>
+        <v>126</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C286" s="6" t="s">
-        <v>452</v>
+        <v>29</v>
       </c>
       <c r="D286" t="s">
         <v>133</v>
@@ -7975,13 +8017,13 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>453</v>
+        <v>127</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C287" s="6" t="s">
-        <v>454</v>
+        <v>29</v>
       </c>
       <c r="D287" t="s">
         <v>133</v>
@@ -7995,13 +8037,13 @@
     </row>
     <row r="288" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>455</v>
+        <v>128</v>
       </c>
       <c r="B288" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>456</v>
+        <v>29</v>
       </c>
       <c r="D288" t="s">
         <v>133</v>
@@ -8013,15 +8055,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>457</v>
+        <v>131</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>458</v>
+        <v>421</v>
       </c>
       <c r="D289" t="s">
         <v>133</v>
@@ -8035,13 +8077,13 @@
     </row>
     <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>459</v>
+        <v>447</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>460</v>
+        <v>448</v>
       </c>
       <c r="D290" t="s">
         <v>133</v>
@@ -8053,15 +8095,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>461</v>
+        <v>449</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>462</v>
+        <v>450</v>
       </c>
       <c r="D291" t="s">
         <v>133</v>
@@ -8073,15 +8115,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="292" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>463</v>
+        <v>451</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>464</v>
+        <v>452</v>
       </c>
       <c r="D292" t="s">
         <v>133</v>
@@ -8095,13 +8137,13 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>465</v>
+        <v>453</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>466</v>
+        <v>454</v>
       </c>
       <c r="D293" t="s">
         <v>133</v>
@@ -8114,22 +8156,122 @@
       </c>
     </row>
     <row r="294" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
+      <c r="A294" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="B294" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C294" s="6" t="s">
+        <v>456</v>
+      </c>
+      <c r="D294" t="s">
+        <v>133</v>
+      </c>
+      <c r="E294" t="s">
+        <v>148</v>
+      </c>
+      <c r="H294" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A295" s="6" t="s">
+        <v>457</v>
+      </c>
+      <c r="B295" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C295" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="D295" t="s">
+        <v>133</v>
+      </c>
+      <c r="E295" t="s">
+        <v>148</v>
+      </c>
+      <c r="H295" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A296" s="6" t="s">
+        <v>459</v>
+      </c>
+      <c r="B296" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C296" s="6" t="s">
+        <v>460</v>
+      </c>
+      <c r="D296" t="s">
+        <v>133</v>
+      </c>
+      <c r="E296" t="s">
+        <v>148</v>
+      </c>
+      <c r="H296" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="A297" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="B297" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C297" s="6" t="s">
+        <v>462</v>
+      </c>
+      <c r="D297" t="s">
+        <v>133</v>
+      </c>
+      <c r="E297" t="s">
+        <v>148</v>
+      </c>
+      <c r="H297" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="298" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A298" s="6" t="s">
+        <v>463</v>
+      </c>
+      <c r="B298" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C298" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="D298" t="s">
+        <v>133</v>
+      </c>
+      <c r="E298" t="s">
+        <v>148</v>
+      </c>
+      <c r="H298" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A299" s="1" t="s">
         <v>132</v>
       </c>
-      <c r="B294" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C294" s="11" t="s">
+      <c r="B299" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C299" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="D294" t="s">
-        <v>133</v>
-      </c>
-      <c r="E294" t="s">
-        <v>148</v>
-      </c>
-      <c r="H294" t="s">
+      <c r="D299" t="s">
+        <v>133</v>
+      </c>
+      <c r="E299" t="s">
+        <v>148</v>
+      </c>
+      <c r="H299" t="s">
         <v>151</v>
       </c>
     </row>

--- a/Config/Australia_Financial_Config.xlsx
+++ b/Config/Australia_Financial_Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BRADSOL123\PycharmProjects\MNS-Australia\MNS-Australia\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64CC8773-FF71-47D9-9966-8E56269B1BA2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D758BBA-68E2-4EDD-B0C1-9415BDAE6B82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-24120" yWindow="1245" windowWidth="24240" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,7 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$259</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$B$1:$B$258</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1883" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1876" uniqueCount="510">
   <si>
     <t>Field_Name</t>
   </si>
@@ -1551,19 +1551,13 @@
     <t>Cash_and_Cash_Equivalents+Restricted_bank_deposits</t>
   </si>
   <si>
-    <t>Loan to Subsidiaries</t>
-  </si>
-  <si>
-    <t>Loan_to_Subsidiaries</t>
-  </si>
-  <si>
-    <t>loans_and_advances+borrowings+loans_and_borrowings+Loan_to_Subsidiaries</t>
-  </si>
-  <si>
     <t>Trade_and_other_payables</t>
   </si>
   <si>
     <t>derivative_financial_instruments+lease_liabilities+other_non_current_liabilities+employee_benefits+employee_entitlements+Contract_and_refund_liabilities+Trade_and_other_payables</t>
+  </si>
+  <si>
+    <t>loans_and_advances+borrowings+loans_and_borrowings</t>
   </si>
 </sst>
 </file>
@@ -1976,10 +1970,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H299"/>
+  <dimension ref="A1:H298"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="C124" sqref="C124"/>
+    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3482,13 +3476,13 @@
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="6" t="s">
-        <v>508</v>
+        <v>39</v>
       </c>
       <c r="B69" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C69" s="6" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="D69" t="s">
         <v>133</v>
@@ -3503,15 +3497,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="70" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="6" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B70" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C70" s="6" t="s">
-        <v>509</v>
+        <v>29</v>
       </c>
       <c r="D70" t="s">
         <v>133</v>
@@ -3528,7 +3522,7 @@
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="6" t="s">
-        <v>40</v>
+        <v>422</v>
       </c>
       <c r="B71" s="6" t="s">
         <v>134</v>
@@ -3551,7 +3545,7 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="6" t="s">
-        <v>422</v>
+        <v>41</v>
       </c>
       <c r="B72" s="6" t="s">
         <v>134</v>
@@ -3574,7 +3568,7 @@
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="6" t="s">
-        <v>41</v>
+        <v>423</v>
       </c>
       <c r="B73" s="6" t="s">
         <v>134</v>
@@ -3597,13 +3591,13 @@
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A74" s="6" t="s">
-        <v>423</v>
+        <v>206</v>
       </c>
       <c r="B74" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C74" s="6" t="s">
-        <v>29</v>
+        <v>174</v>
       </c>
       <c r="D74" t="s">
         <v>133</v>
@@ -3620,13 +3614,13 @@
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="6" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="B75" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C75" s="6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="D75" t="s">
         <v>133</v>
@@ -3643,13 +3637,13 @@
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A76" s="6" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B76" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C76" s="6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D76" t="s">
         <v>133</v>
@@ -3666,13 +3660,13 @@
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A77" s="6" t="s">
-        <v>208</v>
+        <v>441</v>
       </c>
       <c r="B77" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C77" s="6" t="s">
-        <v>176</v>
+        <v>440</v>
       </c>
       <c r="D77" t="s">
         <v>133</v>
@@ -3687,15 +3681,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A78" s="6" t="s">
-        <v>441</v>
+        <v>42</v>
       </c>
       <c r="B78" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C78" s="6" t="s">
-        <v>440</v>
+        <v>442</v>
       </c>
       <c r="D78" t="s">
         <v>133</v>
@@ -3710,15 +3704,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="79" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A79" s="6" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B79" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C79" s="6" t="s">
-        <v>442</v>
+        <v>29</v>
       </c>
       <c r="D79" t="s">
         <v>133</v>
@@ -3735,13 +3729,13 @@
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B80" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C80" s="6" t="s">
-        <v>29</v>
+        <v>177</v>
       </c>
       <c r="D80" t="s">
         <v>133</v>
@@ -3758,7 +3752,7 @@
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A81" s="6" t="s">
-        <v>44</v>
+        <v>209</v>
       </c>
       <c r="B81" s="6" t="s">
         <v>134</v>
@@ -3781,13 +3775,13 @@
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A82" s="6" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B82" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C82" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="D82" t="s">
         <v>133</v>
@@ -3804,13 +3798,13 @@
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A83" s="6" t="s">
-        <v>210</v>
+        <v>285</v>
       </c>
       <c r="B83" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C83" s="6" t="s">
-        <v>179</v>
+        <v>198</v>
       </c>
       <c r="D83" t="s">
         <v>133</v>
@@ -3827,13 +3821,13 @@
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A84" s="6" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B84" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C84" s="6" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D84" t="s">
         <v>133</v>
@@ -3850,13 +3844,13 @@
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A85" s="6" t="s">
-        <v>286</v>
+        <v>211</v>
       </c>
       <c r="B85" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C85" s="6" t="s">
-        <v>199</v>
+        <v>180</v>
       </c>
       <c r="D85" t="s">
         <v>133</v>
@@ -3873,13 +3867,13 @@
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A86" s="6" t="s">
-        <v>211</v>
+        <v>277</v>
       </c>
       <c r="B86" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C86" s="6" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D86" t="s">
         <v>133</v>
@@ -3896,13 +3890,13 @@
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A87" s="6" t="s">
-        <v>277</v>
+        <v>212</v>
       </c>
       <c r="B87" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C87" s="6" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="D87" t="s">
         <v>133</v>
@@ -3919,13 +3913,13 @@
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A88" s="6" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="B88" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C88" s="6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D88" t="s">
         <v>133</v>
@@ -3940,15 +3934,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A89" s="6" t="s">
-        <v>213</v>
+        <v>45</v>
       </c>
       <c r="B89" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C89" s="6" t="s">
-        <v>182</v>
+        <v>287</v>
       </c>
       <c r="D89" t="s">
         <v>133</v>
@@ -3963,15 +3957,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="90" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A90" s="6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B90" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C90" s="6" t="s">
-        <v>287</v>
+        <v>47</v>
       </c>
       <c r="D90" t="s">
         <v>133</v>
@@ -3979,55 +3973,55 @@
       <c r="E90" t="s">
         <v>145</v>
       </c>
-      <c r="F90" s="5" t="s">
-        <v>220</v>
-      </c>
+      <c r="F90" s="5"/>
       <c r="H90" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A91" s="6" t="s">
-        <v>46</v>
-      </c>
-      <c r="B91" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C91" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="D91" t="s">
-        <v>133</v>
-      </c>
-      <c r="E91" t="s">
-        <v>145</v>
-      </c>
-      <c r="F91" s="5"/>
-      <c r="H91" t="s">
-        <v>152</v>
-      </c>
+      <c r="A91" s="5"/>
+      <c r="B91" s="5"/>
+      <c r="C91" s="5"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A92" s="5"/>
+      <c r="A92" s="7" t="s">
+        <v>48</v>
+      </c>
       <c r="B92" s="5"/>
       <c r="C92" s="5"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A93" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="B93" s="5"/>
-      <c r="C93" s="5"/>
+      <c r="A93" s="6" t="s">
+        <v>221</v>
+      </c>
+      <c r="B93" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C93" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="D93" t="s">
+        <v>133</v>
+      </c>
+      <c r="E93" t="s">
+        <v>146</v>
+      </c>
+      <c r="F93" s="5" t="s">
+        <v>270</v>
+      </c>
+      <c r="H93" t="s">
+        <v>152</v>
+      </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A94" s="6" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
       <c r="B94" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C94" s="6" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="D94" t="s">
         <v>133</v>
@@ -4044,13 +4038,13 @@
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A95" s="6" t="s">
-        <v>273</v>
+        <v>224</v>
       </c>
       <c r="B95" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C95" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="D95" t="s">
         <v>133</v>
@@ -4067,13 +4061,13 @@
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A96" s="6" t="s">
-        <v>224</v>
+        <v>49</v>
       </c>
       <c r="B96" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C96" s="6" t="s">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="D96" t="s">
         <v>133</v>
@@ -4090,13 +4084,13 @@
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A97" s="6" t="s">
-        <v>49</v>
+        <v>78</v>
       </c>
       <c r="B97" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C97" s="6" t="s">
-        <v>274</v>
+        <v>226</v>
       </c>
       <c r="D97" t="s">
         <v>133</v>
@@ -4113,13 +4107,13 @@
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A98" s="6" t="s">
-        <v>78</v>
+        <v>501</v>
       </c>
       <c r="B98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C98" s="6" t="s">
-        <v>226</v>
+        <v>500</v>
       </c>
       <c r="D98" t="s">
         <v>133</v>
@@ -4136,13 +4130,13 @@
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A99" s="6" t="s">
-        <v>501</v>
+        <v>50</v>
       </c>
       <c r="B99" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C99" s="6" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="D99" t="s">
         <v>133</v>
@@ -4159,13 +4153,13 @@
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A100" s="6" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B100" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C100" s="6" t="s">
-        <v>502</v>
+        <v>29</v>
       </c>
       <c r="D100" t="s">
         <v>133</v>
@@ -4180,9 +4174,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A101" s="6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="B101" s="6" t="s">
         <v>134</v>
@@ -4205,7 +4199,7 @@
     </row>
     <row r="102" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A102" s="6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B102" s="6" t="s">
         <v>134</v>
@@ -4226,9 +4220,9 @@
         <v>152</v>
       </c>
     </row>
-    <row r="103" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A103" s="6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B103" s="6" t="s">
         <v>134</v>
@@ -4251,7 +4245,7 @@
     </row>
     <row r="104" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A104" s="6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B104" s="6" t="s">
         <v>134</v>
@@ -4274,13 +4268,13 @@
     </row>
     <row r="105" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A105" s="6" t="s">
-        <v>55</v>
+        <v>227</v>
       </c>
       <c r="B105" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C105" s="6" t="s">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="D105" t="s">
         <v>133</v>
@@ -4289,21 +4283,21 @@
         <v>146</v>
       </c>
       <c r="F105" s="5" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="H105" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="106" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B106" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C106" s="6" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="D106" t="s">
         <v>133</v>
@@ -4318,15 +4312,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="107" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A107" s="6" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="B107" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C107" s="6" t="s">
-        <v>229</v>
+        <v>173</v>
       </c>
       <c r="D107" t="s">
         <v>133</v>
@@ -4343,13 +4337,13 @@
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A108" s="6" t="s">
-        <v>205</v>
+        <v>230</v>
       </c>
       <c r="B108" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C108" s="6" t="s">
-        <v>173</v>
+        <v>231</v>
       </c>
       <c r="D108" t="s">
         <v>133</v>
@@ -4366,13 +4360,13 @@
     </row>
     <row r="109" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A109" s="6" t="s">
-        <v>230</v>
+        <v>204</v>
       </c>
       <c r="B109" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C109" s="6" t="s">
-        <v>231</v>
+        <v>172</v>
       </c>
       <c r="D109" t="s">
         <v>133</v>
@@ -4389,13 +4383,13 @@
     </row>
     <row r="110" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A110" s="6" t="s">
-        <v>204</v>
+        <v>283</v>
       </c>
       <c r="B110" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C110" s="6" t="s">
-        <v>172</v>
+        <v>232</v>
       </c>
       <c r="D110" t="s">
         <v>133</v>
@@ -4410,15 +4404,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="111" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A111" s="6" t="s">
-        <v>283</v>
+        <v>56</v>
       </c>
       <c r="B111" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C111" s="6" t="s">
-        <v>232</v>
+        <v>284</v>
       </c>
       <c r="D111" t="s">
         <v>133</v>
@@ -4433,15 +4427,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="112" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A112" s="6" t="s">
-        <v>56</v>
+        <v>234</v>
       </c>
       <c r="B112" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C112" s="6" t="s">
-        <v>284</v>
+        <v>235</v>
       </c>
       <c r="D112" t="s">
         <v>133</v>
@@ -4458,13 +4452,13 @@
     </row>
     <row r="113" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A113" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="B113" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C113" s="6" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D113" t="s">
         <v>133</v>
@@ -4481,13 +4475,13 @@
     </row>
     <row r="114" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A114" s="6" t="s">
-        <v>236</v>
+        <v>57</v>
       </c>
       <c r="B114" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C114" s="6" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D114" t="s">
         <v>133</v>
@@ -4502,15 +4496,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="115" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A115" s="6" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B115" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C115" s="6" t="s">
-        <v>233</v>
+        <v>29</v>
       </c>
       <c r="D115" t="s">
         <v>133</v>
@@ -4525,15 +4519,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="116" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A116" s="6" t="s">
-        <v>58</v>
+        <v>210</v>
       </c>
       <c r="B116" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C116" s="6" t="s">
-        <v>29</v>
+        <v>238</v>
       </c>
       <c r="D116" t="s">
         <v>133</v>
@@ -4550,13 +4544,13 @@
     </row>
     <row r="117" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A117" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B117" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C117" s="6" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D117" t="s">
         <v>133</v>
@@ -4573,13 +4567,13 @@
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A118" s="6" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B118" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C118" s="6" t="s">
-        <v>140</v>
+        <v>241</v>
       </c>
       <c r="D118" t="s">
         <v>133</v>
@@ -4596,13 +4590,13 @@
     </row>
     <row r="119" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A119" s="6" t="s">
-        <v>240</v>
+        <v>213</v>
       </c>
       <c r="B119" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C119" s="6" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="D119" t="s">
         <v>133</v>
@@ -4619,13 +4613,13 @@
     </row>
     <row r="120" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A120" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B120" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C120" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D120" t="s">
         <v>133</v>
@@ -4642,13 +4636,13 @@
     </row>
     <row r="121" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A121" s="6" t="s">
-        <v>243</v>
+        <v>499</v>
       </c>
       <c r="B121" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C121" s="6" t="s">
-        <v>244</v>
+        <v>498</v>
       </c>
       <c r="D121" t="s">
         <v>133</v>
@@ -4665,13 +4659,13 @@
     </row>
     <row r="122" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A122" s="6" t="s">
-        <v>499</v>
+        <v>507</v>
       </c>
       <c r="B122" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C122" s="6" t="s">
-        <v>498</v>
+        <v>249</v>
       </c>
       <c r="D122" t="s">
         <v>133</v>
@@ -4686,15 +4680,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="123" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A123" s="6" t="s">
-        <v>510</v>
+        <v>59</v>
       </c>
       <c r="B123" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C123" s="6" t="s">
-        <v>249</v>
+        <v>508</v>
       </c>
       <c r="D123" t="s">
         <v>133</v>
@@ -4709,15 +4703,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="124" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A124" s="6" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B124" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C124" s="6" t="s">
-        <v>511</v>
+        <v>245</v>
       </c>
       <c r="D124" t="s">
         <v>133</v>
@@ -4734,13 +4728,13 @@
     </row>
     <row r="125" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A125" s="6" t="s">
-        <v>60</v>
+        <v>227</v>
       </c>
       <c r="B125" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C125" s="6" t="s">
-        <v>245</v>
+        <v>139</v>
       </c>
       <c r="D125" t="s">
         <v>133</v>
@@ -4749,21 +4743,21 @@
         <v>146</v>
       </c>
       <c r="F125" s="5" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H125" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="126" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A126" s="6" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B126" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C126" s="6" t="s">
-        <v>139</v>
+        <v>229</v>
       </c>
       <c r="D126" t="s">
         <v>133</v>
@@ -4778,15 +4772,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="127" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A127" s="6" t="s">
-        <v>228</v>
+        <v>246</v>
       </c>
       <c r="B127" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C127" s="6" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
       <c r="D127" t="s">
         <v>133</v>
@@ -4803,13 +4797,13 @@
     </row>
     <row r="128" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A128" s="6" t="s">
-        <v>246</v>
+        <v>435</v>
       </c>
       <c r="B128" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C128" s="6" t="s">
-        <v>247</v>
+        <v>434</v>
       </c>
       <c r="D128" t="s">
         <v>133</v>
@@ -4826,13 +4820,13 @@
     </row>
     <row r="129" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A129" s="6" t="s">
-        <v>435</v>
+        <v>204</v>
       </c>
       <c r="B129" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C129" s="6" t="s">
-        <v>434</v>
+        <v>204</v>
       </c>
       <c r="D129" t="s">
         <v>133</v>
@@ -4847,15 +4841,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="130" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A130" s="6" t="s">
-        <v>204</v>
+        <v>61</v>
       </c>
       <c r="B130" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C130" s="6" t="s">
-        <v>204</v>
+        <v>443</v>
       </c>
       <c r="D130" t="s">
         <v>133</v>
@@ -4870,15 +4864,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="131" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A131" s="6" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="B131" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C131" s="6" t="s">
-        <v>443</v>
+        <v>249</v>
       </c>
       <c r="D131" t="s">
         <v>133</v>
@@ -4895,13 +4889,13 @@
     </row>
     <row r="132" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A132" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="B132" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C132" s="6" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D132" t="s">
         <v>133</v>
@@ -4918,13 +4912,13 @@
     </row>
     <row r="133" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A133" s="6" t="s">
-        <v>250</v>
+        <v>275</v>
       </c>
       <c r="B133" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C133" s="6" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="D133" t="s">
         <v>133</v>
@@ -4941,13 +4935,13 @@
     </row>
     <row r="134" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A134" s="6" t="s">
-        <v>275</v>
+        <v>62</v>
       </c>
       <c r="B134" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C134" s="6" t="s">
-        <v>252</v>
+        <v>276</v>
       </c>
       <c r="D134" t="s">
         <v>133</v>
@@ -4964,13 +4958,13 @@
     </row>
     <row r="135" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A135" s="6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B135" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C135" s="6" t="s">
-        <v>276</v>
+        <v>29</v>
       </c>
       <c r="D135" t="s">
         <v>133</v>
@@ -4987,7 +4981,7 @@
     </row>
     <row r="136" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A136" s="6" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B136" s="6" t="s">
         <v>134</v>
@@ -5010,7 +5004,7 @@
     </row>
     <row r="137" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A137" s="6" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B137" s="6" t="s">
         <v>134</v>
@@ -5033,13 +5027,13 @@
     </row>
     <row r="138" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A138" s="6" t="s">
-        <v>65</v>
+        <v>213</v>
       </c>
       <c r="B138" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C138" s="6" t="s">
-        <v>29</v>
+        <v>242</v>
       </c>
       <c r="D138" t="s">
         <v>133</v>
@@ -5056,13 +5050,13 @@
     </row>
     <row r="139" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A139" s="6" t="s">
-        <v>213</v>
+        <v>243</v>
       </c>
       <c r="B139" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C139" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="D139" t="s">
         <v>133</v>
@@ -5079,13 +5073,13 @@
     </row>
     <row r="140" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A140" s="6" t="s">
-        <v>243</v>
+        <v>66</v>
       </c>
       <c r="B140" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C140" s="6" t="s">
-        <v>244</v>
+        <v>253</v>
       </c>
       <c r="D140" t="s">
         <v>133</v>
@@ -5102,13 +5096,13 @@
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A141" s="6" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B141" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C141" s="6" t="s">
-        <v>253</v>
+        <v>29</v>
       </c>
       <c r="D141" t="s">
         <v>133</v>
@@ -5125,7 +5119,7 @@
     </row>
     <row r="142" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A142" s="6" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B142" s="6" t="s">
         <v>134</v>
@@ -5148,7 +5142,7 @@
     </row>
     <row r="143" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A143" s="6" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B143" s="6" t="s">
         <v>134</v>
@@ -5171,13 +5165,13 @@
     </row>
     <row r="144" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A144" s="6" t="s">
-        <v>69</v>
+        <v>255</v>
       </c>
       <c r="B144" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C144" s="6" t="s">
-        <v>29</v>
+        <v>256</v>
       </c>
       <c r="D144" t="s">
         <v>133</v>
@@ -5194,13 +5188,13 @@
     </row>
     <row r="145" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A145" s="6" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="B145" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C145" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="D145" t="s">
         <v>133</v>
@@ -5217,13 +5211,13 @@
     </row>
     <row r="146" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A146" s="6" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="B146" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C146" s="6" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D146" t="s">
         <v>133</v>
@@ -5240,13 +5234,13 @@
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A147" s="6" t="s">
-        <v>259</v>
+        <v>70</v>
       </c>
       <c r="B147" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C147" s="6" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D147" t="s">
         <v>133</v>
@@ -5263,13 +5257,13 @@
     </row>
     <row r="148" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A148" s="6" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B148" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C148" s="6" t="s">
-        <v>254</v>
+        <v>29</v>
       </c>
       <c r="D148" t="s">
         <v>133</v>
@@ -5286,7 +5280,7 @@
     </row>
     <row r="149" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A149" s="6" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B149" s="6" t="s">
         <v>134</v>
@@ -5309,7 +5303,7 @@
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A150" s="6" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B150" s="6" t="s">
         <v>134</v>
@@ -5332,13 +5326,13 @@
     </row>
     <row r="151" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A151" s="6" t="s">
-        <v>73</v>
+        <v>268</v>
       </c>
       <c r="B151" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C151" s="6" t="s">
-        <v>29</v>
+        <v>261</v>
       </c>
       <c r="D151" t="s">
         <v>133</v>
@@ -5355,13 +5349,13 @@
     </row>
     <row r="152" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A152" s="6" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B152" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C152" s="6" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D152" t="s">
         <v>133</v>
@@ -5378,13 +5372,13 @@
     </row>
     <row r="153" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A153" s="6" t="s">
-        <v>262</v>
+        <v>212</v>
       </c>
       <c r="B153" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C153" s="6" t="s">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="D153" t="s">
         <v>133</v>
@@ -5401,13 +5395,13 @@
     </row>
     <row r="154" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A154" s="6" t="s">
-        <v>212</v>
+        <v>264</v>
       </c>
       <c r="B154" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C154" s="6" t="s">
-        <v>181</v>
+        <v>265</v>
       </c>
       <c r="D154" t="s">
         <v>133</v>
@@ -5424,13 +5418,13 @@
     </row>
     <row r="155" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A155" s="6" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="B155" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C155" s="6" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="D155" t="s">
         <v>133</v>
@@ -5447,13 +5441,13 @@
     </row>
     <row r="156" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A156" s="6" t="s">
-        <v>266</v>
+        <v>75</v>
       </c>
       <c r="B156" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C156" s="6" t="s">
-        <v>267</v>
+        <v>245</v>
       </c>
       <c r="D156" t="s">
         <v>133</v>
@@ -5470,13 +5464,13 @@
     </row>
     <row r="157" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A157" s="6" t="s">
-        <v>75</v>
+        <v>210</v>
       </c>
       <c r="B157" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C157" s="6" t="s">
-        <v>245</v>
+        <v>238</v>
       </c>
       <c r="D157" t="s">
         <v>133</v>
@@ -5493,13 +5487,13 @@
     </row>
     <row r="158" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A158" s="6" t="s">
-        <v>210</v>
+        <v>239</v>
       </c>
       <c r="B158" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C158" s="6" t="s">
-        <v>238</v>
+        <v>140</v>
       </c>
       <c r="D158" t="s">
         <v>133</v>
@@ -5514,15 +5508,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="159" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A159" s="6" t="s">
-        <v>239</v>
+        <v>74</v>
       </c>
       <c r="B159" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C159" s="6" t="s">
-        <v>140</v>
+        <v>269</v>
       </c>
       <c r="D159" t="s">
         <v>133</v>
@@ -5537,15 +5531,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="160" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A160" s="6" t="s">
-        <v>74</v>
+        <v>426</v>
       </c>
       <c r="B160" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C160" s="6" t="s">
-        <v>269</v>
+        <v>426</v>
       </c>
       <c r="D160" t="s">
         <v>133</v>
@@ -5553,22 +5547,20 @@
       <c r="E160" t="s">
         <v>146</v>
       </c>
-      <c r="F160" s="5" t="s">
-        <v>272</v>
-      </c>
+      <c r="F160" s="5"/>
       <c r="H160" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="161" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A161" s="6" t="s">
-        <v>426</v>
+        <v>76</v>
       </c>
       <c r="B161" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C161" s="6" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D161" t="s">
         <v>133</v>
@@ -5576,52 +5568,51 @@
       <c r="E161" t="s">
         <v>146</v>
       </c>
-      <c r="F161" s="5"/>
       <c r="H161" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A162" s="6" t="s">
-        <v>76</v>
-      </c>
-      <c r="B162" s="6" t="s">
+      <c r="A162" s="6"/>
+      <c r="B162" s="6"/>
+      <c r="C162" s="6"/>
+    </row>
+    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A163" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="B163" s="5"/>
+      <c r="C163" s="5"/>
+    </row>
+    <row r="164" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="A164" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="B164" s="6" t="s">
         <v>135</v>
       </c>
-      <c r="C162" s="6" t="s">
-        <v>427</v>
-      </c>
-      <c r="D162" t="s">
-        <v>133</v>
-      </c>
-      <c r="E162" t="s">
-        <v>146</v>
-      </c>
-      <c r="H162" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A163" s="6"/>
-      <c r="B163" s="6"/>
-      <c r="C163" s="6"/>
-    </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A164" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="B164" s="5"/>
-      <c r="C164" s="5"/>
-    </row>
-    <row r="165" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+      <c r="C164" s="9" t="s">
+        <v>425</v>
+      </c>
+      <c r="D164" t="s">
+        <v>133</v>
+      </c>
+      <c r="E164" t="s">
+        <v>147</v>
+      </c>
+      <c r="H164" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="165" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A165" s="8" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B165" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C165" s="9" t="s">
-        <v>425</v>
+        <v>143</v>
       </c>
       <c r="D165" t="s">
         <v>133</v>
@@ -5633,15 +5624,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:8" ht="180" x14ac:dyDescent="0.25">
       <c r="A166" s="8" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B166" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C166" s="9" t="s">
-        <v>143</v>
+        <v>290</v>
       </c>
       <c r="D166" t="s">
         <v>133</v>
@@ -5653,15 +5644,15 @@
         <v>152</v>
       </c>
     </row>
-    <row r="167" spans="1:8" ht="180" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A167" s="8" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="B167" s="6" t="s">
         <v>135</v>
       </c>
       <c r="C167" s="9" t="s">
-        <v>290</v>
+        <v>144</v>
       </c>
       <c r="D167" t="s">
         <v>133</v>
@@ -5674,56 +5665,56 @@
       </c>
     </row>
     <row r="168" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A168" s="8" t="s">
-        <v>82</v>
-      </c>
-      <c r="B168" s="6" t="s">
-        <v>135</v>
-      </c>
-      <c r="C168" s="9" t="s">
-        <v>144</v>
-      </c>
+      <c r="A168" s="1"/>
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
       <c r="D168" t="s">
         <v>133</v>
       </c>
-      <c r="E168" t="s">
-        <v>147</v>
-      </c>
-      <c r="H168" t="s">
-        <v>152</v>
-      </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A169" s="1"/>
-      <c r="B169" s="2"/>
+      <c r="A169" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="B169" s="4"/>
       <c r="C169" s="2"/>
-      <c r="D169" t="s">
-        <v>133</v>
-      </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A170" s="3" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B170" s="4"/>
       <c r="C170" s="2"/>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A171" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="B171" s="4"/>
-      <c r="C171" s="2"/>
+      <c r="A171" s="6" t="s">
+        <v>294</v>
+      </c>
+      <c r="B171" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C171" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="D171" t="s">
+        <v>133</v>
+      </c>
+      <c r="E171" t="s">
+        <v>148</v>
+      </c>
+      <c r="H171" t="s">
+        <v>151</v>
+      </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A172" s="6" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B172" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C172" s="6" t="s">
-        <v>86</v>
+        <v>296</v>
       </c>
       <c r="D172" t="s">
         <v>133</v>
@@ -5735,15 +5726,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A173" s="6" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="B173" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C173" s="6" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D173" t="s">
         <v>133</v>
@@ -5757,13 +5748,13 @@
     </row>
     <row r="174" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A174" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="B174" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C174" s="6" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D174" t="s">
         <v>133</v>
@@ -5775,15 +5766,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="175" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A175" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="B175" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C175" s="6" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D175" t="s">
         <v>133</v>
@@ -5795,15 +5786,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="6" t="s">
-        <v>301</v>
+        <v>85</v>
       </c>
       <c r="B176" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C176" s="6" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="D176" t="s">
         <v>133</v>
@@ -5815,15 +5806,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="177" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A177" s="6" t="s">
-        <v>85</v>
+        <v>304</v>
       </c>
       <c r="B177" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C177" s="6" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="D177" t="s">
         <v>133</v>
@@ -5837,13 +5828,13 @@
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A178" s="6" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="B178" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C178" s="6" t="s">
-        <v>305</v>
+        <v>307</v>
       </c>
       <c r="D178" t="s">
         <v>133</v>
@@ -5855,15 +5846,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="179" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="6" t="s">
-        <v>306</v>
+        <v>308</v>
       </c>
       <c r="B179" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C179" s="6" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="D179" t="s">
         <v>133</v>
@@ -5877,13 +5868,13 @@
     </row>
     <row r="180" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A180" s="6" t="s">
-        <v>308</v>
+        <v>87</v>
       </c>
       <c r="B180" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C180" s="6" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="D180" t="s">
         <v>133</v>
@@ -5895,15 +5886,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="181" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A181" s="6" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B181" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C181" s="6" t="s">
-        <v>303</v>
+        <v>29</v>
       </c>
       <c r="D181" t="s">
         <v>133</v>
@@ -5915,9 +5906,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="182" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A182" s="6" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B182" s="6" t="s">
         <v>134</v>
@@ -5937,13 +5928,13 @@
     </row>
     <row r="183" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A183" s="6" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B183" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C183" s="6" t="s">
-        <v>29</v>
+        <v>436</v>
       </c>
       <c r="D183" t="s">
         <v>133</v>
@@ -5955,15 +5946,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="184" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A184" s="6" t="s">
-        <v>90</v>
+        <v>311</v>
       </c>
       <c r="B184" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C184" s="6" t="s">
-        <v>436</v>
+        <v>312</v>
       </c>
       <c r="D184" t="s">
         <v>133</v>
@@ -5977,13 +5968,13 @@
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A185" s="6" t="s">
-        <v>311</v>
+        <v>313</v>
       </c>
       <c r="B185" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C185" s="6" t="s">
-        <v>312</v>
+        <v>314</v>
       </c>
       <c r="D185" t="s">
         <v>133</v>
@@ -5995,15 +5986,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="186" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A186" s="6" t="s">
-        <v>313</v>
+        <v>91</v>
       </c>
       <c r="B186" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C186" s="6" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="D186" t="s">
         <v>133</v>
@@ -6015,15 +6006,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="187" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A187" s="6" t="s">
-        <v>91</v>
+        <v>315</v>
       </c>
       <c r="B187" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C187" s="6" t="s">
-        <v>310</v>
+        <v>316</v>
       </c>
       <c r="D187" t="s">
         <v>133</v>
@@ -6037,13 +6028,13 @@
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A188" s="6" t="s">
-        <v>315</v>
+        <v>317</v>
       </c>
       <c r="B188" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C188" s="6" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="D188" t="s">
         <v>133</v>
@@ -6055,15 +6046,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="189" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="6" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
       <c r="B189" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C189" s="6" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="D189" t="s">
         <v>133</v>
@@ -6075,15 +6066,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="190" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A190" s="6" t="s">
-        <v>319</v>
+        <v>321</v>
       </c>
       <c r="B190" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C190" s="6" t="s">
-        <v>320</v>
+        <v>322</v>
       </c>
       <c r="D190" t="s">
         <v>133</v>
@@ -6095,15 +6086,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="191" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A191" s="6" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="B191" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C191" s="6" t="s">
-        <v>322</v>
+        <v>324</v>
       </c>
       <c r="D191" t="s">
         <v>133</v>
@@ -6117,13 +6108,13 @@
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A192" s="6" t="s">
-        <v>323</v>
+        <v>325</v>
       </c>
       <c r="B192" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C192" s="6" t="s">
-        <v>324</v>
+        <v>326</v>
       </c>
       <c r="D192" t="s">
         <v>133</v>
@@ -6137,13 +6128,13 @@
     </row>
     <row r="193" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A193" s="6" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="B193" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C193" s="6" t="s">
-        <v>326</v>
+        <v>328</v>
       </c>
       <c r="D193" t="s">
         <v>133</v>
@@ -6157,13 +6148,13 @@
     </row>
     <row r="194" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A194" s="6" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="B194" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C194" s="6" t="s">
-        <v>328</v>
+        <v>330</v>
       </c>
       <c r="D194" t="s">
         <v>133</v>
@@ -6177,13 +6168,13 @@
     </row>
     <row r="195" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A195" s="6" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B195" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C195" s="6" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="D195" t="s">
         <v>133</v>
@@ -6197,13 +6188,13 @@
     </row>
     <row r="196" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A196" s="6" t="s">
-        <v>331</v>
+        <v>333</v>
       </c>
       <c r="B196" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C196" s="6" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="D196" t="s">
         <v>133</v>
@@ -6217,13 +6208,13 @@
     </row>
     <row r="197" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A197" s="6" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="B197" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C197" s="6" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="D197" t="s">
         <v>133</v>
@@ -6237,13 +6228,13 @@
     </row>
     <row r="198" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A198" s="6" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="B198" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C198" s="6" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="D198" t="s">
         <v>133</v>
@@ -6255,15 +6246,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="199" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A199" s="6" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="B199" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C199" s="6" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="D199" t="s">
         <v>133</v>
@@ -6275,15 +6266,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="200" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A200" s="6" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="B200" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C200" s="6" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="D200" t="s">
         <v>133</v>
@@ -6297,13 +6288,13 @@
     </row>
     <row r="201" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A201" s="6" t="s">
-        <v>341</v>
+        <v>343</v>
       </c>
       <c r="B201" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C201" s="6" t="s">
-        <v>342</v>
+        <v>344</v>
       </c>
       <c r="D201" t="s">
         <v>133</v>
@@ -6317,13 +6308,13 @@
     </row>
     <row r="202" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A202" s="6" t="s">
-        <v>343</v>
+        <v>466</v>
       </c>
       <c r="B202" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C202" s="6" t="s">
-        <v>344</v>
+        <v>465</v>
       </c>
       <c r="D202" t="s">
         <v>133</v>
@@ -6337,13 +6328,13 @@
     </row>
     <row r="203" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A203" s="6" t="s">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="B203" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C203" s="6" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="D203" t="s">
         <v>133</v>
@@ -6355,15 +6346,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="204" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A204" s="6" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="B204" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C204" s="6" t="s">
-        <v>473</v>
+        <v>475</v>
       </c>
       <c r="D204" t="s">
         <v>133</v>
@@ -6375,15 +6366,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="205" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A205" s="6" t="s">
-        <v>474</v>
+        <v>476</v>
       </c>
       <c r="B205" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C205" s="6" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="D205" t="s">
         <v>133</v>
@@ -6397,13 +6388,13 @@
     </row>
     <row r="206" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A206" s="6" t="s">
-        <v>476</v>
+        <v>478</v>
       </c>
       <c r="B206" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C206" s="6" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="D206" t="s">
         <v>133</v>
@@ -6415,15 +6406,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="207" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A207" s="6" t="s">
-        <v>478</v>
+        <v>480</v>
       </c>
       <c r="B207" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C207" s="6" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="D207" t="s">
         <v>133</v>
@@ -6435,15 +6426,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="208" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A208" s="6" t="s">
-        <v>480</v>
+        <v>482</v>
       </c>
       <c r="B208" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C208" s="6" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="D208" t="s">
         <v>133</v>
@@ -6457,13 +6448,13 @@
     </row>
     <row r="209" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A209" s="6" t="s">
-        <v>482</v>
+        <v>484</v>
       </c>
       <c r="B209" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C209" s="6" t="s">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="D209" t="s">
         <v>133</v>
@@ -6475,15 +6466,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A210" s="6" t="s">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B210" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C210" s="6" t="s">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="D210" t="s">
         <v>133</v>
@@ -6495,15 +6486,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="211" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A211" s="6" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="B211" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C211" s="6" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="D211" t="s">
         <v>133</v>
@@ -6515,15 +6506,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="212" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A212" s="6" t="s">
-        <v>488</v>
+        <v>490</v>
       </c>
       <c r="B212" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C212" s="6" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="D212" t="s">
         <v>133</v>
@@ -6537,13 +6528,13 @@
     </row>
     <row r="213" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A213" s="6" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="B213" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C213" s="6" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="D213" t="s">
         <v>133</v>
@@ -6555,15 +6546,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="214" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:8" ht="210" x14ac:dyDescent="0.25">
       <c r="A214" s="6" t="s">
-        <v>492</v>
+        <v>92</v>
       </c>
       <c r="B214" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C214" s="6" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D214" t="s">
         <v>133</v>
@@ -6575,15 +6566,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="215" spans="1:8" ht="210" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A215" s="6" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B215" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C215" s="6" t="s">
-        <v>494</v>
+        <v>29</v>
       </c>
       <c r="D215" t="s">
         <v>133</v>
@@ -6597,13 +6588,13 @@
     </row>
     <row r="216" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A216" s="6" t="s">
-        <v>93</v>
+        <v>345</v>
       </c>
       <c r="B216" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C216" s="6" t="s">
-        <v>29</v>
+        <v>346</v>
       </c>
       <c r="D216" t="s">
         <v>133</v>
@@ -6617,13 +6608,13 @@
     </row>
     <row r="217" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A217" s="6" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="B217" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C217" s="6" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="D217" t="s">
         <v>133</v>
@@ -6637,13 +6628,13 @@
     </row>
     <row r="218" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A218" s="6" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="B218" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C218" s="6" t="s">
-        <v>348</v>
+        <v>350</v>
       </c>
       <c r="D218" t="s">
         <v>133</v>
@@ -6657,13 +6648,13 @@
     </row>
     <row r="219" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A219" s="6" t="s">
-        <v>349</v>
+        <v>430</v>
       </c>
       <c r="B219" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C219" s="6" t="s">
-        <v>350</v>
+        <v>95</v>
       </c>
       <c r="D219" t="s">
         <v>133</v>
@@ -6677,13 +6668,13 @@
     </row>
     <row r="220" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A220" s="6" t="s">
-        <v>430</v>
+        <v>351</v>
       </c>
       <c r="B220" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C220" s="6" t="s">
-        <v>95</v>
+        <v>352</v>
       </c>
       <c r="D220" t="s">
         <v>133</v>
@@ -6695,15 +6686,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A221" s="6" t="s">
-        <v>351</v>
+        <v>94</v>
       </c>
       <c r="B221" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C221" s="6" t="s">
-        <v>352</v>
+        <v>431</v>
       </c>
       <c r="D221" t="s">
         <v>133</v>
@@ -6715,15 +6706,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="222" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A222" s="6" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B222" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C222" s="6" t="s">
-        <v>431</v>
+        <v>353</v>
       </c>
       <c r="D222" t="s">
         <v>133</v>
@@ -6735,15 +6726,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A223" s="6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B223" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C223" s="6" t="s">
-        <v>353</v>
+        <v>29</v>
       </c>
       <c r="D223" t="s">
         <v>133</v>
@@ -6757,7 +6748,7 @@
     </row>
     <row r="224" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A224" s="6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B224" s="6" t="s">
         <v>134</v>
@@ -6775,9 +6766,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="225" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A225" s="6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="B225" s="6" t="s">
         <v>134</v>
@@ -6797,7 +6788,7 @@
     </row>
     <row r="226" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A226" s="6" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B226" s="6" t="s">
         <v>134</v>
@@ -6815,15 +6806,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="227" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A227" s="6" t="s">
-        <v>103</v>
+        <v>355</v>
       </c>
       <c r="B227" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C227" s="6" t="s">
-        <v>29</v>
+        <v>356</v>
       </c>
       <c r="D227" t="s">
         <v>133</v>
@@ -6837,13 +6828,13 @@
     </row>
     <row r="228" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A228" s="6" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="B228" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C228" s="6" t="s">
-        <v>356</v>
+        <v>358</v>
       </c>
       <c r="D228" t="s">
         <v>133</v>
@@ -6855,15 +6846,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="229" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A229" s="6" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="B229" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C229" s="6" t="s">
-        <v>358</v>
+        <v>360</v>
       </c>
       <c r="D229" t="s">
         <v>133</v>
@@ -6877,13 +6868,13 @@
     </row>
     <row r="230" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A230" s="6" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="B230" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C230" s="6" t="s">
-        <v>360</v>
+        <v>362</v>
       </c>
       <c r="D230" t="s">
         <v>133</v>
@@ -6895,15 +6886,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="231" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:8" ht="45" x14ac:dyDescent="0.25">
       <c r="A231" s="6" t="s">
-        <v>361</v>
+        <v>104</v>
       </c>
       <c r="B231" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C231" s="6" t="s">
-        <v>362</v>
+        <v>354</v>
       </c>
       <c r="D231" t="s">
         <v>133</v>
@@ -6915,15 +6906,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="232" spans="1:8" ht="45" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A232" s="6" t="s">
-        <v>104</v>
+        <v>364</v>
       </c>
       <c r="B232" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C232" s="6" t="s">
-        <v>354</v>
+        <v>365</v>
       </c>
       <c r="D232" t="s">
         <v>133</v>
@@ -6935,15 +6926,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="233" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A233" s="6" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="B233" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C233" s="6" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
       <c r="D233" t="s">
         <v>133</v>
@@ -6957,13 +6948,13 @@
     </row>
     <row r="234" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A234" s="6" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="B234" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C234" s="6" t="s">
-        <v>367</v>
+        <v>369</v>
       </c>
       <c r="D234" t="s">
         <v>133</v>
@@ -6975,15 +6966,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="235" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A235" s="6" t="s">
-        <v>368</v>
+        <v>105</v>
       </c>
       <c r="B235" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C235" s="6" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="D235" t="s">
         <v>133</v>
@@ -6995,15 +6986,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="236" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A236" s="6" t="s">
-        <v>105</v>
+        <v>371</v>
       </c>
       <c r="B236" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C236" s="6" t="s">
-        <v>363</v>
+        <v>372</v>
       </c>
       <c r="D236" t="s">
         <v>133</v>
@@ -7017,13 +7008,13 @@
     </row>
     <row r="237" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A237" s="6" t="s">
-        <v>371</v>
+        <v>373</v>
       </c>
       <c r="B237" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C237" s="6" t="s">
-        <v>372</v>
+        <v>374</v>
       </c>
       <c r="D237" t="s">
         <v>133</v>
@@ -7035,15 +7026,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="238" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A238" s="6" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="B238" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C238" s="6" t="s">
-        <v>374</v>
+        <v>376</v>
       </c>
       <c r="D238" t="s">
         <v>133</v>
@@ -7057,13 +7048,13 @@
     </row>
     <row r="239" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A239" s="6" t="s">
-        <v>375</v>
+        <v>106</v>
       </c>
       <c r="B239" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C239" s="6" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="D239" t="s">
         <v>133</v>
@@ -7075,15 +7066,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="240" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A240" s="6" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B240" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C240" s="6" t="s">
-        <v>370</v>
+        <v>29</v>
       </c>
       <c r="D240" t="s">
         <v>133</v>
@@ -7097,7 +7088,7 @@
     </row>
     <row r="241" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A241" s="6" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B241" s="6" t="s">
         <v>134</v>
@@ -7117,13 +7108,13 @@
     </row>
     <row r="242" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A242" s="6" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B242" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C242" s="6" t="s">
-        <v>29</v>
+        <v>377</v>
       </c>
       <c r="D242" t="s">
         <v>133</v>
@@ -7137,13 +7128,13 @@
     </row>
     <row r="243" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A243" s="6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B243" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C243" s="6" t="s">
-        <v>377</v>
+        <v>29</v>
       </c>
       <c r="D243" t="s">
         <v>133</v>
@@ -7157,13 +7148,13 @@
     </row>
     <row r="244" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A244" s="6" t="s">
-        <v>110</v>
+        <v>379</v>
       </c>
       <c r="B244" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C244" s="6" t="s">
-        <v>29</v>
+        <v>380</v>
       </c>
       <c r="D244" t="s">
         <v>133</v>
@@ -7177,13 +7168,13 @@
     </row>
     <row r="245" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A245" s="6" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="B245" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C245" s="6" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
       <c r="D245" t="s">
         <v>133</v>
@@ -7197,13 +7188,13 @@
     </row>
     <row r="246" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A246" s="6" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="B246" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C246" s="6" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="D246" t="s">
         <v>133</v>
@@ -7217,13 +7208,13 @@
     </row>
     <row r="247" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A247" s="6" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="B247" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C247" s="6" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="D247" t="s">
         <v>133</v>
@@ -7235,15 +7226,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="248" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="6" t="s">
-        <v>385</v>
+        <v>111</v>
       </c>
       <c r="B248" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C248" s="6" t="s">
-        <v>386</v>
+        <v>378</v>
       </c>
       <c r="D248" t="s">
         <v>133</v>
@@ -7255,15 +7246,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="249" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A249" s="6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="B249" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C249" s="6" t="s">
-        <v>378</v>
+        <v>387</v>
       </c>
       <c r="D249" t="s">
         <v>133</v>
@@ -7275,15 +7266,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="250" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="6" t="s">
-        <v>112</v>
+        <v>388</v>
       </c>
       <c r="B250" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C250" s="6" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="D250" t="s">
         <v>133</v>
@@ -7297,13 +7288,13 @@
     </row>
     <row r="251" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A251" s="6" t="s">
-        <v>388</v>
+        <v>390</v>
       </c>
       <c r="B251" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C251" s="6" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="D251" t="s">
         <v>133</v>
@@ -7317,13 +7308,13 @@
     </row>
     <row r="252" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A252" s="6" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B252" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C252" s="6" t="s">
-        <v>391</v>
+        <v>393</v>
       </c>
       <c r="D252" t="s">
         <v>133</v>
@@ -7337,13 +7328,13 @@
     </row>
     <row r="253" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A253" s="6" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="B253" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C253" s="6" t="s">
-        <v>393</v>
+        <v>395</v>
       </c>
       <c r="D253" t="s">
         <v>133</v>
@@ -7357,13 +7348,13 @@
     </row>
     <row r="254" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A254" s="6" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="B254" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C254" s="6" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="D254" t="s">
         <v>133</v>
@@ -7375,15 +7366,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="255" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A255" s="6" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
       <c r="B255" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C255" s="6" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="D255" t="s">
         <v>133</v>
@@ -7397,13 +7388,13 @@
     </row>
     <row r="256" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A256" s="6" t="s">
-        <v>398</v>
+        <v>438</v>
       </c>
       <c r="B256" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C256" s="6" t="s">
-        <v>399</v>
+        <v>437</v>
       </c>
       <c r="D256" t="s">
         <v>133</v>
@@ -7415,15 +7406,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:8" ht="75" x14ac:dyDescent="0.25">
       <c r="A257" s="6" t="s">
-        <v>438</v>
+        <v>113</v>
       </c>
       <c r="B257" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C257" s="6" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="D257" t="s">
         <v>133</v>
@@ -7435,15 +7426,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="258" spans="1:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A258" s="6" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B258" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C258" s="6" t="s">
-        <v>439</v>
+        <v>29</v>
       </c>
       <c r="D258" t="s">
         <v>133</v>
@@ -7457,7 +7448,7 @@
     </row>
     <row r="259" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A259" s="6" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B259" s="6" t="s">
         <v>134</v>
@@ -7477,7 +7468,7 @@
     </row>
     <row r="260" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A260" s="6" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B260" s="6" t="s">
         <v>134</v>
@@ -7497,13 +7488,13 @@
     </row>
     <row r="261" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A261" s="6" t="s">
-        <v>116</v>
+        <v>400</v>
       </c>
       <c r="B261" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C261" s="6" t="s">
-        <v>29</v>
+        <v>401</v>
       </c>
       <c r="D261" t="s">
         <v>133</v>
@@ -7517,13 +7508,13 @@
     </row>
     <row r="262" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A262" s="6" t="s">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="B262" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C262" s="6" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="D262" t="s">
         <v>133</v>
@@ -7535,15 +7526,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A263" s="6" t="s">
-        <v>402</v>
+        <v>445</v>
       </c>
       <c r="B263" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C263" s="6" t="s">
-        <v>403</v>
+        <v>444</v>
       </c>
       <c r="D263" t="s">
         <v>133</v>
@@ -7557,13 +7548,13 @@
     </row>
     <row r="264" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="6" t="s">
-        <v>445</v>
+        <v>117</v>
       </c>
       <c r="B264" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C264" s="6" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="D264" t="s">
         <v>133</v>
@@ -7575,15 +7566,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="265" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A265" s="6" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B265" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C265" s="6" t="s">
-        <v>446</v>
+        <v>404</v>
       </c>
       <c r="D265" t="s">
         <v>133</v>
@@ -7597,13 +7588,13 @@
     </row>
     <row r="266" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A266" s="6" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B266" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C266" s="6" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D266" t="s">
         <v>133</v>
@@ -7617,13 +7608,13 @@
     </row>
     <row r="267" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A267" s="6" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B267" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C267" s="6" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="D267" t="s">
         <v>133</v>
@@ -7637,13 +7628,13 @@
     </row>
     <row r="268" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A268" s="6" t="s">
-        <v>98</v>
+        <v>118</v>
       </c>
       <c r="B268" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C268" s="6" t="s">
-        <v>406</v>
+        <v>29</v>
       </c>
       <c r="D268" t="s">
         <v>133</v>
@@ -7657,13 +7648,13 @@
     </row>
     <row r="269" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A269" s="6" t="s">
-        <v>118</v>
+        <v>149</v>
       </c>
       <c r="B269" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C269" s="6" t="s">
-        <v>29</v>
+        <v>408</v>
       </c>
       <c r="D269" t="s">
         <v>133</v>
@@ -7677,13 +7668,13 @@
     </row>
     <row r="270" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A270" s="6" t="s">
-        <v>149</v>
+        <v>409</v>
       </c>
       <c r="B270" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C270" s="6" t="s">
-        <v>408</v>
+        <v>410</v>
       </c>
       <c r="D270" t="s">
         <v>133</v>
@@ -7697,13 +7688,13 @@
     </row>
     <row r="271" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A271" s="6" t="s">
-        <v>409</v>
+        <v>411</v>
       </c>
       <c r="B271" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C271" s="6" t="s">
-        <v>410</v>
+        <v>150</v>
       </c>
       <c r="D271" t="s">
         <v>133</v>
@@ -7717,13 +7708,13 @@
     </row>
     <row r="272" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A272" s="6" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B272" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C272" s="6" t="s">
-        <v>150</v>
+        <v>413</v>
       </c>
       <c r="D272" t="s">
         <v>133</v>
@@ -7735,15 +7726,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A273" s="6" t="s">
-        <v>412</v>
+        <v>119</v>
       </c>
       <c r="B273" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C273" s="6" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="D273" t="s">
         <v>133</v>
@@ -7755,15 +7746,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="274" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A274" s="6" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="B274" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C274" s="6" t="s">
-        <v>407</v>
+        <v>29</v>
       </c>
       <c r="D274" t="s">
         <v>133</v>
@@ -7775,9 +7766,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A275" s="6" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B275" s="6" t="s">
         <v>134</v>
@@ -7795,9 +7786,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="276" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A276" s="6" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="B276" s="6" t="s">
         <v>134</v>
@@ -7817,7 +7808,7 @@
     </row>
     <row r="277" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A277" s="6" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B277" s="6" t="s">
         <v>134</v>
@@ -7837,13 +7828,13 @@
     </row>
     <row r="278" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A278" s="6" t="s">
-        <v>123</v>
+        <v>415</v>
       </c>
       <c r="B278" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C278" s="6" t="s">
-        <v>29</v>
+        <v>416</v>
       </c>
       <c r="D278" t="s">
         <v>133</v>
@@ -7857,13 +7848,13 @@
     </row>
     <row r="279" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A279" s="6" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="B279" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C279" s="6" t="s">
-        <v>416</v>
+        <v>418</v>
       </c>
       <c r="D279" t="s">
         <v>133</v>
@@ -7877,13 +7868,13 @@
     </row>
     <row r="280" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A280" s="6" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B280" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C280" s="6" t="s">
-        <v>418</v>
+        <v>420</v>
       </c>
       <c r="D280" t="s">
         <v>133</v>
@@ -7895,15 +7886,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A281" s="6" t="s">
-        <v>419</v>
+        <v>124</v>
       </c>
       <c r="B281" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C281" s="6" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="D281" t="s">
         <v>133</v>
@@ -7917,13 +7908,13 @@
     </row>
     <row r="282" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A282" s="6" t="s">
-        <v>124</v>
+        <v>129</v>
       </c>
       <c r="B282" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C282" s="6" t="s">
-        <v>414</v>
+        <v>29</v>
       </c>
       <c r="D282" t="s">
         <v>133</v>
@@ -7937,7 +7928,7 @@
     </row>
     <row r="283" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A283" s="6" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B283" s="6" t="s">
         <v>134</v>
@@ -7955,9 +7946,9 @@
         <v>151</v>
       </c>
     </row>
-    <row r="284" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A284" s="6" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="B284" s="6" t="s">
         <v>134</v>
@@ -7977,7 +7968,7 @@
     </row>
     <row r="285" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A285" s="6" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="B285" s="6" t="s">
         <v>134</v>
@@ -7997,7 +7988,7 @@
     </row>
     <row r="286" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A286" s="6" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="B286" s="6" t="s">
         <v>134</v>
@@ -8017,7 +8008,7 @@
     </row>
     <row r="287" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A287" s="6" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B287" s="6" t="s">
         <v>134</v>
@@ -8035,15 +8026,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:8" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="6" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="B288" s="6" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C288" s="6" t="s">
-        <v>29</v>
+        <v>421</v>
       </c>
       <c r="D288" t="s">
         <v>133</v>
@@ -8055,15 +8046,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="289" spans="1:8" ht="60" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="6" t="s">
-        <v>131</v>
+        <v>447</v>
       </c>
       <c r="B289" s="6" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C289" s="6" t="s">
-        <v>421</v>
+        <v>448</v>
       </c>
       <c r="D289" t="s">
         <v>133</v>
@@ -8077,13 +8068,13 @@
     </row>
     <row r="290" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="6" t="s">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="B290" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C290" s="6" t="s">
-        <v>448</v>
+        <v>450</v>
       </c>
       <c r="D290" t="s">
         <v>133</v>
@@ -8095,15 +8086,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="291" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A291" s="6" t="s">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="B291" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C291" s="6" t="s">
-        <v>450</v>
+        <v>452</v>
       </c>
       <c r="D291" t="s">
         <v>133</v>
@@ -8117,13 +8108,13 @@
     </row>
     <row r="292" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A292" s="6" t="s">
-        <v>451</v>
+        <v>453</v>
       </c>
       <c r="B292" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C292" s="6" t="s">
-        <v>452</v>
+        <v>454</v>
       </c>
       <c r="D292" t="s">
         <v>133</v>
@@ -8137,13 +8128,13 @@
     </row>
     <row r="293" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A293" s="6" t="s">
-        <v>453</v>
+        <v>455</v>
       </c>
       <c r="B293" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C293" s="6" t="s">
-        <v>454</v>
+        <v>456</v>
       </c>
       <c r="D293" t="s">
         <v>133</v>
@@ -8155,15 +8146,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="294" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A294" s="6" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="B294" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C294" s="6" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="D294" t="s">
         <v>133</v>
@@ -8175,15 +8166,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="295" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A295" s="6" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="B295" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C295" s="6" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="D295" t="s">
         <v>133</v>
@@ -8195,15 +8186,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="296" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:8" ht="30" x14ac:dyDescent="0.25">
       <c r="A296" s="6" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B296" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C296" s="6" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="D296" t="s">
         <v>133</v>
@@ -8215,15 +8206,15 @@
         <v>151</v>
       </c>
     </row>
-    <row r="297" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A297" s="6" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="B297" s="6" t="s">
         <v>134</v>
       </c>
       <c r="C297" s="6" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="D297" t="s">
         <v>133</v>
@@ -8236,14 +8227,14 @@
       </c>
     </row>
     <row r="298" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A298" s="6" t="s">
-        <v>463</v>
+      <c r="A298" s="1" t="s">
+        <v>132</v>
       </c>
       <c r="B298" s="6" t="s">
         <v>134</v>
       </c>
-      <c r="C298" s="6" t="s">
-        <v>464</v>
+      <c r="C298" s="11" t="s">
+        <v>29</v>
       </c>
       <c r="D298" t="s">
         <v>133</v>
@@ -8252,26 +8243,6 @@
         <v>148</v>
       </c>
       <c r="H298" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="299" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A299" s="1" t="s">
-        <v>132</v>
-      </c>
-      <c r="B299" s="6" t="s">
-        <v>134</v>
-      </c>
-      <c r="C299" s="11" t="s">
-        <v>29</v>
-      </c>
-      <c r="D299" t="s">
-        <v>133</v>
-      </c>
-      <c r="E299" t="s">
-        <v>148</v>
-      </c>
-      <c r="H299" t="s">
         <v>151</v>
       </c>
     </row>
